--- a/static/data/data.xlsx
+++ b/static/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\thomasmrt.github.io\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03304F24-56BE-41B2-B6EB-854569DC122E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FEF9D2-1061-4487-85D5-E883E230006F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="331">
   <si>
     <t>section_start</t>
   </si>
@@ -1010,6 +1010,12 @@
   </si>
   <si>
     <t>Col de Corbiere - Villard-Reymond - Plateau du Taillefer</t>
+  </si>
+  <si>
+    <t>Tour du Taillefer</t>
+  </si>
+  <si>
+    <t>Massifs des Ecrins</t>
   </si>
 </sst>
 </file>
@@ -1210,13 +1216,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2592,10 +2598,10 @@
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -8039,10 +8045,10 @@
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -15327,7 +15333,7 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -15344,10 +15350,10 @@
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -15376,12 +15382,14 @@
         <v>326</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -15557,7 +15565,7 @@
       <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="10" t="s">

--- a/static/data/data.xlsx
+++ b/static/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\thomasmrt.github.io\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FEF9D2-1061-4487-85D5-E883E230006F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B13DED0-B6EF-4586-BDC7-BF917C9E9EC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="332">
   <si>
     <t>section_start</t>
   </si>
@@ -1000,9 +1000,6 @@
     <t>https://lh3.googleusercontent.com/kwZQ7imhGC3ILy5CTHreLLlRJvl8L8CcAn0JM_YWyncsz1gKQs5X6bihmJjZfYHhXNg_H6Hcf6xEv1XQATJKvkBeRDzlUWJOFMRgatgbPWO40lQUpm4pB4EqzjP-BuvDQooNKJ5uD2AipnV7B6eLn4YKeWOGq-RYI0amUdy0vHdu-kOkCMhX_0QB9QORo31WZds05kxUSVgkorZ8KqOJ_12KjwHwJr0nVXh8aALLpxs-4I9GDt98Wt40ycbkXmHxH41U6VtIEGvQ97n6vpOm80gFUlnw0kocIo6mvn8zqwF_8yg3rAJcjTkUpNH_Yh4oiuSufbY2ws4ln-8VWlnYGTpitj5DvTVC3A_zXVVJBSOi6CmNcBZdKkb-wmUOL7gffSN8ipa5YafxfKE3YRotgr7QF1ou_Rg7Q6Hbt_TMp9sTRv0waWWV62FhKLIcjDTDCvdrYSwUMTt8BWxKnqLmqE7V4ak2Dn1ndHBxYP6-yI3tusyMzRRvrwakErZYk00a30eZrhiuNiC_8tmhnA28R5AvWZwr6Y7BHnE92wqb3O0t80QgSXiPhsUJPpE9XHXFktGcbISOmNMKflUr17JRsZLz0TsQFzjATftTiWkvuaRTsByxVooVQcKrrer3bVRDzbXFRu5QOxll0sSD0IiExMRnSQ=w415-h311-no</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/BNE0hcz_g-jH5UKj1-kEMc1gqwhjyc13y3vYBcZDo0ymBggBRrfGfLlzMBXiNqpiO8Kj70O80p9L9GeqGnY9_8rIa1ymGNGbKdczULRmRIj8N6fZUQANEzo79Fk7PClvIpf_X7qDgFFAaZ-QCWEQDAyn-I3q8r0-mOej6PsNtHenYt-vPmoqZSyPVOHN8jTb3ZXnzf5eO108skaOnykJJaUklivMM-HzEkg8BdD-T06p_Q2pOmfHXIYi29o2NLuxWz_TL47SI8Uh4YA3xU1W63fwgxcTsV6EUigdzFrIDFUKOS2mhDMf4-SnIxUY4uOCuxZwIAXC7XXbtLtVMucV76HI4Py_5uEMK9uCiXmaF9UL3MDstwzc6K-4eh77NkRSGrU4sd-vpQbs5k9XJB64TfboN4sDwQjKV10HWxxIhy251vl_GryFXBfaGBhgg4gZGUPvVc7FVQ3HN_-vNpkKDlNggsmDEpEg44iX4JK3WA1auX-zAPOJ5cIPUTjMrvFRDCqMkjCvJGa4vOuGSxEz7udoBKycC6nr1SrVXurb2SVlHRQyxVq8REYS9BQgjmczX6dYRH8Zi6QLR0j7rsm30D-_mj-EYsITU-dLmSK5K6lA8CZREjvyr8Ap3W-TqvfXrL-3coOBHKOgJ4L1Y4KJjEwlSQ=w477-h358-no</t>
-  </si>
-  <si>
     <t>main_info</t>
   </si>
   <si>
@@ -1016,6 +1013,12 @@
   </si>
   <si>
     <t>Massifs des Ecrins</t>
+  </si>
+  <si>
+    <t>Ocotbre 2018</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/Jn7gVpIGurO8bNSSP0yGYT39eAYIYVHug1kB99aOkxTnlapZVCQoD_3dRcRkcjE34nwFwktlwAjl8xuQWEdcRgEcUzFQJ1RvfEyMV0XLhJXngo_0Ww2s2WKJrFTxhhjZ4NEkklsqp2NiLneVaK2WQv-zx6y7GH1fyXcF1tnUdSBrlGsCkFxTVwghdxrNZ0i9KZzlxZQGHvZr_BALZAzxBJ6JeTyh09V0ieo62WxIohTal4dh91kqhrnnFY-h1ZPkeVXkgrXxVGlA85PWNwQvWn8aJZjRrljIvAbHNXvg4Pdbw1GPasTu_klRl8_5_oh-5OLNL-_aoIzEuCz61OivbJUOCOaRgzTqifcEI73OuAB3Gkqz1lscBXpU8U6Kq5MM_8NC5yVQgMD-xd5EnRcO1kBUnSJ23aTRupq4POzRrVnfpoFx4RABpXyNsrxtEcTfeqSpzy-0EhBxwQzm7Wok_3AcsmS8YWQ-fwE7Iykav8DWZ0fSEDLTkNNb3k0KRplcn_-TGa59HhcXoZgMwlkDJ0NuZrZCWrIehOM9oROdxTRhdVzHgjugoIXUW5qZOtU-W3fG9683_kxpq_h-Vv3B7SlL9RcG8MeZse1e7Qe0K5lKWGtUpzKfJ2Qu9NZtMxXdQRYYmKEnaMKDfGczqTQJuxATCw=w1259-h944-no</t>
   </si>
 </sst>
 </file>
@@ -15333,7 +15336,7 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -15341,7 +15344,7 @@
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="120.42578125" customWidth="1"/>
     <col min="3" max="3" width="45.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -15379,18 +15382,20 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
         <v>329</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -15569,7 +15574,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -16102,7 +16107,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>

--- a/static/data/data.xlsx
+++ b/static/data/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\thomasmrt.github.io\static\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safco103866\Desktop\Tools\site\thomasmrt.github.io\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B13DED0-B6EF-4586-BDC7-BF917C9E9EC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -18,12 +17,12 @@
     <sheet name="Queyras" sheetId="3" r:id="rId3"/>
     <sheet name="Taillefer" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="337">
   <si>
     <t>section_start</t>
   </si>
@@ -592,33 +591,18 @@
     <t>On se réveille  assez tôt (vers 6h) pour démonter la tente. Au passage on se rend compte qu'on a surement choisi le pire emplacement pour poser la tente. Forcément dans la nuit noire c'est pas facile. On repli la tente. On finalise nos sacs. On reprends la voiture pour aller la garer dans le village de Ceillac. On trouveras une place sur le parking du Proxi. On passe à la boulangerie pour acheter du pain et des viennoiseries. C'est bon on a tout, on peut partir.</t>
   </si>
   <si>
-    <t>jour1_ceillac.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pas le temps de se mettre en jambe, ca monte direct. Après une heure de marche on fait une pause pour prendre notre petit-déjeuner. Ce début d'étape est rude, ça monte pendant un bon bout de temps. Antoine à quelque difficulté à trouver le rythme (ou c'est moi qui marche trop je sais pas). Après un peu plus de deux heures d'effort on atteint le col des Estronques.  On pose les sac pour monter jusqu'au sommet de la Tête de Jacquette qui offre une jolie vue panoramique à 360 degrés. Au somment on trouve beacoup de kairn et d'abri en ruine. </t>
   </si>
   <si>
     <t>jour1_kairns.jpg</t>
   </si>
   <si>
-    <t>jour1_abri.jpg</t>
-  </si>
-  <si>
-    <t>jour1_kairn.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">On reprends nos sac et commence la descente vers Saint Véran. On aperçoit une marmotte pas très loin du sentier.  On croise un petit groupe de randonneur qui fait le tour dans l'autre sens. Il sont partis de L'Echalp trois jours plus tôt. On discute rapidemment et ils nous informe que le tour du Viso est impraticable à cause de la neige. Il va falloir qu'on change notre parcours. La descente contine, abrupte dans une forêts de pins. Il faut ensuite remonter un petit peu pour atteindre Saint Véran. On avait prévue de se ravitailler ici mais les supérettes sont fermer le temps de midi (jusqu'à 15h30). Changement de programme on mange dans un petit restaurant en terrasse. </t>
   </si>
   <si>
-    <t>jour1_saintveran.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">On repart donc sans avoir pu acheter de quoi manger pour les prochains jours. C'est dommage car il n'y a plus rien après pour le faire. On commence par redescendre doucement vers le torrent en contrebas. Dans les prairies aux environ on aperçoit plein de marmottes. On traverse le torrent puis on commence à remonter le long de celui-ci. On marche à l'abri des pins et heureusement car le soleil tape bien. Une petite montée un peu plus raide nous mène jusqu'à la Chapelle du Clausis. On décide de bivouaquer juste à côté et de ne pas aller jusqu'au refuge de la Blanche qui se trouve un peu plus loin. Après s'être installé et avoir observé les marmottes qui sont légions par ici, on va se balader jusqu'au lac de la Blanche. </t>
   </si>
   <si>
-    <t>jour1_tente.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">En ce moment c'est la coupe du monde de football et l'équipe de France a joué aujourd'hui. Mais malheureusement il n'y a pas beaucoup de raison dans les environs. On cherche un endroit pour capter et s'informer du score. </t>
   </si>
   <si>
@@ -640,45 +624,21 @@
     <t>La nuit à 2400m d'altitude a été très froide. On se réveille difficilement vers 7h15. Un petite heure pour prendre notre petit déjeuner et de ranger la tente (bien mouillée par la rosée) et nous voila repartis pour cette deuxième journée de marche. On commence par redscendre légèrement pour retrouver le tracé du GR. On fait le plein d'eau dans le torrent. Puis ça remonte de suite vers le col de Chamoussière. Dans la montée on voit encore beaucoup de marmottes.</t>
   </si>
   <si>
-    <t>jour2_marmotte1.jpg</t>
-  </si>
-  <si>
-    <t>jour2_marmotte2.jpg</t>
-  </si>
-  <si>
-    <t>jour2_marmotte3.jpg</t>
-  </si>
-  <si>
     <t>Vers la fin de la montée la neige fait son apparation. Je prends un peu d'avance. Quand j'arrive au col, je me retourne et vois Antoine en train de me faire des grands signes. Il me montre une crête et semble observé quelque chose mais de mon poiint de vue je ne vois rien. Je redescends donc à sa hauteur (sans sac) et je peux enfin voir ce qu'il me montrait. Des bouquetins ! ils sont assez loin et pas facile de les dicerner à l'oeil. Coup de chance un couple de randonneurs avec une paire de jumelles est avec nous à ce moment là.  Malheuresement les appareils photos de nos smartphone ne nous permttre pas d'immortaliser cette rencontre.</t>
   </si>
   <si>
-    <t>jour2_bouquetin.jpg</t>
-  </si>
-  <si>
     <t>Une fois de retour au col de Chamoussière on découvre l'autre versant qui est très enneigé. La descente vers le refuge Agnel (qu'on aperçoit en contrebas)  s'annonce sportive.</t>
   </si>
   <si>
-    <t>jour2_neige.jpg</t>
-  </si>
-  <si>
     <t>La descente est effectivement difficile avec alternance entre névés et pierriers. On arrive au refuge Agnel un peu avant midi. Comme on a pas pu se ravitailler hier on prensd notre repas du midi au refuge. Un repas bien  montagnard, une croute jambon fromage et oeuf. On se fait plaisir avec un petit dessert. Pendant le repas on discute de la suite du parcours. Notamment de la possibilité de monter au Pain de Sucre, un pic à 3200m qui se trouve sur le chemin. Vu les conditions d'enneigement et les nuages on est pas surs de pouvoir monter.</t>
   </si>
   <si>
-    <t>jour2_colvieux.jpg</t>
-  </si>
-  <si>
     <t>La montée vers le col Vieux est une véritable autoroute à randonneurs. La pluplart viennent à la journée à partir du refuge Agnel. Arrivés au col, on voit des gens en haut du Pain de Sucre. C'est donc possible de monter. Mais on hésite quand même car il y a de gros nuages de l'autre côté. Finalement on pose nos sacs et on commnce à monter. Mais après quelque minutes les nuages commencent à déborder et on renonce à aller plus loin.</t>
   </si>
   <si>
-    <t>jour2_paindesucre.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">La descente vers le lac Foréant est très enneigée mais  beaucoup plus simple que le descente du col de Chamoussière. Le reste de l'étape est en descente. En ce début d'après-midi le soleil tape fort. On cherche l'ombre pour les pauses (surtout moi). On descends à un bon rythme mais la descente nous parait interminable. Une fois dans la vallée , il ne nous reste plus qu'à longer le torrent pour atteindre notre destination. A La Monta on voit un panneau camping sur un chemin sans pour autant l'apercevoir. Je fais un aller retour rapide pour vérifier. Le camping se trouve effectivemtn au bout de se chemin à quelque centaines de mètres. Le camping est petit mais il y a l'essentiel, des douches et des prises pour recharger montres et téléphones. Il y a aussi possibilité de réserver du pain qui est livré le lendemain matin au camping.  Et en plus il ya des biquettes en semi-liberté qui se baladent entre les campeurs. </t>
   </si>
   <si>
-    <t>jour2_biquette.jpg</t>
-  </si>
-  <si>
     <t>Ce soir on a corrrigé l'erreur de la veille et le lyophylisé est beaucoup mieux dosé. On allume un petit feu de bois pour se faire un thé.</t>
   </si>
   <si>
@@ -700,21 +660,12 @@
     <t>On revient un peu sur nos pas pour retrouver le tracé du GR par la variante des crètes. La montée est assez raide dès le début. On passe non loin d'un troupeau avec son berger et son patou. La pente s'adoucit pendant un moment sous une forêt de pins. On se fait doubler par un papy qui fait le tour du Queyras en solitaire. On le recroisera régulièrement par la suite. Nous l'appelerons Jean-Pierre. La pente se durcit au moment d'atteindre la crète. On fait une première pause.</t>
   </si>
   <si>
-    <t>jour3_kairn.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">On continue sur la crète. La vue est superbe. Dommage que le temps soit un peu couvert. Comme l'étape d'aujourd'hui est assez courte on se permet une longue pause avant de redescendre. C'est l'occasion de tester la fonction hyperlapse sur le stabilisateur d'Antoine. On se pose donc pendant 30 bonnes minutes. On voit passer pas mal de groupes de radonneurs. </t>
   </si>
   <si>
-    <t>jour3_crete.jpg</t>
-  </si>
-  <si>
     <t>On commence à redescendre vers midi. On a pas encore pu se ravitailler donc on ne peut pas manger la-haut. La descente est assez douce et très agréable. La forêt que l'on traverse est très fleurie. La descente se fait par paliers, on descends bien puis c'est plat et ainsi de suite. On arrive à Abries vers 14h30.  On aurait voulu acheter de quoi manger mais les supérettes du village n'ouvre qu'à 16h. On va donc au camping pour installer la tente puis on se pose pour boire un verre à la terrasse d'un bar.</t>
   </si>
   <si>
-    <t>On fait donc des course pour 2/3 jours (saucisson, fromage, cacahuètes, chocolat, …). Puis on va faire une sieste au camping, à l'ombre cqr qujourd'hui encore le soleil brille de milles feux. Point de lyophilisé ce soir, on prfite d'être dans un grand village pour manger au restaurant. Il faut bien se faire plaisir et de toute manière on a pas assez de lyophilisé pour tous les jours.</t>
-  </si>
-  <si>
     <t>939 / -1643</t>
   </si>
   <si>
@@ -733,33 +684,18 @@
     <t>Ce matin on se lève vers 6h30. Pendant qu'on prends notre petit déjeuner , on aperçoit Jean-Pierre qui attaque  déja l'étape. On  achète du pain et nous voila partis. Petite erreur d'éguillage au départ dans le village qui nous fait perdre une dizaine de minutes.  De reout sur le tracé vers 8h. Le début de l'étape est en montée douce. Après une petite heure on passe à côté de chalets qui sont entraind'être rénovés. On se demande bien comment ils ont fait pour amener le matériel jusque là.</t>
   </si>
   <si>
-    <t>jour4_chalet.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">La montée continue tranquilement un bon moment en longeant un torrent. C'est même plat par endroit. On se dit d'ailleurs que cela aurait été pas mal pour bivouaquer.  </t>
   </si>
   <si>
-    <t>jour4_bivouac.jpg</t>
-  </si>
-  <si>
     <t>A l'approche du lac, après la bergerie, la pente se durcit. On double un couple de hollandais qui radonne dans la région pour quelques jours. Après de nombreux lacets on arrive au lac Laus. On y fait une longue pause déjeuner. Il y a pas mal de monde. Juste avant de repartir on aperçoit des bouquetins. Et on a pu les prendre en photos cette fois. C'est dans ce genre de moment que tu te dis que le smartphone c'est bien mais un appareil avec un zoom optique ça aurait claquer des pures photos.</t>
   </si>
   <si>
-    <t>jour4_bouquetins.jpg</t>
-  </si>
-  <si>
     <t>On continue la montée par la crête jusqu'au pic du Malrif. On nous a conseillé de passer par là plutôt que par le col qui est encore enneigé. On profite encore longuement de la vue magnifique.</t>
   </si>
   <si>
-    <t>jour4_malrif.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Le début de la descente est assez abrupte dans un pierrier humide. Puis la pente devient plus douce une fois qu'on atteint les alpages. On descends tranquillement car la fin de l'étape n'est plus très loin. On est assez surpris d'ailleurs car le topoguide indiquait 7h30. On mettra à peine 5h30 sans avoir l'impression de marcher vraiment vite. On recroise le couple qui était monté au Pain de Sucre. Apparemment la vue côté français était bien dégagé mais pas côté italien. Du coup pas trop de regrets de ne pas être monter. </t>
   </si>
   <si>
-    <t>jour4_mouton.jpg</t>
-  </si>
-  <si>
     <t>Sur le versant d'en face un gros troupeau de mouton redescends dans la vallée. L'efficacité des chiens pour guider le troupeau est impressionnante. Une fois en bas, on se pose à la terrasse du refuge pour boire quelques bières.  On envisage de bivouaquer près du refuge mais un panneau "Bivouac Interdit" (qu'on a pas vu en arrivant) nous oblige à revoir nos plans. Pas grave on continue un sur le sentier pour trouver un endroit ou planter la tente. Ca fera toujours ça de moins à marcher demain. Après quelques minute à longer le torrent on trouve un emplacement relativement plat pour la tente.</t>
   </si>
   <si>
@@ -781,27 +717,15 @@
     <t>La nuit a été froide et humide. On y pensera à deux fois avant de se mettre à côté d'un torrent la prochaine fois. Pendant qu'on déjeune Jean-pierre part déjà marcher. On remballe et on lui emballe le pas.  On continue à descendre un peu. Puis on bifurque à gauche et ça commence à monter fort. Sur un arbre il y a un balisage pour les championnant de France de trail, on est au kilomètre 40. Antoine ne semble pas dans son assiette, la montée est compliqué. Je le soulage un peu en prenant la tente dans mon sac.  On se fait doubler par deux traileur qui s'occupe du balissage aperçu plus tôt. On s'arrête quelques temps au lac des Cordes. On a une belle vue sur le massif des Ecrins.</t>
   </si>
   <si>
-    <t>jour5_ecrins.jpg</t>
-  </si>
-  <si>
     <t>On monte encore un peu pour atteindre un deuxième (plus petit) lac. Puis encore un peu pour aller jusqu'au col de Peas. En montant un peu au niveau du col on a vue sur les deux lac, c'est plutôt sympa.</t>
   </si>
   <si>
-    <t>jour5_lacs.jpg</t>
-  </si>
-  <si>
     <t>Ca ne va toujours pas mieux pour Antoine, même dans la descente. La journée va être longue pour lui. On redescends donc pour retrouver le GR (on était sur la variante). Forcélent ensuite on doit remonter. Et ça monte bien, en plein soleil dans la caillasse. C'est dur mais on arrive jusqu'au col de Souliers. On descends légèrement et on longuement s'arrête pour manger. La vue est incroyable.</t>
   </si>
   <si>
-    <t>jour5_vue.jpg</t>
-  </si>
-  <si>
     <t>Le reste de l'étape est en descente, d'abord tout en douceur dans les alpages. Puis on rentre dans la forêt. La chaleur est suffocante.  Juste avant d'arriver on plonge à pics vers Souliers. Dans le village on discute avec une dame qui nous apprends qu'il a plut toute la semaine dernière. On a vraiment de la chance avec la météo.</t>
   </si>
   <si>
-    <t>jour5_village.jpg</t>
-  </si>
-  <si>
     <t>On s'installe dans le refuge de Souliers. Ils ont aménager une petite terrasse en herbe pour les tentes. Aujourd'hui l'équipe de France dispute son huitième de finale contre l'Argentine à 16h. On cherche un moyen de regarder le match. Bonne nouvelle il y a du réseau. On commence à le regarder sur nos téléphone. Puis on se regroupe autour d'une tablette dans le refuge avec d'autre randonneurs. Le match est fou! Bonne ambiance dans le refuge. Après le match on profite d'être dans un refuge pour prendre une bonne douche. Ce soir on prendra notre repas au refuge.</t>
   </si>
   <si>
@@ -820,30 +744,15 @@
     <t xml:space="preserve">On profite encore du confort du refuge pour prendre notre petit-déjeuner. Départ tranquille vers 8h30. On commence par une montée tranquille sur un grand sentier. Puis ca commence a bien monter. On arrive rapidement au col du Tronchet ou on rejoint Jean-Pierre et le rugbyman mais ils repartent vite. En montant sur la gauche on a une belle vue sur toute la vallée. </t>
   </si>
   <si>
-    <t>jour6_vallee.jpg</t>
-  </si>
-  <si>
     <t>On rattrape Jean-Pierre et le rugbyman dans la descente. On continue avec ce petit groupe. Je tire la locomotive dans une montée tranquille (quelques passages bien raides tout de meme) dans la foret. Heureusement qu’on est a l’ombre car aujourd’hui encore il fait tres chaud. Un peu avant midi on s’arrete pour casser la croute a cote d’un torrent. Comme a son habitude Jean-Pierre repart au bout de 15 minutes. On prends un peu  plus notre temps. Ca monte un peu plus fort mais l’ombre.</t>
   </si>
   <si>
-    <t>jour6_foret.jpg</t>
-  </si>
-  <si>
-    <t>jour6_eau.jpg</t>
-  </si>
-  <si>
     <t>La fin de la montée jusau’au col de Furfande est bien raide et en plein soleil (sinon c’est pas marrant). Le rugbyman part devant. Il est y a un chemin qui permet d’acceder au col en voiture. Du coup il y a pas mal de voiture en haut. Etant donné qu’il est encore tot et que le refuge est juste en dessous. On passe un peu de temps au col et alentour. La vue est a coupé le souffle.</t>
   </si>
   <si>
-    <t>jour6_pose.jpg</t>
-  </si>
-  <si>
     <t>On prends une petite biere et une part de tarte maison en terrasse. On est arrivée assez tot , on peut  profiter longuement du paysage. On bivouac juste a coté du refuge.</t>
   </si>
   <si>
-    <t>jour6_tarte.jpg</t>
-  </si>
-  <si>
     <t>1427 / -1002</t>
   </si>
   <si>
@@ -865,27 +774,15 @@
     <t>On fait une pause en bas avant d'affronter la montée. C'est simple on va devoir remonter ce qu'on vient juste de descendre. On commence à monter en compagnie d'Eric et Jean-Pierre  mais on se fait vite lacher. Ils sont moins chargés que nous et ils grimpent vraiment vite. Ca monte très raide. On arrive rapidemment à Bramousse (vers 10h). Ca continue de bien monter. La chaleur écrasante n'aide pas. Les passages au soleil sont vraiment éprouvants.</t>
   </si>
   <si>
-    <t>jour7_pont.jpg</t>
-  </si>
-  <si>
-    <t>jour7_village.jpg</t>
-  </si>
-  <si>
     <t>Dans la montée, un randonneur nous conseille un détour par le col Fromage avant de descendre sur Ceillac.  Il y a un beau point de vue et la descente est plus agréable que par le GR.  Mais bien sur ça fait un petit détour. On arrive au col de Bramousse sur les coups de midi. Comme à notre habitude on prends une bonne pause déjeuner en profitant de la vue</t>
   </si>
   <si>
-    <t>jour7_col.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Après le repas on se rends compte que nos réserve d'eau sont au plus bas. On redescends jusqu'au torrent le plus proche pour faire le plein. La chaleur et la fatigue ont raison de notre motivation et on décide de descendre directement vers Ceillac sans passer par le col Fromage. La descente est assez roulante. On est bientot de retour à notre point de départ. </t>
   </si>
   <si>
     <t>On recroise Eric dans Ceillac. Il enchaine sur une radonnée dans l'Ubaye et à besoin de retirer de l'argent. Mais malheureusement le distributeur de la Poste de Ceillac est à court. Antoine propose de l'emmener jusqu'à Guillestre. A leur retour on prends une bière bien méritée. Ensuite on récupère la voiture et on va s'installer au camping municipal qui est désormais ouvert. On fait une petite sieste. Le soir, on va manger une bonne grosse pizza. On regarde le match Belgique-Japon en compagnie de belges. C'était marrant vu le scénario improbable du match.</t>
   </si>
   <si>
-    <t>jour7_pizzas.jpg</t>
-  </si>
-  <si>
     <t>Descente rapide vers Ceillac.</t>
   </si>
   <si>
@@ -907,24 +804,12 @@
     <t>Quad on arrive au lac Miroir il y a déjà pas mal de monde. On préfère ne pas s'arreter. Il y a deux itinéraire pour accéder au lac Sainte Anne; On choisit de suivre le GR. Pas forcément la meilleure idée. La tracé passe le long d'une piste de ski c'est assez moche. Quand on arrive au lac il y a déjà un petit groupe. Je m'éloigne un peu pour prendre des photos et finis par fairele tour du lac. La couleur de l'eauest incroyable, surtout quand le soleil éclaire la surface.</t>
   </si>
   <si>
-    <t>jour8_lac.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">On reste manger sur place. Il y a pas mal de monde. Ca change des jours précédent ou on pouvait apprécier le paysage dans le calme. Pour redescendre on change d'itinéraire. C'est un peu mieux qu'à l'aller meme si on est obligé de passer près de la piste de ski. </t>
   </si>
   <si>
-    <t>jour8_vue.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dans la descente on sent quelques gouttes. A la fin de la descente on fait un détour pour aller voir la cascade de la Pisse (oui c'est le vrai nom). Et on a bien fait. La cascade fait 280m de haut, c'est vraiment impressionnant. </t>
   </si>
   <si>
-    <t>jour8_cascade1.jpg</t>
-  </si>
-  <si>
-    <t>jour8_cascade2.jpg</t>
-  </si>
-  <si>
     <t>1352 / -1354</t>
   </si>
   <si>
@@ -1019,13 +904,142 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/Jn7gVpIGurO8bNSSP0yGYT39eAYIYVHug1kB99aOkxTnlapZVCQoD_3dRcRkcjE34nwFwktlwAjl8xuQWEdcRgEcUzFQJ1RvfEyMV0XLhJXngo_0Ww2s2WKJrFTxhhjZ4NEkklsqp2NiLneVaK2WQv-zx6y7GH1fyXcF1tnUdSBrlGsCkFxTVwghdxrNZ0i9KZzlxZQGHvZr_BALZAzxBJ6JeTyh09V0ieo62WxIohTal4dh91kqhrnnFY-h1ZPkeVXkgrXxVGlA85PWNwQvWn8aJZjRrljIvAbHNXvg4Pdbw1GPasTu_klRl8_5_oh-5OLNL-_aoIzEuCz61OivbJUOCOaRgzTqifcEI73OuAB3Gkqz1lscBXpU8U6Kq5MM_8NC5yVQgMD-xd5EnRcO1kBUnSJ23aTRupq4POzRrVnfpoFx4RABpXyNsrxtEcTfeqSpzy-0EhBxwQzm7Wok_3AcsmS8YWQ-fwE7Iykav8DWZ0fSEDLTkNNb3k0KRplcn_-TGa59HhcXoZgMwlkDJ0NuZrZCWrIehOM9oROdxTRhdVzHgjugoIXUW5qZOtU-W3fG9683_kxpq_h-Vv3B7SlL9RcG8MeZse1e7Qe0K5lKWGtUpzKfJ2Qu9NZtMxXdQRYYmKEnaMKDfGczqTQJuxATCw=w1259-h944-no</t>
+  </si>
+  <si>
+    <t>Alpes</t>
+  </si>
+  <si>
+    <t>Juillet 2018</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/K7W0xRyXxzRqnWYyBpJs-2hiL_rcCamTCDd1EHbJQujkDnO7JbvRCtuO1SJuLLTzdkKx2rsCRLkwdPFYmemSQ6bYcSzIiMIfRdW2vpeR4dpJvLyEsLphhMRhzLwfyf5rUEmdvTA0cIpx7Yxt_vgNYQ2jMyHUrIStbna2H_nhlbEBEfwXN0eJBbY5-3oISSzMOBdyqnilTRy9X-mkT9V7qyORNma27KBhFuHrwaXff9vjKBOYOIpkoM4R8rU3ydP-ec9qgIb80BTBm45NNbiFt00ju_UYXynefUkwDBMQQQdSXGbp5rebEBlp3dxZkYJH3f8i1OJF5Zya8TTSnnD4DrphYawj8yNypuamuWdZN42A8p3u02Vag9xWI-f7W2517s4EOLhiBo3s-EKf2VS6JHJzfKjUjpMkZ43xb4GenGryHODCeWTSGHbkYVTG_SFMpw0MNU2G8SGyubKLkoou_NS8L4a1inGDp70HneQoWa1-rNC0LKBtHnR41sloZ-_Vr_Uvh6rtyYoIpQ2F7VDGk5n9tks-YUlupiCMvCQKxYgu_tsKSc1QzpgXRmgcRlfbyF0FH_39Q_OY7Go51EycmSoyzToRyEFBDjWisx_uRSTCNcYT7MwlV519RdeeTcOvyLzfCLtts-tgz2xSKR-y-lrENTRzXlHq7O0DSlnMF-sQQhXxc8HRNWWN8KkshnBnkjH-6qfVsyEY4CWrUK8=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/Shge2ynsTcrv8fE2RtM2GLYRVT92_I8NW42ub3THtWN1GjSHkWx6d5lOwNummdn314yaNZg1DuhvHNcLdPQJDJ53kTOnTBbSi7n2uO5gaBw1KrPxghVFL4V6RQnbeffX0XtJQrScczDOjREIP-qsTPY9sS3i1iZAPcGe_-muc-TMetSfaFdyu6hB1nhXoa891Sw2QJuW7LhWA-fc7tV3EbuwhHB7G8cdiABw5PdjbhmiGx8g-Rvh0ynF25Tpz-pPMSWJpVkKYTRtNT3-BJ9P-Jz3A4DMger2YYJvSdtsDtT_enlQKqVRe87UQg4dllNqmjExKNAKTlg0-pCJAQeSBMKRfvEfYJkV8UKeSHR5HLeHaupSsuBOWoYMHb36xCmtdRSPxEkbl0wdwU12s1un0o7c_Wpqifup14ZXfrxhDcMfeTsL7JDSeLxf9YGrnU03banUA8GRckNgnLp839HIxCmx_BWYwWaYDVUaBZEGAtcWFdRMuMep3HHWeSTAIfH5QnsjM7ZBBNIW7m4dHqhbZGxYaRTwFz4M6dVGnDbmJb7RfwF73gGd3EeiBB0uONT2B29iiN1w0KWZKw9u_dV-FqfksV0S_Pss2Vl9-yrTH-bPdmZQq4KpqZCuVPB2GFoVvjyno4nyFgqDK0j5EaEAk6mlT-zlh0WwmpiVYtw5fmL9Ou-3s40onSuhP-UFwftVnK6MZIJELkbSN-bPljw=w702-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/17Jsn7_8p_t89vAWfB1qf1SKXhAnCG0EqCm2zJja5oqiNaUOT_ZGl13f8n0y7Ct9ovDvt9-1pA91VfS5ivPmt6yZhgPyQr3hYolcotfn-EU9krctO1UT3RStIiPGf6K1CjJMYgM6AqFAxJvpkIETXvlHrjXOzDbqLbJY7AT_t9N6Yo2c80lYaJtkom1gxPt9J3rc3KzxJj8GKb8utGXOVpE7oTLUD6560fgDzkMMZrdPbL0IfKMqexxGItgVuVAi_6uD_stehNrcIijzDwyj9e0HWgt1y-Jj3aSSbxxC2pZLGQ4U76bNwspYexxzg4lIaDgLl9RdORcVS9qoHQYrPV-Mzuf4SpSl0omPkxMS_dlqlzCi1HwoOPVj9-LlJHwjVHuZA_wJ8vjxZYfKQ6ohqapavaNl4afT44uBngJ2kAKjjKmkRdHnV6oGmpGN7_ko4LpPMQjKLHLkXp12n9aVBw0G19AhXAvGUdGgK7f0N5X2x6IR0lYXDZINq-U8CjsUG-EaupGJLXvsN_Mp05VABCSoplY7i9xCXc06zABrxYyLbP3nf9AsqOiHmkRo5PgPiMTU69XohLEUQkHP4h-1CrYNXoaULQJTbB_txzGglAl2J5nnYaKa4pyyQM_4D4vi2SdSogTdpBCA8hAdFeYeWvfCEKR7fdWMLpDYhTbLP6d2z5PDGXczrnTgxd1h_3DVP7FVa4vziPQk7ln6kU0=w702-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/ky20UF5YTYrPsUgcs6ZAG4HO3mf9ed5t5X9H6rYK9ICcnY_1mC1e4kR2-gJzkztAzIOGW9G-ow9vc6rkpGXPh1B3VLdAI5M59utvj8TNB4ZbYJ4XQEwsy3NblOTimfnxDdqlrd3Ay7UoG8NBx5uRA2V_jgYoI36eT0jcn9xzUKcyuts16fEfgAK7DfM7WMdcts3oWTOCIbXwziCUg2c1vCdR7p7pXdY6bWXuGgeoJNCHSSpbU3xLGWY4V3Rh7_qbZck8uYI1HOX5ZrsYmx4vt5VrHqsIcub2vghgVhYlGjzehJ_Cy0asAtcMAUtF9oMk3W0o0rc9cP6FKz9Bxj6bXBhQCR1DMUMJ7Fv6mtPhYzdcwUDow6quRL0CqbeDdgY_qy9Nb5algJPLrgvQT76f1VDfZGssJrE7fcZz9T9Ppay8WmJ760G01sLRYGxtIcXJLHC73KYrWzm9DuPg5xlsHpXiH98ujyMEnfdd72Y8cOAwTdLKVB4pAoS0DEOJelWisxXUxyK5fzAT93Hu7jzCUITdIpTLXfpfXkpz1Mbuqe0TkUL-nXqTady063TixJtFq6hGhhhAEzs3WIoj0i0deEun7T5ElECIexx9LKk1af9g6qUCkMdwgtTRe3tZzEpnk8hC_08jEBWfoh4rcDW6W6_yyFu7DF2TQsvoUEp75m44qHvxbwJ2Mzs6J02xs_2u_Gp0ZmDj-XeKf71k9Fo=w709-h347-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/WRrvEPmFCgWXH1SfQ7wRPlYUdLJGzTGwaSEJghsoFkP0Y2s0phZtrNTzWB9752Jz7EAiRdqrnsMI56jk7-yWpMPAOHHLUMY20agqbcbb1N1hOUbuvUdwUPKTCpBMUHgnaTyWYPIpZSwWt5lD0jZr5VnZk97hkwim_lNbyIbI5cYSUzoIiJUXhsMjf37zYtNQ1pzsFkWB9U5nxnEuYbQ6t7z0UfSsQfR57VFIBnoBnck-tvTf3gmUe7BU4Qsq1PtSgNsokZel8NIx4KcawUS3gCg58Hj6E3525KlgdZghsjvg_xJv3Byd11Ma2ZRG9RjdslvOnCPC66wojazaVEnJhS4S391-6uB1N4F1HnQuP733gVXGFhcoXhekxqw7IgytM_sxO7cKjE7ljDqXGLwBTmH2lBNdvXmBXPUjXHda_-ku0btQAO2IEzvhx8aZltPRcSmNYgpWtOb2fsmPqjf24hrUSxFcqQSg0gx8tZe4eivRauEM5L6Z5C_yrnsChm6LiGjlxClRRJtlwazr_fMVW_j7q9DSDBIK6_ePsV3jfO_Dr-i9l3dtbn4d5dXMqJIVxmI4E36wlaj31GH6crCMyxeh6pbC14ScakpJpRXyAUWZ8yoWRs5sj06ZiYKfnYbbYDV8k4tKkICaxB_fFEWX5BngdaJlzGk1PvbTEuBcONbCthSDrxz7mnLvvbEZFJN0nIGw_NonJzcVsaWA7Ok=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/QWSppu_Rz42vywl70AAgKB_rLkPZmp8lVogpeQ_N3bplYwQKtihpVHpkiFRpbAKv25JID3y3ASKtVjGdslhZU-1hI2LYVEL-GUiAOtMuDW6OQ8lrlCOEyhz8yzxlqMMn-Qjzsl0cZ_lg5kXGFCgYRFwjBlmg4XgMNrZOaNDLLyPaTaY00YIc9JjjALCrybCUfd2RxvU2WVKlXTGzlkWNk_Ob5RqQ3cMRLXy2xLYOJOYPmpu-0fewT99IwKEyjt3E7jHbQi_FrSC0hHRm54r_8dxXw9OUEI9YTX6pFXaRQ4hJt-ueJzh3eKmWfaUk1k5AkjN4hiWABK63FgDWgIkZZgAsm26QLfIw0ytSN_Oa_wHKsMap47T3CdRDIc5kKsQ16WHbXOvYNkWqSgk-OxsCAioDgQwj0BYv8IP4553j2qoTB8spjCSMUCP2_6tEQJCtoJgIbVeja7bc1JO1TJpYvnBl0JgFxKsCgcZluL431Jxg2mJ-9vohiHXau6tEwRL5_k-Ee5ZC7ecr69S2jRSh1zk4jI4nM0z-T-khx84NfpamzY2_bfHT46rlnJDHw42XxgvpBbMzeLMQ7gMThvvz-opB5S48xaocK3dHOTP66w-4vH0hmiSdsbQ8l6y05_vCaypwXlwMUcdn_IdQNbdpC037vfOiJD-bax7DD5wm6IbcP2Lkwn3TNGtgctewcJGYg3HNWjvPXYcLh8tcPOA=w702-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/OjDeyRF1uZyjUZGZ2rA4ByDPJ6y_qzBRmqQ8K7TFl7JBq7yGOooVkPxYy-AHC2e9hdvlwHKHcinAgZ4FAIU9rRxGBSq9raIuW5rQnIFi_MYO9sYttDeFoPedshxpG1RShBYK1Yt_rYa9hYsg9otO0SidrBbNcvQXZJaaa6FF0nar9D7tjW7dX2esaYoZjWUwJEue6EItSeAZKYsOzuiYKUzaG2QnPkVLu83h5ztj098qhkC4q7fddQLYU6xvMrbiXKfxHeDzbdjVImT7yJ3WF3j-nu4UaXhiM5t0iFyx3Hisok8EBTzcCrH1ijxfW1Zixj4G_4_yaKb5QCe213DZVwzO3JCseVylHq0VTygdcTE2sLF50pJWG4-xxtjqdDXVhfgrVX0sqmP-3P_Etksh0AWeQWQ1Tt-kTCpz1E9VZ1YWe5rZ8olg8gzzZTRSFE7QparywV_BxYiNNY0EpflOglxjhqi7XpP8GI1xC2mSpsFX8yZ9zkZxOlcmbABg0X5BbIZFGloSWooEDmN6tfYtDsljUvF7H5PRsDiXsmHrz8BitNEF-fHpQZ9enSAkBu7kKSOiiWG6PqMcCe9eY0HvOe23UhggS0CUsfsqKi4HwcPARPc3f95IwMyMHnuefzC0h4FNbaPm65edfB45ReVzwdg5b88D7hqsnSHWBawNxXuj5fcnLjT936quRxdjLfPml4846K1jF8-uqZ-iBjU=w702-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/Z0SFxeC1-z8lsdPkIV77Du9gZqgvi6pmukXmLkPexrnK_xWVHmdPsF54o0MbSgahl8gJuXobjvB-6Il4qGkNzBXx9Cnb202fviGXYawAgmZXE0brjp4cybw2puACj_-gFckPh2OD3QUkAfUJo2MiFN75iW-vwX5GoPE-1Ohy6seWVuNz0T03XXruzHf5bI81-QYLx_1Z9CdrEPHLCwxQdwac4kn3YRhK3PKRn_bVZlbpbfhqfmXrkBTLCH7mTkMl_eN-l-JzGZw3lZsm9mGdne6IBogS2MfgfwqmAJI6k_cAWe-7PR0uaeiNj3En4EIPtIaWLr9RuQ30Yt8jwSvIH4qtVUUG7voAPNfxIfqZ1NZNoMM5h4sZByyhtQhrvhFr1D9N9yFiI8HxW0IcV8UCSf1WpqUTiI_GkIP0WKuxSzBzFZfexePtBTMVGB4TTbR6F82I0DbEECS7kBcNYXSFDV0H5uYCv1Qcmko0zn6lLJ-sigg_ZyBIOF2X117C0nEzjnFs83H82XBswkO7wK1igZoO_l3FyCL5T3kQc75uIOSYbkzz8UVdCGAz8gNsZRJhuBOfbtlLP4XVIUQzS1uJ2m_6rW8tvcrOiQcg9VSvZ8suQQvicst1xsGVsjB8ZscuLlQjL8fTuhA4StPbOEyp_YMWqbnd5Zk62p7Fa725NMHHwKUhZ9qwR4Tog24Z45WcLIRZJPnQoBOFuXqPN-U=w702-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/hTEVTJTR8Zj3YSYVFeTdB7QL44Q8JtSKSG98o0dsxskNPPUK-8Xp0cBaKiEN9z36pA5xoHsfKgg8X1wPiQE-2nJZa-m-Gwhwb_yTNiD5JjaVveCsj1SDoi5ot5dw8YHZgqejxIHanzyHJhT_j0meOoMhYDHJL-86UOxTc7G7b8gBGZgFo_gCv_6lTdvdoZtTVD6-DtnlasSF1WoJwXUT7XPTrYL5Bg5c2V3hj24GRwgODjjciBPf6n-MI8Sag-32jaLP3P6cG4Jwp27Ruth1DbgAgVP_zBMf2nkL5T6NpEPr3xHQa_0TwnRmN7TKSg0EYjk8vY7n424JP6dDMhIpY8pVZAkvE0qycF-LtRDi1HTpi6bRPw8S_5S6UwzORChAQPiwIIilukEL4QLAwXT9LxCeju-7DgDBO-OXZ3PkXGSvJOKZBAQIhWeN7ifSglq8VtZB2pY0FHNVBkvforZvhIJcSiMPH_6dBQ0NTfKSX0LZGwfEFKWq-7J3L7QpdNL2tlgB-H9tBsumi1MrUcUTXR3OytL6qvSR9QldcziiIjGzx_cw58yRwT21CR-tENLBymGY8vUEtS73zpzcRMPQ9_v1bvN_oKmdMMFtQD-WRqLUYl6RYGJRlQcgTyYqwWYm_tiVGdWBUKp9gp5FmCwOf-qopZIH0cfH-_UFuZnLy1HDN_xqE9gEwEMF-nTQOVcNxN34cyhggIUIs095q_s=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/vrdZT0XLBVVUF84HuKPPUNiEBq6T4kXNuMQwNy9_gXOC-5YJgHmXEoAvuDMweJu0kP-6L03aCm05NTWlJoXHhmm1xLbhaXFifeu4bfZissttFvTb-baHyNc0b66AHzoq5E5oS8yVigbGU0Pvd7ui2ka7vVIIzXKywy4NAI0OmzLoTY9Iw5tNx21VpA3plj5Qw67sLWpAJq8Mmm1gfFzHIKiLfYY0SbtujWlgSjfbFYoq5LQwY1vLSizgguDuKUTVP2JkQfwxq9Qs0n4p9rfPhav3aX3QJHojejCS_O47reLGn-IVVfHh78ASwxn0XwaGCRiTpeBkn_a89nNF0kgYHI5t_InXEUxw82AhI-pElrFd9F4ufsqRJpNAfeOIESMKr1TT0B8H-U3WsjK0CyRLwNh0_R5lDTkxtekLbSfTN8DAQ3EMQeMB-rAElwh53MZ2om4nIlQLtu7JpAy3FKpZhH9fagE9CvqpDbVKrCGMV_GmpyIAkunR5ij8cNgr8ceWi2Q9gittwMkhho-paujp5SGrI8mcaFBYTRSkWnWtefYx9AA4gIQb1MhLpmOzesB5MpH_C62kHs7wm-j7AlQNr-FHEIGMzsB9SKuh7t_os8hTn1EoeFWsAIvaL9aS81gPVRI0Py_C1yAlL5g-KhrxVXsYwV5dusAeToHG4L1E_7bSxIya8xRO2ECQYR0uZpsW6ZLvVMC-SYJwa9jRyaQ=w762-h321-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/AlqX3islgPPKxqjUj4O3GCU1jFOojsKddxuZcCtfvpTYHUoap6jrWmE2M5B4iytIE5FB4u-RgHDi_7y0cvBeUcz4igHk0_4EYH0Fxw9VcfvQfne8xtJzVKrPUSS_5vFU42c65hN69nur2GuJefrHU0huCD7khWoo27FIVVe3g-N_djvEi7k2dJbCTcTYtrymaX7luE_DOp0prTt70Oh2CZe5ROyhmVU2uhwmb8JIPAEkPAiXJcNXRo4RM5JRn6AIWn4BhCRrjzmxIEQ3ZsShIJNa0nKuOhmhV11JjLm_jYcrOeKomglCJ1pq71zFy6tuef-1OvnjmA0jlcwCsodinLKDE9TPbc0gv-hSnDyZcJJBPl6rJTdOjJBRY9fEXuGRYuufuAI0cPgSKOObUZcFJzhv49TGb7F3-itidoDgBDJoNlXOD1YcaDD_xJO8u65mF-RhdeRNLL1T49GOPL-uZbdin9Bxq_9KF9c9NrbN81CFqRRlWleySj1Plg1bqYNCYTQi4Blyu1gyseiNrfoGcCFR-uuZw_7J04GjFjB2NKh8KcDkWlKTYesxZoECuulC46nw4uoRTJ45q25pZWhVgUZpXXTBmstOk7gGK5Szmn1DCg8bpBO0yRnq0zVPQaqeA4eGs-aBu0QctY1N8e8D97iqGRDn0Ucv8C_Z6O5moz2P0isNtOSq7ie5vLlU87tstz5FD9QenrlxASbvCng=w1680-h858-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/ovs1BCedP87ogjq1yX-sHYC30B76G4XLK5dCFDMAUOK_RUVjVBUtOngA7suN5NKAsYj1K3W85LjgEF5DRkavG_FiWU6nY9F4w5HBc-3WonO2DeWwLzCC3b3Ut_8svLBInBHiTrBaN5K15P21P_rlqb_r-yI8kagVl2mttd-FDMXvTQev577QwJII2zcxEXE-2dpKYN3JkwukoHTa40bTNvIF45-c-KIdtKRcGjs8ovyi_9p41fIoVJczV9SDU-Tmre1hjal6x0GW-18TX2siiY8bgnb-PCMoV6LoXNbh-CrKcjUv_MNmcqgYFwWJ2gG8yn4k4pywF6LpW3BnT1uYI5AWEdaGF0tn6YSvM5KWU_CoKhENSkZyGRayFN5Dgk-oVC4XC2DX-gz2Wl8GvMP02ZTKGsF8F_DWrCP46PdHleQW2d1qkHu_Kav70Qn1o9r_KzrlaVWLJG26jWjjdYnq3qlrSRblbf_yQLJlHwe5nl_W7TXJx9l3LfM5J-ab6_Uf7YmjvivfHjKRFfmAEZ8bi98LumTg17wekeph22jt4AeHlvuqcIGHEO7UkJfwovQLsYTDJKGQYJQN3ekmr4OBz7hml4Cbg4JcgI29oW3MO54qv6zT-jEM86AKgq1gVPgep72nhaVYZXMkuW1vJy5Jd2wGEhYKRC5t1f7DyYBBTPdJN9fXf8U5u6bpLK-MYlcfTb6pcMtKVt5tdKOKAKg=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/PE9meMjFtwchj_tYNJja6R6jHFnR-qpH6ue65tSVUTUoRnbza7wSKY_5C2joX436_YMI6PjpPLZRAvvZb1zV9PPtZK8RXqjzrNJmmY3h4RtVg4fr6XSVdyAnjcq29hd8wHjEe4rpBxidnYrKuf3tT3srP2zu6XDatMFjEi6A-gmcnrFdcN6a8UGfQ7mJ4i9d0dL60cmC6rz2JGhWJT7hFxW5OWTHuRXjx7v0zXf-F8Y7pgs_jBzLcujS3JK54AkJf6wFBY5SSFiXs6iRUiPd15T6OqaoLj_RJiIYR9t-chr9Q1bJkF2U94Of8k4S9ppBe9GmSwedqvqMiYRQZ_h6x5qjt76kgvn-cXvT6nHWFFjvv4yTNHXFcf966vgIvBUrj9XzGVqpipGn2MSpytH4kr9cBv6TWJjV7bYInH8CpIHvDsEYcWfa0Bx3O0biLEx9PRFU4HHQfpYhQ10A4sTHt71-0amCZYN94_FpVG7l0C6nJzT_kiYvMxe8qu4jQEMoIN6g9jc62BNUk6DjjMyOnasBmpSvppjbYx-mWW1ohb7CqBSnqpJBwIL5qFPMx4EA5I-vjiCfyLYwjvG581uQY07k3GHYa3O3nwd6i3mD6WZnucWqFqxKILzsC-24--EtR5knZp585NDlx4z4B-Q3QOnp387MDrUIEPAJNBniAwMDUsYIYJ0LWoohkii0Kb1eUhsYTxwFd8cCXbkaZLA=w702-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/8FF2G9cjo0n5uF5K2zExh-UF59QP1bNS8MUxOr8kZBkBsE_UrFPdVRNYaBvNcwQ-s2X1CKfRSIfrTeyWAkgl__e3XV0w02DzoMXxs7VrFRMDkFBPCE2VdQnFEValBulT1D0oagOZnnxh6wdPRVBKypBpcOw2nfVLO_EeT29-EWSFStoTwMTGHEzdxUmQzARdSA3kfgrfdI6qa6gdqikyhT9PPILXJd6xynMzRnsRNUxRb1Eq2wLG3zv90U2LQUDCaTr38ciQkv2CUYtFrPJr0M4fYS1B51afrSCO-0qlQOAaz-1Kx2uUV-hq9Opa4fhBCVk7C2kaUf0w3qUoV_6535esALyFaU3r0rW1W4ytc32FTlJmO7J7W7d4xZYmKZhy_jre1F0igJd3LPoMJUXL7kcatknNVDDVUEnwcckUIpcfzAo8ovPKfpvYlZ5rc-yuZW2206wyPGBzv02h4gb3wJTDJ2bUf1_g5ygTKv2ZQD5UhL8SSsqPTYTW-QBS4qLqzuxfl75P8oNckWQvbVUm-VMb8NF38BnRSbdIXk7l-cdu4K7GYBlHADo_NGBtyyKGVo5r4byw1hDRH8xjum3arnfcCAkv5jEhk6GpgCnKwYzTcxkCIvXLOE3THXBBKtmlRsj8V6zG_-XRPllNyy3hDsrHdOLWXOkENkfN32g-pZDpFuKUA9goIGNj10N20dSDuJTKHTe4-3Oec-WoFdU=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/_RfAYuFcbdBcW4mt8w71K48LUa1i4CR-7dOXEVCTGHBZ7NIm9U4pPtENtpLnrVQJ_jSTTFSQr4l2oWNC7gGO5-nCCTjwsU90gOgRK7zDkBMBmJFbRzjuK87hIwZIgMdlD1JWVhcpK2ruXbaQ-HUuMs5RH8eVb5EKvcnd6SkRMNZKg-13nTWBogktuxl91fDEJF7nLlOVNbj1woffqXOrpQ5aq6goGRveRYXZ2k6S9Is0iJXwcLNl3E0cllG0s2EivytU35o7HFnD-ltABbP61HIf3rO24wY41srZeNh5QQWpzVGuON0Nau7_otODtJhiLHvv9OMSDLIEtbSP3mycJwZytyuvmlyVGX-YKmcuy2ildDKh2UoW3h6k_2ox0N89hzqARQfG2s7wf3Ums_SMsJQ5dDmvTIbMZoK6oKJOq22pDA9l0q4tdjCWqo4hl-Laq_SzZRFEqOE_UGqWRcKzeK6o33vLX8o2Ewg7bLQH1fCxjLqne4HQyHtdEk9lgLlrEEzWOyaq8wA8MfCyogeYGfMJy7fGft5re0S7uptPFcAB3Y7IrPf-DN8BQ-XLc1PgQN3BpIkYIQXad0dtWbWIVlLkAkcYIU1Ta1DzcQvH02uAtNAzkUQz9BdmZEt-R73qOFtlUOt4Yj9EJVb2qO-y2UuJYvoqso0e9wnXmLH38EXQVTqFWBQLHSnxEnylYH_OBJNM15OReg3g0pPq_1o=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>On fait donc des course pour 2/3 jours (saucisson, fromage, cacahuètes, chocolat, …). Puis on va faire une sieste au camping, à l'ombre car aujourd'hui encore le soleil brille de milles feux. Point de lyophilisé ce soir, on prfite d'être dans un grand village pour manger au restaurant. Il faut bien se faire plaisir et de toute manière on a pas assez de lyophilisé pour tous les jours.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/JnFIe4nPTRDpapS8iFj7UYHmZTZCyR1JeGLYpkAVSNp4CTt4iIGYz-AaqDq1toVtDgI8AAn6uo21GnYeRufQRwfshvx5UobNUI5OQ0gEYDCZCG73nQaQ5Zo06RyTSFhs7MDH0xqL3DGfvDLZbPAz5wZLrc6QHK4l1gm7RQPA-eiC48DuCB4wA8OARTEHP75NF_VhKVZanFmseHS-uKup4skqlvwtgLgMFku3iBiI9BRqHrMx37ghOMqNOLGmSs_3dwoB3PPy8tYRhDROeXsB8qWL4oBq0CTJSW4Oi5gddhKL3kKQ9e-V3oWo6iR_gc8UWY-DoZrfZ8buKl8oJba-pLB-GA9N7f8fM2qOoTq0cXQjxe_iCRxg2attweN_5HG4hJSQ6KiPICkuXhyJsScHfE7KfN1iIHJ8Ort0z6KJkIBB0FEZR4crkzUUM6aoUhKQzELUhZj0_VsqZVqnf8zoJo-4IhU4CisZfehAPiCXXC-1jZqLMZ8h0bn0-aXhBypUre9OFS7x1UmTm3lpmDnYnmBGa9Evm8Fb-bgdvNDjF46ixl8sd2Bd_iUsjCpuTThrsfNEJkaduuMM8FrA8G5z-4Oth2iixNJu8w19HBJ4y-060OXBnQuu_UV68JdqaVBVqQn5cZfxM2SDdIna7LCHkqrban9zgUqYgaMMgzbadvJTWckqyZXmK-_oKgrkkFACILJ4w49FwkUZD3asTXM=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/WodzHJ3G-_5DWvfJweRACfJV2KU53mH1ppq7GK-6TKQH2ApmEdbPUzWEOfhIId9A23_9usnTsR2rzHqtK3nfv4RQR0Pz9RnEAikUBEajdC9SyRdJeYZOrkTdY2kVXrfhz05COdqPNBpRgWSVILViWSEKolLhAtm6PEPVqSb4KD06SvcV054BEw8MrdpPw7GELH0vHpqc9HI4k-av8L5_CWdg4dgmGEVlwURz_xvgO8Ciw1w7o9NbQ4Aa-T53hDcQnqecgTfYj2slaTva6X4cS9lNEyDh766niAh7BRBHxlx5AFDAdNuVrHbyoPZ9vFS4jwnxYie0XaqFVX_mpARAq4lmcQtDvxNqa7PhCUflnLeJtapoLzrEBw1cwYNi2PQYoHogQBdnsqY1yFG7NqHWiBHUazU-8l81gjmsvj5ZfOaIsctSCQFEQKFFFQv4pD8K4z2njAmRA8Ss2ifwSHnhtSBU071u92gBAcvzCAirlrvXtTPVe9u0arSgbrRH8ZxBD_O8Fk5Jy4yXrVAg68b9iRkuK-TV8tOZODP9UgAUq2hicaNWzyAzapjX6JD7ezx188wByPhKaHGMJ6Kzt5iGCPJvWIW8GXXEEEnKlZXE0KHXChmjVDWC7GHEztS2qcQr9MOZA27dTaKAkKLStFVJhcsrBjIf1VA8S2HXsiuY3iCAs-2Qw9l5vdlaaM_9tQYmKXW8KdVR84f-TOvUUSU=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/326u8bPkasVhIG7iTOnD3v5Aym13k1geilxLJV7tE5uFSaOqntRJapYV3IiOOvhVGdSzTbAgyD5-x0mSYZ6TofM5O-u7DrXtOLtsy5MIEZPLBbq4wDyfgJq4fs1LIzqjIHkgOvo5g1t4FFb0NnBvM2viRAFLALtikNfWt0NRFwN0bxrlqqaOLCCc67dPlPV8OfgQGkAel4TR28hd2H-FrN9RgfCiX7JltmCrb6RUnLe6jfXFNbzGDyBuaGVYzYWomT_lCVF8TJOGKLBhBkSPSt5Gyh0yI8auaRsJ29DCSbDTlTvrwatxDqE05WxHd4VLDBLiI1MW1zbMke6t_WFFAJfiYd13cc3nM3582TdoBYCwX-2R24gD068AN-v8NjIxcIptM9THagsOJdg__pW6bwuBagUT194cFZgQ0OiRbvXP4RzPdAnLoazCtvAIJwBtx8IHGS8_WhFzjxjI9jfiQHSAYuL1lCYuI7hPOnhWhM2Uo2A0WYlmtoZ_qDwIScP2vVpVPIyVqPV66AAtBYyL27Q-0WYFCzvx4-e154nm9p0fS2oHUdBQ2GbUhhWBLHJu5wFL9zSvAeFuM-hI-RImIHJczMFixL6dKgSrXfu3p0n_DZY-DN-u53GnfBpVf4yvNqjn5RMNQbhvZN2FSg0GTvIOgtrAvdODtIprVDd-m8f2OUezGhhWEKkfhAJQZ5SprZe8nGvoIzAJGUgPfnk=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/PTj4a9EOJbG4fDAEC6xRtmS7GviG2Z3uBFthBl9mgtAmQ3TmlH3SUQ1Q_EOP97c91SwNdJvAToWEIxzeXUMnLJRo0Gxm7RD47ILe80NMPEe2rwqiYKUTdTyxXH7j-DKvsRJoDjwObEhZV_dqPu4qldRlifPFB5dQPyYtx0tRaUkGbJEI2TLWH5PMr2fBQ-zA01-lM5qjRElEMzBLO1bHdKVNRrpc9SDggmfTVEx-XwpUS1S1aJrej9nUD-HzIqK-Aj1zmVmjqx8klVcLubyNSWVvuonBL04OcjQVvrwxRFmyZ15gRU2ubnZC-8LucnfcFwcAyZMhAxqOAZtKygwAO7O_NRrNtBCS6egYc_W-uxZyTL0HOLbKi6d4Ky2mt8b5OY4bk_SxonxZ3XpNEbgQAi9q4_74bBMy4iqUKS_HMPu1wK3H774VL_lGpRfIMQHKBAgV_FwF8TxVVf9QK9KnY2JK7-4Od0epdMbVr1VbdJbCisLpoVnZCq-97nMIUrp1cGu4dOxRAX_lBT03snl3JcUbDB7UR5F9tdFTN9sknUsu-21BxRdXCWCSZn01rh59nT_3mh9xwZOh4-xPomSSbK5t6HaUMiuyUDk1zw5EJ6ISowp-659oejbsUzTGSrB-AR_TDalAF9W6eFDwH4TZOQFcM4VqAItBTesM1OsQv1iDUDQJknsZRicI6mEetngxHi39N5KGaxnxy7bIAYo=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/oL22bW3r_LsmDZqn7h1YTfLKBl1DDG284r6146-UlPUrNtu-FjAGWrAN1H0qAJ5BHJwX5-ybIqz1b3Fe5kBuPlZv-jndIWTFGHt3V-VlO5td1fXjm0eftt9tT1qrNhikVVbf68KcYT57iBBvmBSDVfXEMU1cy3S79SI-bX1Eu36a3zRdky5YR02kSsnwFT29aCJR_QcJcEwjRZu8-d_xRoCkwUNRsqwHEs3LDpUvNBoAydfzY_dRbKAmwXiRjhkeNPTerUa2ogxUJgYLOqv6aLdq6Cdq53mHneC4OhdbKy3VZ-FJu6QuBFOmVoF5kV1t65l2RHpBBOIQSEFOnA2blvvaWvWZvuYitjpVp2_eVCXTh3N4iwoRneCnAZ89aWWP6mKp9dy0YH9KkZrOm5x8DZvJCnUzVeAYUGJuP1gp14lahVdkTjUzEos8mDZVqtsnElrE6WDRueWtKNE7GdrqrLP_hZrDbGw-CcYM88q9t7u3HoKsg7NovVECyl3o5o06ms_FVj9WU4BnWljJdo0pRlfrRfq8qISEh48lhNGTkiljcQmYLI84RWucEfoG8doTkl5et8jIrhdvi5fLx9qetcGLBDE7-qnnwJSI8F3vIq8o_hPLnCaco_QlqeF_EGDXGf8tpQ0fbvv2FQWk1FWWU4u9ah0HTlL5xpcUyze2zT4LWbltjSzMteCbDqPcOzXOGVm6viaynkx0vHz6lMU=w477-h358-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/_8C7CS4DmhUefm7E7fWv5K1A_TaFFyMdrLTvDdrj1KH9wNqm_ucHIGITod3R0yKMGKnsU0rHL1-91AO-Y2nJ8IrCfmPNozh0R5W-UupCwFOVQHwo5x5HCGdbNcrF1ovpwH4U_qphJ_JOFJae3XPQ6ef4Q-Lan8oyAuF7CbsI0t7UDPFf1YwaDc6ZFr74zej1VaxNzZCehs_iZDwga2zag4kRWWtb7IceUVWN5g6hN3Zj5LHGrKwWOS3T9nA5ih4g467qGoEOLWex5fGJ278gjWFTWMjNU4Bgh68QBIh_0B-ji7udWJZzBwMP45qI_sqAvl7HAtt4rKNOZFZq2tHtfyFh_PZtGfFpbEe11MumQl2PXjC88FdhpHzXVOF4OthMPIj9QZPvF3ubUTFDDHSiPkC41_rnEaTsINpZilIkDgimXtXfb63vUF2qjWFhoTyptuOx8S07Zsan0kPuJIzoFdoMEpqRPNpNAlChESLWRC17n9voD4c-VlwV0hEMDJHnOjrVGS3n0h3Pe_xx95cVxLFRS-KcRYC-9SZtCsA65l9M2e1NPdWibgIkXiECS0BS24qdbEtvpky8Fw7xf9b8K4uwwxFo0eSEt4k-oEUjvkFa1FD9YqD9qfdKZtQfIBo8ApqT_w9KRSvkjCyyaZhjovtTQzwwlecH7hz0vmEdYBfgwrq4MDfHRW8HweYEh5UcHCk3-9BoP-XtzQYBMQw=w1433-h937-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/IFh1Xa0IS0CCw9pVizCJBbBtJgqv1l8b3o_ekhi70HJDx1CC_OuXPSn48yub_HAC9hpfmXdR7FogsO_cGARz-kRU4dvsEXYn4jD2NuGu163EMKDX4rDF6CODEeMumhlGcmdOYHSD2bbsCEOaGjns9DycjtBzzDjwiVh0eqdQuIPEZgH-kNOAaKxI9aBJ-U8HaioNLZYVncAWGS4_SFLCAYSu-xi0VsH7dLd43t_JdJMytoc3jnAqM3tNlSB24Z5xb_jvIvvPEnpqcLgn25iJmC4U0JKeI2FYjCCRHPyixmjwhuKW2YXHAQtmhjaoveDC8L_t7uFVvkCMh1EWzJpImURxlQl98th9v3PwDz05b09KETJR0_dYlbeZN7hzneouA917WIfpbpjX11d3ty6KPeSeuXPE_f5kSZViUja06hKPX0k9QGbBrupZ2Sy_1zJHFMigKtDyVAt_Hh4PmqYT4mFbxN6-4DvPyWzWGYknNCRcQDCDlZue5ROf_3uY5Q0gJNjFPYS8ESRVrW5fR1VRp_7QZ78UxgoVoBSU-rrohnCT1OANvR9y4POciYACuZuK-Ia5OLvB8z_3gXr-tO3jIoVsvcCTsjdkR2Sn6IjFi4kB2mrHycek7GzBuFRtxj2kQk6GoH7EQjkM0Yuj6mTUvXdGSEL2_1NDDn9D69kkq89Ef-NwHu6yeoT6wOVYVDt90uiCpxCdCsLdORCib_0=w607-h310-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/1HOps_0v4w_nOXuKgoR1DYznrpFgGbpXWpICdBmu73QdH_7VFondepOrSfbtnoxy_5UnPJaqwiwlMROUgBte8isdd2IKR9t3N341jo2_c_EvYfgQsXx9ME_zRJyksh20UYZDBd6BAymTUvPiPoxO9joo3TEjGvRgiRHcw1RjHFeCuImu9kOE-88Xa9iJwNZSH01ZzbUJes7-FFY_iD9CN8dI-SGbjTzSCIbMQDYYUCm0cMYzAG31zR1daqOO43p3JH1z1sJ5vdgZqeUCfR8_rwSSXEPNjuxUVG4pT2Tj624cJJP8tF8lyD8VbRtUBqG87R7fod6asLfBAJZG4AY91UQzrsNVshkHd6vTeOSQw3ECIjWPQckHWr4dgKGZOujNJoOfcIabXFbe1oFf9gRpLd2lqbxQnv_JbZVQqFUjdsQ1YqJLypFxZA4ZS3gVkpP2oThqR8Wr9-PeAXq438CAZOy_q5UcLVvNth30YSsNj3NG81T5-5xrshlY0Ok5gGbKE0lqOl3Ef3Yy7V2uapTnrbzXyh5U7zHcWpMNgROKelEU0CkEAP3srcXQ-0yl6uzSmdJJLZ7hEuh0sI9vALOB1ssPwj9HH8dQGNUeYU_5eewzNEYxdd1GeW0E4c8UsIeGN6A1WtUNonwu_qvPNJV1OVNmtMZB1MoGhqdvcYiukiFLRJ8eOQx8S9VOdSPgnzPK36TIX7W9zKkIK1y4k9g=w502-h318-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/5yMuLMvFb3EzHJsoOTxQkGW2Vq2QPggiIhYvs7NgUa7_MfhF0rFN3A2ksoYm5d57mSZiDgpSY0BZq1JKlQH-jrjaW7g-zfqgMwdVcL6KAxIGyeeGpnmC8E-lMcwqhub5P6rlusP_3Nw_BEWFEtRFN7PFDW1VQyYPMzSCNYqWC4V6b-tgfnVipB20E2ONX1t8RcuXMpShwTjXiO0nN5RcnN_A5QrinsFHr3oOq6aedgzD60iYwancxttgV68mtvrJXFtX44EDXJqohv6oSRoLO6dh0oaZhDH0MX4PJGePap9fsDfRDcBmOxg9bril-Kx4nIhtJ8n_G5TpWAqvllVYS-ndnmaYIXLWIirSZxfAU5J6oGfVksk7oUVnhmOHc9bQHRaBnolOkkH4I1VdCgfd4BLHkc6ED7hSAvUQVFTmvqnAQKnF3LQntaG1NwWQ9QVg5fBoj5TY7qL8AP1SMRIKXugIA-LH3oLA6d77r1G-z8kqa2qeHp3iWCmJQX1UEl-77--J4WHedGBiu2L10ZuCD1UDOeP9AyTRL2oR7_VglXHyljcb0kRHZx17RrKMHgpjUaa6VTDGvhPkj6deKTQiOXG1bgMADsBHJor-7ppnnq1lW4ljKZRpzF5VskdKrTDl03yOMA3XWMJgsUJ5uOEqotefVmJ_aw8RLYWzxVvBV0xmB-2FmkM_7KHfW9I0Sq6nXsxFcsINEYwiZFcS5Oc=w403-h303-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/gQaKMmpCWze6ir8U-LE0A--GG7hVET1fQ4VIuxviV7u1Uv0-AqcgvrJTc-sYwkri-tyt1IPFwJBv1FcYUTnf7bItjUxSHS6sRF_4nMI3BWKhMsZrWtb2Z1L94CluJq50BjM0oBJr7MIplaASgbfVTZ2E9cQKr0I3g2jh1sG4oeu-mKLDAd7yV5X_XITran7yY4kSAVLsbfrAUbGP2vDzLa6CgvLF7fWphSqUJqzpbvvasy1ZjF5iw-UYjvgqx-5UeYZP6OM-xqPmXn4icSQih2YBQMqazsaaYbUbxgCH5RDwwslrPDdzH4Gv2qojH9kfjuILzENwFeY1yetvFreG5bcVirvSz9LQnGGdRX5PBz_2ik2PaAVGNIDylauG6yWsasz7kmPE9xV39skmkL6Pj4lw-2rSWmFHmhhR06498BIAbRMUbgV8SwHdh7vK-52YO9zf4nq__I3zXUAT50Znh2J45tAG9p9O4QSRPtf_b1HLK4-10IWLhIap_oteXcjbvCiWb6EuNibTas8_6mjikKwsAue1vTn713VfjUNZ6HL7ER0cpkRtfy_0RoYEvm83i9HJW-0NMZRZU50aJsZ56itGYcASwX18ZfJC4yml46HjI-ENpJnt_tCpx5-s7gBTTH137S9ZEvrEHmgfoekMw9wz02MwmfpsDGz5VtFC7hFRg9_IPBQk4pBNDjqKS3SxTAYfKlT8U-2y6W8Baik=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/mI-hzm-DySeAYJ9t2Jy4oego4hxQcKtjQt4Cm6WSwMukJzeXs_osTZs_JBnNDsLXfAa0ZvrczgLlauSxjJjNJ6KIeh8tUL8kA_V4TXZYEVZjH08uz65Uv8O2lJzpwHnBwDlgFCLSB80wLHQnwwuxNY6rrDzOYDidVaQRUS-c_6QuIRKGnAl5uWXzPhdv4XZpkb85pMPd_-CYAJzFHh4os5N6oBJoQ2xVAs2qpCLfNwj0pInb6XEZSut7zcfY4hK5rbBvoaItOZKmKq1KolrJY1uIzQ3L8ABvGPGi68DfUD4TnqWwZDrA_PpHZ5w0U80NMPfKw9fd0V-xYryUfpqsOubmE-xLtzXi-pJA1_nwVP-B3r_a4h5hrzUv_Ffyp7C8f5xWVQH88LRBE5FE62RBiO0C7PaLIoESu9XrgT-ng51VyEWzPVLh-kAtbjJq5irByk1az9HXmim1KbjrTTAQE04BaXCtex18StVC-sTnNf7ff5_PVwNcGIwnEvX_CLveA_DAmp9reU8vudgxtG5OsjPIpjexw2U4EfHY54HeNSrG3cJgNEJ0ffuj5YhkJdFJf-_j7zriGioaQhmzAE9PAQWdMrZ8QLuTqu32zgZLvojLMKHOghajfEyoWfrzablgtnilOJeJx1vJoEwsAgaJ7kN0QV6EqIRy5nrIhIXJl0oya5GOlhRQgVbyZLAvxvYxeAYbiVU5E93FwglLXkw=w1680-h602-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/c4nUfwPpdrAezuC07PeU8jC2AwZnmOqLOqsyKblR52_IoaD1qzAuGgqYJN4VtI1b6DbP5gx6AVH9pVJ40zKbeFT3tyw8hkO8eN4BvEWhxqeRwjdwU2Us3o9LmPZujFHTrSDTgXfN1Pp-4ChgfkwvhikwxBPoyFZg1zWBurblRrMOo8YenR1rlwhueirw_FZyKNeysI3H_ozAs9RfAzjMKCeisCs9FZ3jFJW6a-yFDjxwlE7QIfb8UbQ46086x20J-H1uSTG3S_-s_aPIEJAxTuQrUzlOapZ8KND0Fs2tBxek4XqzdXcL27d5qg9tDOUKJLGwMSli7uR5HRroKRPVwn0QlKNrOdQ5bic-Q2nLU7nTca4Vw249L0gCz4LKpSX22r0gEWBlPKwmv8lRJHhLVVEb3a11i1_58HXlHSRo8iJWOujYcLN2FZw2J4XVn7hPrgg3Hzg1nE8-b9fJY7RCUJMBKVQzAgJbjFGfARo3dBySHLEvAguq6-7R-yktLBgkHEPpPHD3L3yeg61i-YppScP3rrfOHOSL-liCBKvE86vGXL8_k7hjId1EcMGnVkA3tqBrQcUW5PdAWJQKRZx0vD8EMnYO9mdpiIDfW8r6WycCIPU0EQc_l2r7OiYh4g-vGonSrUTH19l-YXiay9KTTntTUSvM0QZixDr8CgRe5ZmdHN5PrVZ6RqVyIf_pCEjLOSrPl-E8G9m9Jw0B6qM=w702-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/bDa1zwe3V2xSzn6g7RknksI7eZGb83jHXEwK0vYY63Ywde49QgU-6A8ITpUgxZ4TdBjt4YxX2NZuf5zZpoKReD4TwvSrhwLN-NwsGJtBaGNpWHwnuULGVLTD_M3O8eFggpJxL41xgZu4PahVOwGMnmK4Rwbs7v7eZ0PWThFdqf9VXk732L5rHA83h6VIDQ8pIrGO2lpIQLXSSEuNbPxaQrWgN6yhCxAfnft8jZgQQ8y2jMf2YbKxUbmvAsSvnAD_985IV6m8E3FHsVbWcGefTouTXKgMumWJJP7syvmG1EAA85ynyFFd_6cHd-YgX2Evo5U5VNXvC8PAGeqUg1Q46fdsBdDqHccO_zXQS15bHCNw8VXx5JNY0NECgqLXCOLDupig8lyDS7N-pPVxNSUfwZXtwcOV41DnkyilLnAkIGuyX1nkdsUg-qzeGY6IJlBbkzdyOP28d44Zmkt8c7KD3us3GAe3zJvVd-tsyJQCjzVqmvOt9b6KmoDzQUGOyRr_yq_U0onGyd7OcOLFs_g5k-YPrkbE-impbkakdJHa8XBiq3VycqAIbVMVqOY7t2bHy3aG9jHL-wN5U5hSsL3Ld-ToPcylrKTUAMZTxQHlaSKYWgI60fakO9F0ojqmqw4TU5FJHpAmPdfEX77R_Yzio9qU5FUvkiEexeMIl6YDY-bfEJp-ohr36ULHY9RrVaH0tv2dJJ1-qHZW7A0sS3w=w702-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/A27Rllgs4zLt2BZHcnSjb_SoKdraMswy3iyn-2QN_ANAGRbSimHMubToWltj8IF5jcSwqrSji8gfYpm_lfoflomVHpBQo8f1U-TBF_D8WS3oikmCfeZstZo6fUrvX7jHITjxy971Ga79qo73T5R3I-fMrmkvo1eJ9Hzng2iBNQFiChIjvybpsRtldIlzVQvhXrJU7yG2HI-Em9yID4GPDF6vK74e2vOnhaU8rI2HzHealWpXEzRrAMrmSJe2wAsidVfyaQGXA9Rl63BzPeXDKr383fgjnrTdI8ug23J53vOAHh1EZ0qLj40QKyXvvjSl2SBWbLl-gIisiJZzYfFRVpe5XCHqC5IaeQgFG0lqCxaGV4quVld917YnZjw6gGwpxponTMwOC8fJ-Hk7VDNnJwGsanHrLCuTFpOyQeEUdcapc9-6n2ikRXPTJ_ZU65WUqyMxIeRh_bYhQ61BG0n1BEl197Tp33nW1UXgyuqbftkC4IQV9mlLl7tQRHxelYmRIKcUAU0KfBx0BNoa7G0EG6aUTGn1sAIljn2tSS6P2QjfK3wWrw15nmGJa6HsYpKlpG2-WD1EmT36cf0P4rGc-xs4yz6EktnxwLlXHF4tExb8AgLm7-U9He-qsI4Pxb5Fv9zvBqA_m5Fyhgpusrg6H8gH9x2-cqGANBnE5C3My6Fo6mcgVqrAE5N7mN1B1ldTBtYQZXO7QNsT6AdTB1I=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/Lgbz5BWSe2WzhJ7Ea5NsQ2fQYJ8mjorKDPNElCgi9nFOR9k5OcwOn399fmKXyN6F4ZKXZ1tLquS1wTUC8P2mBwn_MT5d3grjgCALuxvzzPIG7v4PNwSGlKIatwLwjoPaHS_86sM6qRj6sBXhCoPRuiUTJY7nOjqagCrVzmu3_ZVXisX-tHWpWEOYnNXjD7zvHp4WNrEi-uWIogq1reACUBknF6UCVDAw03oztFDGuUZ6Ez500O8ZuFBX3glAEnGQccWOUnX-QCgUp226F5Fk7ZWlB7lVS3CAIq0tToCapVBbsTD04FYStlO7RyOv5T30Np3bq4e1AwvUxlh4FRuIRII7PZvcXG8jqWNaiyG6LX3t6bVkC-7gLUZQysPruS84C7wMqSESQVqaz33x-HNo4Goul4GWejeI7pHB9OZ5hW0j6ViaEWpmV3cHVG_yhz_qEdyy56ZPJRneXJQZwK8yFiNvIKLqLC6Pf-T8Jx1wFiGZMeaQHeY3_obYZU6NSI2AUuJ2jpRqjvtDMibgqgKt4opVPIrLMce-7Ffk1WuqqOQrWUBkjdhXtbFNjZuJt0MTxNf_pyVS0Kng1ALmJa_DANfWonXHGSm6eVGw9RyYfhJBi7KwpgQE2_LZgka0rqPZErtkj6PYC7zp00-NN4rfU5JhoExOAW2PqxJtDP8H__2g2rrmXjdr4wLJjwbDDX0UFQ7863V6mVY8q5C1Ttw=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/mNHSzjVu4yj8fcqXCnJj3Aj0O_0hC3T5fYqk9nHlGL1mFiOf0VNgSe8ni5m6McfIe3wqTif9_zEJA4v7u9XCFNEJqGMczyhbyE6qAuHSAYVqq9C7FY2CPCNVYZu4QvoXSPpbo1qBRAxZ9BHePeY5p08Tv5cST7UnlPNyPJQ5h0fxo3vqadEVwUgSRQg0DfR7luUsTlY6XxZrhaCu9kYDOCYwVTxUG8USkCR81-t1vH3s_obtQL-tnm13MYRQOxPkB8Rj-NLEl-02Y4ultxEx8g_vPSN-fN68KCAzMI-2Kw58qsuZo3LakiOsoQvVBWrEMw6VmCCur3hNuCJGmrfoKkdzZ31VzGKbMw3zJXVqGOdCG9aDT2zyK8VnmMS-BOkB6Qs5PdyabZxercIogHeg2xbrCufHQ-Dq2GrFppUC-uN0iqbXHFtcLBQHi1WvZcOjfPGWlZLWHfOZwXX8C7qvys5M1Qcm4V6xpJZECADQzKzR-iodbcGKsnpI6Q8paKiQR0MASsbhgNliXxgmS9zUmbDT7VzSOBZw6_FNDpl9AytNqyBmNgZHwuCixsNCxemHcFjHqhtm2fO8N3vNO8FiAegOjO9sBMSrncj08ZaKJ8zGPJ1eUiKSk0EiKnXg4B4URfKiTpf-Dj9XqY9Zdyr-N7KDNNEBJHHXXZE6f3ea2QlU7TCVpNH-OFyehlidUxdNIbV_h23DKSaDKjf3o2Y=s936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/M2o3ZSKldGs_jkGUkg_QqiM58flZlYDABTBd-fKFaKHiMH8jeGs7sS2OOjpAQDm0gZF4BEFT-OIOvWYy83Ksx7eejCw8v3eb6NwEte8IHIZjmRf5zyxd-iu2km_Qev1vu4q1OdUIaQRzp8bfEbl3r3UpC95B3srIfNy7gFJtIWi6rlTXRBBOju0Oy-g7Rjf_9-W8LWzMpBawg-kcnCvULKyXdEFk_kVnD93iaOVJnUKyUmSg97s_L3X4yel4zbEubSddYAAafYxPZ7mIDRkYiL2SuaogRlhpcmnombEyRCNmU9f80AZLRWkDcfpyUnUNx0hZoQZszyIqk9hCLM89kfkRxYH5bg45IjgsnPiY-SYfHHaU14OiUIBz2UN2_eXSbtSPvJLtE38CryXhqp7uEtX3ftNRzgkQY6OdctGzvn07VbUTv7zQQNRuheeb4lYy-_n33N8jPsukJKcv2oOh0l5S6OLWjTeFaXk2_mhPnkPVGUxJkx2fmOnaBxzUTF75JlHoRwO_cji3_nqDpbF5l-cs7cn-Ia_2XFyhDnhHSZYIkhXdp2fWsnMA2B-ovh_BVgWXxXj4pn4pyQjiSpl3yiFYCzjoWlpgAesUtNmdEFLaY9zka5zRLAYxrWIlgu9nrwp_KGVmUejL2tnpvy-YohMEARfNUhw0pxU7xhQneK3P1FS-uU9V1fPFgT7YDOwhJZBcZ14XmNdPWlKdPdU=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/mu4kdPEiu3tCn6ERnCWitIkWLqvgctx4VF5NEVHqIBjewmUr0DJK3bwwWzYD8Ps-k0gSXPSP_J1Hr7m6eJ4hXtEthnXxDxsgfprdgcUJuHys5UG0KD-IbgyXnUizAHyRz6M36xRijnLTaE35aCf-J2QhMs45MOQjt3YrY8e2bdjo-LurkBpNcnEw6MgFldvb8R6Q5AEmzqw7Aj4BFjgQrVX6562Gt8C55tE2ECXawuIO0usj2f7HDw6aGFK1cSPaNsUWtY29CO9idd0g5Wczxh9mGjJfcL5jsZfjjkrmcQtYakkLyhdUq4W26oj-i2AgxaXwEa3jxuZjgP6RwSFhCKvDixLfBaCCLTmKyVQn6wG0j9Xf7QS8OArg_YzyWWjsRA-0xmweX_ujZyAxlSbyofDBgPd2FQgS2jBspyXg11Ys501co6cDXFplBNj7nQVrF450iFDgXKXqwvKSmorVACBp0RhSAWZEBGQfUv6ZKbT9DkBVB1CHhy3h_OhsEmWOtoU02XfJz3hej-PSbrnu4gkqIpLiqF_doyFJGYYETWsOnN1SsDbCFK4CFlyGBlQ0m9szhQjWeUebiuO_MzZBmH3VYXjx4uYQCINCIdx5eBRrS3SWEYp5u0xBExoAK5YwvvGFtsnITZljUH-Dk0Y01-uNcs_WfEGp6T7oNCoxtPJr9TXFZTZcN866lcNXo2XgSyIPV7O-7JqAq2q7Rjc=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pZ5nNgztJulQcBvEUD7vQh9x_Wr5ZqU23FL7Z1w9IMDSzUBvgk14CnFF6VUHG-1Rz_2toUcpJWB_k13mAJ3AO-T-PG4KXwq6IFHikLmnw1cIz15pe3w9FTQjT6advPfXXMCzYXi8CJGKKg6TSZjK3pK243UfLhU2N5ek_seXMYu4TmZy8NOhHoPb3TCXgyGFKs-TYuZ3jZpqcuictLQ3VsbJDPgTOYgR8xZ4gDlAYLudXAEWCyyTS45PXWBN-emsLF-ptJGeX3Y5RYrtR4Ucp2QLzAwnkPUL3-EVNHGCDTGz9jlUieAaFod3xsEDK2HZY1wrIyqH_VOS_dhrQjR8jnsQEaWmApLptwuC3ooqb0IgGpYAe_bJ6P9HjXz3Y4yAQYPxoVep91t4o6_dNY_q7TXseDTKHFJTVUBFe5LEt9_vngtkFhPiw3NwxDYN3nJulLZFYmd66jfwZYrDi4NiF3b3JMaVDm2h49cPmYr7rHYW7SVT7yudxDYTAWYBPJ8IlVv-eiGtKBB4eHr1b-O1Cq40DVuLxNLsJoQ05ydPdAl1IWw391WsAilDYWoBmsKQ6ytYuNLOlH5ju5jnHY8DRpot4SljlM4lqQzyMU_vNHnRAKOGp9Z8wqwp4XS2y7M-T-VKJ3IVxFvQ4LrVE9qbxI8i_G1h-9YTxfiyKehpa4rEmae8P9X8WWf6EdWVFwBt7VAw-kob3wvcpBBwUMA=w1680-h867-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/qwWwMWZ1mduIL9IW1W2LoRdBRlbubYytsy-dK_gTjRXHRA8YdQHVrMhXpXSDqvPAEdJWW8qBDsy_G30sE6wdkDbEdcZhomom0tS0CaffPbADNTsATE1ckhUwzkcg89MLSo_MKXSAWSKNCZ6tDl5sumTM94AtXee506njQ1ofkyd6mxUF8Ct-XjPcFHOXBqlAbU-xtP4vza_B5QAQUVg8wJc8bJa9_HEdAKEM2IbLIYuDI6NWvd7VxiCMKAoO5EydHlezsUuywm6wXu87LgsG5LY_0xrpa2lkBci5rAek3OzJE0yE8jszctT31V2vEsSsuYYaf6q357K7gs48oN9G_vA61XphgpEkEs8oPAfdYh0f_0LZ_LxHs6qaNNkPuuPER67Giaz32cZ_fureD7iPf7-NbhS4IgRB1LbcQfy-SlND-cgFk36fmjd-m5GbLFJ8t3J1y4mEQcnXwXk1_ABbrg4ONc5ttXxGmY8gZR_6KDwa1ienhXCobg0klicX3pyPWIOx3mA8dnzVyh9JkvvLTjd6XGO7w6YgiktMxQGhoV_9INFeKiIuHKDb_4ta2ReV25khpANylgnOJr55ViehAYlCPqlIojh_Kb2Y6N0xbmQbF-CoUHQcYHsQziHd6sd3ay-i_RYV4KrPXU4G9lZ0O01Oc51ATd7FMiEK1u5v7TEBwZn0tV_gp5nq3WzXeo6OXH_PtQqkxwZzdmGIylA=w937-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/4BHZxzw0uKx7usFjGT_p_ge-0o4lXO2IYr3ktdRS7N6XGMh16wplGgQa7kpIxFTsS_eMoGPKVIJjBpARuUTDHfT44mVBUfQZUUpXRF2-1dLuN_LCWhsHRTkBj2_wGh50b46GQF5USbPwzpD6DwdCLkrRErK5dDLKUZ0vtQ1oAuTGMslNYwFNEy1BYo5AWVVrcHz_z_QLoApZKH64pVZ-C1T7E-B3qOqpCjqqyJwpO5Lv4hi8U2Kq9zPvWWY7jLl2d6eLKcmtIqdRroo4J6VXWtyKEOJqvXLTy0a-QK7eZRbo1JwRE6q4fW2kD4ceZiEv1xZTIMEtSnkPyGDuncBOAblj8QSZZSjeZFrMxhuUBVEAFzgIxuOPebVZwStcKWUQ9dl8jVORRaS_5ceknSJXQTK30qazYRBrVJR-a48x492rHOJVjm8ON2BqCHbslCd0f5AnWEIwA3MojH4SIGhDxbD6cM5qp8n6KlA7BxBova7KjzR8DP42Fzk09tp_e-QWuxbdjTDfSDSgRTpzho6nPHpayCMaxxTi7CCE6HG8ioG3Fd2DQDZ-19rZS_h1sc9sQT_fLGtnahTJP5swBHWoVXBYzi06uNolGvbRZjkGbyAoLIMxB-atLGcj_ALtjaLoZtbMZKOk3CC4G3LSd4vygxJ72MLv0FbXkgExwrcJO73eZ1uKMt1m6QNZJUoDvaBKS6s1yDESgRlH2c8Xeew=w1482-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/7thbxGhM1QydYsce3OfFUOxvoXGdOLwZA8k-ksCpVdkrsJIqg4LLTCjScr-4go1LZpZIJa_TBZogqZ9mUOw8R5nRpBvWzb816HAKQP0fkhca4zlNsh2fuXKC-2EsEWKL3oQTCpIEMuMlq6xPJnrjKireDGMMeBwbJ8AwS__C5UDB9CfrCg9xw6cf96pevVUqRzHeQ0DhN1wPlTvIi1_zkfyqhcYX46f4_IdKg8KYpp00LqrU8qgMd6SZbSOPTph5A5Yf0kIPE6MDLvv76UHW73h_d2LSPHHIkJILlQVMABB2GsApvXm0Ygb9pCLNxNYmjutzMrjYvmSI2aHu6li9Ff1T0O9ImpLVL04B-dU-94ZgyPjgILOuCmShh4rNdcfshYjW_Hdoi_uc_DtMgLQ0xmo0ZbYOma6t3ofTo42nCOTn_8x6NIMnISXG-cdDrXD2PH70KVqq2KQNyfC7R6hiMDLYAyVHhD86kL6QHciFMtcRl83QixOnuVc-FAmDtbuCw0baQcZN5CoobsBP00ecYorU6UvjTO1t7V8NFoxqpib4AufavKOPdoQK0Tmee2UGgsu-Q6cCGJ0p28RTF1U9VlULo7i6Qe-33wrWzNRqul5PYv5ah2h7CXr91PjyXIkeQC2lL8aKntvQNAYP4M-05XowNc-2acReOXc4ZKfOiwLRdCfOneprETCGimTp5ZUaAO4KbktE5MjIxEFzrv8=w856-h368-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/PXI8Yd4lngMPzNefyg0xYvjEF9DxvgtKAGDRXv5O7NbF8FydhWsJgiyFbuiJQZQZmTt3GnQJonBz0S6hWG8UN4XJMyQAUnxGFSSDLNRFdowgaU7cyCHoe4Fdb3kcq5RQtHFb5KRR5tLEwLA1uAQE7zto86hjOpIDnkBmdyrwiKx-3CX8kLG8Rh_CgDr0q86meenVxvtcpnGAyMM213oJtvJhOX7p4usPUi9E6If4w-zP_Fl22eYBzo6aITNMqiW-nSy_U2hiUVbxn7x9-EWLLhKkz6a0evVjvcDByqaKq0d2A-rcCw0gV4-y9eseE56HDmOsuowhQG7wH0-I8vpIo7UpNb1Un1ZP-LdgCADTwJ19AlKq2-tDmLZMQL3kF5gmvnIT84jkrSq-jkPpsAr1vRHQq0F-bhoAdrDvYBgx6RpX4YeOYS79a3a9jy2xQ0fmavWm-LRQJ8TjHfzXKoS2Da2u6SUqnO7K2lr6NhwODy-P2txqr0Qco6QnV4r0vBX3VmakBSGLAB4qf-6XWNsFKrJJPAYcXfHP1Md0AWfxVmSL9m9gllb8Tt6TecqAFyA1pqjhY7I1ICBM1ZJAIAWDxXAE-tNUcUdgOy8UNOPrAxb_Ilb0eQGbWG2ISbSdmJRdDtQacwe8rKxgV_Xe7QDqQ7cIZzyZFbmVgDCuxpk_DVdEndmxZk82dr_KaFq5cTUu3zB-Odpcz_kXxeHreL0=w568-h425-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/gko_1h7Pr7UQtQPjiCjS0ITZYHz4OLyjBvLOlAsqV0N4uaaoVC-pBZ7bdszpom53_I8g-kkv3VOMI8_eQWttyfjTzXuak-4SDcJZ6H84yr7H8SQkd5c6YXcifVldMp9xAKCfC9Q47I62NnxKUh1VJW8kiMd4wbDQJmE8_itQ4rZdccmjvsh4FFl8aWmUXLDKJvc9xQBoMW6q-G_WpdliBxxn6_M-KACxsH6jHT6yebaVTBQfTKM79BvILbEC5X3NRWUOSuye1rhC9vJ3fTHwh4frgYTo8f2bCVK_b_ej4KWQA-_o-BpAfgPRHqrAhZ4gYC1vVOrrx7jS-hNsUctPzUOY7usdk5rLvjPae0ulDS0eP-WMpW86joPf1WMS_FOq3GG7jRvGlvVRUS_x4E-jqHYUNsdt6zdHgz3kIFoYAlVYqfCg22wK_uJF1B-AUWwVG8EP_4yebHAXftkH49irbjMt5dxRbd0rY273LJqmF_43mSMo3IdP1EgYAL6U1KU0CD0pXwyqrpJ7pE_8T1SsJLMx7A2a8W8Uo6btLjbKQeQBgLtCMZfUdgxRd9FtAsTnRm9L9KsgvyENumV4r6lw_M8gWeIV6bEzOxSoEHc-qlPfeMlOZ0yx9PUXdhRy5MVmEpODNmocsNdAhizzfrXDFN9OEtmorfqh4BAaQ7YmlsJKDnKr21zeS2EAaDtrCpYS4q0CIBVojRfOHWMAJzo=w702-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/4sbSDslVMbiK6b89u7MABnqoRPp8_F7aGpIpRFG6RDnoFUtrIDAkuvvg3hNEiZCxDV2G3VygZB2t1kVfCdhtYY3M3FuuQ-5swnhBSbuC-U08jeV21nUHSOWkR_o4liWsq4eSbC_RWGvIFO7ff3EAC_wTlinIZnI-1jAfuKJzop2oLQP-UiSbVuoAgnUElAkQ-r8IwJI-VxMKkzH4nAJsRdI-hsuSs0qFt7E9Twk92H10FsVn_HnvoCaGYyuTPMs5p4-o00EiwDZxgdXGAZL-cceO8eEmle8kXnLS8MelFbpPuWmryLDPeak93dcpbLVLMVaGvVRrpFZA5XLUn7IFkZrxk7qu3tSCFy1NF3gEHX1X3wyBM0vllxX2-cVfX3vMbeiE_t3aOUnRJQX8mw9D2tk1jCaWnShJGhrwgfKv_FTuQgT4XyAmICkXsCgS9-befL7YT281TCPij7KAOpJq8URJNaAE5lMrrHH-c6OHCS4C-zqJQzqVCrAceIJWd909FhHDZnaxOzoSXUHMKPlkynpNOkDm-fy7or0YYKdVwpj0mDOqn7iu0uFUcXgLPwn1XynzP4dAPL2byl_N_1R7xIu_r0IbeYc06-FV68S3c-K15uEs7YuXwXk4UtX1COcfvavfqw0jX0ASiijHCdRE9-ROCAtmxkROS7xNlmaYP7tMWIlVNsRBxcZTJh-JLyBswHApyovu6iOBRKyE-qc=w702-h936-no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1036,19 +1050,28 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="'docs-Calibri'"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1142,7 +1165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1222,10 +1245,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1539,7 +1575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2583,7 +2619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2601,10 +2637,10 @@
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="30"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -8016,7 +8052,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>readme!$B$2:$B$6</xm:f>
           </x14:formula1>
@@ -8029,10 +8065,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -8048,10 +8086,10 @@
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="30"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -8077,14 +8115,18 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>287</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="29" t="s">
+        <v>294</v>
+      </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="30" t="s">
+        <v>295</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -8350,12 +8392,12 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" ht="150">
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="4"/>
@@ -8386,7 +8428,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="4"/>
@@ -8412,18 +8454,18 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" ht="15" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>193</v>
+        <v>297</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -8452,7 +8494,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="4"/>
@@ -8478,12 +8520,12 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" ht="120">
       <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>195</v>
+        <v>299</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -8514,7 +8556,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="4"/>
@@ -8540,12 +8582,12 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" ht="150">
       <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -8576,7 +8618,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="4"/>
@@ -8610,13 +8652,13 @@
         <v>29.3</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -8644,7 +8686,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="4"/>
@@ -8733,7 +8775,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="4"/>
@@ -8764,7 +8806,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="4"/>
@@ -8795,13 +8837,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>206</v>
+        <v>303</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>207</v>
+        <v>302</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -8830,7 +8872,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="4"/>
@@ -8861,7 +8903,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="4"/>
@@ -8892,7 +8934,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="4"/>
@@ -8923,7 +8965,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="4"/>
@@ -8954,7 +8996,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="15"/>
@@ -8985,7 +9027,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="4"/>
@@ -9016,7 +9058,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
@@ -9047,7 +9089,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="4"/>
@@ -9078,7 +9120,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="4"/>
@@ -9109,7 +9151,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="4"/>
@@ -9140,7 +9182,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="4"/>
@@ -9174,13 +9216,13 @@
         <v>23.8</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -9208,7 +9250,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="4"/>
@@ -9297,7 +9339,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="4"/>
@@ -9328,7 +9370,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="4"/>
@@ -9359,7 +9401,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="4"/>
@@ -9390,7 +9432,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="15"/>
@@ -9421,7 +9463,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="4"/>
@@ -9452,7 +9494,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="4"/>
@@ -9482,8 +9524,8 @@
       <c r="A47" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>229</v>
+      <c r="B47" s="31" t="s">
+        <v>311</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="4"/>
@@ -9517,13 +9559,13 @@
         <v>14.4</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -9551,7 +9593,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="4"/>
@@ -9640,7 +9682,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="4"/>
@@ -9671,7 +9713,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="4"/>
@@ -9702,7 +9744,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="4"/>
@@ -9733,7 +9775,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4"/>
@@ -9764,7 +9806,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="4"/>
@@ -9795,7 +9837,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="4"/>
@@ -9826,7 +9868,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="15"/>
@@ -9857,7 +9899,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="4"/>
@@ -9888,7 +9930,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="4"/>
@@ -9919,7 +9961,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="4"/>
@@ -9950,7 +9992,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>244</v>
+        <v>316</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="4"/>
@@ -9981,7 +10023,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="4"/>
@@ -10015,13 +10057,13 @@
         <v>17.5</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -10049,7 +10091,7 @@
         <v>6</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="4"/>
@@ -10138,7 +10180,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="4"/>
@@ -10169,7 +10211,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="4"/>
@@ -10200,7 +10242,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>252</v>
+        <v>317</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="4"/>
@@ -10231,7 +10273,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="4"/>
@@ -10262,7 +10304,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="4"/>
@@ -10293,7 +10335,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="4"/>
@@ -10324,7 +10366,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>256</v>
+        <v>319</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="4"/>
@@ -10355,7 +10397,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="4"/>
@@ -10386,7 +10428,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="4"/>
@@ -10417,7 +10459,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="15"/>
@@ -10443,22 +10485,16 @@
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="20">
-        <v>19.5</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>261</v>
-      </c>
+    <row r="78" spans="1:25" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A78" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -10482,14 +10518,20 @@
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1">
       <c r="A79" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B79" s="20">
+        <v>19.5</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -10513,9 +10555,11 @@
     </row>
     <row r="80" spans="1:25" ht="15.75" customHeight="1">
       <c r="A80" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>237</v>
+      </c>
       <c r="C80" s="9"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5"/>
@@ -10542,9 +10586,9 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="B81" s="15"/>
       <c r="C81" s="9"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5"/>
@@ -10571,11 +10615,9 @@
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B82" s="13"/>
       <c r="C82" s="9"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5"/>
@@ -10602,10 +10644,10 @@
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>264</v>
+        <v>2</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="4"/>
@@ -10631,12 +10673,12 @@
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="45">
       <c r="A84" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="4"/>
@@ -10664,10 +10706,10 @@
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="4"/>
@@ -10695,14 +10737,12 @@
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>268</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C86" s="9"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -10728,12 +10768,14 @@
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C87" s="9"/>
+        <v>323</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>324</v>
+      </c>
       <c r="D87" s="4"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -10759,11 +10801,12 @@
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>270</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C88" s="9"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -10789,13 +10832,12 @@
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D89" s="4"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -10818,15 +10860,14 @@
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A90" s="8" t="s">
+    <row r="90" spans="1:26" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A90" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="4"/>
+      <c r="B90" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="D90" s="16"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -10851,48 +10892,41 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="21">
-        <v>22</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="24"/>
-      <c r="N91" s="24"/>
-      <c r="O91" s="24"/>
-      <c r="P91" s="24"/>
-      <c r="Q91" s="24"/>
-      <c r="R91" s="24"/>
-      <c r="S91" s="24"/>
-      <c r="T91" s="24"/>
-      <c r="U91" s="24"/>
-      <c r="V91" s="24"/>
-      <c r="W91" s="24"/>
-      <c r="X91" s="24"/>
-      <c r="Y91" s="24"/>
-      <c r="Z91" s="24"/>
+        <v>4</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
+      <c r="X91" s="5"/>
+      <c r="Y91" s="5"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="4"/>
@@ -10920,38 +10954,49 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5"/>
-      <c r="V93" s="5"/>
-      <c r="W93" s="5"/>
-      <c r="X93" s="5"/>
-      <c r="Y93" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B93" s="21">
+        <v>22</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="24"/>
+      <c r="Q93" s="24"/>
+      <c r="R93" s="24"/>
+      <c r="S93" s="24"/>
+      <c r="T93" s="24"/>
+      <c r="U93" s="24"/>
+      <c r="V93" s="24"/>
+      <c r="W93" s="24"/>
+      <c r="X93" s="24"/>
+      <c r="Y93" s="24"/>
+      <c r="Z93" s="24"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>246</v>
+      </c>
       <c r="C94" s="9"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5"/>
@@ -10978,11 +11023,9 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>277</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B95" s="20"/>
       <c r="C95" s="9"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5"/>
@@ -11009,11 +11052,9 @@
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B96" s="13"/>
       <c r="C96" s="9"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5"/>
@@ -11040,10 +11081,10 @@
     </row>
     <row r="97" spans="1:25" ht="15.75" customHeight="1">
       <c r="A97" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>279</v>
+        <v>2</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>247</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="4"/>
@@ -11071,14 +11112,12 @@
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1">
       <c r="A98" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>281</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C98" s="9"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -11107,7 +11146,7 @@
         <v>4</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="4"/>
@@ -11138,10 +11177,12 @@
         <v>3</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="15"/>
+        <v>328</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D100" s="4"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
@@ -11169,7 +11210,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="4"/>
@@ -11197,13 +11238,13 @@
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1">
       <c r="A102" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="C102" s="13"/>
-      <c r="D102" s="4"/>
+      <c r="D102" s="15"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
@@ -11228,10 +11269,10 @@
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1">
       <c r="A103" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="4"/>
@@ -11262,9 +11303,9 @@
         <v>4</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="C104" s="9"/>
+        <v>252</v>
+      </c>
+      <c r="C104" s="13"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -11290,20 +11331,14 @@
     </row>
     <row r="105" spans="1:25" ht="15.75" customHeight="1">
       <c r="A105" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="20">
-        <v>17.7</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>289</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C105" s="9"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -11327,13 +11362,13 @@
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1">
       <c r="A106" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="15"/>
+        <v>253</v>
+      </c>
+      <c r="C106" s="9"/>
+      <c r="D106" s="4"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
@@ -11358,12 +11393,20 @@
     </row>
     <row r="107" spans="1:25" ht="15.75" customHeight="1">
       <c r="A107" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B107" s="20">
+        <v>17.7</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -11387,11 +11430,13 @@
     </row>
     <row r="108" spans="1:25" ht="15.75" customHeight="1">
       <c r="A108" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="13"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="15"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
@@ -11416,11 +11461,9 @@
     </row>
     <row r="109" spans="1:25" ht="15.75" customHeight="1">
       <c r="A109" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>291</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B109" s="13"/>
       <c r="C109" s="9"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5"/>
@@ -11447,11 +11490,9 @@
     </row>
     <row r="110" spans="1:25" ht="15.75" customHeight="1">
       <c r="A110" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>292</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B110" s="13"/>
       <c r="C110" s="9"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5"/>
@@ -11478,9 +11519,11 @@
     </row>
     <row r="111" spans="1:25" ht="15.75" customHeight="1">
       <c r="A111" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>257</v>
+      </c>
       <c r="C111" s="9"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5"/>
@@ -11505,12 +11548,12 @@
       <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
     </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1">
+    <row r="112" spans="1:25" ht="75">
       <c r="A112" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="4"/>
@@ -11541,7 +11584,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="4"/>
@@ -11572,7 +11615,7 @@
         <v>4</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="4"/>
@@ -11603,7 +11646,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="4"/>
@@ -11634,7 +11677,7 @@
         <v>4</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="4"/>
@@ -11665,12 +11708,10 @@
         <v>3</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="D117" s="15"/>
+        <v>334</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="4"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
@@ -11695,20 +11736,14 @@
     </row>
     <row r="118" spans="1:25" ht="15.75" customHeight="1">
       <c r="A118" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" s="20">
-        <v>21.3</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>302</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
@@ -11732,13 +11767,15 @@
     </row>
     <row r="119" spans="1:25" ht="15.75" customHeight="1">
       <c r="A119" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="4"/>
+        <v>335</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D119" s="15"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
@@ -11763,12 +11800,20 @@
     </row>
     <row r="120" spans="1:25" ht="15.75" customHeight="1">
       <c r="A120" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B120" s="13"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B120" s="20">
+        <v>21.3</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
@@ -11791,12 +11836,64 @@
       <c r="Y120" s="5"/>
     </row>
     <row r="121" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A121" s="25"/>
-      <c r="B121" s="20"/>
+      <c r="A121" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5"/>
+      <c r="V121" s="5"/>
+      <c r="W121" s="5"/>
+      <c r="X121" s="5"/>
+      <c r="Y121" s="5"/>
     </row>
     <row r="122" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A122" s="25"/>
-      <c r="B122" s="20"/>
+      <c r="A122" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="13"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5"/>
+      <c r="W122" s="5"/>
+      <c r="X122" s="5"/>
+      <c r="Y122" s="5"/>
     </row>
     <row r="123" spans="1:25" ht="15.75" customHeight="1">
       <c r="A123" s="25"/>
@@ -15309,6 +15406,14 @@
     <row r="1000" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1000" s="25"/>
       <c r="B1000" s="20"/>
+    </row>
+    <row r="1001" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A1001" s="25"/>
+      <c r="B1001" s="20"/>
+    </row>
+    <row r="1002" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A1002" s="25"/>
+      <c r="B1002" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15319,11 +15424,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>readme!$B$2:$B$15</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A120</xm:sqref>
+          <xm:sqref>A3:A122</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15332,10 +15437,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -15353,10 +15458,10 @@
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="30"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -15382,19 +15487,19 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -15574,7 +15679,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -15666,13 +15771,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -15732,7 +15837,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="4"/>
@@ -15794,7 +15899,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -15856,7 +15961,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -15918,13 +16023,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -15984,7 +16089,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="4"/>
@@ -16107,7 +16212,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -16168,10 +16273,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -16201,7 +16306,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -16263,13 +16368,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -16329,7 +16434,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
@@ -16391,7 +16496,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="4"/>
@@ -16573,7 +16678,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="4"/>
@@ -16635,7 +16740,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="4"/>
@@ -16697,7 +16802,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="4"/>
@@ -22385,7 +22490,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>readme!$B$2:$B$15</xm:f>
           </x14:formula1>

--- a/static/data/data.xlsx
+++ b/static/data/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="337">
   <si>
     <t>section_start</t>
   </si>
@@ -573,9 +573,6 @@
     <t>Viens ensuite la descente qui plonge d'un coup vers le lac du Poursollet. Je croise pas mal de randonneurs qui montent vers le plateau. En bas de la descente je rate un chemin sur la gauche et descends un peu trop bas. En plus je n'ai pas bien regardé le profil de l'étape et je pensais avoir seulement de la descente alors les quelques petites montées suivantes m'ont fait mal aux jambes et au moral. Le reste de l'étape est en descente plutot calme jusqu'a l'Alpe du Grand Serre. La boucle est bouclée.</t>
   </si>
   <si>
-    <t>intro</t>
-  </si>
-  <si>
     <t xml:space="preserve">Après la Norvège on revient dans l'Hexagone pour 8 jours de radonnée dans le Queyras. L'objectif initial était de faire 10 jours en combinant le tour du Queyras avec le tour du Viso mais on a du revoir notre itinéraire à cause des conditions d'enneigement défavorables. Au final on a fait le Tour du Queyras en 7 jours et une radonnée sans sacs à la fin pour cloturer nos vacances. </t>
   </si>
   <si>
@@ -585,9 +582,6 @@
     <t>Après un week-end à Nice je rejoins Antoine à la gare de Lyon Part-Dieu puis on continue le trajet en voiture. Première petite péripétie pendant le trajet, on ne fait pas attentionau trajet que nous propose le GPS et on se retrouve à passer par le tunnel de Fréjus, 44€ bêtement dépensés. Nous voila donc en Italie. Deuxième déconvenue, après avoir passé la frontière on se rends compte qu'on est limite niveau carburant et on est pas sur de pouvoir aller jusqu'à la prochaine station service. on fait donc demi-tour car il y a une pompe à essence plus proche. Réservoir rempli, on peut repartir. Comme on est quand même un peu à l'arrache niveau organisation on se rend seulement compte qu'à l'heure ou l'on va arriver tout sera fermé, que se soit les restaurant ou le camping. On s'arrête donc pour manger à Briançon. Estomac rempli, on peut repartir. Dernière chose qu'on a oublier de faire, retirer de l'argent, les distributeurs ne courent pas les sentiers apparemment. On s'arrête donc une ultime fois à Guillestre pour accomplir cette mission. Porte-feuille rempli, on peut repartir. La route jusqu'à Ceillac est très sinueuse. On arrive vers 22h30. Comme prévu l'accueil du camping est fermé. On se met à la recherche d'un endroit pour camper. Par chance, l'entrée du camping municipale (qui n'est pas encore ouvert) est dénuée de portail. On se permet donc d'y entrer. On installe la tente en toute discrétion et on se couche.</t>
   </si>
   <si>
-    <t>Jour 1: Ceillac - Saint Véran - Chapelel du Clausis</t>
-  </si>
-  <si>
     <t>On se réveille  assez tôt (vers 6h) pour démonter la tente. Au passage on se rend compte qu'on a surement choisi le pire emplacement pour poser la tente. Forcément dans la nuit noire c'est pas facile. On repli la tente. On finalise nos sacs. On reprends la voiture pour aller la garer dans le village de Ceillac. On trouveras une place sur le parking du Proxi. On passe à la boulangerie pour acheter du pain et des viennoiseries. C'est bon on a tout, on peut partir.</t>
   </si>
   <si>
@@ -618,9 +612,6 @@
     <t>map_1.html</t>
   </si>
   <si>
-    <t>Jour 2: Chapelle du Clausis -  Refuge Agnel -  La Monta</t>
-  </si>
-  <si>
     <t>La nuit à 2400m d'altitude a été très froide. On se réveille difficilement vers 7h15. Un petite heure pour prendre notre petit déjeuner et de ranger la tente (bien mouillée par la rosée) et nous voila repartis pour cette deuxième journée de marche. On commence par redscendre légèrement pour retrouver le tracé du GR. On fait le plein d'eau dans le torrent. Puis ça remonte de suite vers le col de Chamoussière. Dans la montée on voit encore beaucoup de marmottes.</t>
   </si>
   <si>
@@ -654,9 +645,6 @@
     <t>map_2.html</t>
   </si>
   <si>
-    <t>Jour 3 : La Monta - Abries</t>
-  </si>
-  <si>
     <t>On revient un peu sur nos pas pour retrouver le tracé du GR par la variante des crètes. La montée est assez raide dès le début. On passe non loin d'un troupeau avec son berger et son patou. La pente s'adoucit pendant un moment sous une forêt de pins. On se fait doubler par un papy qui fait le tour du Queyras en solitaire. On le recroisera régulièrement par la suite. Nous l'appelerons Jean-Pierre. La pente se durcit au moment d'atteindre la crète. On fait une première pause.</t>
   </si>
   <si>
@@ -678,9 +666,6 @@
     <t>map_3.html</t>
   </si>
   <si>
-    <t>Jour 4 : Abries - Les Fonds</t>
-  </si>
-  <si>
     <t>Ce matin on se lève vers 6h30. Pendant qu'on prends notre petit déjeuner , on aperçoit Jean-Pierre qui attaque  déja l'étape. On  achète du pain et nous voila partis. Petite erreur d'éguillage au départ dans le village qui nous fait perdre une dizaine de minutes.  De reout sur le tracé vers 8h. Le début de l'étape est en montée douce. Après une petite heure on passe à côté de chalets qui sont entraind'être rénovés. On se demande bien comment ils ont fait pour amener le matériel jusque là.</t>
   </si>
   <si>
@@ -711,9 +696,6 @@
     <t>map_4.html</t>
   </si>
   <si>
-    <t>Jour 5: Les Fonds - Souliers</t>
-  </si>
-  <si>
     <t>La nuit a été froide et humide. On y pensera à deux fois avant de se mettre à côté d'un torrent la prochaine fois. Pendant qu'on déjeune Jean-pierre part déjà marcher. On remballe et on lui emballe le pas.  On continue à descendre un peu. Puis on bifurque à gauche et ça commence à monter fort. Sur un arbre il y a un balisage pour les championnant de France de trail, on est au kilomètre 40. Antoine ne semble pas dans son assiette, la montée est compliqué. Je le soulage un peu en prenant la tente dans mon sac.  On se fait doubler par deux traileur qui s'occupe du balissage aperçu plus tôt. On s'arrête quelques temps au lac des Cordes. On a une belle vue sur le massif des Ecrins.</t>
   </si>
   <si>
@@ -738,9 +720,6 @@
     <t>map_5.html</t>
   </si>
   <si>
-    <t>Jour 6: Souliers - Furfande</t>
-  </si>
-  <si>
     <t xml:space="preserve">On profite encore du confort du refuge pour prendre notre petit-déjeuner. Départ tranquille vers 8h30. On commence par une montée tranquille sur un grand sentier. Puis ca commence a bien monter. On arrive rapidement au col du Tronchet ou on rejoint Jean-Pierre et le rugbyman mais ils repartent vite. En montant sur la gauche on a une belle vue sur toute la vallée. </t>
   </si>
   <si>
@@ -765,9 +744,6 @@
     <t>map_6.html</t>
   </si>
   <si>
-    <t>Jour 7: Furfande - Bramousse – Ceillac</t>
-  </si>
-  <si>
     <t>On commence la descenteaccompagnés par un troupeau de vache. Assez vite on rattrape Eric puis Jean-Pierre. La pente devient raide et glissante. On descends pendant un bon moment (plus de 1000m d'un coup).</t>
   </si>
   <si>
@@ -795,9 +771,6 @@
     <t>map_7.html</t>
   </si>
   <si>
-    <t>Bonus: Lac Saint Anne</t>
-  </si>
-  <si>
     <t>Aujourd'hui c'est le dernier jour de randonnée. Une petite balade à la journée sans sacs (ou presque) juqu'au lac Sainte Anne. On traverse le torrent qui passe juste à côté du camping pour se rendre au début de la randonnée. On commence par longer le torrent. Ca monte donc tranquillement. Puis on commence les choses serieuses. Ca monte fort d'un coup, heureusement qu'on est pas beaucoup chargés. On marche à un bon rythme. On dépasse quelques randonneurs. On repasse pas loin du torrent qui dévale la pente.</t>
   </si>
   <si>
@@ -1033,6 +1006,33 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/4sbSDslVMbiK6b89u7MABnqoRPp8_F7aGpIpRFG6RDnoFUtrIDAkuvvg3hNEiZCxDV2G3VygZB2t1kVfCdhtYY3M3FuuQ-5swnhBSbuC-U08jeV21nUHSOWkR_o4liWsq4eSbC_RWGvIFO7ff3EAC_wTlinIZnI-1jAfuKJzop2oLQP-UiSbVuoAgnUElAkQ-r8IwJI-VxMKkzH4nAJsRdI-hsuSs0qFt7E9Twk92H10FsVn_HnvoCaGYyuTPMs5p4-o00EiwDZxgdXGAZL-cceO8eEmle8kXnLS8MelFbpPuWmryLDPeak93dcpbLVLMVaGvVRrpFZA5XLUn7IFkZrxk7qu3tSCFy1NF3gEHX1X3wyBM0vllxX2-cVfX3vMbeiE_t3aOUnRJQX8mw9D2tk1jCaWnShJGhrwgfKv_FTuQgT4XyAmICkXsCgS9-befL7YT281TCPij7KAOpJq8URJNaAE5lMrrHH-c6OHCS4C-zqJQzqVCrAceIJWd909FhHDZnaxOzoSXUHMKPlkynpNOkDm-fy7or0YYKdVwpj0mDOqn7iu0uFUcXgLPwn1XynzP4dAPL2byl_N_1R7xIu_r0IbeYc06-FV68S3c-K15uEs7YuXwXk4UtX1COcfvavfqw0jX0ASiijHCdRE9-ROCAtmxkROS7xNlmaYP7tMWIlVNsRBxcZTJh-JLyBswHApyovu6iOBRKyE-qc=w702-h936-no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lac Saint Anne</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Furfande - Bramousse – Ceillac</t>
+  </si>
+  <si>
+    <t>Les Fonds - Souliers</t>
+  </si>
+  <si>
+    <t>Souliers - Furfande</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abries - Les Fonds</t>
+  </si>
+  <si>
+    <t>La Monta - Abries</t>
+  </si>
+  <si>
+    <t>Chapelle du Clausis -  Refuge Agnel -  La Monta</t>
+  </si>
+  <si>
+    <t>Ceillac - Saint Véran - Chapelel du Clausis</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1255,11 +1255,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2637,10 +2643,10 @@
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -8068,8 +8074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8086,10 +8092,10 @@
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -8115,17 +8121,17 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="30" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -8152,9 +8158,7 @@
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>183</v>
-      </c>
+      <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
@@ -8184,7 +8188,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="4"/>
@@ -8215,7 +8219,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="4"/>
@@ -8304,7 +8308,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="4"/>
@@ -8334,10 +8338,12 @@
       <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="13"/>
+      <c r="B9" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>336</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -8366,7 +8372,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="4"/>
@@ -8397,7 +8403,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="4"/>
@@ -8428,7 +8434,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="4"/>
@@ -8459,13 +8465,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -8494,7 +8500,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="4"/>
@@ -8525,7 +8531,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -8556,7 +8562,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="4"/>
@@ -8587,7 +8593,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -8618,7 +8624,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="4"/>
@@ -8652,13 +8658,13 @@
         <v>29.3</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -8686,7 +8692,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="4"/>
@@ -8774,10 +8780,12 @@
       <c r="A23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="C23" s="9"/>
+      <c r="B23" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>335</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -8806,7 +8814,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="4"/>
@@ -8837,13 +8845,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -8872,7 +8880,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="4"/>
@@ -8903,7 +8911,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="4"/>
@@ -8934,7 +8942,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="4"/>
@@ -8965,7 +8973,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="4"/>
@@ -8996,7 +9004,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="15"/>
@@ -9027,7 +9035,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="4"/>
@@ -9058,7 +9066,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
@@ -9089,7 +9097,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="4"/>
@@ -9120,7 +9128,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="4"/>
@@ -9151,7 +9159,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="4"/>
@@ -9182,7 +9190,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="4"/>
@@ -9216,13 +9224,13 @@
         <v>23.8</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -9250,7 +9258,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="4"/>
@@ -9338,10 +9346,12 @@
       <c r="A41" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C41" s="9"/>
+      <c r="B41" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>334</v>
+      </c>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -9370,7 +9380,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="4"/>
@@ -9401,7 +9411,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="4"/>
@@ -9432,7 +9442,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="15"/>
@@ -9463,7 +9473,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="4"/>
@@ -9494,7 +9504,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="4"/>
@@ -9525,7 +9535,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="4"/>
@@ -9559,13 +9569,13 @@
         <v>14.4</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -9593,7 +9603,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="4"/>
@@ -9681,10 +9691,12 @@
       <c r="A52" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C52" s="9"/>
+      <c r="B52" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>333</v>
+      </c>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -9713,7 +9725,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="4"/>
@@ -9744,7 +9756,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="4"/>
@@ -9775,7 +9787,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4"/>
@@ -9806,7 +9818,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="4"/>
@@ -9837,7 +9849,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="4"/>
@@ -9868,7 +9880,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="15"/>
@@ -9899,7 +9911,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="4"/>
@@ -9930,7 +9942,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="4"/>
@@ -9961,7 +9973,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="4"/>
@@ -9992,7 +10004,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="4"/>
@@ -10023,7 +10035,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="4"/>
@@ -10057,13 +10069,13 @@
         <v>17.5</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -10091,7 +10103,7 @@
         <v>6</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="4"/>
@@ -10179,10 +10191,12 @@
       <c r="A68" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C68" s="9"/>
+      <c r="B68" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>331</v>
+      </c>
       <c r="D68" s="4"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -10211,7 +10225,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="4"/>
@@ -10242,7 +10256,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="4"/>
@@ -10273,7 +10287,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="4"/>
@@ -10304,7 +10318,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="4"/>
@@ -10335,7 +10349,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="4"/>
@@ -10366,7 +10380,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="4"/>
@@ -10397,7 +10411,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="4"/>
@@ -10428,7 +10442,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="4"/>
@@ -10459,7 +10473,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="15"/>
@@ -10490,7 +10504,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="15"/>
@@ -10524,13 +10538,13 @@
         <v>19.5</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -10558,7 +10572,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="4"/>
@@ -10646,10 +10660,12 @@
       <c r="A83" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="C83" s="9"/>
+      <c r="B83" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>332</v>
+      </c>
       <c r="D83" s="4"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -10678,7 +10694,7 @@
         <v>4</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="4"/>
@@ -10709,7 +10725,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="4"/>
@@ -10740,7 +10756,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="4"/>
@@ -10771,10 +10787,10 @@
         <v>3</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="5"/>
@@ -10804,7 +10820,7 @@
         <v>4</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="4"/>
@@ -10835,7 +10851,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="5"/>
@@ -10864,8 +10880,8 @@
       <c r="A90" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="35" t="s">
-        <v>326</v>
+      <c r="B90" s="33" t="s">
+        <v>317</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="5"/>
@@ -10895,7 +10911,7 @@
         <v>4</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="15"/>
@@ -10926,7 +10942,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="4"/>
@@ -10960,13 +10976,13 @@
         <v>22</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F93" s="24"/>
       <c r="G93" s="24"/>
@@ -10995,7 +11011,7 @@
         <v>6</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="4"/>
@@ -11083,10 +11099,12 @@
       <c r="A97" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="C97" s="9"/>
+      <c r="B97" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>330</v>
+      </c>
       <c r="D97" s="4"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -11115,7 +11133,7 @@
         <v>4</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="4"/>
@@ -11146,7 +11164,7 @@
         <v>4</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="4"/>
@@ -11177,10 +11195,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="5"/>
@@ -11210,7 +11228,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="4"/>
@@ -11241,7 +11259,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="15"/>
@@ -11272,7 +11290,7 @@
         <v>4</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="4"/>
@@ -11303,7 +11321,7 @@
         <v>4</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="4"/>
@@ -11334,7 +11352,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="4"/>
@@ -11365,7 +11383,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="4"/>
@@ -11399,13 +11417,13 @@
         <v>17.7</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
@@ -11433,7 +11451,7 @@
         <v>6</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="15"/>
@@ -11521,10 +11539,12 @@
       <c r="A111" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B111" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C111" s="9"/>
+      <c r="B111" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>328</v>
+      </c>
       <c r="D111" s="4"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -11553,7 +11573,7 @@
         <v>4</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="4"/>
@@ -11584,7 +11604,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="4"/>
@@ -11615,7 +11635,7 @@
         <v>4</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="4"/>
@@ -11646,7 +11666,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="4"/>
@@ -11677,7 +11697,7 @@
         <v>4</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="4"/>
@@ -11708,7 +11728,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="4"/>
@@ -11739,7 +11759,7 @@
         <v>4</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="4"/>
@@ -11770,10 +11790,10 @@
         <v>3</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="5"/>
@@ -11806,13 +11826,13 @@
         <v>21.3</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -11840,7 +11860,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="4"/>
@@ -15458,10 +15478,10 @@
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -15487,19 +15507,19 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -15679,7 +15699,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -15771,13 +15791,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -15837,7 +15857,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="4"/>
@@ -15899,7 +15919,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -15961,7 +15981,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -16023,13 +16043,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -16089,7 +16109,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="4"/>
@@ -16212,7 +16232,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -16273,10 +16293,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -16306,7 +16326,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -16368,13 +16388,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -16434,7 +16454,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
@@ -16496,7 +16516,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="4"/>
@@ -16678,7 +16698,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="4"/>
@@ -16740,7 +16760,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="4"/>
@@ -16802,7 +16822,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="4"/>

--- a/static/data/data.xlsx
+++ b/static/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\thomasmrt.github.io\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B13DED0-B6EF-4586-BDC7-BF917C9E9EC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66991785-8651-4CC0-9D24-CDB7FA3908C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="332">
   <si>
     <t>section_start</t>
   </si>
@@ -562,9 +562,6 @@
     <t>Pendant que je suis posé pour profiter su soleil je verrai passer plusieurs randonneurs dont certains bivouaqueront dans les parrages (l'éclairage de leur frontale trahissant leur presence). Encore un beau coucher de soleil ce soir.  Vers 19h je suis rejoint par deux papas et leur enfants qui viennent passer la nuit a la cabane. Le ciel etoilé est incroyable cette nuit.</t>
   </si>
   <si>
-    <t>Jour 3: Plateau du Taillefer - Alpe du Grand Serre</t>
-  </si>
-  <si>
     <t>Le lendemain le ciel est quelque peu couvert mais le soelil arrive quand meme a percer.</t>
   </si>
   <si>
@@ -1019,6 +1016,9 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/Jn7gVpIGurO8bNSSP0yGYT39eAYIYVHug1kB99aOkxTnlapZVCQoD_3dRcRkcjE34nwFwktlwAjl8xuQWEdcRgEcUzFQJ1RvfEyMV0XLhJXngo_0Ww2s2WKJrFTxhhjZ4NEkklsqp2NiLneVaK2WQv-zx6y7GH1fyXcF1tnUdSBrlGsCkFxTVwghdxrNZ0i9KZzlxZQGHvZr_BALZAzxBJ6JeTyh09V0ieo62WxIohTal4dh91kqhrnnFY-h1ZPkeVXkgrXxVGlA85PWNwQvWn8aJZjRrljIvAbHNXvg4Pdbw1GPasTu_klRl8_5_oh-5OLNL-_aoIzEuCz61OivbJUOCOaRgzTqifcEI73OuAB3Gkqz1lscBXpU8U6Kq5MM_8NC5yVQgMD-xd5EnRcO1kBUnSJ23aTRupq4POzRrVnfpoFx4RABpXyNsrxtEcTfeqSpzy-0EhBxwQzm7Wok_3AcsmS8YWQ-fwE7Iykav8DWZ0fSEDLTkNNb3k0KRplcn_-TGa59HhcXoZgMwlkDJ0NuZrZCWrIehOM9oROdxTRhdVzHgjugoIXUW5qZOtU-W3fG9683_kxpq_h-Vv3B7SlL9RcG8MeZse1e7Qe0K5lKWGtUpzKfJ2Qu9NZtMxXdQRYYmKEnaMKDfGczqTQJuxATCw=w1259-h944-no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plateau du Taillefer - Alpe du Grand Serre</t>
   </si>
 </sst>
 </file>
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="4"/>
@@ -8142,7 +8142,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="4"/>
@@ -8173,7 +8173,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="4"/>
@@ -8262,7 +8262,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="4"/>
@@ -8293,7 +8293,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="4"/>
@@ -8324,7 +8324,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="4"/>
@@ -8355,7 +8355,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="4"/>
@@ -8386,7 +8386,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="4"/>
@@ -8417,13 +8417,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="13" t="s">
         <v>192</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>193</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -8452,7 +8452,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="4"/>
@@ -8483,7 +8483,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -8514,7 +8514,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="4"/>
@@ -8545,7 +8545,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -8576,7 +8576,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="4"/>
@@ -8610,13 +8610,13 @@
         <v>29.3</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -8644,7 +8644,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="4"/>
@@ -8733,7 +8733,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="4"/>
@@ -8764,7 +8764,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="4"/>
@@ -8795,13 +8795,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="D25" s="20" t="s">
         <v>206</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>207</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -8830,7 +8830,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="4"/>
@@ -8861,7 +8861,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="4"/>
@@ -8892,7 +8892,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="4"/>
@@ -8923,7 +8923,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="4"/>
@@ -8954,7 +8954,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="15"/>
@@ -8985,7 +8985,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="4"/>
@@ -9016,7 +9016,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
@@ -9047,7 +9047,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="4"/>
@@ -9078,7 +9078,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="4"/>
@@ -9109,7 +9109,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="4"/>
@@ -9140,7 +9140,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="4"/>
@@ -9174,13 +9174,13 @@
         <v>23.8</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -9208,7 +9208,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="4"/>
@@ -9297,7 +9297,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="4"/>
@@ -9328,7 +9328,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="4"/>
@@ -9359,7 +9359,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="4"/>
@@ -9390,7 +9390,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="15"/>
@@ -9421,7 +9421,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="4"/>
@@ -9452,7 +9452,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="4"/>
@@ -9483,7 +9483,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="4"/>
@@ -9517,13 +9517,13 @@
         <v>14.4</v>
       </c>
       <c r="C48" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -9551,7 +9551,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="4"/>
@@ -9640,7 +9640,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="4"/>
@@ -9671,7 +9671,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="4"/>
@@ -9702,7 +9702,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="4"/>
@@ -9733,7 +9733,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4"/>
@@ -9764,7 +9764,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="4"/>
@@ -9795,7 +9795,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="4"/>
@@ -9826,7 +9826,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="15"/>
@@ -9857,7 +9857,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="4"/>
@@ -9888,7 +9888,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="4"/>
@@ -9919,7 +9919,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="4"/>
@@ -9950,7 +9950,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="4"/>
@@ -9981,7 +9981,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="4"/>
@@ -10015,13 +10015,13 @@
         <v>17.5</v>
       </c>
       <c r="C64" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -10049,7 +10049,7 @@
         <v>6</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="4"/>
@@ -10138,7 +10138,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="4"/>
@@ -10169,7 +10169,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="4"/>
@@ -10200,7 +10200,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="4"/>
@@ -10231,7 +10231,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="4"/>
@@ -10262,7 +10262,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="4"/>
@@ -10293,7 +10293,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="4"/>
@@ -10324,7 +10324,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="4"/>
@@ -10355,7 +10355,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="4"/>
@@ -10386,7 +10386,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="4"/>
@@ -10417,7 +10417,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="15"/>
@@ -10451,13 +10451,13 @@
         <v>19.5</v>
       </c>
       <c r="C78" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -10485,7 +10485,7 @@
         <v>6</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="4"/>
@@ -10574,7 +10574,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="4"/>
@@ -10605,7 +10605,7 @@
         <v>4</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="4"/>
@@ -10636,7 +10636,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="4"/>
@@ -10667,7 +10667,7 @@
         <v>4</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="4"/>
@@ -10698,10 +10698,10 @@
         <v>3</v>
       </c>
       <c r="B86" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="5"/>
@@ -10731,7 +10731,7 @@
         <v>4</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="4"/>
@@ -10762,7 +10762,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="5"/>
@@ -10792,7 +10792,7 @@
         <v>4</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="15"/>
@@ -10823,7 +10823,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="4"/>
@@ -10857,13 +10857,13 @@
         <v>22</v>
       </c>
       <c r="C91" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D91" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="D91" s="23" t="s">
+      <c r="E91" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="F91" s="24"/>
       <c r="G91" s="24"/>
@@ -10892,7 +10892,7 @@
         <v>6</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="4"/>
@@ -10981,7 +10981,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="4"/>
@@ -11012,7 +11012,7 @@
         <v>4</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="4"/>
@@ -11043,7 +11043,7 @@
         <v>4</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="4"/>
@@ -11074,10 +11074,10 @@
         <v>3</v>
       </c>
       <c r="B98" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>281</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="5"/>
@@ -11107,7 +11107,7 @@
         <v>4</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="4"/>
@@ -11138,7 +11138,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="15"/>
@@ -11169,7 +11169,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="4"/>
@@ -11200,7 +11200,7 @@
         <v>4</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="4"/>
@@ -11231,7 +11231,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="4"/>
@@ -11262,7 +11262,7 @@
         <v>4</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="4"/>
@@ -11296,13 +11296,13 @@
         <v>17.7</v>
       </c>
       <c r="C105" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E105" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
@@ -11330,7 +11330,7 @@
         <v>6</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="15"/>
@@ -11419,7 +11419,7 @@
         <v>2</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="4"/>
@@ -11450,7 +11450,7 @@
         <v>4</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="4"/>
@@ -11510,7 +11510,7 @@
         <v>4</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="4"/>
@@ -11541,7 +11541,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="4"/>
@@ -11572,7 +11572,7 @@
         <v>4</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="4"/>
@@ -11603,7 +11603,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="4"/>
@@ -11634,7 +11634,7 @@
         <v>4</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="4"/>
@@ -11665,10 +11665,10 @@
         <v>3</v>
       </c>
       <c r="B117" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C117" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>299</v>
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="5"/>
@@ -11701,13 +11701,13 @@
         <v>21.3</v>
       </c>
       <c r="C118" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="E118" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
@@ -11735,7 +11735,7 @@
         <v>6</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="4"/>
@@ -15335,8 +15335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -15382,19 +15382,19 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" t="s">
         <v>328</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>330</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -15574,7 +15574,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -15666,13 +15666,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="16" t="s">
         <v>305</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>306</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -15732,7 +15732,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="4"/>
@@ -15794,7 +15794,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -15856,7 +15856,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -15918,13 +15918,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="16" t="s">
         <v>311</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>312</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -15984,7 +15984,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="4"/>
@@ -16107,7 +16107,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -16168,10 +16168,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -16201,7 +16201,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -16263,13 +16263,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="16" t="s">
         <v>318</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>319</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -16329,7 +16329,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
@@ -16391,7 +16391,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="4"/>
@@ -16511,9 +16511,11 @@
         <v>2</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>331</v>
+      </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -16542,7 +16544,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="4"/>
@@ -16573,7 +16575,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="4"/>
@@ -16604,7 +16606,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="4"/>
@@ -16635,7 +16637,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="4"/>
@@ -16666,7 +16668,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="4"/>
@@ -16697,7 +16699,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="4"/>
@@ -16724,7 +16726,9 @@
       <c r="Y44" s="5"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A45" s="8"/>
+      <c r="A45" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="B45" s="20"/>
       <c r="C45" s="9"/>
       <c r="D45" s="4"/>

--- a/static/data/data.xlsx
+++ b/static/data/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safco103866\Desktop\Tools\site\thomasmrt.github.io\static\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\thomasmrt.github.io\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F979F95D-3E0B-4DAE-B1F0-F96218ED5ADC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="341">
   <si>
     <t>section_start</t>
   </si>
@@ -75,21 +76,12 @@
     <t>Paris - Oslo - Bodo - Svolvaer</t>
   </si>
   <si>
-    <t>img/jour01_01.jpg</t>
-  </si>
-  <si>
     <t>Sacs sur le dos, chaussure au pieds, on part de Saint-Cyr vers 7h. On prend ensuite le RER jusqu'à montparnasse puis le bus jusqu'à Charles de Gaulle. on galère un peu pour enregistrer nos bagages parce qu'on est des gros boulets on a pas vu que la machine a imprimé nos tickets on les a laissés par terre. Premier vol sans encombre on arrive à Oslo vers 13h15. Petite particularité à Oslo pour continuer vers notre correspondance il faut qu'on attende que notre nom s'afiche sur un écran. Puis en scanant notre billet on vérifie que nos bagages soient bien là, photos à l'appui. On profite de cette escale pour prendre notre premier repas sur le sol norvégien, une tartine au saumon une bouteille d'eau et un dessert. Résultat des courses 500 NOK (couronnes norvégiennes) soit 50 € pour deux (WTF?!).</t>
   </si>
   <si>
-    <t>img/jour01_02.jpg</t>
-  </si>
-  <si>
     <t>On embarque ensuite pour notre deuxième vol vers Bodo. Peu avant le décollage le capitaine nous annonce qu'on doit attendre des passagers dont le vol précédent a du retard. Après 40 minutes d'attente finalement on part...sans ces passagers. On a attendu pour rien. On arrive donc à Bodo où l'on doit récupérer nos bagages pour les enregistrer pour notre vol suivant vers Svolvaer. Avec les 40 minutes de retard on doit se dépêcher pour ne pas rater le vol. Et là c'est le drame le sac d'Antoine n'est pas sur le tapis. Il a dû rester à Oslo.</t>
   </si>
   <si>
-    <t>img/jour01_03.jpg</t>
-  </si>
-  <si>
     <t>Tant pis on saute dans l'avion sans le sac on s'en occupera plus tard. Arrivés à destination on prend des nouvelles du sac. Apparemment il a été retrouvé mais il ne pourra pas être envoyé sur place avant demain matin. Iil faut donc qu'on trouve une solution pour dormir cette nuit car bien évidemment la tente est dans le sac d'Antoine. On prend un taxi pour rejoindre le centre-ville et essayer de trouver un hôtel. Malheureusement à cette époque de l'année tous les hôtels sont pleins. Finalement on trouvera quand même une place dans un camping (une chambre deux place) pour passer la nuit.</t>
   </si>
   <si>
@@ -105,21 +97,12 @@
     <t>Aujourd'hui on a deux missions récupérer le sac d'Antoine puis essayer de se rendre au début de la randonnée à Delp. Vers 8h30 on reçoit un appel de l'aéroport qui nous prévienstque le sac est arrivé. On prend donc le bus vers 9h45 pour aller le chercher. Première mission accomplie. Après avoir vérifié les horaires de bus, on se rend compte que çela va être compliqué d'aller à Delp aujourd'hui. Changement de plan on décide de se rendre à Sandsletta (départ de l'étape 2). Le bus pour s'y rendre est 15h. En attendant on décide d'aller faire une petite randonnée dans les environs de Svolvaer. On prend le taxi pour se rendre au début de la randonnée. On tâtonne au début pour trouver le bon chemin. On commence l'ascension sur un grand chemin puis on bifurque sur la droite dans un petit chemin dans les bouleaux. Commence alors une ascension à brut. Après une petite demi-heure d'efforts on arrive au sommet et on a une vue magnifique sur la ville malgré le temps couvert.</t>
   </si>
   <si>
-    <t>img/jour02_01.jpg</t>
-  </si>
-  <si>
     <t>Avec le soleil ça serait vraiment sublime. Au sommet il y a une boîte aux lettres avec un carnet dedans sur lequel les gens inscrivent leur nom avec le jour et l'heure de passage. On redescend ensuite vers Svolvaer et on se pose près du port pour manger. On doit encore attendre une heure et demie pour le bus. On rentre dans un café pour ne pas mourir de froid car il ne fait pas très chaud dehors. 15h15, le bus est à l'heure. C'est parti pour Sandsletta. Le temps ne s'améliore pas. Après 40 minutes de route on arrive au camping. On installe la tente pour la première fois sous une fine pluie. On se balade dans le camping qui est près d'un lac et on fait la sieste dans la tente.</t>
   </si>
   <si>
-    <t>img/jour02_02.jpg</t>
-  </si>
-  <si>
     <t>On profite aussi de la douche chaude du camping et aussi des plaques de cuisson pour cuisiner notre premier repas. Au menu, pâtes aux vermicelles et riz au boeuf piquant. On n'attend pas que le soleil se couche pour aller dormir car ici il ne se couche jamais à cette époque de l'année. D'ailleurs c'est assez perturbant de se réveiller à 3h du matin et d'avoir la même luminosité qu'à 20h.</t>
   </si>
   <si>
-    <t>img/jour02_03.jpg</t>
-  </si>
-  <si>
     <t>Jour 3</t>
   </si>
   <si>
@@ -132,36 +115,18 @@
     <t>Après cette première nuit sans nuit, réveil tranquille vers 7h. Le temps d'avaler un muesli et un café on décolle vers 8h15. Le début de l'étape est le long de la route. Puis on bifurque dans une allée privée. Au bout de l'allée l'étape commence vraiment par une ascension dans une forêt de pins. La montée continue mais le terrain change on traverse de la tourbière bien humide. Je commence à douter de la pertinence de mon choix de chaussures. Un peu plus haut, nouveau changement de terrain, de la neige, que l’on doit traverser sur quelques mètres. Peu après vers 10h on arrive au lac Isvatnet, couvert de glace.</t>
   </si>
   <si>
-    <t>img/jour03_01.jpg</t>
-  </si>
-  <si>
-    <t>img/jour03_02.jpg</t>
-  </si>
-  <si>
     <t>On continue de grimper pour rejoindre lac Botnvatnet. La glace qui recouvre le lac laisse traverser des reflets turquoise, c'est beau. La neige est de plus en plus présente et c’est de plus en plus compliqué de repérer la trace de la randonnée. On traverse ensuite torrent en passant sur la glace qui le surplombe. On avance prudemment pour ne pas risquer de tomber dedans. À ce moment-là, on a perdu la trace du sentier et on ne sait pas trop où aller. On descend une pente assez abrupte et dans une petite glissade je plante et tord mes bâtons (la poisse).</t>
   </si>
   <si>
-    <t>img/jour03_04.jpg</t>
-  </si>
-  <si>
     <t>Ensuite on doit longer le flanc de la montagne. Notre route est interrompue par des portions de neige qui plonge dans la pente. Mieux vaut ne pas faire de faux pas au risque de se retrouver rapidement quelque dizaines de mètres plus bas.</t>
   </si>
   <si>
-    <t>img/jour03_03.jpg</t>
-  </si>
-  <si>
     <t>Jusque-là le temps est assez maussade à part une jolie éclaircie qui nous avait remonté le moral un peu avant la fin de la montée. On profite d'une petite accalmie pour s'arrêter manger. Ce sera assez bref car il recommence à pleuvoir. environ 20 minutes après la pose, Antoine s'aperçoit qu'il a égaré la fixation de son mini trépied. Après quelques hésitations Antoine rebrousse chemin pour tenter de le retrouver. Pendant ce temps je reste seul avec les sacs. Après quelques minutes, je remonte la pente pour essayer d'apercevoir Antoine. Il est presque revenu au point de départ. Et par chance il retrouve l'objet perdu. On continue alors la descente raide et humide vers le lac de Nedre Svolvaervatnet que l'on doit longer pour arriver à Svolvaer.</t>
   </si>
   <si>
-    <t>img/jour03_05.jpg</t>
-  </si>
-  <si>
     <t>On croise alors les premières personnes de la journée et bien sûr ce sont des français. Comme nous ils font la traversée des Lofoten et ont choisi de faire cette étape en sens inverse. Après le récit de nos petite galères sur la neige ils semblent hésiter à continuer jusqu'au bout. On continue de notre côté de longer le lac. Les conditions de marche s'améliorent grandement puisque la suite du parcours est aménagé avec un chemin de planches sur pilotis. On s'arrête un instant pour manger quelques gâteaux. La météo s'acharne il se remet à pleuvoir. On s'acharne à attendre une éclaircie. Une trouée dans les nuages nous laisse espérer un rayon de soleil mais les éléments sont contre nous et le soleil ne percera que timidement les nuages.</t>
   </si>
   <si>
-    <t>img/jour03_06.jpg</t>
-  </si>
-  <si>
     <t>On finit de longer le lac pour arriver au lieu de notre campement. On attend que la pluie cesse pour installer la tente. Alors qu'il nous a fui toute la journée le soleil pointe le bout de son nez. Ça fait tout de suite un bien fou. On en profite pour faire sécher la tente et les affaires. Puis on va faire un tour en ville pour me racheter des bâtons et faire des provisions pour les prochaines étapes qui seront en bivouac et donc sans ravitaillement. C'est d'ailleurs aussi à ce moment-là qu'on achète ce carnet. A notre retour au camping les français croisé splutôt sont en train de monter leur tente. Ils ont fait demi-tour à cause de la neige. Le reste de la soirée est ensoleillé et on en profite grandement.</t>
   </si>
   <si>
@@ -174,27 +139,15 @@
     <t>jour04</t>
   </si>
   <si>
-    <t>img/jour04_01.jpg</t>
-  </si>
-  <si>
     <t>A notre réveil vers 7h le soleil brille. On en profite pour ranger la tente au sec. on a bien fait car il ne tarde pas à pleuvoir. On repousse le départ dans l'attente d'une éclaircie mais cela semble peine perdue. On profite d'une légère accalmie pour lever le camp. Finalement l'averse ne durera pas longtemps. On commence par longer un lac avec des rives aménagées comme hier. ça commence tranquillement. puis on arrive près d'une cascade et un but sur un panneau indiquant Damvatnet. Là commence l'ascension. Vu les alentours ça risque de piquer. Et effectivement ça monte à pic. On se retrouve rapidement au pied d'une conduite forcée qui tombe de la montagne avec de part et d'autre des cordes qui nous indique qu'on va bien devoir passer par là.</t>
   </si>
   <si>
-    <t>img/jour04_02.jpg</t>
-  </si>
-  <si>
     <t>Ça monte dur mais ça monte bien à part un passage où on est obligé de retirer les sacs pour passer , le soleil est bien présent. on fait une bonne pause. c'est alors que commence le jeu de piste. Peu après avoir commencé à marcher on perd toute trace du sentier. Ensuite le flanc de la montagne le long du lac et on se guide grâce à l'aide du GPS au bout du lac on s'arrête casser la croûte. Pendant le repas on aperçoit le couple de français d'hier au loin. Ils ont également l'air d'avoir des difficultés pour s'orienter. on essaie de les guider au loin sans grande réussite. comme ils ne sont plus très loin on décide de les attendre. Puis on reprend la marche par une petite montée. arrivé en haut on a vu sur la tourbière et le lac en contrebas. On voit également le pont qui nous permettra de traverser la rivière qui s'écoule dans le lac. la descente est raide et toujours pas de trace d'un quelconque sentier. On lâche le couple qui s'arrête à son tour pour manger. En bas on traverse la tourbière puis franchit la rivière. On commence ensuite allongé la rive qui paraissait s'étendre à perte de vue.</t>
   </si>
   <si>
-    <t>img/jour04_03.jpg</t>
-  </si>
-  <si>
     <t>Le temps d'une pause on aperçoit au loin les français qui arrive au niveau de la rivière mais euh apparemment n'ont pas vu le pont et semble galérer pour traverser. De là où l'on n'est on dirait qu'ils ont dû mettre les pieds dans l'eau. Le reste de l'étape est quelque peu monotone le long du lac. Au bout du lac rejoint la route E10 que l'on suit quelques temps avant de se poser sur une aire. On doit maintenant franchir 14 km de route non fréquentable à pied. On se met donc à faire du stop.</t>
   </si>
   <si>
-    <t>img/jour04_04.jpg</t>
-  </si>
-  <si>
     <t>Après des débuts infructueux, on est assez rapidement embarqué par une norvégienne qui se balade dans les Lofoten avec la voiture d'une amie. Et par chance elle passe exactement par l'endroit où l'on souhaite se rendre c'est-à-dire le début de l'étape suivante Vikjorda. Une fois descendu de la voiture et notre conductrice remercier reste à trouver un bivouac. on s'éloigne un peu de la route et on trouve rapidement un endroit pour planter la tente. Le soleil brille, sans aucun nuage. La vue est dégagée sur les montagnes en face. La fin d'après-midi passe tranquillement. Ce soir c'est la première fois qu'on utilise le réchaud p3rs qui nous avait déjà servi en Corse. C'est non sans mal qu'on parvient à faire chauffer l'eau car il y a beaucoup de vent. Mais ce sera suffisant pour chauffer les pâtes aux bolets de ce soir. vers 21h30 le soleil se cache derrière la montagne avoisinantes et c'est pour nous l'heure d'aller dormir.</t>
   </si>
   <si>
@@ -210,33 +163,18 @@
     <t>L'étape d'aujourd'hui s'annonce rude avec 1400 mètres de dénivelé positif. la montée commence tranquillement en passant entre plusieurs petit lacs, puis la pente se raidit. niveau sentier c'est comme hier, inexistant. Au niveau d'un palier on croise une française (évidemment) qui fait la route inverse. Elle nous indique succinctement le chemin et nous annonce que la vue au sommet est magnifique. On continue un peu de monter et on fait une pause près d'un gros cairn peint en rouge.</t>
   </si>
   <si>
-    <t>img/jour05_01.jpg</t>
-  </si>
-  <si>
     <t>La française nous a pas menti. après une ascension le long de la crête, la vue à 360° au sommet est à couper le souffle. on voit la mer de tous les côtés, c'est grandiose. Par contre le vent souffle fort et il faut se mettre bien à l'abri un peu en contrebas.</t>
   </si>
   <si>
-    <t>img/jour05_02.jpg</t>
-  </si>
-  <si>
     <t>Le sommet est assez plat contrairement à la plupart des montagnes aux alentours. On commence à descendre en suivant un chemin qui apparemment n'est pas le bon. On continue donc de descendre à tâtons avec l'aide du GPS. On recommence à monter et encore une fois on suit le mauvais sentier. On corrige notre trajectoire pour attraper la trace, on avait pas mal dévier quand même. On tombe sur une petite route que l'on suit un kilomètre environ avant de retourner sur un sentier. On continue un peu de monter pour trouver un spot manger. On fini enfin le paquet de salami que l'on se trimballe depuis 3 jours. on n'a pas était très bon sur l'estimation de la nourriture pour ces 3 jours sans ravito. On en a pris beaucoup trop. Après le repas, on continue la troisième ascension de la journée. On se laisse guider par un sentier bien défini et on finit par s'éloigner de la trace (décidément...). On essaye de se remettre sur la bonne voie mais on a bien du mal à trouver un chemin dégagé pour la descente.</t>
   </si>
   <si>
-    <t>img/jour05_03.jpg</t>
-  </si>
-  <si>
     <t>En bas de la 4e montée, des norvégiens sont en train de construire un abri en bois. On monte, on descend, on remonte. À la fin de cette ultime montée on aperçoit l'objectif de la journée, le lac de store Kenggarsvatnet. On amorce tranquillement la descente vers le petit abri aménagé au bord du lac.</t>
   </si>
   <si>
-    <t>img/jour05_04.jpg</t>
-  </si>
-  <si>
     <t>A notre arrivée, un groupe de norvégiens (avec leurs chiens) y fait une pause. 0n discute rapidement et ils nous montrent des photos d'un point de vue près de Leknes. C'est un somment avec vue plongeante sur la mer et ses reflets turquoise (quand il fait beau). Cela donne envie d'y aller mais c'est malheureusement un peu loin pour nous. On installe la tente au bord du lac. La vue rivalise avec celle d'hier.</t>
   </si>
   <si>
-    <t>img/jour05_05.jpg</t>
-  </si>
-  <si>
     <t>On sera rejoint un peu plus tard par un groupe de jeune norvégiens qui viennent passer la soirée dans l'abri et pêcher au bord du lac.</t>
   </si>
   <si>
@@ -252,24 +190,12 @@
     <t>Aujourd'hui c'est plus ou moins une étape de transition, au programme 2h30 de marche. À notre réveil le soleil brille sous un ciel voilé. On déjeune tranquillement et on décolle. À peine parti remarque une tente non loin de l'abri, c'est le couple de Français qu'on avait perdu deux jours plus tôt. En fait ils ont fait la portion de route entre Kelppstad et Vikjorda à pied. Du coup ils sont arrivés un peu tard ici. On leur dis à plus tard, peut-être. Et on commence cette étape en contournant le lac par sa rive droite.</t>
   </si>
   <si>
-    <t>img/jour06_01.jpg</t>
-  </si>
-  <si>
-    <t>img/jour06_02.jpg</t>
-  </si>
-  <si>
     <t>Puis on remonte légèrement. On aperçoit déjà la ville de Leknes au loin. On commence alors à descendre tout en douceur. bientôt on se retrouve sur un sens bien défini et on en oublie de vérifier qu'on est bien sur la bon chemin. Résultats des courses on a raté une bifurcation et on se retrouve sur une route. On va devoir la longer sur quelques kilomètres. C'est assez pénible. On essayera de couper à travers champs pour retrouver un chemin mais on abandonnera assez vite.On arrive finalement à bon port vers 11h. On regarde les horaires de bus. Il y en a moulte et le prochain est à 12h40. Parfait, juste le temps de faire quelques courses pour les prochains jours et de grignoter un morceau. Après 15 minutes de trajet le bus nous dépose au hameau de Napp.</t>
   </si>
   <si>
-    <t>img/jour06_03.jpg</t>
-  </si>
-  <si>
     <t>On décide de s'avancer dans l'étape du lendemain pour trouver un endroit où bivouaquer. On fait une pause près d'un torrent pour le repas du midi point puis on continue de notre route avec pour objectif ce qui semble être sur la carte un lac et donc potentiellement un accès à l'eau. après environ 1h30 de marche on attend le lac qui est en fait un bras de mer.</t>
   </si>
   <si>
-    <t>img/jour06_04.jpg</t>
-  </si>
-  <si>
     <t>on continue à la recherche d'un point d'eau mais il ne semble pas y en avoir à proximité. on fait une pause et on cherche un endroit pour planter la tente. On en trouve un et on installe la tente un peu dans la précipitation. après coup on se dit qu'on aurait mieux fait de rebrousser chemin et de se poser près d'un point de vue mais maintenant qu'on a installé on a pas le courage de tout remballer et tout réinstaller ailleurs. Comme nos stocks de son faible je fais une mission d'eau jusqu'à la source la plus proche à environ 15 minutes. Bientôt il se met à pleuvoir et on trouvera tous dans l'attente. On ne la quittera pas jusqu'au lendemain matin. Petit avantage, pas de problème de vent pour allumer le réchaud dans le auvent de la tente.</t>
   </si>
   <si>
@@ -285,21 +211,12 @@
     <t>La nuit a été très venteuse, difficile de bien dormir. Le réveil est donc un peu poussif. Le début de l'étape et la continuité d'hier on mange la côte en montant et descendant en fonction des cirques et des caps qui se succèdent.</t>
   </si>
   <si>
-    <t>img/jour07_01.jpg</t>
-  </si>
-  <si>
     <t>Puis on rentre dans les terres et on passe à travers une succession de lac. on redescend pour se retrouver à proximité de la route E10. on attrape on emprunte alors un sentier en montée dans une forêt de pins et de boulot. Il a plu une bonne partie de l'étape. on s'arrête vers 12h15 pour manger à la prise sous les pins. Quand on repart la pluie s'est calmée. On arrive vite sur la petite route qui nous mène jusqu'au petit village de Nusfjord. On a de choix que de la longer.</t>
   </si>
   <si>
-    <t>img/jour07_02.jpg</t>
-  </si>
-  <si>
     <t>Le village est une véritable attraction touristique. On y arrive d'ailleurs en même temps qu'un bus de touristes. Surprise, l'accès du village est payant 50 couronnes jusqu'à 18h. Sachant que la suite de la randonnée et notre bivouac se trouvant de l'autre côté du village sans autre accès et qu'il est 14h on décide de payer. On se balade un temps dans le village de pêcheurs.</t>
   </si>
   <si>
-    <t>img/jour07_03.jpg</t>
-  </si>
-  <si>
     <t>Puis on continue à la recherche d'une autre bivouac du soir. On trouve un spot en hauteur à l'écart du sentier et avec bien sûr une vue sur la mer. La soirée est assez fraîche.</t>
   </si>
   <si>
@@ -315,21 +232,12 @@
     <t>Au réveil le ciel semble être dégagé. Mais le temps de commencer à ranger et de prendre notre petit-déjeuner les nuages ont repris leur place et le vent s'est levé. On descend de notre perchoir et après quelques centaines de mètres on croise le couple de français, ça devient une habitude. La première partie de l'étape est sympathique, comme hier le long de la côte.</t>
   </si>
   <si>
-    <t>img/jour08_01.jpg</t>
-  </si>
-  <si>
     <t>La suite de l'étape et quelques peu monotone. On remonte le fjord sur un chemin plat puis une route jusqu'à retomber sur le 10 pour arriver jusqu'à Ramberg. Le long de la route on passe à coté de Stockfisch de morue séchant sur des claies de bois. Autant vous dire que ça ne sent pas l'eau de rose.</t>
   </si>
   <si>
-    <t>img/jour08_02.jpg</t>
-  </si>
-  <si>
     <t>On s'installe au camping et on prend notre repas du midi. Comme il est encore tôt on décide d'aller se balader sur les relief alentours. La pente est très raide, heureusement qu'on a pas les sacs. On s'arrête à un premier point de vue qui offre une jolie vue sur les environs. On aperçoit Ramberg en contrebas, le fjord qu'on a remonté ce matin et le début de la route qui nous attend demain. On monte encore un petit peu mais plus haut la vue est bloqué par le nuage alors on insiste pas. On redescend tranquillement.</t>
   </si>
   <si>
-    <t>img/jour08_03.jpg</t>
-  </si>
-  <si>
     <t>On va faire un petit tour à la plage qui est juste à coté du camping. Mais on ne mettra pas un pied dans l'eau qui est glaciale, surtout avec le peu de soleil qu'il y a aujourd'hui. Puis vient le moment que l'on attend depuis 4 jours, la douche. 4 minutes d'eau chaude qui font un bien fou. Ensuite c'est le train-train de la randonnée on va faire les courses on fait une petite sieste et on savoure un bon lyophilisé.</t>
   </si>
   <si>
@@ -345,27 +253,15 @@
     <t>Il est tombé quelques gouttes pendant la nuit. Au réveil le ciel est très couvert. On profite des installations du camping pour se faire un bon petit déjeuner au chaud. on essaie de faire sécher la tente avec les mecs éclaircie. Du coup on a bien pris notre temps il est 9h quand on prend la route. La route au sens littéral puisqu'on commence par longer le 10 puis une rose secondaire pendant environ 6 km. Enfin on commence à marcher dans un sentier. Au loin on aperçoit un groupe , 0n revient assez vite sur eux et bien sûr se sont encore et toujours des français. Un petit point de vue où on se pose un instant. Puis on continue l'ascension vers le sommet du Ryten. Le groupe de français de nous passer devant. La montée est assez roulante avec des massages un peu plus abrupte. La vue en haut et fabuleuse.</t>
   </si>
   <si>
-    <t>img/jour09_01.jpg</t>
-  </si>
-  <si>
     <t>La falaise qui plonge sous les pieds la plage la mer turquoise et les montagnes en face. Seule ombre au tableau le temps qui est toujours un peu couvert. On passe un peu de temps en espérant que ça se dégage un peu. On grignote un morceau le soleil ne viendra pas, on redescend par là où on était monté avant de nous diriger vers la plage en contrebas. La descente est à pic. On observe le pic mais que l'on vient de gravir depuis la plage.</t>
   </si>
   <si>
-    <t>img/jour09_02.jpg</t>
-  </si>
-  <si>
     <t>On y prends un petit gâteau en guise de dessert. il y a pas mal de gens qui ont bivouaquer aux abords de la plage et ils ont bien raison l'endroit est sublime. On continue notre chemin pour atteindre une autre plage juste à côté. Ensuite on remonte un petit colle pour aller de l'autre côté des montagnes. On longe un lac puis un autre.</t>
   </si>
   <si>
-    <t>img/jour09_03.jpg</t>
-  </si>
-  <si>
     <t>On tombe sur un sentier qui nous mène jusqu'à notre point de chute. à la fin de l'étape on ne trouve pas de tout de suite à un endroit pour bivouaquer. On décide de continuer un peu point on trouve un endroit sec et à peu près plat mais la vue n'est pas top. on continue donc encore un peu plus , on traverse une zone très humide. finalement on trouve un endroit sympa avec une belle vue sur le fjord. On est un peu court sur les stocks d'alcool à brûler car on n'a pas réussi à en trouver un Ramberg. Il nous reste trois ou quatre repas et on a à peine de quoi en faire plus d'un. Alors ce soir on improvise un mini feu aidés par de l'allume-feu après des débuts difficiles le lyophilisé échauffé avec succès.</t>
   </si>
   <si>
-    <t>img/jour09_04.jpg</t>
-  </si>
-  <si>
     <t>Jour 10</t>
   </si>
   <si>
@@ -378,21 +274,12 @@
     <t>Il a plu une bonne partie de la nuit. Heureusement au matin ça se calme un peu ce qui nous laisse le temps de ranger la tente un peu mouillée quand même. On commence l'étape en finissant de contourner le fjord puis un lac sur un terrain assez humide. Devant nous se dresse la première difficulté de la journée. Plus on se rapproche plus cela parait impressionnant. La montée est costaud. 400 m de dénivelé sec sans répit. On croise pas mal de gens et surtout des français. Arrivés en haut on continue sur le flanc de la montagne jusqu'à un autre col. Le temps n'est toujours pas très favorable et le vent souffle fort. On passe de l'autre côté et on descend vers un lac. Il ne nous reste plus qu'à franchir un petit col pour atteindre Plus loin on aperçoit une plage.</t>
   </si>
   <si>
-    <t>img/jour10_00.jpg</t>
-  </si>
-  <si>
     <t>En haut du col on se dit qu'on est un peu en avance. En effet il est tout juste midi et on doit prendre le bateau vers 15h. Et il n'y a pas grand chose à faire dans les environs. Commence alors l'attente. Heureusement il y a une petite cabane on peut l'abriter car il se remet à pleuvoir. Il ne fait toujours pas bien chaud. On profite du temps un peu plus clément puis on rejoint le port d'amarrage.</t>
   </si>
   <si>
-    <t>img/jour10_01.jpg</t>
-  </si>
-  <si>
     <t>Vers 15h30 le ferry tenta tendu pointe le bout de son nez. On demande si il peut nous déposer à la station électrique. et il nous annonce que ça nous coûtera 200 courant couronne par personne ce qui nous paraît un peu cher. On change donc nos plans pour aller à Reine. 0n payera 67 couronnes.</t>
   </si>
   <si>
-    <t>img/jour10_02.jpg</t>
-  </si>
-  <si>
     <t>Depuis Reine on prend un bus jusqu'à Moskenes. On s'installe au camping qui deviendra notre camp de base pour les trois prochains jours</t>
   </si>
   <si>
@@ -408,18 +295,9 @@
     <t>On se réveille sous la pluie. Mais heureusement on peut prendre notre petit-déjeuner au chaud et pas besoin de démonter la tente. On prend le bus pour se rendre à A i Lofoten où l'on compte faire l'étape qui devait être la dernière de notre traversée. On commence à marcher vers 9h40. Le temps est toujours assez maussade. On longe le lac Agvanet par la droite. En observant le relief au loin on se demande bien où l'on va pouvoir passer. Ça monte à pic de tous les côtés. Au bout du lac le verdict se confirme ça va grimper sec tout droit dans la pente. Les norvégiens ne semble pas connaître le concept de lacets. Si tu veux monter là-haut tu y vas tout droit, c'est simple. Mais comme bien souvent la vue au sommet compense les efforts demandé. On est sur un perchoir avec une vue sublime des 2 côtés sur un lac.</t>
   </si>
   <si>
-    <t>img/jour11_01.jpg</t>
-  </si>
-  <si>
-    <t>img/jour11_02.jpg</t>
-  </si>
-  <si>
     <t>On mange sur place. on aperçoit en contrebas un groupe qui commence l'ascension. on décide de changer un peu l'itinéraire initialement prévu. on redescend vers pour faire l'ascension dentiste à ben plutôt que d'aller vers la baie de Stokkvika. On commence à descendre quand le groupe arrive au col. Dans la descente croise pas mal de gens. Ensuite on contourne le lac mais par la rive gauche cette fois-ci. Puis on recommence à monter pour rattraper le sentier qui mène au sommet. Le début de la montée est très abrupte. Il faut poser les mains. On est content de n'avoir qu'un petit sac pour la journée. Par la suite la pente se fait un peu plus douce. Au sommet on a une vue magnifique sur le lac et sur le reste jusqu'à Vaeroy .</t>
   </si>
   <si>
-    <t>img/jour11_03.jpg</t>
-  </si>
-  <si>
     <t>Malheureusement le temps est assez couvert et idéal. Il commence à pleuvoir peu après. on reste quelques temps dans l'espoir d'une éclaircie mais celle-ci de ne viendra pas c'est plutôt l'inverse dans la descente on se prend une bonne averse. De retour à haut on décide d'aller faire quelques courses d'appoint dans le village de Sorvagen puis on poussera finalement jusqu'à Moskenes à pied.</t>
   </si>
   <si>
@@ -435,21 +313,12 @@
     <t>Ce matin, il fait beau. On déjeune tranquillement et on prend la route de Sorvagen vers 8h30. Après 30 minutes de marche le long de la route, on tourne à droite pour longer le lac de Sorvagen sur la gauche. Assez vite un panneau indique Munkebu. Le sentier est bien visible car c'est une randonnée très connue et très fréquentée. La montée se fait tranquillement. On arrive assez vite à Munkebu que l'on contourne sur la droite pour se diriger directement vers le sommet de Munkan. La fin de la montée est un peu plus raide mais ça reste raisonnable. Et attention les yeux au sommet ça envoie du très très lourd.</t>
   </si>
   <si>
-    <t>img/jour12_01.jpg</t>
-  </si>
-  <si>
     <t>Vue à 360° avec des lacs en veux-tu en voilà la mer le fjord et les montagnes. tout ça depuis un sommet encore enneigé. niveau météo c'est plutôt bon même si quelques nuages persistent à cacher le soleil. On reste admiré ce sublime paysage pendant presque 2h. En plus il n'y avait presque personne.</t>
   </si>
   <si>
-    <t>img/jour12_02.jpg</t>
-  </si>
-  <si>
     <t>Dans la descente on croise pas mal de monde dont le groupe de français que l'on avait déjà vu au sommet du Ryten. On ne prend pas le même chemin qu'à l'aller pour passer par Munkebu. On a alors vue sur la butte 448 où l'on aurait pu bivouaquer. La vue a l'air plutôt sympa. Comme il est encore tôt et qu'il fait beau on grimpe les sommets alentours et on en profite du soleil.</t>
   </si>
   <si>
-    <t>img/jour12_03.jpg</t>
-  </si>
-  <si>
     <t>Puis vient le temps de redescendre vers Moskenes. On hésite passer direct tout droit vers Moskenes mais on n'est pas sûr qu'il y ait un passage. On choisit donc la sûreté en retournant à Sorvagen mais en passant par la rive droite du lac.</t>
   </si>
   <si>
@@ -465,21 +334,12 @@
     <t>Après une nuit compliquée le réveil est difficile surtout pour moi. Le temps d'émerger et de se préparer on part vers 9h15. On passe voir les horaires de ferry pour ce soir. Il y en a à 14h45 puis 20h30. Comme on a pas envie de se presser et avec la randonnée d'aujourd'hui ça paraît compliqué de pouvoir prendre celui de 14h45. Nous voilà donc parti pour notre objectif de la journée le sommet du Veinestinden. On commence par prendre un chemin qui longe la route vers Reine. Au niveau d'un pont on traverse et on débute le sentier le long d'un lac pour changer. Le sentier est assez sinueux et pas très roulant. Au fond du lac le sentier disparaît en même temps que commence l'ascension. Faute de sentier on monte à travers la pente en longeant une chute d'eau. On reprend notre souffle au niveau du lac qui alimente la chute d'eau.</t>
   </si>
   <si>
-    <t>img/jour13_01.jpg</t>
-  </si>
-  <si>
     <t>Puis la montée reprend de plus belle. mais au moins on a retrouvé un sentier. Puis la pente s'adoucit mais le sentier disparaît. Cependant il n'y a pas beaucoup de direction possible virgule il faut aller vers le haut. encore un petit effort et nous y voilà. La vue sur le fjord de Reine et grandiose. Peut-être encore plus qu'hier avec ce joli soleil.</t>
   </si>
   <si>
-    <t>img/jour13_02.jpg</t>
-  </si>
-  <si>
     <t>On reste ébahis devant la beauté du paysage. On en profite pendant 2h puis il faut redescendre. La descente se passe bien mais le retour le long du lac lui est un peu laborieux. De retour au camping , on se fait propre on mange notre dernier repas sur les îles et on se prépare pour prendre le ferry. On embarque vers 20h10. Le ferry largue les amarres à l'heure prévue.</t>
   </si>
   <si>
-    <t>img/jour13_03.jpg</t>
-  </si>
-  <si>
     <t>Au revoir îles Lofoten</t>
   </si>
   <si>
@@ -492,39 +352,21 @@
     <t>La traversée dure 3h. On débarque donc à Bodo un peu avant minuit. Étant donné l'heure tardive on décide d'aller directement à l'aéroport et de passer la nuit là-bas (en espérant que ce soit ouvert). Sur la carte, l'aéroport paressait proche de l'embarcadère. On mettra quand même une bonne heure pour y aller. Bonne nouvelle à l'arrivée, c'est ouvert. Et on ne sera pas les seuls à passer la nuit ici. Apparemment il y avait un rassemblement de scouts à Bodo et ils repartent tous tôt demain. Vers 4h, ça s'active dans l'aéroport. Des chariots et des chariots passent pour aller à l'enregistrement. Bientôt tout ce petit monde embarque et le hall d'entrée de l'aéroport retrouve son calme. On patiente encore quelque heure. Notre vol pour Trondheim décolle vers midi, une heure d'escale et on arrive à Oslo vers 16h30. Le temps de rejoindre le centre d'Oslo, de trouver l'auberge de jeunesse dans laquelle on a reversé une chambre, il est 18h30. On en profite pour faire une machine histoire d'avoir quelque affaires propres.</t>
   </si>
   <si>
-    <t>img/oslo_01.jpg</t>
-  </si>
-  <si>
     <t>Le lendemain matin on se balade dans le centre d'Oslo. La ville n'est pas très grande, ça se fait bien à pied. On passe par le Parlement, le Palais royal, la citadelle d'Akershus et enfin l'Opéra. Le quartier de l'Opéra est en pleine rénovation, il y a des grues partout.</t>
   </si>
   <si>
-    <t>img/oslo_02.jpg</t>
-  </si>
-  <si>
     <t>On fait une bonne pause pour le déjeuner dans le quartier d'Aker Brygge. L'après-midi on décide de faire un tour en bateau dans le fjord d'Oslo. Quand on embarque le temps est assez couvert et ça va être de pire en pire. On se prends une bonne grosse averse pendant une bonne partie de l'excursion. On en ressort trempés.</t>
   </si>
   <si>
-    <t>img/oslo_03.jpg</t>
-  </si>
-  <si>
     <t>Le lendemain on continue notre visite avec le parc Vigeland et toutes ces statues loufoques.</t>
   </si>
   <si>
-    <t>img/oslo_04.jpg</t>
-  </si>
-  <si>
     <t>On monte ensuite voir le tremplin olympique de saut à ski qui surplombe la ville et en offre une belle vue. Le site abrite également la musée du ski.</t>
   </si>
   <si>
-    <t>img/oslo_06.jpg</t>
-  </si>
-  <si>
     <t>On finit par déambuler dans la ville à la recherche de street art.</t>
   </si>
   <si>
-    <t>img/oslo_07.jpg</t>
-  </si>
-  <si>
     <t>Il est environ 9h30, le ciel est quelque peu bouché mais j'ai bon espoir que ca se degage. Pas le temps de s'échauffer, la journée commence directemeent par une bonne montée, pas tres longue mais qui suffit a me faire suer. Le chemin redescend assez vite a travers une pistee de ski puis dans le foret ou il y a enormement de champignon, comestible (probablement) ou pas.</t>
   </si>
   <si>
@@ -1033,12 +875,183 @@
   </si>
   <si>
     <t>Ceillac - Saint Véran - Chapelel du Clausis</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/jcZX9IuT5QroG-Obt9krX9rVlCFHaZzaQqi7MSYOBisbV3j3g0JiSY-g8p0iDqiDHrs4AT-L82DBhzfArnYoQg_bxmQ3LWdZ-7pNvPIKb989r09gFzh892XoVR_xzI6rCMCrVWcO2yTBXOJd7T0hHUqzDu8QBC6yxAFlJ-Tn_8noAn1qecMDv7kv8E-Sq7XygGz9ygopEHgn-d1XSfOmgn-BOc2lZuIciBbziqvsstrJ0FHXNTqmNxXRVmAfB6z6m4ILP4-0cHaurh26Tp_815PUE-2MI64gYndrMVvijda7a67m-tWsi0cDEowrrTRGmE9Xb5kOHNQSkdc-j8JB6U6UHEJ8tqGL_IX29qdV5dOGW4pyCN9fMYnS9XYktAI_fp1Nip8rn6nJhSJYCfV0-m05qe7c9nAkts9NcY2lfu7Hx_XBd1XxsvsD_4fn8nOsyL7pTE_gzkRIle0ZXSGRv3puhhGEb-9eHaJyNMGejRmmcCQKD06yWMZAhFi4KjTZMKdSSZ7S3KtWCDKdsWe5haoAMQGYynTDZRWizu3NdcFHcDsaitJXge3zhG2oaXft0WFgvSvvtFAc_1xLWShxoCEkiX71niON5MT8uVVXYJT4GbEqcEBq_k2DsyDWeYGWJXxy0el-2N0AnGeVns12BV6sAHE5FTxoigFSaVciij4rCDXKI3geCXQAzepkIIbwcqz8dS90DksAug-kg4c=w459-h289-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/twYq7n7hyGJN2DOdZRiJhPr05FgIuT_OlVeQmgrmZagGb2ARJEVDgJT-S1GfynSpPDTbBs4pHBHFpE2DoxpZsLgjLAaey833MDcHq0e30ICJTE2b3ZySdu6sF7eU9YikWlUZ-EsJwl0tf0YLseOQrhzp-G6Sx17X3xJSjkjg57A6klsKHoIgoopvzppvqkFNcoRQSu-Bl4LzZbVssXUUWzlZgkSNacohNMn6ogSEr0fr6rSNo81mpuJmUoouMiiDW9bP39bMp00ymIigj5tl7qwtGAzNTJImwgGX1ToQu15ZbosBiJX00Y1xkTPSvHQgrYwyNMQCish0m0rR_NFUdcIHGFqxyf3tn1GAxRBWnJEz0inAhU5AN1k5cfsvpY_AXatvROkvTqP86ulPVKUlVxeJaIQtaDgfdBp19ddt6jcE37JBuaZgycPcDLMF_Q84JrRO2LiD3NK7yuAWbI5yJkNlMNZndz6_OAy-vxYeTtOtaF2kIsecrzjg-KOP4wSAXbnc-jN9NIOg8_dEgkYDuH4WeL8TQlAOLmJBr0D0BCwMfD4U6WsoQsPVDlalX-P_HMa4senyxUB1sHzR0_llsOwb3cIutTZyQHA-yZqk97Q-qeEbnlkRMPgOF-br8uTNBsD3kUYc-Txuw6dsHyGlQxDKiiM-WGsqmtNq6_mzQB2sIPSagt9LM3RgpmxZnd2VzCixTy5vXwLnC2d0ECA=w430-h322-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/o5HDpgUusOs4DzBDC6ZHBuHWWYCfAkHJIDH4lpkz3TjJ4EwgVetePiRTaPgG9wYWAx17IafO1nX8dqb8ubTwJipnEiDi3zserHzsfvmt67dZHGkyBxxUz3m0WHDVN0uoa92FrP09zduofn04qvWTKwz_1nb-Nl1TLps7h1Y4ERGdPG701Asko9R0nm0hE4FEMEihzlz0JwuckDxMaVwqNzu3CGfCymYcUVduCQFbpbXxiLp8EhJeWqLe5LneOuvu_LHeTad1_vFhCl0pbfhzER8rizVy8JQiO9X88Lj0iEsbcwHy2B5_6BgLvmDpqWBcr2xE6OV7ijkLMfdey_g01qIcWpPAWhtzfLzhXcYhJM-26atZwBL-fOaTc3ZaEojWzH2502AD0uankPGRiRs9fYsKlb3YIGQSLqBHJ9x7ALQB1b5pLkDsDqmsFr-UzOwr1Y7GXJfry5-ppHkQpUWiXYQg7i2_FvQaeBvZY0dSiTrEvaEjIv5y3sXBQQNMc-8-kQwb1enitubztwFHzgfk0AoVJv3DqZHjlWJTWPUzHq4iYH-2KETM8Ji9-WdMyt6bSvXrOKbwj-fdLXO3gF3zC62XP8sNvjvVufUYxd4UXGbi-L6gA4mfByQTNjNWTkZ1H73fTb58YE-CzY6YRDUC9OroXqwaU-5Hx9PeueDP5GDEsdL2mIhiuZ599tJtlEcgrm1D4RXqDAqxtPwyJxw=w475-h359-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/5TtP-l1BrnhZOLCsugEt88SHcYiioerIeJQ25q84-SaBr62qIHgd55_cMTY5GxL2c9LNzVYWCNxEjzMT-h6lSKGxrxo8-SPn8no7rsE4XWG2vETzxSSHdWFlvtfxuyG-B7fRqwENOMTSVoA_ME8IRzd3rG_E6hSjmtocsuWlVfYqWz6_-vyB29D3k1sDXOK7LhZvRJSZVpeDs5EJzPCK3slS2eEN7cqzku65PAEpYP9C7H9ah0smUFf9H0CWkmmMTE2T1woJUFprzCpa_AwCnRxtAhrzAEbD31gwoZmWW_2Ft8GKZyTdGjr0KeIJALRmGy2rtmaLn-VlBvfqDEkYxoVkSOdpTH9iXAkrPTa3BTZeRfIuIk1Mg2DKyhuOsCh38npraRDKFFBgWKoWBwuROjqDEvERcXTf96l3MR7iWHA63X_2jLWKGj-7qV6pvCswjXorE7So0wBeDtxbOVj-ZvuWBMB-px6CZq9DN3yapp_kGZ4R_Lw5y1E4baSI65lL-bVuoBMy6pQMVpZVQhDrUQzW-u3NgJ8-i66LIotI4IRvPlEV1HuVkKYaii9XosM2Z89DF6bZlpho2vyfF4hbtMcIyahOx4V07nRdhQsflc_QA0z5Hf9lLL38IIGxLix1dHDTUXkVTHtD6EKRypdG6CHSH9S82svb3Suamdlle0dXlpS6RiY3-yQe9oPVnY-oEaZAvHtKCgv9N6QdR4g=w477-h358-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/sWKQbmwP9vU4ZnBfSkB8OpQN_3d5CKkA9zd-bDPllLbZ8C30ZbLQOCRfl1YWDGsbc2PFhp5HpjFzyZvk8KqH6bhNBsGGQpsB_53pVeRsVrHReJnp3OmG5AEGtf4xTcuvtPJNkWgzkHWGP3zCOi3Z8Ge3MHeXmvuQqx0p6A-vuEc30B0XTHRvWgX7jMOjxlY66lxRwBIfoyuoLxBY10v9NUYQ_Q5aj8IutiNpbseshtkEJcIGC0nks-IbmFv5ezN2tCsLUcSOmHSGTKvMnpos-IpiZG1P9ihkTOAqMb0EWLfzvaLzLl_42wHFn0UU6iJJcLz1-gr684g9jWbCeW3yqkZHFrzX3kVp0RXBQBLa3Q70Z-OFw-iAftfC-eVMieewcOfEblPulqxlpC8f0HmswFP6oVIdI8f6Ec7CfV4HtxKR0TJ_gXIHE5N7Mi6ZoO8aZ9sqWzvg2aUIiOEvl4MMk8LWgOhMKST1im8Gft0zwdosCcTMaJ3Yh6wQUdPYVDdfbvcQzUkr6PvSXYkHnq2CoM-XqQkCF4abzRANGag7Udvm5eT3aoyJWu9X6IGF3Ds9NB14pv4HreDBUCwP5KOVn3IWMjaqN3zeUBT_5eMGmjIJlA4KOJfW9ENlKI3FzXNHXkEcI1CWP3QUcUbVwrYHRTeP2iauaNS9RO_6W6JtgML8xFYYp_uRJLi11SdxQxoWgNpMXsIkDvKbL1AtODw=w1440-h255-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/e2QV2cGFp8L_ii2-uBHFcc7uAEaxUBnPZKVWK3wrfkSMsr2ch0XR3vi6JMJd0sRAQ9Pl1SPtVcSVev_IG36bCKpkaUzkrE7snwiME-n-PcGb3oVbjpCet_pjKcRvkoCvlhjjxkvnxL4HeXqydBk0KwYd04yoK1WwqmEgfliV7cBxTBRTCrF0AIAmx_SI2QT60avmijBcyHSfABmRIIu83_NrFZ42KoNKGX9ULOorpWtzCqcNWiwIFGCTPhtJPCY3f9XHrED4WZcS8ZiD9n11L6kGWW8kRwyJzYICkaulC0HePsaChJgy6ufb5xSDOC_dUBCjjvO9ZDgxqLhZ5dSL2KcASTGKkBvZF7og7UZgLgdCHkUQELjRb9byc31XLbCMHU_-u6-6sfToDgCjoxS_xXMehYjIDE4Lmu6AID6ceXp1o7a_Fp9hC6P1bWp830EbOKyN2Ra2_DFGUE5Q_2G7z0IQKZIiIy8E_S54TXnZ4OiImSxoxup6jrts4cCC_gfHy7b95Mcsp0AMLo4LtZzkntBDJZpm2G3-_p_sYhIpNPRnKvRRbM5DxmALszatyWijBM3-N48fZatSlYTWCJ1u-FCQgla6n3QHobcylG9FZuRBx9Z_kCtHFTguCFdVtn7qnrvZfOjhfIIBJg1SxOTPISsrLHNH3cOGh6He6BRUZUHYjtQ91ivNgi3e75BUOSaQkDWnE9QERbEhekfQX1c=w1921-h574-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/e43ADPfMJtAJhhc9yDxxUpTI-k1HSMfaYFfCaixC5BHQHuf4Fcf8knptG12xXNnKFr4jX5o0OO1XSOpooBOCm6DVY2NpcRwezWsDuSlg11O20nNjVoJOdgoBW14tP7OORJCdfsRlsKP0WRWfa-YNLxehrpxpLn2T91SLSydBhGDc5H_eViMbKh-DHclU3CgfbmOYox8EyAlsYkeA_BYlCHKuMpfV3K2dcAqFzYNTypXNMqcVRnTCu_m6yS2SIVx34B5cCzE9oJMMfORKI4EltJNQagYlZ0AuSXcMSymtMA2eI3k8Q_zIh_mwpyfsbCTi2ZcKsjohOnseAyJTWzgsdhTsf9WTyp2KeA7ttQ6mDopbweebrZXB8GalbuJuxckjfGMWx0LuGQlX_D1CIm4cWHCyQtSl2561INd5DNfualATJWQvSbwjKCNUA9tT9Zq2e_hgb-YCqaBAtcRaW-d5Smzq-MRoDmlY4WM2zYsbpCU3oPiYH076GI2-oztg9FKl-vkRxW_vH7PsdPSx_ccwYEWggXZAvYUlkPgXS8tOoXdMUQMiXX_jL-rNNg6IyLaCbxsw3YULospFMb4xwEXfBwgygrv09hfWLgZHm-6Fn8MKVNeQYPbxktx9Zq8B8-pW8Zv-rwb-1bYOGzqH0YlKTPwqn0WnAA5mibgbu2aMAw2nSfsl1Mig5L2OZOxJV4gXg93oknqUt1hmjAs_fkg=w477-h358-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/cH-o5ZMJ52t3cFxziMydctyVshwJgI6LgYKo_aJMlxeMIT9NTXD_I3T0ec8qfzF_FKEmIcIlNJq6WEzBsehkJRn_zylDF1la4wwhk7uH1F8kSp4QmJmOAMtRdTIJTuPgr4s1uZCqM5oJ3OoHeK9A9Hrjr9z_m9eLuFe-rhIaRSd5p2mI6jUb3aD2sRxgR0qVs4BGZnnt3SfiiSqF0uPFLlEaGzUgqA1Trq3h0No63BMAyN9IA9rIcUSGdCT6bSqnyhxr1L90Qq1u5AAtjM6fs-cD9DCTWdVGoGIgF5mz1p7qRB9YZsXicm4m_Igmn5OnpPtNkyUZv__jZYuDVC9_2JuHOctP5Z5ZtjAcvw78hgH-HeXZRly__yxfj84SoH9K4YLrvQImgvqkYNDVAoO68_ZT5BhBoMULwM8Ee2B2_68uoMYJZUF78ntxCrxGxsRlqhQml6Pja92RoGa-vDd8Ui9K5fJz2xoP11FqDjSb91OeIfpu-6fwmZyCbyNFF0KLiuy6bhHffng0Epvc-b9qyVCcanwJgHX9Rz9hUPI9oJXSai3URA4FQjd0WiXA5AW_MZ-4EE2T6CXMLpPsfUyDHOmDbGBFKI6LTIQhIuloQciI4xUhfvPOpjIksptrSyk_m0gJoo_G_7inVW20-UuGk0fx2QnPLpYbHG7cjejYqQX3S8TTvH5W_L5fc_Q2YHm9bXycOGSNBr5JJWtNfOM=w477-h360-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/5jEtHm8n0SvSnR40m26DHhPoWIyQq8ZVNXvYYNAW7t4rT5l33H2uLEI494J4vufTQXnVcGFIKizcnsCTyrnAgQiVOo7AndcmUjJCGzi4NL1w4rj43w774FXF6BHEHya2fByLcrQJSBnIwOPb5V6pGe9Mm5bR90SChRE9iSLjx6VutjZluwAM_b-R38vPjD5urk6QRnym_W_7lzMe-deB4g2p-X6g-i58J-LmgmifkUTkaYvLR9EHktBiR9RsEJfWHln6GLKdsoT5ODNdteBLNgIBOw84Rl7XWZpCYtsbcvj-ImePd06wlcfVtVHG7gJNiQs19_t_BHLUz1gST84BQD8Ces_YrnERs3gUyuQiiTdykUUgic8ptfirFxjR5xlIs4VxDuCoa5_o86n3ZXPLgDdslhHGU8nt8tyroPRYPbhehwy0RBRhYJog38Sb8KcOayuJz9INltfMR3T3NEjLdJIwujE3kYaGrhzKSVSegIvnjrVCJwjNBBmrKP9feeHeMLEdpyPH99CsVlnFE1sS_1iVWbDcSj6jvI_OFInJYzjZ9VMNIoBo1q42DQUOqKMxOyPsx0OxnjhPT5h2audL-PdCzNgixZkte0Rksypyh92anXrszujDqdxZ90LW8pVlFKy0yKEFezTd7y-LgkRZfaFr-h5RFw9qHmwVXrh0vBZLokjzXvbrGEMcf6xOOIBE140v2ltXh_sTHy6XBxA=w401-h301-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/iNzMKPsSgXYvrVrRv2aIoW_mxzQbMojLoMmhYV0zwCtnB0Rm-ZfMxG1LxVNxbMMifmABrMZViPLzG28iQxllsjRiOykLmtbs1gNdOtXKxxJfOrCcDDQvYnz2YJgjb75I_ObylqiwBZAoZ8ne3g-49_8qE4iKtSDjVUEndfm609MzmYsvG_9CTyzlAtXMv4H-siASOHp62gX33uqgZseYHFSwvqrV-cjqj6gQ3miY-Eu_1EvoIuSckq2WSyB9qBvBZZ7tn9nKCfCBzjMeEho5H_3oWq7FEd66SOC3uazPMmX_DuV_iE0uFu93kIv9QRYcxBacQjnrp5lluKabfjwg5p6C2eqoaKx1UkQLSDxG1fqryFAWg85XiHCnh9C-bcFHIB5dFz1QBG7QNH1x_vqJvhxW4GH3xUG945tqmLrWwqTXrD5b-528CvIvZm2WBE9nU5egDzawpyWBQ1JZpI6_gNYJozrZkmZsq98iQ9mWvgqghRK7ax-5FbLGrTakjTC7YRDnDiBj45F4taiS_zKEJS7WzE8bNr5mph1jmJu41sIUDQ0Qfa4ykXLEUWgQLn-mu9sEAQkVwBI_7dQoVz-zUVjSGyQL5eSrbvjVCJCCvU0CKJNPOdxfXZyDuJqZU3-BhGj5ASkNK-39w5Fz1BFKt3fTym9eele4LE8dBNhHX7ukpA8cYlLFdu6zqrb8aM2lmyxnlJVrcTrHv4oCe9E=w613-h463-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/2BOWjdHyVwPiePW6ARuFdCF9fGUYC7pvaUlaBVVCUp-2TQu485yWCS8pbVgSh57cNW-AGclcnBWHAzXcSdwgCIt30OCKwpTY-Ge7uD_WrSTeC5XfwcJOgueEhX52zeoyEV77hX0-w8UBpB6aIH0N5YOK_3ydahT8XD3dNh5YFhnKYZz53nL7m62yQVE4OTn3fLedrnccMaffUH9oKEkgT3ld0PIeXqDNCzAU-ZY9b9Zvwa8M_uIkM3IIer9s975YPpDBbYGcZs4Tkoy3l1mSGAhZAp_NTLP8d636JZNAeHbm7JFtgbDOhsu0TKZcUhc0S4BEwViyz20xC4P90bmEv3_TyRxnqDcTyMvTfPZTdxtdVHMY0Nz-vAGmwgiITGQg6-5HH8UjiI8Ll2qIjKOS_Tu-9ILuXub6Ix0gfn1DZdv6OpSuWZ0AzfrvYNtzOKBohF7D-mUCxndDmhmTNfgE2btwb-Go3uJabDb2yOgbAeDVC6Ka1ZJa43l40aT5E-zNxEhNAnupcpIKJP2R95DmgtC6NYKef9-zjHMHvQy-Scep8X-B7mk2VFqZhVQyDbMUwtYHdLdxzlIj_nLtIbSWAIjRkzacgvGU4hZ8w7qx3dLtFNb5UMhG74IhaKdB0H2bAqbVI3AgpFMJ26ML9T48pfuewhcl2dceyjpHZsJ1-AgTSZGW7QGWNv6_Pq-T9rxdmnoY_5u95Y6IPNZ1EPk=w402-h301-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/sxewX1Ug7WAHkWxjgKtIvywc0s6H9bb6XdATJyKHIbL7ANJFW4MB9UV9oES97p-lD6AbK-rwjcrb2KVXuaf8Khzbk8xZOYpJEcAwOAn0hE-xO9hadhU3tnaXDgHBtlIWvaCVkCJnbvlxCnRsKaSkiPtVjhaHS-6Mm64vjJdcQM3j_6qpcnCPdYdjWKNHNIqoU13wLCd2ceEeyXzjE2hFFrZgz6adHxKs06dhoL_eia0nUCk7j9JKof6ZkC_UJRIVYcuVtSK_5j4A5LIueqMcj9fE732Jbk_jUszCjg4pPNH0nWO77fxIz5VzB-RRDvnxZ2AnvJsRI8M8vZWjk2EnKEloPGuZUFCKoda3-YG6U23u5tg0Au-3gqNSuNm40ms7qosw7MTDKxAaOX4aGrj5rsRBeNkltdTCg7hoACZwxIyaetu7OR6J3IiClpCSOJwHwCrTDmsauRTpBeGBl66BabwXrBDS5Bi3iO6pstShD57AKKkv8ip1_cHYSRSSOMzwMx0XkkcJ_DvuxR_mrftmC1Y0q-ApPdoyFozYeS8MNU95Qk8NZn6RrW62a4IdPkjyNrP4S-xRYtQj-Mj3K1ga6DJG6bD43V0Xk1pSEq8GfE2j6rzpl_G23NDzFfEwlgC3hbDoYdaHC7zx8nF3NrmcOX4hAoIW6U3xTQ_cjHH46dTwz2PGnIKdA5_k1Sc8MmSHJ-if0RtOE1I9AxKAxJM=w1259-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/Pk0TKDf8wbBTCorlbqDu8EbY7HFxv7LRequAXQzyfl0awdIn0ZxADySj6JfM37hV8qUvwihNmlvIqRp7djNwlc401DGlqfhBRaOpjzjNmBkEB2CG7EQ2RqsfwaiCHgPW16e9uxtFzD1M8jeRiXpy3PeVSpWcVCj_pkla3KPMVUX1dke8OM1hZ6JLFlg9rDPBAwOiUZN-Xu5UxALtB_i4DjKlJgLMru2tpibfZbUWagkVBHj7CeOunIKdFiNbhoerXzGQ75s19pRhT0PlxHhqHUn3Ltk0DtFy4CtREBPoGPNlbmktRRsdaQENSkLLjYK8UNI3Tj_qJASSDcYIg9sMsEK7vdMdFXND_HxBj0Bk612Scr3O0oK9zcZArSCPTc26gIkGJZNCreAd8hthc6im8K1mdnEK6E5cvkMh3jnIFdIh4KR9dajERGs2CaUb8vbsRo6gok2lJC7HDZ3hgJUPuEcwKr1a6ZcWhQyZG3z90Q8hIz-9LKVpgO5T9KuNf0_8yFmJW_SP7SSkhXBijllzjPs_UT_VBWdHj9xoB94wI8q8SlqtOafw3omWBjKv_gZWTgk5sono3gdOQAagfNZR4tzeeSenGrFEagVw2RLbyUOdCiJ1aeJI8RcirFghjpPxVcYZsCnZMMw45F7VtSbZ4Gq4314Ri603bxWnfhQ9unZnZJoHDm5Wjy0_Qgsr_tQ1H_kTYru6jF0RWiblBSE=w477-h358-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/I2N39GqMHCVcjnBvQTlZd5B25eDJx_vTwI2K3aFP5h0_xJIOdEfPIiMMBOgNmGNxaBFx99BNTXEA3ajQokYwB5GGf1YDQn6hb9qmPD3Hnsv_pB2noEf8fSfbio7TOaJF9DolJ3PiXfjn8p7j96TP4lb9YBTU4hQlHTh5taAUW6rPETtYeMB1uhqJAH0fOoacRRLt7NVP53Sotu19yiSSMMsLLcNNG9RmTBVCkTGU-0dfKCimFsizYnW9F3GEFXGjyYla4AZzLcSOXyqAAhtl3HkhQnEJ8jx6yk_H1WxnVIdoHIm-tvOA766wAaW9WPTqtEHcAFDZ7Vej_-ic2TtcHfxs0hghgQFkyEywVHrceiZ552DDBWHmY-upssfo2mLlFCf2JT0H0UWDJdOER5emN6UpBXbTLjd9OgtyT9gwRhaSz0fXC92FKr8MdNhAIpUN45pNDelXHlf9J0nYpeYy6Jycfz6tsxXjDWBvtdBO3ir4_ROc2pb_QEk_IeQKflYZE28yTxl8dxirikSPaddizsK0CW4y0YdATcnU8_AriGSCqRZzC9O7bIuQIcbTm5XtkDH36zviw9TnxfHCd6aesz_lfeCi4eby1_oVdtao5jZCnb6z-0aYmyikkHNJJ1oYmO5knCtAhR8kvP8pGTKm75s-EkOjc_RALmz0r4GJuhjiZ-wHkWmkwkd6PJz5DRhE_Cz7mAFyJO21G2C1rm0=w1252-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/KWWBLbEdwO4UqXqUtcwjmV6UA81-f1ozikaVVUMTkh7G7hkOQVj4aZ5U7xiQFF4fiumnwll7MzLhBhaMGpevjL6njnsmJ7JiQ5GCby3LCJTLs9RY9UT-NZ1W6mBY67wVmHdgfVYt_LrUAlSgPzLDtTXflAtCzoOhInDdv7kTfKWJHFk6gKXrYA6zMmaMk8-CaaGIj3tP0y0ja61Hu3EoGfeLkZPO0zmq7H4n4onL1lAd4LFg2Na7MBnIV4k9hgZOc6AxoEBmEllzOYQiSuX9feDcuE99DdBcrC3NixYukDx7WDQIRIBWxdbTVx_fzWEkvuQbdGsDK-yN34UQp8_g8FBcyNGhXTMZNqClI6j22z8YqCDCqqKPP9kh2eNYtelRGyhAuB2wP3fpnLRmdUXgAxFtMu0RxrBmlLspZfolUY70RcAwEBVJadEq0T9h9_Dq81Wz2iPJSp2Ss1Cnp7Z4z124HdMSj2HCM3psGHFC7EfDMwsHH5tvq-qQuFUnyCyLC-OlrBUVjj_HCVsFp24BphW6ErNQRm3dWV_Lb55l1QkOCoZGswZJOwwsiXMhXEnvzxupF3_ekMQmA6LAfUZwIa6PqR4neK9lhKDxyM-uoICGZrrLYX1g_7i4XVn_9BmlAhqEUD5IMko8VBwRohpX8uEuJmwlaYs7Zr-RmarpxZWsnGO3ZVMoQZ9O6QCRDtU106SuLWQiMzdwLghRKQU=w267-h354-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/QD5AVc8RhJqp_vJs_wCgmQ2mToCBQqwsKgCUViqjSI7FeW_q4RrXNSZZt540Q3bS88-RqKNAQQffTbDIS-vD1bD7UC1kOxIV_VtcqDRjhRc0U7DX8i1OD_XHn83jSuxhPXPcwaZAMxXHEowTlryIo0yz3I7An3JxD8xFmlLDukKBWfNPODR_CKUBFw-C06h31TBtJh5qvjrFqAOWuwfj2OsOSwnC7ipjVfTT2PAAVmtU1RptjZR6mPZP1D3ALoNzjnMDxnzArHGY6UCIeTMfjaSoUSGFePD5ST704EJECgi2Z-3O7OvfTNLsYkZef2bedvBqKSOBOAGjVY6WHByX9jVQ2Et2vNegFxMAmgmW9JrqieYjuOlmUOdOVL0b1ZBXUOD7JywYrk0CEgPI454JWcn8dFk8duckXGtqkjG9OaJcD9s3NE4bHqos1o9yEmC6A_CNgLd0lFVV1wM9iRyJGK5T412YBKUqoyb0xlA1oo0Zq9t3kCQYqjf3Dombl_fyvFonWDfCXg66fqBixRAeoD6Zi_n7spNTwnYIisx4VgHP-Wi3XPc4R8F6U04qDDN6xKxvEPPP9YwSa4VElg4OI5fWAsRK_kyLNP149iEU0LKyRe_Y1Om3GJ0MFYfk2KLQzT2d_FRZ3y0HVKrsHxN95Xs3GDg8Rikg68yJZKXLMJtsFQSfYFWNWTDLRo5wvU6ZNiFiIf90dAtUXHeAwO4=w239-h316-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/MHfGw4RnqqTcBerIJa3IHGiBvasXBZO9LyCB9gksPRqnMQV-zSfRXEACUYr8FWCa4GE5TTxW9kD1LEgqCDS49omU1QEg9XFKYZTX3wuuLm83aG9E__9j5C7kbwGPGgDaTUuIVYJS4vd73uDu6S4w4vz_knwhIlfmb1uG3MCZJHBiVwtEUJkB1obYL2tVpxEeO6VJymHrfZN8pWr0Gqf-Q0H4bcYYvUEqy4qhnqUrnLLhzNKAzTKW0YTMCm2NMweOXTO3ERDHvSZxgk7FLZnnm8ROhN-I6nUel2zcXQNilbHAE5FlsG1WEDbG8X_-LAhpZnTsxWTvfzVG0R2m_wadtj6ZAko-eVp-zdJIX-mEA1KiB7I_xuaXSbV8FMDhQCT5X-9lnek3Nmi4bZhfhmScNru2OHa-6nyP1yoS3eRnLmL-FupR0hq0zlUj6u5pZ1Mt4oj34qQySObEZCgIZH7l0e4nwEy7Me4x0-CK0uP4kGWViulFOphZaJdL2XSyrsVwOaPFRUNS7mshrGF5gEZ7gemjTVcMQWHX7IoyPWhS_5Z4NDWkyRu3UoZp_lbcddwnKRu507uYqz_AQnF5B-XzYBHbt6EFKDwd3Tbgewgx4nJZISM1hsZlsb2VL8D3NbsmoRhCVgHI1WrUrYJPphTESb5eDkIqSSSPcxA3iNDPMdSHTuQODTDxwSyE19OxNQDACs7cvlKcoNFExl1d2-E=w477-h358-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/nMiRjQR368Tnf8ZUeCPabjgs-a2RS1fiCQXgad5_710WAdkPJXd_zfYqz1-7e-SG8jsG7FUR6NBQyTko7g37ASsRI_jzXsJJe-_DF3Xj4__STCbeC2JqEsraLaVWa0AacjIlVK9JJkJwpDFj11YhZcA0_OJYFnGkdiXnveBB3djPcpw-e5uRKLVgXfdWaQpUmNhhw6h1gOOOI7xBJ_pDRYzPZt_Wtsy7eauefiUDC8d88KtbYQk_JfKezDJKF3S1S6vTZtjaXTnIYqBuUyzy3n_1CkckUzFLjwJveGE2Ms8Xf04s8iDzjcntzNGfp9Nfr1CcQy_SgdsEjkFS8jhxqVd_vgMCl0bNypc39xrCF-9cSLOwPNHoftuPlL3LxDiCaSeTakfNRwb7-VSVIkhaqV96enERAY319d1alT9xfxUltByVH97OBpyyjr5eEdbJtKXXfLDhAqXTmFbxJE9CccmpZtbBmOHkk5NZXBz2ReXxzHFOhyNVmgtnGNOwjF1SSkObozh_toyb0xvozqCND3Y37p1cfrBY_ubGMXqVt3TEvelaV_cM8ymI1IQtF5W__wbUlAkSGIyOT0xXI84FVhAjo-yQbxfNkVpQ15wQXpPwmHLCLruqZO94BDpbfMNHfX0Af-MNPaE-veNTnKJWefV4Y5cDLfk0jGrcjl1YcbFy4ZpWELxvIVWDmwTcsg3QEzLDzIGJyTNbZ5SH5rA=w1039-h298-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/3pXBhjg5wXIg2zocPrKmSXKqTpJjc-J8OWj-8ieGxPw3mZ4l-eRRUDV0Eln_N40FoouLpIphDnwUiKxS3wa8LKVEsV40_WsqrDHJPO6zA77RDd7h-6NNhklkooeYyO-yHZOGHv00FBTeasHMBxspCjRt1NKduJS4tU7PtV6JulugdLMCBtYE67G7GAliYT0M63V5rFQGLuw5BfkNXXkgckroLVmJLaifph0bK8MmPXgG0tQWGLOJSm7Di32Mbx8Nm1lj9_I-dpwkI-lOEQBfNFJsFXb9A24fY0HOSyZR8mH6IRjxtMP2ZZQldAXcHtSecFBWcuOqFMXWF99GDXSkUcQoA1etosuOjYb0EZjH4Tve2C-W0jhjX4vcHFVmYzDzaC9bfzWzrydS_EqfX3be4SgLFO53xkTGlH0o46yfNU83yy__8xVz9SwKgBkPGKsYvFHAUzVZ-895PW9Rp_iJMLNTKMO9MuyVzgLIgEXlIG0qGqFwPfJY9u3oQMFXI_pTrpEvo4lPnjBniwe3Rf8HeJGIu-Cx3M7eA6orOosTakJO0NnQktxnwj9bkZ_FdY4OcYcaQZy8PxufHIlnc7faMJM9hERLEs-qtdC5WJUc_gwtlGu_HC1ESDTlyh7yMDWWp-dFUTdA4ETBOkzEBXqxwjBZi2aAxNxH4cLs-svgX_TclPaNtmoukDYdMh86NlziWh219g9w0uEXCZBB2Go=w258-h342-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/Ff6yEdPSWGlsB9fBC7OWgMebwskPch4PpIUAa4CwjsRE1fJ1Uy6D0L0Y4-2h3xQ2-RaKEdulUff3JcgzUhvQN9iNUdVRyzbNDXZoGy9Vc1ExcIoXvFUevVlDExJTuoi_qHDw7R-dgR6Wmi3_iBLwib3dH3CICIySZWTkqRVMJEAyX6kbzMSQumeQuSBo3R7Bm2nZBVI8XHYIATadt6p6k88IQZ6PQqlX4XQeFhx_oF7a6zrJYAYqsDcnLETGI8OljpP6Z81jCvdeukvTW4oG4lOVWZFC-HyK7aUdPBMBqpugyCiJGn5G46ZzWjTVkgg6cbLNVQoFVF1QgJ3SN8tPyU0tPp4n8gL06OLy5ymI1UGOA6NcKO14142G4AfYp9hzgNXMIdIHvLk8IkXgSqAOFL62-IO6vtNAxGeNgB8rJ8XY-wtjN11NVffvrSWl7n18wRNI_76kUfN_HrseUxG_22LdC1o-6zzYVEN6GeLzOcyE95kFH7WtyPx_TMMBzHjQ886wHjEbe0LqXM0vnQc8DbsxLQ8KSEZ8c4XVS6N85FC-4obKXhp1n_9WO-sdFcWLnMNux8Vqt9OOInocpjqa17z1aANOeVpMqhuhIaXAZY66gliNgPbMpEBWH4JHaMvrzbsHm5QMpKODha4Vu-O8z8_Ba8P118ITspG9ncM6QvKKAaJTox7WT4P9Hc-HcKXB8k03tcjtFrH0soXrpbw=w477-h358-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/RYcZRm3fnB4Du203oZvidSKNZebxk_8YomYPvDDLcpU5oAD5awLHmUhmwGPKydS_GQ3YdmVW3OuiuBAqDW3Xe5vlIXFFKzj_4ySEuZbw16T5PGxrc2-cppXeNUxJTotmIv6gGdQSaHhSvr4jmbmVkshxssyzWnx33PrVYQkAbkK5FO5bMW39wrebiF1PhBDZZ0t785AezJW8bcP_IbQgrY2ibEXWYXKR69eHDBxnhLRCcBQF923V8VxhKGIItDkmOHXDzFhjb7QosnrlsrMW9ZzbQ5J2T7eEvCgByFW59AkQOTdzJoSHOtGFC7sly1VUkDGtstO3dPPAbFXFJ5NR_9fw-7hboDVisjO4ff1n0wVihoHgWg7hVNx28X3gbg5V9-YsLnhBjfA3BmGo75XpZTwdIYgo3tIrPCU0HCPq5oijo5hJrXl2UZknB0X30hrVkaMWmSKQb_zhylEoNnqyyZHnA08KryFz7V8zBBHfokUragSFSpuEvbcLohvkBI48vxh3u5CQIPgefTHjrbfQF0DRVJZOc0wEJOUGXwdM4EMAdTPSXCnwTYKvVQr8gl8UTPOP70yUfQaD8SB1wajueUHKwFwOqiHhcDlw0L-mP4Nf6KbD0oZIxUSMka9TUpdMF0ZTAp5YdqnpH6G2o4VZPkX63NqXhbbrt5dYfA96OkUtehkKWiPS4xaTyQl-J-8uKmI6JuCkJ5hwklF3jq4=w477-h358-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/FEc8q8Z4z713euRxdG4K8a8pistH9e0D1KkzLcV_Qm3T1PZ_l6Y5MoCEE2ooKm1bbSqRWHXW1isa-1SpB7VgunsJ7R8nXq_enxfNPvLKgqG8v6xU9paZEsqrCmZOdnkHR619vX0msNOgPgXfKlPw7s0q2Aj8A48nR-sxRN21GdC5P-9gnZZj7KJBPyvHKSefEvOPBq5zGzR9SAaFbvX9UinRnrheucMBt2PdxuX__JuLs7TvlNBRasajOyNoD24WyaiJufYSVDStKMPjth30zwgaJDUWKKg2wPLqy2sCpUyD4-bQ0nfJtU0BQZTUEYVeb29R6FFlsVSfhkvm6-1d5I3wegIbKtgyWZegfnt-s-uxfgFxlkrVus8QyCN3yT33r2_i6JcOj8p23m_-K1P9boweml2t1_v4Jhz3AXEGlDziKLeUybNheEVXFU1209LiC8hCqBBPJpi8IgU-RvEG50mGqF1wHQMqSjAAm8RyFniqYQVIsXtynl91lczIwv2sKmC0jXS5M68DO6w1jCg5gajfv1f5K9QBDomYHERTYeGfe-yi5gj2Z0E-KPr_MWOZF_g02spuQ4F50aqhmj2MyVN68-rs43jGNheIBNBB-K7n-reGOiOAGKr5D_Ht40I3P_EN9MYDFw192_nrvDjnQDUO3Wi5vr6wVENT-gpJEsp36Lt9x7ZpuJ9LRH_Egx8E2W-KvyTG2jpovHmA1Es=w478-h358-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/jaMqXrGdmlrXHC09dsmWRMuUEY-6N_Wenbnwq6pffUTKsHA5dGdkgeQgKo-yfuq3ab5W45fNEZ6UXF4n7mMMYPwkC4YBfL6R8ntWraRiGuP_THkwyKM4nrI9b_0q6VOWsYmR-wFbdU09_giNkzhclZ-AOdXgJumLxtItmLg7mDMJVtOBlHweA0sqk1p8_vU5nxBBe6NyheSrp7S0Gs0EifGwYrynFHzvPjWN3r7pRh2xC5QGimGSpoYUUcvNJrYCQcBsiivbs52-T2nsWq4y1uPXKMZfm3GGz61zvVN2t5jCk06Iv4r9H7lGI4aH2l2DllHdwjwZ-Pw5ubxHuHIQicMoBaiiHtZNuhseQMJSFB9iju6LDsJU_HcX5kNzDCbzPsLDAtqpoyvJDZTXrO5zIiyxkdKoauHgSaE74SRhy0TScKxyA4h9RTz5b_7yTBJfJEkF8JDz_2xhg-DFJSC9diLp0ZvqKU84gddYBk3r6FejB0hXv1Oz07T3wzK0SjfpaPYzxyobaRZPQXRQ4cJwgZt__O2DX-w2X4RtWa-WgHRFow30SMSfFCEN38TFgRiyow6LMOumKm7CAzKR-zsvgDAEUI0CyCNZiDb-e7FCHQCTZ4btoCkTJKGjkflB-Fn0L1G0Y6lQwMdkTiXYn03Ii9YzvOlhyRt69jdBQcE6XQbZTCUJ2qi7hX5zMtCttXLhbYBSDpKVUbPBPkPUkLQ=w457-h342-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/vapkruVPLxkYdNxfzZVergh80s6dUZ1dx62cv7xXJNoQGaQog08oczNPXfUg84FUFLnlw9f6KqNnH73h4TCRjHy_wdV-8QsmO4Njo4GaZmHOgcoqw6r56EaY0syKrf2kOxUxtS2jyo9rROwv9ZBbELhheDR8pzSW4MMLIi6syS6WyubEztBH6ly_2Jgk4r5k1O5yUHFz_lQbNMWQqGvcojVbL1gQ17OqEhfgnB6BZNmMkinIp6ugzyiM3V_yiL315Rl9Zc1Z1KyEUMMl7BB4ExTv-KhmD8uMiCvSH5FnroT4UQ4t7hO3FfgS_zQkUtlxBeo-BJYE7S1-_btYRR0AhkhQN_QmIkpYsfJSmFHWRT7poVK-0fXN6Yr5qNKh18kSoJDC6VPrlm_E1cys3P80xhdOW5b8vYeI_svMoJ4Et0FGSBpKqVct6CMB8uHTxb_-bWOxqt8kLgcy1BCKcCjhpBwXlkjvOcnoJln9oAg3M7zFK9nOTOVKjctZhwmoc2AfzRL_YPy5FE15a2Ju6nxTQ7RTiaC3nBmth9rK_XSeumcrGPVdQi165FO8K2_oFRR3ZGCIjood3SKJS9f7ya-SejU1JYfcJfJWuY1RR672evBNg7XVTp1ACyM_TvHhALD6fa7H24OOgtEH4vE62rn7YaNwV-OxDqe1jYUP1GgduxP9b6KPbB0HLV26s0Fszv6cxYo1a5TNIQWS29JZpsU=w559-h419-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/t_lRevvzV2RlhOce0CH8uKYChTgo1Jwax7d-hzz4KC7j7AoWXTOZiYDxAc3XLhtQO68uNr9NIHJEGluQTLoaBqc3lEmEyQvk351mwVMCi-E7ilyAEeW7ipXccQ-c7lZijmrBDO0LqnfmIqsBonx1ZeqXVkfw7DXS00QOzIzjOAP2aet81mb0YojycuBW0KgAKTEG_0H4X7pQ1yLvzGM1EZbw87hktQfM8XEF9QzfKGaFNok4jJDkEYaWgMZcH0bkWP7mizsFWt-i0-V47cUZTXRfzV8AKggVYPkLbC6-6Kb69Ox_c4p9z6SmiVk6ondbhww9pSl2IbUm9JItdBJF6mbkIDc0L3RLJZiSi2ltT_xqrO2-4l5Ojq7EMY3gIyuhI-WgLBl5xd2ANH1IzSvG0ghxkSIHqzn1tteg7jIUWpyBFMbIQ4xPpPur375nV3IDeWGS8TbcyCGjeIKJsyqjcTuuRF4XbuMG8Wa907OmRIBFRoD_KuYdirocYlJ-OD2XVLPDK9Oq9lWplKaVinBRowt6XtIwqA2fMF7scqfWVGiN2pSJU3blHUaMmLO-41flq7vTNesbH4GGbw5TQX5gkp6EoxpULekMsxMlD0lEmLI9jLzlTwYM876tlAFu6P9houmKynvqk3afP0zZVyRuzTQtLy56jd7N_OKoce1mqePTtCJp_YhB0rCixyUtOyENTEg8IfX8TPp-xnOKAMg=w477-h360-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/hoEJrxO-BRflJkrcr2OZsGcHmTFR-OFkAr5-BCfCTA9wS1Fk1ZER1K5VmMtxFkG5-qZl_xM0iauSzNWgkl9lniWfFKt70gJVVN_7Np4usykxM4JDJVLvieAb6BbrOQHxryHFTahwf4ESyWRHwZ5A1mcV8vYqR1Q-eOwDQBEuttWcPu7xpwRjDnd6LE3qxUzwuSHp09tIR_FaSbm33PxhLCIghtliYfGXbO62CtO8iWNBmU04kKdM3HtTKKWr54O-LoDLWy9X9sX8nLQcb5WnXM5khoZyMlOclShEEoNSwB8gjgf5P9i_OdiGe8K5X1ORSi3oTASzehJwkyENh7tZBxmGz0ekT-HESxOXg1RMjX-gIhNdCY6Jn398ncOgv47GyDbFttcrH0shBvBEuk0gISi8mRyrDxv6d7skbK7Vq_btTYX4s9r2bMv1D9LZ8lTr5thb1suvFOz-U7HSgcRBY6b7sqzTEYKAxa0ZDMoc_mMTDJh5h292Te0P-EXaR_WL9aRMqe8YZ6l0wYkt96JpBvUPdawln3DnQwjxsO7csTeUl8nyhAriMQMkGclVk8fJiI3DkB14cAmXYkNwfFIVdfiE32iwUSavvs74KYtfrGgrFcGAPY36wmESx-fuF9FsFHBXb2YvTk8ra63AZie1ZhUarcYylDI860Tfis7iszxVOGfUH91BA4PsN7-7OJFQ4b0cYmkShfcG8Ixbqps=w431-h323-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/IOESDsTKaKMcMOqitJjmg19NdlDugW1yAuxy9lk9J8QCKTouSGj0hIkgtmayBpx4sB0f4_KjCcmFidlfXrz0nxMWl0MSxs6QmUXzbqBUEFPivRUHNEgMSif47G9avMci2R0OAsIXqRgCTaqnUt-hpTP-I6QI3xImLDMCC9eAtmXhxDvwmtcfcgpyCfPfce2-s9AlUURoG02MUnAlmSdjuFE5574TvW4VODNw81GxmzHyiMMXqyIdkyNeNOTOtXL6R8Q6dEgF0kzDaoEqD6i5coYyR2WxR9pqIchtEWJb_4VqO0t7zUAOk9UCZncbLlv0wegEnJXhnCwBO7NIJVzsHPEVeF-gu5p5k6-yE98tZ6C173-HgsAoMPWghrMJBxH8VjtrXfWM08bE0kGzmcidbpWKfxQXEsGFEef-vG8t63VisTpeY6gYlmPXPBclfnMMxlxIxy4WLy9EaR0RiPXmR1PMEu-ALFs7joebkmxpLYhvksoQyhq7swbwH58SzTHu5RsG-h8dWIElnUoY7poSPmywGhInhyf7OHZec5wB-I4XMjzxsiPPKLBSv_qmxgSDQzG6Zin6C4q_zoSqcXKFTlVJVEcGo0TK8ulxgN1Sf7A8cHvoCLqfQ1b6UaL-9_SfMsPGZMDCC3zixMHaejTa_J65zKMf8lRl7VHNWF36YJKe216J6rXYq9Mt2LZ0BEC9boIYyHZ1VnHYZp7XuZk=w430-h322-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/SZiHrv_ZyY-N3yRAM4-oa6Y9EjPE05Mpg3zSWXfMjq47VhkAa_ZeWP1Nd64tOybiNes1buW9FFjgHnttye5AEnNiKcY8EM-DB5tkOSDcBPxuXXGs3fyXooRPBrR1poVxmLsmwkiZoXwL1K-wxBrU18zEnkalKQ2HfXAoLJN5FVgKw9mUQKbI5hXYFhMyCHU2oZ9inThMLbhrCRcpM67g16J5etG4Tbh0DFkCVZMJgvGsJURIsZb5-8VAQS7SRdMOzZh-tr8s9BfG7HpvG_kpb6UdO233cfm0p4X-_8Kc6GNC1NIAn1eNgyEAdD70xYEuK2xHeilk9XAvc9WVQpf8H33JkUmGPReZHxEsqGvAmMxdxkoVrR7v2pe5zGgnR8iPCc_PxI7KM2ORoeLNU1N-d4k-cdF-ouPKJbEUtXbHokSZF_QbUtFzOA-CQ6IB1C5b-UPT2eOs_j6ifXlgFx80JKIQDg52odRQlkLvq43UqR7av0OLgYclRTmrjw0E-jbABg1GJHKtLrkF7juI1IpGQVY7iQqYuhARQc9ZbhkjM8iLuQAtbuuYHICJbJcP0Ede7a8575oOtdHQZvRNE8ssSTb9vVzccSWjtVDk-rRbFekfH-Cc0GZjEHwfc3HtbH_3KoU64_PLCSCKhfsql3kgW4LXjKiIMuvBsxaQsq7ooWPk072oquMXVpNCKT9zPe775gRxLLOlWGKvL_t1QaE=w619-h391-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/j9slhmZRiWCBsSQ1rcQkAnJiBa1BV-e6dxir7jm6AAL87vuUyG_EiBBz9T0JGfDzEfTu8PJY8d4nEzoWtwQBYiWAl3hO4RA36Fk-TSV9JBkxmASkRY_wD9187QXGcJfCwSh277hVnNyc0Zn5Fjb4oN4x4D9madde5OaLReys-c6mpdc2iC5rIYXyHKA18tTuOxlIGP8fIDqyB1BPAxozdQ0_3RXlFCjRj867_1WB34ZCubMpOY6Znh65esWCQrR9dc1MxZWkpTAcXG3eMgP1ER9hpLJeQh-zTPXe02EtsR0rz8PJCsigVnoVZXNTPPWBbcC4ldguiSd-NWtELN0cPcAoXV9aSeZBwlHzWhgk3e53rDDIhSt5oLAOF6E6QbwRYrAsGYRZE5rcz0eZsTa0I5LC33QoBcmMtvhv-xe6Th3Y8ujgNGzR_rv__vFLpRjfHdJBNyIsWYOjnrNmoW5fuiCJf_cNHACDNINdLDYh7N6P8d3Xm02EnFfIjmybnz9mVexWPunOfZVTQlew-bEOvwunopq94-erJa34SAJaiVnfz6o_AzOTGf7fVhhfjVYwCmHoPjGXwbbTyph7e-RTbMrU23QesDqzFsAOO_3vnQ0I3AuA1kd-yrw8JWH7yBtaIwrNT-nmTpK8taEUww8MoR1Oypt-y94GLs1N9pK2icZX8hoV_hmUkG6f_AQTwm1pW6V8aOC5nWo8oGoqFj4=w559-h419-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/vkT19Ep7PMgC0ZyXRCP8GE9IofLaAP-q-KSdwYkD250WmfItkeb9bJ3tVrH79LrEM-L7FjYposwnI371whKdDOC2Fc6zTmq4Ls34H_OPOTGGxya60r-5ZqDUNNIY5_b6gv8qT4z503QctQpd8_usRkadIGzhpv38ti9Z3HQL_2xEd0-4l4p_SJCmhF2AM-tYXqIbHsQeD_F4Iym6s1x9Z0zGUO94tAsJhdoWebhYfYV2iJDHBan-6QDKxmhQwfnVajM8ILw3KwzeIhDMNvgXDOXvr4bPpeofx1MCUKji4lGVi0HgvZKl864WAiBoEuzUMqCtZEDZ9LrDq4-hFWQ7B_uOgMj9Ulaw1zY1TSXvHRj6gq0eUO49EH2tomL_s18DW3pyZrx1FG2i2Q9aBEU3_Pr9t_wZmrRPmdm366f-3c5nyULZv7qFtxL1rVw8B0KjPhT7wryGhF06XM9Kzdtb5mmr2QIdeOHgDEA_gQtKzfkEZXaQidoEDQln0G1Wtxvws-E3KbnpHFeQqqZyMM7ks5lSoxJoZXmmGOKNVyT3QqgjMRmqlFyBkAde_p_Gsy2XLuLN69k1__JsLyz5jlxcv2hzWIXudQFFJxgWK2rWDOsWtAqugj2CBIV-eW48oKec8fPebPMEf-NZTOAD6FurkFcCXuvmfKmUz7jgnqSg99tyrtdquh3TVIBnn3-PJgwrmUthPgXrZjoT9mzXwKo=w478-h358-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/LiqewA-svPEzN7P-fXXREW2H_kh-TcDVizXVjZ7zG8K76U-Bm3RihLfgkh0HzOKidJ-bDqa6A8bX4nqJQ-l4TZoOQ-O8Fs8EFsG3PsToAImRhy28IXfNI2vH1Xpsot_f6nhXuNCE6a_oq6P7nz_IRE6gAIPJ-QpdzW1rJYS_3tlbIMnzC8clECMsaWxMEATXZspy2FABMFZ8ZZ4NTzwH0evOuTnJ7ZfYqsRJagub0N1mh03GrslTcjjYg4YiD2ETeJrMvrytJ58Z6FyJwVC6LcsIxj8nUvj6swKny9K4VzEvAO3qaeZBiMZ-SKBFRVnHpJKxVBbbULX_6oz1OWiKNaXJIAtsfd6DrbXkioTxKnDNf_QV4Hc4NT1v5m9Jf8gKAop9wYBpWD4iGbtSvGpNpRmVdawPYGFj0ops_oYQXUgpenfKM4NCgQGvE4BPUJR3wTxalZkC0nS2BpzHvcUnR1qur8trbEHZN85_dPF-aSnfNG5NBYBI8CZER041TFlF4ZqStnSnagGQmRlsBJvGZerp9fanAocQUL3Q2_vHQhFITZ_JyFmLsyC0Jx7BMhsZDdWgoi3G_j1iWnjorG9zCbsxo4x5gswgqczOeWkUTfPQZqtEOfL-UkisYT74zTYMJiGfNySK5EGdgZ-4G27ViN1PPFkA2Eufx-vp03GEnWVRk98F99rzJLFd0rMuyQmBUX75zKAo8K3Yik7xegc=w447-h337-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/33N7LAJWElBsVRb_HmdZ1v2gwmx_dvJPSmx5ndp8rsvYAKpiDXArHPjMpdhm5KMtw_rt0zLYuCs_ZHLtNKcYllt8rLfLWs1lrrk9JZZJjV2BgLCSUZQxsLLWQQVaVU8BQz0xBYZ0XkADtpOa_tTew7VTil8CHQRj9Nrd3M8h7mqoULbX83609rvSy-enaD3UI956iTUegKStdphyjHAWLQh-QrmvoxjqWYlAtWNRn8CxXh_9uDbmKMUDxPFf-4IDHRFVRRoSz0ySXSmph393T1NjfgzDPZIU4fZgojuG4Aku8jANoNDI4kptFBSSszy83BALCL20dWlVzVX8OFtJBhEYrhYa6O-jNGn_HakH8Vu7lPBbfiLXEy0vytdkqE6OgKnvc4TOXmuOLOXAoTda58TrWcsrGwKN0p42ISx1h-z_Jungl-tvQWHzpkFBK7cefvSxX2-jHU0OI9aS6L-_aOUvpXvy9U8aFOnasLI3HaLaNYeTtXsm801MLZWlpsBtP9UkcnADcgdq6K1XhwWhR0nwyXnHqw14cTPafeDhZyDBvt1RP1GxkfpefY8l1gN4WHYR3SBXtB3iSck7HW7ZGwefzpoHwbnmXfftU-_KBXmKc46cYiEndZY0e71jGBFbvFuIbZxS9zRFEtU7Zcs61b8406AZLL1IopmLaV7qlFENWRUSwQSNnZgIyFsFMWXGHC0rSgsDMX9GhSBJru8=w477-h358-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/3qrdzeQ8ZTo6fqrz8FQph4I_g50prRUw1HKCtpAU6Iu-CoGf_YH-l07XbkMZiiHseBWrxaonF5JY399viSgCNhs2em5csLzK4qvYTYa1_3eF5HGClysBvCMnGMiT8dgGZlbirLtniE7NgsMRRpFd20OYUcTa9lWSQvk9dVh489Ai7w4PtfWrtdK8q3uOcqzyYi12X6UrZeYCD7-NIM4EyrheAwNMURIqI3Aya86V0zgwfHfrbycMqp8KXPsh7qEAUbtB1LJV_lD74JTDi9YQHPaypmClil19HtnKlH2xs25eXm_3HbB5ukO9wEVwsTpDYcunzxJwuxoVVEKHCOhIqj4EvjnnvP3v_0U3q1Bdu7vOOT-9uami_nwCxN65oQyo2dxCbwI7lU5pJRuCV9fPgx3u-l9-uQNgceWZ_rv0yPF6NijK3EaVoI0eS2CE39DcUpqJg6rcQNzFg2EhI2eQoqPAdQ8f6IUR-CbdqGrCNxCSKpNpByrQEuElZFNtuTncnvV96Dt0qxAPT1xdW3Rs1vHw5hGHS5NREkSEQXwXxlqoZ3YOqscqGdKFLueDHUS_I0v-GPJ18750Y0m2Rz3UMyuZOlc_8AfqiMrIeTh6skPC5u8Ex56YnRl7DLXEY9FpZi2Y5TEFJHgTLEJN-QZEwnzSJww7I12jHcqGclmtU5J2pPBMR2AO8ijWWd3HkKWtTuJtjQfx6o5DTPfbU50=w560-h420-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/qmFVMp0AlNS9HrgP0b5jyJoDTU-Dc2Oczs8mTjgzvvJcY9L0RmvBD_OBoQvWA1Fk2k7rRcuIzJOk8JG4wjJNsvcVZ1IypbL4goPnm4clarenBY6QiFAlVxDTpXavQyYFFxVXb94o5InLDPbmbaRzxC_dKUR3ST16biTK_63n7g4VYs7qo8aKBJuWwEGuQvr9eO8rGQGHze5fx33wt3YoPIEWj3lfU3e-YB0Vt11LnqdUqfV0KGhRXS1h4Jjv9fG64_WXytv3PeICyxsYtyFTRnBT6TM8LaCQUSnicNiJ0lmMdc6NT4fR0vY9iXNwPAMWTH0u9eCimQb7WG6-dFuHCHf79I6kLB0yDAnl1QM4Fsqm9S-15SwqNFhcYBSdjfzanq0uoApgo2yGfZYhEMCWMQYw7ROsSxtiXEaD-5vZ54g3v9RSwOrQRXPPkoX4s487DeZjHAsGqkNtVqUsV9kJ5A0fT4_lFEE_ceNKlNq4yXT2Syej7z4ujKyCA1GTQicX2yBqOAmn8NTqYjrj3AS55KpxvLwYmbOtqbhQ3Zx9uLy0mfEbW7agRt_iimkrIGKrP09MFmE1if1HB6eDt6k20McXOzOHibYI0TuMNur-kUGG_v5f0BgVjpBKI8R7mEzrWynwSEV2Bm8ho1LaC5q5laSl2iTm6CwO92St-7cvSr7sgGu-F4ngdpvyVqKKnshBxrUE60iHoPZF62nrlCY=w1097-h339-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/PYC1yIed4sK_fmqvuevvDXKimSCwuXanAQIJSbcwh2KPEv64BL9EF2m8IpZV7M8SM-soer99cMrdU0j-jxM8Ms1vMiiqMKUCtRVY5w98YtiFXlAd2YPQZ4-FljynpQwLg3Wu6IpEiglSCwGxTPNkD42KXUIgv3vSFf749Z1BTxtc9yo1LjH8qtfm2cO9IFxHjjaXWeumoljfFJcpwOm5yGaQEPzHtT13F8QDWOJtfVJplavMt7ftfP5YogBibCJhcqoLxqvrS0bZ01Gi_0CFBh_ttlHVZq7wNGYqJZ5jjyzVwXLK9AxhbYc1kohIYIrTbUcgnYQgOXHN4a703EomosqMAcpXRakrGEQ6QCsNPhNmzx4a3n16LOdNZJ1Q8gZGyq52lOnuvdDXGBhPyCQuB6bXXiKaYiOU1ukFW44iBd8dWSsnHhlHKaqzKUIH1eFFhqv-ATy1tK_NmHd9Wn-49cl-UEIBbn50bB8aiuBGKxg0o9kx0P_cQtwRMQFNqp06n2DTr6gToRv-oMf6RvSKCGz5T8fiQUyMoZlbmI7UNqA0t21QMzArQZI5erMoXFMsOS5JWNnZhoS1Yuz1OLsCtBRUYxt67BI974_bD_U9KT6_hP3yQe6SwBClsSRdrGjQfqhCI96jUyZCswGBHK1XWfB67PUE83Up-6xlpYdiYnbw0TmkEq5JlZ7gdGqHLnB7p_W77Ez_UnHx75SdDIU=w992-h335-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/8D26Ci--R1B7Vsn5xFD979Spa1JHK51OFVrIsOXNZO1yJ6YNm5diFoPU1_HWiagw2yYwUjK9NWsjvawXvVwPC3XKQwvRMCyG06rJC0HkculPVm8eNZkbmj0R-8ts2bx6CdzNMpFwr0OopV-dAsun08iGfWz3G8PVAc6AsCU3mUizpUPf2xj91T9y2bYaZumroutvvwvKDVd7Hm0U_NRKmaeD6X6O-BbAfp8jI-Sa-kzFM3aktQsrwr4IyahUcOAOeKD9bU__XcvKxr4ERUP58Wst6PdEhlwx9wVWNxAga6c4rfUQ1IGfh1Vqqqo--UL_iy2AtsRElDDxj3bpRC0mUjVYP2xlrbocwdB9YE07evjdtbCFzKV4FSuigUbtQdYAksN_fonjMq2kp6StAlv8YuQBrIi6k7C6nPPoGEBTl81rmq2fKm_OTvuVFdD45Vtqv9_NB4fxhl4l6Ij8TX2knkb2qr3gc82F3xmSU_jp8L0LrsKGhWKpZ5S3TCLQAyopphEJCBxu4Pq156tYWLpLJJEmtdOPVKl5FfuwhIhxpcBw6QcyfR7LOgkvsNTHyl0cFpsIs5mZgDO6VgkxukfKlPlEFHga0srPJQCPKp_xdxNa3HVYOGGpBS0BYi6mW2EuVbTRk7JZniEhQf7Nmln_IrET8xxkbzjhsuff_tpuzjFSFGp67B2DX0zGNSHH0sBIe1cQ4wjQiukcGoqGJ2E=w875-h291-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/7DH11OM7H73LhLNHFwpWVlAAPHh45b102y2YEeuglH3Rg4YCLlF7myg0i4puXt1Myxpk9TEB4w9GnnZXq9BAXTeR4Al-rRy6tiRytA3hY6sYoFOwy-TOPDj1tSPan7lDCrTySqfjm5Hlk9k7XHy7wpl7FG5LqMryScLyfJ9Vy7AxrBmIbphDo6cy5le4DkdYnBIL4kjNiXJu9XF7DrgDyt5hi5lvZ4seNH5aJWzA3a_ThSI1uGNcV08Omn7eZQiXA0noXNG7hwYc2tzwgveN6DJJzVnvX_NRaq1c2VFpbFKkKd1Zo09pAOOzx2xGQZTnbSa-85AcPELPDPn4MOqw0x6Dn5qTl5kHXP_HGi7RqgISQQQKVyc7qda27pviYB3eMbV_7juybIdRBHORS-nPueN_a-6rWNZaEf-z3BRqTTD64Yyt3yR349lMw5OawxflwVF7gm8ulKQ8vM47Io7lG4iIgrCqGzIN-1X9tvPUWly7v9lwEfM4U-mhBGzuGcY5geR-Jr_HyxEZ7uVsWmBZQjQ6-GZQMeadMTUskm-2b47p9ptsr3lwfhJvZNa9y3uhe9Rn0QeMhP-7iq1irlqEtazqLzyPzCYIocim4bgqVZtM4OBMGlC9vff5LI8HIZDpYIxcaDmmTgoGQmHC3hQL7ZKigkEUnZFY9Rj3IsdltrAzmhnQ0qqkK9cAMYf-NImYF1XuhjpVhjqcd-eGyIw=w479-h359-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/DQXGYdWy9AlI6Us4VOAYuFY8PnJ0pnvYViECmmwhx7MYeu_OaambKUAQAXK9tRq0lj8QpfMjtOMTJK_S_chlelinbJRH-bDGSH-xPOsDNCduFjK3LRMeornmN-OJXKmKlTTwPHSZTgxEdYftr6qZAfmGnPmoI_cNz2Cg0A2WSFBCMn1-AEu1dGw_RVaWA3FrCre6st5QZq4-6f0abDOrIG708YxLfkOv_lWsAgJyZKenvoQ0cyqe4CZnosMGhjkxVgRufG7dDKZhmdxKazBVwhZNIOT7WR6WLDCavu0TqKYIDxKACPiaW53LJ1sgfpFY7kwkU2PUfiKaCbDItULoeKk1araSnd9j85m684OUbL5anCFBedYWqLvE47OrY-0RFED63tYbsPXtlysOgefiuIskgXGza2-vW6w2ws8SjntI-LDwA_mrz1arsIggN553xjOimmHJnJkP0AVcAHTC0h9XlY3o4dzZ7y8W-wqIeXi4cGd8q3wqeqabDqgNo8vGTbHoh5CmRZs9Wu1Lyt7BhRdQCE1UMxK0_y6kysu2O8cDT07Xxaq5rKKLVRCdp0fXXexPtbtxEt-9ibxX66y-EvTRW7-HmgxIAH3QfweW8FIdWfocf5A3uxQjFwUn_J8kYRIUGrXvZmqpREsQlnouxnUZ5QOONjQSznknBBcZKZxpgNhO3hKhIrG6DRZqYD1Cs9JSjPrF7tpcQVkEP-I=w475-h359-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/U0LToh0tvQ-qWg1AEQLES7CVO56AdZMcgozI70faMuulsf5OCRwUDjmsUIKrFJqkQvovputQiHYVfY-rKGusK3ktgc1fJvrKv7h6GSCO0HlcG1ZtpNFt15hgHdyGf3Qs8sGZzBLp8BtxyjgF0RmVDuLIBcgzg8RhJW2S5oF_Ov7gZjflbAVlktmgr9nNAZloXs3z3bLmOLSr3QZF7QAyFglB2CAAFcrbEyLipurLbcdqw3Ud7SGvGJkQVS4_3S6Cd_Lqk_8_HycHm_AS7Gol6qwEqyoFCpITRtPP-S9WgZ4pCzHudd6f1LodplZJaAiWFgv0BKukOslznWWBZKxmN20Tj-sdeNXPu3hl3l0-90fI2xh7Hvhk6Olwq_ZTR2L8lckD2zskRvmM8QpyA4LPNJ84rSZfv_w5ZEK34z7IpnLSoyWkTAM1Hm0_CUT83rj14G-DmhDC5Wr4LTVLt8n1zEy0qQfsRhrPrsxfX_aLAnbbdx_eh4U97ud85iICSoirMZE8NUXkNvUUpXCuUhtTOGOdrgfeE1F-r3kSG8XDGlNErVYLJ-TTpco7M0mviQmzFLKbT0pu7fWEH6KHwLPZT0ZQpDoMYFIprV2NmhmCxMVrsdfMZxVdw9NJ5K8QK4fHYuQmmNYA63eg5BcWYT0iTdkcBwkzq_ETvSH9bvwLfWY_y_Hm_XFQZ7QlUysIGPxReEgtLF3ePIRXPEhEWEE=w478-h359-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/5obOXhyptbZgqdBhuGu4cyA9D9jgjNRTayj0w2kFojlnwBCahuPTUMgx47e2FnkKPo_c6TNuSGtI8Vg8KTKFhcXbmfIubLqkQG9ZvC6UuXLCP7O5R7921YmI7Yi0QHjKgyXUgq5GO_2zAEkbig99bU2DfZNZHj8uyzP7P2FwjFuRXMSe9hmhAEU2hplp1UYyueCFVJ96U5-L2tHsbh0nx7chpJuCwBtvDKvHKUvKgOdbAjUYnt1RH9cg3ZGnFl0urBIYwHBYYebiPEQPevvzfnZorAm1hvqop8mE-E-YUzxOYR04-Y9bRmhjbsEXuT7bkbm5s0Gk8g32f0GxUngrDd5CXXbThBkbddgtNAlYTpAZqBp80r3W-1Kj6C2AglXWp90GKlK6rxBEg-g_XvrJP7UAIj7sDZBDCVoHxZFGCvo80F_mkiPDGYImercl_4iS_c69mGjo7IE1pTZPHboi3YHpi1DsCydfqZkrVKQzKCWkMAaKtxnps_p_TBaTi2ZDKF5FUCm0N3ipn3UQ8P6OektaHq7dfqDQktVhDRrMXK0JjVtVAnrIwm7HHvhcBgCP58K0_A4afB0HGwmHEUDEYIn1936RiE93YlixqiDFtHNxFaAl4kZRDAhCphTNJsTBv_g4hWr7U-UvsFCKuVIE2GWNOgwbLEjCBQ4SC7KzQLihnxBSg_7mquXZbiqbsWdZUeaGEs5v3ohGAklfpXY=w399-h301-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/_8-G6j6yPjicRdHR2XkjUzlYykss8FGeHp2olpgh2rZtmwBXy-TWFAqLhrP9ymH3MY9B9ZJkxf_vBbIaoOOKYun1A5O4NFp74DEj1PucB65vB3IvD8cUuRu-fT-_NdSXfDeaD_d6ErKAX7KFej9KqaFBUAwtbQd2NQ77qRXrZl16PLF-2vvcIOO4mryVawo2p3_Bui0raFgCWvM_HrgQCQUsNDOz2nnHsQFd0Fi41-ginGzSlxzjuX7JjCQ2piKbEM65U-G3AAAiZxV6bYLEDr9c4liE9E-Qe9JQ1WQVmFF4Zfz9pYfLpeBWxAClwES-F7lNUXVEGVZ2VnqOdMOpyotfOEJ7nBklW14oLQfQoBgMVVkNt0GOevbt5nkZoNmE7SaWY3wlGbG2_h_DqVmCVKl3YbddxoMwste8uwgjiFuUx9VCRKhVyp5rNwtJhTWH-RjceHLGIMYpeRYK18zAiHvbhqOma8RYcvh_26d6cAVvrrv-7vc7j9J_xyUfPH3UYZBVILAxrMhzuEH4Ftg6GR6IxbOxWxJ8fK7MVec1zmGhvf53BIkCQ6fty2u-qE_b-gfQ_XkrhrQ_mtiovUMoSMEZdJIj72MeMsqV4z4DIfyx3WJbnQXHnWAoVyqIhNt6RKl_Rlsfa0_HvH58w43hMe58k6AAVT6nVCPva-Q6WMGaW8H2zqctatMucZwcs39PpBYB0242krks95hINVo=w1401-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/Yprzzznz6Slg957fH2gwIiSVJTzTviEkH8ZKW_UTPBXJs_617eaQtmDZNRgxjwaQRUizAfrqrIaTQtUP0hXE2GxXpzbtujGvLOoi5WBGQOlm2QWLasYzue0C_crroCJFOTHQFICGQ3AtrcPR5zVTNlpcwT-lgYwtjzVjMoHWfQqjKfs2ZGTShND7pOrrxvSJunDd1B1mdcYSBbQk4o0h3rHBzDL_87lTg9GwCwwLmoLOh2-SoANsXWj_BlzCV85wLut7CQPOQuG64npDnUaFNcuYhYZGDhCrMiGab3SqtNgXaetHxu1pX-nTlMTbEOds3zr-yL-2rEOimoy7VFapLf4g_LYkqHNxwFtV12OJHr7tjewHeSE2ej8NWumDHMdOhlSSnPBvokl3c8sBAlcetsZ2t6xOf-3IV_eZCqttkCmYTTwS3pZA1IJug2qodrPIyuE3sjIO4i8mh1XnzPvuzeyB9OIdKGpSiyUf-YKgOuyafC-eWMRAknLEYz-sviRwM3spLdllNRntfaHwPnSFB3n4JqRXDy1KlQFMVP_53hXUzmgXxl2sAPLD4FTa7rwVcAwi-QQ-FUe_aQG6QDUBRSiagLUZCrSNnQlgfPn2V_BvGIR00Ri9-itct5TTKwdcuw1M-QUwGhVds1b3hL6LetsGi8qO6_a3KMAZfSTZ8zphRRzLzQJCYijccbYF4cleGArtmwMooUdm46IkfNY=w685-h359-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/JNRtPM9IvIv3aHorm-lgmt1CPJ790XqKl_LL2AwZ_XFefNimiI_iLNgHMViSKw_kCkWLxWY3pveYu3pwwRX_ntzDo5QlMXb31EECcaKGUA0l-q7u6e8nVklH_jpYh6xE31ciNY8L5Ijsa0ZVAkFn9r_eeaWN9BduBZajRFifa7Q3YgBZEFiyGalI0uY792NLtATR-0esm1o7jPC3K05TcbEX20eQAv0tz4nVoGAQyi9Oe_kgsRhHc_IJsgogySsy87FIT7E7mJQhapHKTNsJzJQrAyTqixuqPptVplVZYaXmH_R38Nj6OBAXBO3qQ1ybxLsIcqAB2C9ZEHqq-YFZDGupx2yUruInRONsQwZsfjhwhFlZD1Rr98OCfawmmyt2LSJSY_M-DjXpJ3ov6-Q2q01Gqhan7_CvRJTrBbvrpfqVZ6rCPywD6rLVQY3xrKE2ZPOxp_eAWmhFs8vdxe4aqzH7N8rRQONVdB99xh_foUtUGgne7f4b7rmbSNo3lJkh4oiSFlTJB5TwrSdcsDYTj43YkCpy9o9Ei_AQWTJS6iKBl8bKvAo9X8-0jHndzKW8_dnbssoV1g36aNUPqpnVHb09pRPFacWZcFk3rEouCzn3b5gvEbMjlHib4aqvv4n5sFK0iwu6yInZSFQszQuTKsc5T5o8PgKXBprLYhLiYDv6Un1cTsEwY30F50nulLksqTeMQ9dGo6piXTfbbkU=w1001-h329-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/g8OvZ6ANCXla5EgSWApCu-aKx5-mbWgQ8QEtg0oKgE7EmiMHs4XmcAqLJYw8OMiqk3s5r4S7yJB_dIkOkulmv_nBAt9q0z4vUpfDyZ74jMrClN1kn7jpLzsOqw3W636y2CvOu4NeeBgmwlOrgKUwXPnOBMtLiOefF3UkTwjOWjeeqjILRvShDZXaOL_VFrXmKbkXzLDqH16EPvHPnRZzkfs1ioO63EXx8LHsByjLVWLVV1g2yUzXoeAAQLxU9LXEgW8QS1V8QyPc0zt7nQgp2TgpQg4gbF_qbeBi9_6aOJDtlp0J9wLVhlImoHSu67R1z8mWWkjmvRbGwmbZAAQgNnvHEL_Qkfbtgj3VY5Uwl8VPpSAj91b8d1lx9tDROYAo6R3nJwaDpACPGgrS2slfSeb-UQL7GpzYhHbrDJGjumL4wM2D20xT0ILPW0sNeT9oOe1EjuWA6ioHBYTxDaeTsdq-sWckZktIkVulw9XRfs5PW-y3FIxapAQJ90i9tG0IbchFm0XoR47R73Rav0_ajRBF7u5eedQjEPt_2KWPlILWjp1ToaUw_bwRtOdPfr1LVApUapiMEK7nLb8xSKSDC208XaJLum1NQ6tHsclgfHnS-EMUfhEyg76rM1jM-GcAOi2JdUfGs8FgwFk7Mwp0ceusUcD3LbJHJ0QvQdQGZ51ka-2uMSKitCZxeDglEnFW4NbEYvhXK-JD_GK7ovw=w476-h359-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/E5Xt9Jmbm6apIcEYAnvKMX5DtAA-LzlqjdNFjK26Y05GtYVt_2EdtPjv6Clu0kQagkYaW1RCp1wveC0cAG_d6I399FKAz7HGt3zPTfaCtcfn6OeXZTJcivpDxc192wEa9ConiunKAg89FJXsBPRNzZsGZ-AHfJFO9f9uX6ttZfo_152-VmDmpFUC77_Qwuwuno1opv7-vMDd9hZdD1VJnC-dMvh7Mn9nj9Ul1--M3034up8JB_IpoLd9A7Vc13MuAsJAlmdH4oKruUCpM1SnzLaVh8PEgRB_5g5ZuypLTLDx7LxlGKoHuicX6pg-poXbxIYBZbkRZF-WymsMIjDl5q4Rx5-sLuyOEEwvia3f2bjFVGESyJVStJdn7ZuWizxkVpiyG7ohwihsrmNYA6TBqSyH3wiFM3eM84RQT-Sc3hq91YAWEimdJyuQH6vDWaNd053kbtKaWrvn1XUC3rQVFT3gGMsOFGVKuX5uFuFNKjoyqk4NJbZG19tLIVAkrMEHjIDnvdl5UFJyPwne0LQDeK03M0pwQ9Tm7PHd3IJew8iOauxZLo7QCeeDvPlab-R9jIoCD4NE-uFeytpQuluPvsquAui905VnfLGIqrwHf3RxshhqN1EjiX-AUCQkxBTh-lU6XWl0aC2akhCaYhzgyZ8U-9sWkZeYIQICBqLMPXhm2PysmB3fDWjt9UuSIwzTY7kKXGvQbn53IQPZXpc=w1259-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/wUGxp8YUYtgL6gceL8elTZWVcs9i4eSl3C0aCFtA7lkDt0_yxLI4B5gKxtqrHy6ZJgZ_a09tuYhJhICuHOwZqs-xzGc9rYCYuITyETVrYGeZILL7rTVAbiX55mqx-LT1rVavqyoF4gw8iPx6QMcpbzVWdtY_2QfjhwjwvuqlBEs071Y_WAPY_xlMl3vl7xqgjm1KItmghDZiqKbd1uIxa3YBzMjzaQe7Q8QWZPl3o06F29wMGx26W8ZxKaIRjgLO_avP8S1-E1GdoqYTo4fRsJFPbTKR7S6KxW0dH3lVWLQOXTttWp0F250XwVuZT8E1IY-oAg_KYXsK98VswIpL_xXGbWtHCFaA2uON9XoBLQvSO33YWJhoLOsYxg0gQ0lGsE_NBAIQ-mhagODb8L0g_V_Mk5cT0FTnzMM8q70DjxuBQkl3hC_nGKLThn0tpTrh0p_JDcmHwvvSVJyxMPgeb8loX8mEKnmaKKR2ZAmg4madYA-Dn7gTVCZKnFtqJ_XLSfFmtRW6Kc_90GBel8MQF8DsFI6271zsrQRiBUZitqNC7kX9PsFYBmi59hshG4doXwnLBKBgzz9GLeq4uBttYpnOLLV5c-Ci5B9U7P3a3qhPOVmTWthobXW9vnxNguCkjSiXkc74xxESqvlELrcuLVzu21kraDsvzTS99RC7qLYafr2_UtkpxZVZfRVXyhXRj4lOIrnLACwaiNEgQgE=w495-h371-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/0XFOB-V92-JPB6ovPnSmKaeCUvXudh0lnDvkZIT9xa3d4keKwi3FK2pWTpVg98T0miKGq49XlJ_fKOsuPPhpBQ0Bcd2MpwZznmKj9nzx9tSzTEMbvY0KNj3Ye-t-fzCe9BgphrwUqt686AYfHH7ymQ6yNUeO51crNzGXDAgfUTrGu5QJJaBJ_8XhiCNvL2BPG-gIhpTA4MoN3hLmOJJFMBoEP74J-y33u2_prvb66xgIld9aC0zqDchgGfdUtV7yb7sZ-i1w8CocinbgwMqwr7QRCKK_2aHE_VpqKJyydK9ZPOWH9tzvt1QylwRY4n8MlTCcLdQJo9Vrqz5uXbccu9Vify1C8f-nTgMXEt4w7tRKI67BCyuTcdTZ3pasz4lPvgT3f4qgRgMeHw2UHmdR9I_MS1Jvz_lDtcBYELH58PoUa4YfPBJLYhtvG2mG2hclSqugSF5Z81BTpZGo_tKB21vq_3x3qHS5HUUEdCYAJkm-hf54TQyqoOFGHggiZ1u88l0jkjbS_p5YMaemu1KMwqBqhKy_BWT6DMvEcyh1jmCq2P3SFQcl1vgLplvNXYYOX8xot9ZMGJS96oXSKWoF-Tvyj8H-00enOugxjP9noCxEktVvXcGc17KvcaqZE2PVjzIxRWaBR5oyjeRoNbDEHjTAHs3zAZYaqS13FPnv_Ej-qHp1iP4U31dx4vQQrMYWc1Adn37tJxiRGA1fSNU=w1016-h316-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/uQCapSOsyPWaAsonjUYlG_qEGF3hIO9O7H22sHx-wH8OHaNmo5iO-BBw_hDxitU6ZekDdklAeZbSgdIH6FnMlRmki-4Z5_JkqQnSSu1O7cSKQJWAMKr0qzpbnZx764rG4SWOC_-v22eHOfOREqW5S8gddqI-Alzg_P7r7gZQGhRRSNsZyLZBPVOWJPw0dvNv_CubULMNYEa8izNAjEOKQqmm2e7ePIb7vlD9SSkBTBPAIcL0DjaikprSmbYrVAXXE-FX_pGqsSNtxyG_8TH3MOhbMo5LVb9vFYddJsckACuXsrFpZ1kAbG2_dJEHErTib5wR7w864TkpLh1pNeeSTa2rLFePfuZ8JFgjQhfqI0RusQxaham5vfF7bIQMTL4KC2lDM6zKojzgbTCmjhvV1-rL7Og9nwdgLK6mSwnw5xF3S1Mh10YDkOVa-pMa4waH-rbtSIDQK_3YeZEzSbEyOBgOhxurUKuQEtmYkEYi84G9A7Twr8-mWA46Fx39HFSDUQMxcQN7gAp0XuImqJ0EyUZ40pmEdvi4ROUt3sNOiJQpLX2k1LsT1z3U6KZOf1ozXn2blSHr_Wra0uLnXZnI9hkKa7eON5epOsVTrYO8VYx4MNI87kZ6UhUXAcN0hPrUlx8aUD6OWLLBEbjgUvYqKfgFlgVDdZcjv36RuC2yGLGaMcXq-SgYwHHgwvYhG6XLypdzV9h83SnaLxepaUQ=w977-h335-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/XSC9fl3gh8MzE-tT6cpg8gBpINXXkih1TPGjfaN_Cwa1ivOpDSt_ZyeHNw4QC-I0eipoLne5a0elC2opdy-4scic_ckaldaF9JFfeOBAMkTV4fgwq5jOWqXQhlWTCWOPTCxCKoU_y9ss7YBdkH-CyYCI9PhxZ8E0GCwzXQtq7Kysuxc8HXcFLtzDed7eM5O0B7vdMHw6xTGP5kGiFqg7iOaNCMA5UgKIyPHkVzkaI4kc4LuUlXE6ZOxCz9D2Opme1ulRWuo3lwup-fM6VRRhqHbTEXqAG821H3b1sP3CPUutraCZ2458BvZ-YWas4Ymwp1sbulaGb42NP9SHK_1NS743bIh55PS5XEZhDweDnsRLMi6PQfrAzoi7GKTTjW9y5uWX5VMvUYdy12WNAIK0wid4JX_hQNDvtmceDyl98DpibI8-pJGfVwpobcE7UsseJXStqsRYzbtFAkE3VH5iO4Hm79uu4Hkz_RM751oy4bs3bHlXTb-BRYFtNTjYc2Rg6grHH0R_koYmTUyt-kCozkq7GKzS0RKjXtdRSDm_D9DVvepzWE17Zr8-Ta-6xyUtNUL9zK09IaqCC3hud5IrxCtkut4_rlSyiCJQb9wfvIUdYvdbxbj-61y9onbjwNS_tEyr4J2NphVBryIufad8xEUOXHTqCs9GRu_dWC37BOX0G2CsvToZ2Eu2Z-ouC0MtM680t-g7cwXyekwgAbo=w559-h419-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/SiTLWjOSmo-pmXfcQq6b0oRCARLuuDYs_5_DRv3LrRVvy0X0w5hVmwrdawAXhkMQhGX94hzREaMwkV-_86BGusALUlhrO-KNO5mdY5vqx4Y3MMnkZi7gGi4dZ4aaTetXfUQjv2izQf7omtk96DdGc6C63FdPIi51EUB1FZKkllq8Vgmaf05tuv0Cr--kgZFwQuEjqykeVTMFlZKhSjIcuCMwrGtCitdUVPxUZjlVPqKvBj8kxaAzpOBExP0Aza4LLEHbwRFhoimMOJtbP0LdB8h5IdosW8g9UsOEag63DUGZ_jzJ5M1grEJ97LnyPsgSrHc2IDn7o_A_d78ZZt3jNquB2-eRxeS7wp7Gq8VzWYI1bunq7VHBbVadxlVcAYFWUcQrkTfqNLkWmuR0OolpusN_CEb8CK1NIUm60ZmSQfCKebVHKTa-0QdxpxspmCSOrN0yBmldVGeVS9weY5N8mKgO4Fvm5k5VUXIzpyvxjkmO6xABhtyBm6DcyvN5dgzIoOm8ycd58wZAVWQ5P0FmYRa9TK2gCvrTevqDC58y8-Pz9pWy0igp44EuHbS22zLzF2Eu4LilXVsyliY986VtIl2kMhtZlhySM5bkR01R17FA1GsjLs4KEKfpARDVNv7G1t609nwrJVOH9AewGSkwSOc4v5mpvhp8GbFkQK_ZSdsWNaq7cSpb0kD8R_iXSr1UDQ37BXJn1z6WkgtQyxU=w1259-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/qliwLhfkgr3Kl-1o98vh96RcPP_3e39vfWUBG8m9x2cOqFeDBDEzphAKHpC-c5F7CAaZ0rI8ewt2Bm_vw4g9hPxXIyfR16ynZ3XJDwrXBxtJYSDw3CuR3LhSs4ceZ_tsWgW3Fchl5zP2S6jpFK8m2zcAKVy8nb3DEEK4mfMfO-3XfMAMRvCAUmvRImbfy4SHYU2UsqjSW5vHYEuxxsl5F-JDXZgVpFhGCw2KWoH61EBaiQkDYHpQ2V5aPGflnoRZuKMwsEJeDbF-v2EcjzIWm6Wi4ZU_jpaq1XDE7At-2QQ-DXYbKGZ9ONQYUeshigzPNRgfkjekChTyEm2giAWibD0O56LYgHJgUwxX2rborTaQpzYCl2357zhyd9mLgrBzkn9W1mQ2t5ktWO3I_Dpqz5HiHg0PMfz2BBdVGbxhs4X3AZ6-zZen8VvQHa4KzftuY7mgFunBJQP5-IBV3H_SYshpBVST8ITHf8cFwWj5e1tT3HWlN3-t7vgxCHenSkPWnjBrx6PgIN17qSTrPEYhk3TFnD5RJHUy20CZxcX3OQLs_9Vlbhdi8j-8Cm_DmUeVeVCMNCka-zSF2WPPA6zCZrt9-J2iYn4OIWsoBwNfh95R0_oQjjuJz7tJstjoUoGzbG4024b63QMtxCVbrvJF9Qp4jnagOuheww75ZCz8Rd2Olk1Y3dj47srK3Yc1kgf3YE9h783EqFyScDGmfFM=w1045-h293-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/jCgxI7Oe1whpJcNc_e6Eh_qJAP63xrFl9yZ945jkq6V5qeeng2WpvYj4zzKKN8gvKc4k_5ANIlp5H_JOBwq8fCuaUcMUL9Sues8cun5b3YBVgKiMajt3RfMdGGwaT9rl4jhxMTOy9jFzzysYgHYu9fcX63Tatxbz5LJelVFMCNIzM0oeb6mfCiCQIJGl_JbXY5kY4ag3TtyU-TwpV5VPhFYKlomx-MfabD9BontuH9T4zyBM5-RxdvQZyyC3QZHxeophEf_Zshpo2m0PnWx9yt5wfOY_B_02qQ9C6XLHnrI-D9pMtSj2xPKGVp3cw1vuD3y5HwnOHO_nbfy1C-2ztd12Vw4nxrewXkH44abx7wPCj0PRM3eThSemf7M1GYjPyiX3bZ-60l4OL-AOnyvb4o05cubnbXdMbOcv8U4ts1o0V7vR3vmBbWlg4gW-KRteZ6R9p3szezQu2zv3HyS22zhLPeRkDxHMMFQKH_0RjBZc-TDkaIrPR-6q575qbzlzi1hP43wzoOBvlIVfmQjvVoOQkwaOsnQCnbQHXJ4FKs697yB8TOSniMUXlX-UUQTO9FE5Uf4LPtmuyACuN01HoF9lr2D_OTtkNuN5PpZxHgMDyB_XG_tpAFauN6vY-tAV7xxDmgvB3_L96rYJz30jmTQmp7-gfCx7greaXl2E2TB22l0C2vcnZ7R10dWCmGAbAyWvYYI18PBoY8dyFdk=w430-h322-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/TkmkaBVIuAiMVo1tQi9PoKW02veoVzzMKRFRcDxH_32dxB6slanChJeC7xOejgjPANSofLD5SFTsnXaXWRcOmYnUbJWe1EnkIVCsg1uY1P191e9AZTQ7Dtx6ViarPHPqKlArQC_p26ZkkT3CgbatzN7PzWff-jYV2K6WrwsJk0abG08Sm1EBiFp-ZbMHago80uxFb6ioDfbx4ki6qg8NwzZSilE5RKtb2w5EKD5jPPZu1ZCsT20H1i3jKybo4eG3AE2p32fS4JXValZ1t0qY4egWfFxkS9fO8Uq1auiIhawrqis7XrF5MlkRwCkRru3AlKfKNxpZclEBt76n9LDm4i3JruWOxC4Zr0MBwf3fbBI2pha0OiGsJuBj6opPX_eq_yY_qkpB2fCQxBPRghaFOh1gA_-Y4-wPLtHlVrEWDgKbB3ZGZnlh2Svp2531V9OlN5Uiy7F5BbzlNbruJQO9U-ME7rCVka6xtEs4HYhd65kYYtL28SqkvABoEhVPPKpL0kSjPm57-rnKOCJcJoQMz1VnL7UJDr69ymb23BkyewZmnW60T_dbCgMxvdbgSgrxwW4dM8pYGi9_B_PFMDaeG3XjTYij4zSDk9fjWTFL3WY_1DwETRyiNDzbyQYf3m-VbG7w4lB9SexbqsbNeJMREPwx5TmsbxMl__Larg373LFpchXThmu2ZQbp39apOFgB9GWO73ZLwl7i8XAcn54=w477-h360-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/fiAb4tkLvWNCePa5Ve8bxVEsj1qk601WmGvnSC5xfrWRtHNyVZSl_274C8bByv_rlj9mt9ueCUewTYJajQKJVVpDEMTKL-fR39hax9x2GchGnF3rk2NV2OPGGcNT3QSM8uPNyhXPsV0EUqTHv_0T9J0CZI8vEPEKGaAs0zfRDMBe4EfHpCWD3mBpkByoKEuemlB7pxmecK62Aco8oIGTRKEBYKoavJ80wnGV726P-3w7sNGo2MFZCSTu1AM30C-1HzW6C9LQXyF7C-GFAbXNI5TZ3kad0vkS-0LUq1FdRgrq7dLsa_wz02L_5OlK4NwqwWRg4jPKomsiwm82K4bpybxvZwt4zEzV5eOxWzxUS3K4cAoYUqcbMN2cWgT3vQFiLxTmzlIsq0t1yh_iPiHO3YikB1_U8KDCWVY5wuD_2z9TzVV5c83S2NsMBcsu7BU7-gfK7BitbOdBxi46nFDd-PDvdmuu_WnNWQr_BNNTU30GoiumIQY_1F-5NQr-3dC7Go81rs5u4cZfOvNnFiAz-8na6h6NnU7q8tvOicGZwaz328VUZVD7fuziXR7DECUK5Qmv6iNnRCLs9wnjHOsMbN-U4hVWZG9R34I02JdHxODXDu4Jn6kIfOQZbdY_HiHCBQWZPJNxOS7cmRoacxr85Af_MbaztF0iyMhpzkspKwwYf4JzXwkQLIOgbljjAsl9TfvYEU0blmW-fIUzJ2o=w307-h407-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/yMVrYg-RIYHp8J7lHeBKrCM7j796QvSct0M-GKqnM0Ss2WtULN7P6WCIm1LLixqfZnaaqLxtL9d9a1uAJcq8emeCWkRU_4fPYAzyqDdSRBDeryPLS9btKqZ3Ovouk3VygP-QPzSgyOmqp6T4ASb_ooDQSUaz8QZ3f_XVril1Mh3Yvxwptg4fmyPVyvhGnJOTxiRtKB-xv7uPvG3T7UX5OBfRu-9DH5zhM-rPKkQq2utJXy8Gd5S0fZ30ooQ5ez1yF463h5u2wv-zzEBdzbnSDMn_lvamjawhzZCQxQhzVjNbQeQFbapOBYzVni02_qpYyXhPXLDndjwf11L6RCQwrbMFuwFJ1gs9I3eLA68MJKhUbR60vYJJH0HQXCvtdFHh575BsJEF6diq34dPsgeUg55zjiCytdmzCNkBR25jWAKbpSwGXbKLhr68U-PUYTBQFV4PJtCnRwo70vAHkAjAA0k51ua1Uegw4pOzjX6bKXmmSoHHVHjyjV0c6uLmKuNEjwCE6bBn3IkmCH7aUEM0OwKlx0-WLiKn2I2FEFW6TEXkK9QExcDPWA-wOqgAHN9ntNTFZtzNbc2CzNu2XQiks1bPkYxXzpukFGpX173FrzUowH1HJWDLlhlMRK4men8c6AVRu01w8m1hYXrUPBTgnjdmhAPuh2629_65qeP4z6T5ioL_plWsxLl6xWbqGYoZAQCoAA51LTE3G-hK5hI=w228-h302-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/J6FB_ndLIbRMeXUb9CzHC6HdH1agDmser0d4Hhxg3TX87V88OThj1uO4IhRKHomDx_V-78BG8YsNutnZvGZ-eLATe-R2KRGP_hoZ6qrvOyARVFgnzWGLj7K2m0QBiR47NuQyZPmYm9dyuUMDpByY_Y6B0fHYfLq-pN7F1iooNRrSxKJThfLeoTeUeWCMc4cZudm-JYA_MnwxwaqNqrc8C_AF2UTF9SaSWGWdWAzKeItH9x6aWrmw3OsXsRTY_Xv0xkVylC3z0gKmScAYZssmlALBpqx_5NZGRcLL2TKP9WqXXJtCNb7-osjqSFAqLeXfRCjrknrRrfmBgnpK7OeXVe0dSI_J6_aUyRJw4RPy1OF0UnzTKShgVey7_0TkLxiK66x5CrRYLd2fbWjpSD7SCZzmkMktK17QVhSiyJymZzDHcDvELug7-GHtJlHNfP0EKJn5PMa7BrS1jWAfr4DmxR5H1S7108Z-WUFaUL4ORVNWD9PD1I8X9kojU0XnpFGMjMovkp-PBCm_Y3kFenzPZht7rN4BlY0iHENBNa-s-e0TnSdWdejwqqXwRCAWPXZMNLbZHUYBfsgpzn_56x6fsA39lAg42nMlkbycBGopGZ9AgRHs3C-Q72k5THDw6cpm_Hw9GacP4o_Yohi3invKix0AVshHdRnj-RF9gGqHpimBdvkq7zuYrYTExllb9VmiQNbWoHq3TixmfhSaCTw=w455-h343-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/503kqX_NRmn5kC5IKD8XS9wbdKd3d9VsBlZQlHI3r-rKU_jyLtfQSJM3kp5gL1JmcgVzY3pODFMLTq3l01d15TnErJcMMpyy6OSLZirfJBue458_0AWWUsx4LilL8lCusGU3ADgby-pgvT4nlWyNytyCzb3BOg9XEKwOlaCigYEMYbuTgijuATC44FQrGP9VK5N4AbCiii6uYd7X2-AIQ4wr6Jvi5uBn1QFE-zZFTiG9AnN0PMNIPVmoUMmgvqU-4jYg4bZNodIsrVT8bYGGRZxqT25q7f_A3LXgLMTsqv2b4D2QlCKcL90ZGHVDm4YUkUKLqGGBI_TrhBhJtktlLMJ5vPsQYZv27YaQhJAexeFatisp9QjCpffTV6aLpGdK6pszQwEfO2QwFwcOx3_XM2KclmYAKA9jp0SuyF1q43B1HFD4xe8W6TEiq8VGEw9QQfSSDAbBB93iA04lc969584Qa76PYRgi8XTBV4gSnw8jCqIGzLcmiBOBGFy94v3g7NE98VTziQqLEtuXELCbySh4fzqLxN_HHZIF18iimpTes38o_zh7jtFQl5NtLEQuMYLg7wM_mtV0M5_9PCm764_0BkCkzs_zVAJTFKFhT-Aj0pD6Wne5XJuMPwhqwKqC3IxH0ljkMBTfHeApEXyEElPhdsJSk9l729gTEohprc1VimAs6qktsv3oPXx7zgH9Y0C2rxgEOs84Hyb9hPw=w409-h308-no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1258,16 +1271,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1581,7 +1594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2625,10 +2638,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:X1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2643,10 +2658,10 @@
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="35"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -2734,7 +2749,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="4"/>
@@ -2764,7 +2779,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="4"/>
@@ -2794,7 +2809,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="4"/>
@@ -2824,7 +2839,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="4"/>
@@ -2854,7 +2869,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="4"/>
@@ -2884,7 +2899,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="4"/>
@@ -2970,13 +2985,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -3004,7 +3019,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="4"/>
@@ -3034,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>27</v>
+        <v>288</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="4"/>
@@ -3064,7 +3079,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -3094,7 +3109,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>29</v>
+        <v>289</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="4"/>
@@ -3124,7 +3139,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -3154,7 +3169,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>31</v>
+        <v>290</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="4"/>
@@ -3240,13 +3255,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3274,7 +3289,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="4"/>
@@ -3304,10 +3319,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>37</v>
+        <v>292</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -3336,7 +3351,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="4"/>
@@ -3366,7 +3381,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>39</v>
+        <v>293</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="4"/>
@@ -3396,7 +3411,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="4"/>
@@ -3426,7 +3441,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="4"/>
@@ -3456,7 +3471,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="4"/>
@@ -3485,8 +3500,8 @@
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>43</v>
+      <c r="B29" s="19" t="s">
+        <v>295</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="4"/>
@@ -3516,7 +3531,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="4"/>
@@ -3546,7 +3561,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="4"/>
@@ -3571,12 +3586,12 @@
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1">
+    <row r="32" spans="1:24" ht="75">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
@@ -3662,13 +3677,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3696,7 +3711,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>50</v>
+        <v>297</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="4"/>
@@ -3726,7 +3741,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="4"/>
@@ -3756,9 +3771,11 @@
         <v>3</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="9"/>
+        <v>298</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3786,7 +3803,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="4"/>
@@ -3816,7 +3833,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="4"/>
@@ -3846,7 +3863,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="4"/>
@@ -3876,7 +3893,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>56</v>
+        <v>301</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="4"/>
@@ -3906,7 +3923,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="4"/>
@@ -3992,13 +4009,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -4026,7 +4043,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="4"/>
@@ -4056,9 +4073,11 @@
         <v>3</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="9"/>
+        <v>302</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>303</v>
+      </c>
       <c r="D48" s="4"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -4086,7 +4105,7 @@
         <v>4</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="4"/>
@@ -4116,7 +4135,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>64</v>
+        <v>304</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="4"/>
@@ -4146,7 +4165,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="4"/>
@@ -4176,7 +4195,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>66</v>
+        <v>305</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="4"/>
@@ -4206,7 +4225,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="4"/>
@@ -4236,7 +4255,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>68</v>
+        <v>306</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="4"/>
@@ -4266,7 +4285,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4"/>
@@ -4296,7 +4315,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>70</v>
+        <v>307</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="4"/>
@@ -4326,7 +4345,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="4"/>
@@ -4412,13 +4431,13 @@
         <v>2</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -4446,7 +4465,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="4"/>
@@ -4476,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="5"/>
@@ -4508,7 +4527,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="4"/>
@@ -4538,7 +4557,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="4"/>
@@ -4568,7 +4587,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="4"/>
@@ -4598,7 +4617,7 @@
         <v>3</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="4"/>
@@ -4628,7 +4647,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="4"/>
@@ -4714,13 +4733,13 @@
         <v>2</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -4748,7 +4767,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="4"/>
@@ -4778,7 +4797,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>87</v>
+        <v>312</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="4"/>
@@ -4808,7 +4827,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="4"/>
@@ -4838,7 +4857,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="4"/>
@@ -4868,7 +4887,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="4"/>
@@ -4898,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>91</v>
+        <v>314</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="4"/>
@@ -4928,7 +4947,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="4"/>
@@ -5014,13 +5033,13 @@
         <v>2</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -5048,7 +5067,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="4"/>
@@ -5078,7 +5097,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="4"/>
@@ -5108,7 +5127,7 @@
         <v>4</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="4"/>
@@ -5138,7 +5157,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>99</v>
+        <v>316</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="4"/>
@@ -5168,7 +5187,7 @@
         <v>4</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="4"/>
@@ -5198,7 +5217,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>101</v>
+        <v>317</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="4"/>
@@ -5228,7 +5247,7 @@
         <v>4</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="4"/>
@@ -5314,13 +5333,13 @@
         <v>2</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -5348,7 +5367,7 @@
         <v>4</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="4"/>
@@ -5378,7 +5397,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>107</v>
+        <v>318</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="4"/>
@@ -5408,7 +5427,7 @@
         <v>4</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="4"/>
@@ -5438,7 +5457,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>109</v>
+        <v>319</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="4"/>
@@ -5468,7 +5487,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="4"/>
@@ -5498,9 +5517,11 @@
         <v>3</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C96" s="9"/>
+        <v>320</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>321</v>
+      </c>
       <c r="D96" s="4"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -5523,12 +5544,12 @@
       <c r="W96" s="5"/>
       <c r="X96" s="5"/>
     </row>
-    <row r="97" spans="1:24" ht="15.75" customHeight="1">
+    <row r="97" spans="1:24" ht="75">
       <c r="A97" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="4"/>
@@ -5558,7 +5579,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>113</v>
+        <v>323</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="4"/>
@@ -5644,13 +5665,13 @@
         <v>2</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -5678,7 +5699,7 @@
         <v>4</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="4"/>
@@ -5708,7 +5729,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>118</v>
+        <v>322</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="4"/>
@@ -5733,12 +5754,12 @@
       <c r="W103" s="5"/>
       <c r="X103" s="5"/>
     </row>
-    <row r="104" spans="1:24" ht="15.75" customHeight="1">
+    <row r="104" spans="1:24" ht="45">
       <c r="A104" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="4"/>
@@ -5767,10 +5788,9 @@
       <c r="A105" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C105" s="9"/>
+      <c r="B105" s="10" t="s">
+        <v>325</v>
+      </c>
       <c r="D105" s="4"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -5798,7 +5818,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="4"/>
@@ -5828,7 +5848,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>122</v>
+        <v>324</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="4"/>
@@ -5858,7 +5878,7 @@
         <v>4</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="4"/>
@@ -5883,13 +5903,15 @@
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
     </row>
-    <row r="109" spans="1:24" ht="15.75" customHeight="1">
+    <row r="109" spans="1:24" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="16"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
@@ -5913,7 +5935,7 @@
     </row>
     <row r="110" spans="1:24" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -5941,17 +5963,11 @@
     </row>
     <row r="111" spans="1:24" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="4"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
@@ -5975,13 +5991,17 @@
     </row>
     <row r="112" spans="1:24" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
@@ -6005,14 +6025,12 @@
     </row>
     <row r="113" spans="1:24" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>129</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C113" s="9"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -6037,12 +6055,14 @@
     </row>
     <row r="114" spans="1:24" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C114" s="9"/>
+        <v>327</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>328</v>
+      </c>
       <c r="D114" s="4"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -6067,10 +6087,10 @@
     </row>
     <row r="115" spans="1:24" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="4"/>
@@ -6097,10 +6117,10 @@
     </row>
     <row r="116" spans="1:24" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="4"/>
@@ -6127,9 +6147,11 @@
     </row>
     <row r="117" spans="1:24" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C117" s="9"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5"/>
@@ -6155,7 +6177,7 @@
     </row>
     <row r="118" spans="1:24" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -6183,17 +6205,11 @@
     </row>
     <row r="119" spans="1:24" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D119" s="15" t="s">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="4"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
@@ -6217,13 +6233,17 @@
     </row>
     <row r="120" spans="1:24" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -6247,10 +6267,10 @@
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="4"/>
@@ -6277,10 +6297,10 @@
     </row>
     <row r="122" spans="1:24" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>138</v>
+        <v>330</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="4"/>
@@ -6307,10 +6327,10 @@
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="4"/>
@@ -6337,10 +6357,10 @@
     </row>
     <row r="124" spans="1:24" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>140</v>
+        <v>331</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="4"/>
@@ -6367,10 +6387,10 @@
     </row>
     <row r="125" spans="1:24" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="4"/>
@@ -6397,10 +6417,10 @@
     </row>
     <row r="126" spans="1:24" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>142</v>
+        <v>332</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="4"/>
@@ -6427,9 +6447,11 @@
     </row>
     <row r="127" spans="1:24" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B127" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C127" s="9"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5"/>
@@ -6455,7 +6477,7 @@
     </row>
     <row r="128" spans="1:24" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -6483,17 +6505,11 @@
     </row>
     <row r="129" spans="1:24" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D129" s="15" t="s">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="4"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
@@ -6517,13 +6533,17 @@
     </row>
     <row r="130" spans="1:24" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
@@ -6547,10 +6567,10 @@
     </row>
     <row r="131" spans="1:24" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="4"/>
@@ -6577,10 +6597,10 @@
     </row>
     <row r="132" spans="1:24" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>148</v>
+        <v>333</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="4"/>
@@ -6607,10 +6627,10 @@
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="4"/>
@@ -6637,10 +6657,10 @@
     </row>
     <row r="134" spans="1:24" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>150</v>
+        <v>334</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="4"/>
@@ -6667,10 +6687,10 @@
     </row>
     <row r="135" spans="1:24" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="4"/>
@@ -6697,10 +6717,10 @@
     </row>
     <row r="136" spans="1:24" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>152</v>
+        <v>335</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="4"/>
@@ -6727,9 +6747,11 @@
     </row>
     <row r="137" spans="1:24" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B137" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="C137" s="9"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5"/>
@@ -6755,7 +6777,7 @@
     </row>
     <row r="138" spans="1:24" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -6783,14 +6805,10 @@
     </row>
     <row r="139" spans="1:24" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -6815,12 +6833,14 @@
     </row>
     <row r="140" spans="1:24" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C140" s="9"/>
+        <v>106</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="D140" s="4"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -6843,12 +6863,12 @@
       <c r="W140" s="5"/>
       <c r="X140" s="5"/>
     </row>
-    <row r="141" spans="1:24" ht="15.75" customHeight="1">
+    <row r="141" spans="1:24" ht="120">
       <c r="A141" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="4"/>
@@ -6875,10 +6895,10 @@
     </row>
     <row r="142" spans="1:24" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>157</v>
+        <v>336</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="4"/>
@@ -6905,10 +6925,10 @@
     </row>
     <row r="143" spans="1:24" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="4"/>
@@ -6935,12 +6955,8 @@
     </row>
     <row r="144" spans="1:24" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C144" s="9"/>
+        <v>3</v>
+      </c>
       <c r="D144" s="4"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
@@ -6965,10 +6981,10 @@
     </row>
     <row r="145" spans="1:24" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="4"/>
@@ -6995,10 +7011,7 @@
     </row>
     <row r="146" spans="1:24" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="4"/>
@@ -7025,10 +7038,10 @@
     </row>
     <row r="147" spans="1:24" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="4"/>
@@ -7055,12 +7068,14 @@
     </row>
     <row r="148" spans="1:24" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C148" s="9"/>
+        <v>337</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>338</v>
+      </c>
       <c r="D148" s="4"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
@@ -7085,10 +7100,10 @@
     </row>
     <row r="149" spans="1:24" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="4"/>
@@ -7115,10 +7130,10 @@
     </row>
     <row r="150" spans="1:24" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>165</v>
+        <v>339</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="4"/>
@@ -7145,10 +7160,10 @@
     </row>
     <row r="151" spans="1:24" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="4"/>
@@ -7175,9 +7190,11 @@
     </row>
     <row r="152" spans="1:24" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B152" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>340</v>
+      </c>
       <c r="C152" s="9"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5"/>
@@ -7201,7 +7218,34 @@
       <c r="W152" s="5"/>
       <c r="X152" s="5"/>
     </row>
-    <row r="153" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="153" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="5"/>
+      <c r="N153" s="5"/>
+      <c r="O153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="5"/>
+      <c r="S153" s="5"/>
+      <c r="T153" s="5"/>
+      <c r="U153" s="5"/>
+      <c r="V153" s="5"/>
+      <c r="W153" s="5"/>
+      <c r="X153" s="5"/>
+    </row>
     <row r="154" spans="1:24" ht="15.75" customHeight="1"/>
     <row r="155" spans="1:24" ht="15.75" customHeight="1"/>
     <row r="156" spans="1:24" ht="15.75" customHeight="1"/>
@@ -8049,6 +8093,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
@@ -8058,11 +8103,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>readme!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A152</xm:sqref>
+          <xm:sqref>A2:A153</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8071,11 +8116,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8092,10 +8137,10 @@
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="35"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -8119,19 +8164,21 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" ht="409.5">
       <c r="A2" s="3" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" s="4"/>
+        <v>232</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>284</v>
+      </c>
       <c r="E2" s="30" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -8188,7 +8235,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="4"/>
@@ -8219,7 +8266,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="4"/>
@@ -8308,7 +8355,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="4"/>
@@ -8338,11 +8385,11 @@
       <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -8372,7 +8419,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="4"/>
@@ -8403,7 +8450,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="4"/>
@@ -8434,7 +8481,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="4"/>
@@ -8465,13 +8512,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -8500,7 +8547,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="4"/>
@@ -8531,7 +8578,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -8562,7 +8609,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="4"/>
@@ -8593,7 +8640,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -8624,7 +8671,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="4"/>
@@ -8658,13 +8705,13 @@
         <v>29.3</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -8692,7 +8739,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="4"/>
@@ -8781,10 +8828,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -8814,7 +8861,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="4"/>
@@ -8845,13 +8892,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -8880,7 +8927,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="4"/>
@@ -8911,7 +8958,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="4"/>
@@ -8942,7 +8989,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="4"/>
@@ -8973,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="4"/>
@@ -9004,7 +9051,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="15"/>
@@ -9035,7 +9082,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="4"/>
@@ -9066,7 +9113,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
@@ -9097,7 +9144,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="4"/>
@@ -9128,7 +9175,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="4"/>
@@ -9159,7 +9206,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="4"/>
@@ -9190,7 +9237,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="4"/>
@@ -9224,13 +9271,13 @@
         <v>23.8</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -9258,7 +9305,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="4"/>
@@ -9347,10 +9394,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -9380,7 +9427,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="4"/>
@@ -9411,7 +9458,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="4"/>
@@ -9442,7 +9489,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="15"/>
@@ -9473,7 +9520,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="4"/>
@@ -9504,7 +9551,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="4"/>
@@ -9535,7 +9582,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="4"/>
@@ -9569,13 +9616,13 @@
         <v>14.4</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -9603,7 +9650,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="4"/>
@@ -9691,11 +9738,11 @@
       <c r="A52" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="37" t="s">
-        <v>47</v>
+      <c r="B52" s="35" t="s">
+        <v>35</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
@@ -9725,7 +9772,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="4"/>
@@ -9756,7 +9803,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="4"/>
@@ -9787,7 +9834,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4"/>
@@ -9818,7 +9865,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="4"/>
@@ -9849,7 +9896,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="4"/>
@@ -9880,7 +9927,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="15"/>
@@ -9911,7 +9958,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="4"/>
@@ -9942,7 +9989,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="4"/>
@@ -9973,7 +10020,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="4"/>
@@ -10004,7 +10051,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="4"/>
@@ -10035,7 +10082,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="4"/>
@@ -10069,13 +10116,13 @@
         <v>17.5</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -10103,7 +10150,7 @@
         <v>6</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="4"/>
@@ -10191,11 +10238,11 @@
       <c r="A68" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="37" t="s">
-        <v>58</v>
+      <c r="B68" s="35" t="s">
+        <v>42</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="5"/>
@@ -10225,7 +10272,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="4"/>
@@ -10256,7 +10303,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="4"/>
@@ -10287,7 +10334,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="4"/>
@@ -10318,7 +10365,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="4"/>
@@ -10349,7 +10396,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="4"/>
@@ -10380,7 +10427,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="4"/>
@@ -10411,7 +10458,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="4"/>
@@ -10442,7 +10489,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="4"/>
@@ -10473,7 +10520,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="15"/>
@@ -10504,7 +10551,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="15"/>
@@ -10538,13 +10585,13 @@
         <v>19.5</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -10572,7 +10619,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="4"/>
@@ -10660,11 +10707,11 @@
       <c r="A83" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="37" t="s">
-        <v>72</v>
+      <c r="B83" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="5"/>
@@ -10694,7 +10741,7 @@
         <v>4</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="4"/>
@@ -10725,7 +10772,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="4"/>
@@ -10756,7 +10803,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="4"/>
@@ -10787,10 +10834,10 @@
         <v>3</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="5"/>
@@ -10820,7 +10867,7 @@
         <v>4</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="4"/>
@@ -10851,7 +10898,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="5"/>
@@ -10881,7 +10928,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="5"/>
@@ -10911,7 +10958,7 @@
         <v>4</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="15"/>
@@ -10942,7 +10989,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="4"/>
@@ -10976,13 +11023,13 @@
         <v>22</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="F93" s="24"/>
       <c r="G93" s="24"/>
@@ -11011,7 +11058,7 @@
         <v>6</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="4"/>
@@ -11099,11 +11146,11 @@
       <c r="A97" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="36" t="s">
-        <v>83</v>
+      <c r="B97" s="34" t="s">
+        <v>58</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="5"/>
@@ -11133,7 +11180,7 @@
         <v>4</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="4"/>
@@ -11164,7 +11211,7 @@
         <v>4</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="4"/>
@@ -11195,10 +11242,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="5"/>
@@ -11228,7 +11275,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="4"/>
@@ -11259,7 +11306,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="15"/>
@@ -11290,7 +11337,7 @@
         <v>4</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="4"/>
@@ -11321,7 +11368,7 @@
         <v>4</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="4"/>
@@ -11352,7 +11399,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="4"/>
@@ -11383,7 +11430,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="4"/>
@@ -11417,13 +11464,13 @@
         <v>17.7</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
@@ -11451,7 +11498,7 @@
         <v>6</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="15"/>
@@ -11539,11 +11586,11 @@
       <c r="A111" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B111" s="36" t="s">
-        <v>329</v>
+      <c r="B111" s="34" t="s">
+        <v>276</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="5"/>
@@ -11573,7 +11620,7 @@
         <v>4</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="4"/>
@@ -11604,7 +11651,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="4"/>
@@ -11635,7 +11682,7 @@
         <v>4</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="4"/>
@@ -11666,7 +11713,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="4"/>
@@ -11697,7 +11744,7 @@
         <v>4</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="4"/>
@@ -11728,7 +11775,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="4"/>
@@ -11759,7 +11806,7 @@
         <v>4</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="4"/>
@@ -11790,10 +11837,10 @@
         <v>3</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="5"/>
@@ -11826,13 +11873,13 @@
         <v>21.3</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -11860,7 +11907,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="4"/>
@@ -15444,7 +15491,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>readme!$B$2:$B$15</xm:f>
           </x14:formula1>
@@ -15457,7 +15504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15478,10 +15525,10 @@
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="35"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -15507,19 +15554,19 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -15699,7 +15746,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -15760,7 +15807,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="4"/>
@@ -15791,13 +15838,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>259</v>
+        <v>206</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -15826,7 +15873,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="13"/>
@@ -15857,7 +15904,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="4"/>
@@ -15888,7 +15935,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="4"/>
@@ -15919,7 +15966,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -15950,7 +15997,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="4"/>
@@ -15981,7 +16028,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -16012,7 +16059,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="4"/>
@@ -16043,13 +16090,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>263</v>
+        <v>210</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -16078,7 +16125,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="4"/>
@@ -16109,7 +16156,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="4"/>
@@ -16140,7 +16187,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="4"/>
@@ -16229,10 +16276,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -16262,7 +16309,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="4"/>
@@ -16293,10 +16340,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>267</v>
+        <v>214</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -16326,7 +16373,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -16357,7 +16404,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="4"/>
@@ -16388,13 +16435,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -16423,7 +16470,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="4"/>
@@ -16454,7 +16501,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
@@ -16485,7 +16532,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="15"/>
@@ -16516,7 +16563,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>274</v>
+        <v>221</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="4"/>
@@ -16547,7 +16594,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="4"/>
@@ -16636,7 +16683,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="4"/>
@@ -16667,7 +16714,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="4"/>
@@ -16698,7 +16745,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="4"/>
@@ -16729,7 +16776,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="4"/>
@@ -16760,7 +16807,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="4"/>
@@ -16791,7 +16838,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="4"/>
@@ -16822,7 +16869,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="4"/>
@@ -22510,7 +22557,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>readme!$B$2:$B$15</xm:f>
           </x14:formula1>

--- a/static/data/data.xlsx
+++ b/static/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\thomasmrt.github.io\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F979F95D-3E0B-4DAE-B1F0-F96218ED5ADC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BD8342-8B19-4D63-A49B-8A0974E51C0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="341">
   <si>
     <t>section_start</t>
   </si>
@@ -2639,10 +2639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X1001"/>
+  <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145:XFD145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2744,7 +2744,7 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" ht="120">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" ht="120">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2864,7 +2864,7 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" ht="120">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -3044,7 +3044,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" ht="120">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3104,7 +3104,7 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" ht="135">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" ht="135">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -6955,8 +6955,12 @@
     </row>
     <row r="144" spans="1:24" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C144" s="9"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
@@ -6984,7 +6988,7 @@
         <v>4</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="4"/>
@@ -7013,7 +7017,12 @@
       <c r="A146" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C146" s="9"/>
+      <c r="B146" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>338</v>
+      </c>
       <c r="D146" s="4"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
@@ -7041,7 +7050,7 @@
         <v>4</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="4"/>
@@ -7071,11 +7080,9 @@
         <v>3</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>338</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C148" s="9"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
@@ -7103,7 +7110,7 @@
         <v>4</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="4"/>
@@ -7133,7 +7140,7 @@
         <v>3</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="4"/>
@@ -7160,11 +7167,9 @@
     </row>
     <row r="151" spans="1:24" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B151" s="13" t="s">
-        <v>113</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5"/>
@@ -7188,64 +7193,8 @@
       <c r="W151" s="5"/>
       <c r="X151" s="5"/>
     </row>
-    <row r="152" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A152" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B152" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C152" s="9"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-      <c r="K152" s="5"/>
-      <c r="L152" s="5"/>
-      <c r="M152" s="5"/>
-      <c r="N152" s="5"/>
-      <c r="O152" s="5"/>
-      <c r="P152" s="5"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="5"/>
-      <c r="S152" s="5"/>
-      <c r="T152" s="5"/>
-      <c r="U152" s="5"/>
-      <c r="V152" s="5"/>
-      <c r="W152" s="5"/>
-      <c r="X152" s="5"/>
-    </row>
-    <row r="153" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A153" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B153" s="9"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5"/>
-      <c r="K153" s="5"/>
-      <c r="L153" s="5"/>
-      <c r="M153" s="5"/>
-      <c r="N153" s="5"/>
-      <c r="O153" s="5"/>
-      <c r="P153" s="5"/>
-      <c r="Q153" s="5"/>
-      <c r="R153" s="5"/>
-      <c r="S153" s="5"/>
-      <c r="T153" s="5"/>
-      <c r="U153" s="5"/>
-      <c r="V153" s="5"/>
-      <c r="W153" s="5"/>
-      <c r="X153" s="5"/>
-    </row>
+    <row r="152" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="153" spans="1:24" ht="15.75" customHeight="1"/>
     <row r="154" spans="1:24" ht="15.75" customHeight="1"/>
     <row r="155" spans="1:24" ht="15.75" customHeight="1"/>
     <row r="156" spans="1:24" ht="15.75" customHeight="1"/>
@@ -8092,8 +8041,6 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
@@ -8107,7 +8054,7 @@
           <x14:formula1>
             <xm:f>readme!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A153</xm:sqref>
+          <xm:sqref>A2:A151</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/static/data/data.xlsx
+++ b/static/data/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\thomasmrt.github.io\static\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safco103866\Desktop\Tools\site\thomasmrt.github.io\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BD8342-8B19-4D63-A49B-8A0974E51C0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -18,12 +17,12 @@
     <sheet name="Queyras" sheetId="3" r:id="rId3"/>
     <sheet name="Taillefer" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="345">
   <si>
     <t>section_start</t>
   </si>
@@ -343,9 +342,6 @@
     <t>Au revoir îles Lofoten</t>
   </si>
   <si>
-    <t>Post Rando</t>
-  </si>
-  <si>
     <t>Oslo</t>
   </si>
   <si>
@@ -1046,12 +1042,27 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/503kqX_NRmn5kC5IKD8XS9wbdKd3d9VsBlZQlHI3r-rKU_jyLtfQSJM3kp5gL1JmcgVzY3pODFMLTq3l01d15TnErJcMMpyy6OSLZirfJBue458_0AWWUsx4LilL8lCusGU3ADgby-pgvT4nlWyNytyCzb3BOg9XEKwOlaCigYEMYbuTgijuATC44FQrGP9VK5N4AbCiii6uYd7X2-AIQ4wr6Jvi5uBn1QFE-zZFTiG9AnN0PMNIPVmoUMmgvqU-4jYg4bZNodIsrVT8bYGGRZxqT25q7f_A3LXgLMTsqv2b4D2QlCKcL90ZGHVDm4YUkUKLqGGBI_TrhBhJtktlLMJ5vPsQYZv27YaQhJAexeFatisp9QjCpffTV6aLpGdK6pszQwEfO2QwFwcOx3_XM2KclmYAKA9jp0SuyF1q43B1HFD4xe8W6TEiq8VGEw9QQfSSDAbBB93iA04lc969584Qa76PYRgi8XTBV4gSnw8jCqIGzLcmiBOBGFy94v3g7NE98VTziQqLEtuXELCbySh4fzqLxN_HHZIF18iimpTes38o_zh7jtFQl5NtLEQuMYLg7wM_mtV0M5_9PCm764_0BkCkzs_zVAJTFKFhT-Aj0pD6Wne5XJuMPwhqwKqC3IxH0ljkMBTfHeApEXyEElPhdsJSk9l729gTEohprc1VimAs6qktsv3oPXx7zgH9Y0C2rxgEOs84Hyb9hPw=w409-h308-no</t>
+  </si>
+  <si>
+    <t>Grande traversée des Lofoten</t>
+  </si>
+  <si>
+    <t>Norvège</t>
+  </si>
+  <si>
+    <t>Juillet 2017</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/ykMPu8fYsO9j8hTKM7wwwuTBvUCxsCjekf9DUqQAf8cQ565VQVmhRtrTqXmhlmikGPtmpxiWxJXHCepxip3cH92s8ubpRN8D4F4XiidluDZqMZXSzXk3OVwZ47olH-YBY56j_xLWImHvK_YpSTGlGTDg0lvS7qg9E8K8R2P7oB6dwpv4TSU045Y2iBy_T_FPIdbz-CHN3imKTpVAI23DwwEUGW7_nKM9lLYizPvFa9JbjeY7ao8zr2cKdzy0ilJAVQdfVHjH1kn6bg5t5ORfAKxc62aHrNlQkGtFbFrs1zL7i0Xmyo4WA_QWdezkStyb1HTexMSkmphD8Psrrr54u0L0rBXZ7dvjsobjO7M6Mu7h2kvmmCiZEooxjSJrJqx9o1qWO3ymEx5FHDCukta6KAJ7GoNnL32tc5F47BfVgFsUaeJRDW_7stvh-KuEQZosPllSULAjkPpAX_SM3Xznn4Sgu1lgrbzvQ2m0-DGyLe0H-_lIFselJlCs0Bf1M7EayTwrtuAenD23zeRJplDC8gOqZEwgK0T2xeOLjugiI1PlZ5bjGUz7afdNqufujS8fWhwZjq3ypG6261nd1_-WS0HveGM9_vDYPbTbJTb-lmT261Ui8udJ-VK7erNBspL0j_BZdcoyObsWPTVL9eJPKMaejMmMF4KS=w1680-h880-no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1178,7 +1189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1277,10 +1288,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1594,7 +1609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2638,11 +2653,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X999"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145:XFD145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2654,14 +2669,14 @@
     <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -2684,14 +2699,22 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+    <row r="2" spans="1:25" s="19" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>342</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -2711,17 +2734,14 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" s="5"/>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -2744,14 +2764,16 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:24" ht="120">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2774,12 +2796,12 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24" ht="90">
+    <row r="5" spans="1:25" ht="120">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="4"/>
@@ -2804,12 +2826,12 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:24" ht="120">
+    <row r="6" spans="1:25" ht="90">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="4"/>
@@ -2834,12 +2856,12 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:24" ht="60">
+    <row r="7" spans="1:25" ht="120">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>18</v>
+        <v>285</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="4"/>
@@ -2864,12 +2886,12 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:24" ht="120">
+    <row r="8" spans="1:25" ht="60">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="4"/>
@@ -2894,12 +2916,12 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:24" ht="75">
+    <row r="9" spans="1:25" ht="120">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="4"/>
@@ -2924,11 +2946,13 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:25" ht="75">
       <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="C10" s="9"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -2952,9 +2976,9 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -2980,19 +3004,13 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -3014,15 +3032,19 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:24" ht="105">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -3044,12 +3066,12 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:24" ht="120">
+    <row r="14" spans="1:25" ht="105">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>288</v>
+        <v>23</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="4"/>
@@ -3074,12 +3096,12 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:24" ht="75">
+    <row r="15" spans="1:25" ht="120">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>24</v>
+        <v>287</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -3104,12 +3126,12 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="1:24" ht="135">
+    <row r="16" spans="1:25" ht="75">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>289</v>
+        <v>24</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="4"/>
@@ -3134,12 +3156,12 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="1:24" ht="45">
+    <row r="17" spans="1:24" ht="135">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -3164,12 +3186,12 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="1:24" ht="135">
+    <row r="18" spans="1:24" ht="45">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>290</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="4"/>
@@ -3194,11 +3216,13 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" ht="135">
       <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>289</v>
+      </c>
       <c r="C19" s="9"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -3224,7 +3248,7 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -3250,19 +3274,13 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1">
+    <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -3286,13 +3304,17 @@
     </row>
     <row r="22" spans="1:24" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -3316,14 +3338,12 @@
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>292</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C23" s="9"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3348,12 +3368,14 @@
     </row>
     <row r="24" spans="1:24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="9"/>
+        <v>290</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>291</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3378,10 +3400,10 @@
     </row>
     <row r="25" spans="1:24" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>293</v>
+        <v>30</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="4"/>
@@ -3408,10 +3430,10 @@
     </row>
     <row r="26" spans="1:24" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="4"/>
@@ -3438,10 +3460,10 @@
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>294</v>
+        <v>31</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="4"/>
@@ -3468,10 +3490,10 @@
     </row>
     <row r="28" spans="1:24" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>32</v>
+        <v>293</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="4"/>
@@ -3498,10 +3520,10 @@
     </row>
     <row r="29" spans="1:24" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>295</v>
+        <v>4</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="4"/>
@@ -3528,10 +3550,10 @@
     </row>
     <row r="30" spans="1:24" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>33</v>
+        <v>3</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>294</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="4"/>
@@ -3558,10 +3580,10 @@
     </row>
     <row r="31" spans="1:24" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>296</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="4"/>
@@ -3586,12 +3608,12 @@
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
     </row>
-    <row r="32" spans="1:24" ht="75">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>34</v>
+        <v>295</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
@@ -3616,11 +3638,13 @@
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
     </row>
-    <row r="33" spans="1:24" ht="15.75" customHeight="1">
+    <row r="33" spans="1:24" ht="75">
       <c r="A33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="C33" s="9"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -3646,7 +3670,7 @@
     </row>
     <row r="34" spans="1:24" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -3674,17 +3698,11 @@
     </row>
     <row r="35" spans="1:24" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -3708,13 +3726,17 @@
     </row>
     <row r="36" spans="1:24" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -3738,10 +3760,10 @@
     </row>
     <row r="37" spans="1:24" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="4"/>
@@ -3768,14 +3790,12 @@
     </row>
     <row r="38" spans="1:24" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>299</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C38" s="9"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3800,12 +3820,14 @@
     </row>
     <row r="39" spans="1:24" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="9"/>
+        <v>297</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>298</v>
+      </c>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3830,10 +3852,10 @@
     </row>
     <row r="40" spans="1:24" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="4"/>
@@ -3860,10 +3882,10 @@
     </row>
     <row r="41" spans="1:24" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="4"/>
@@ -3890,10 +3912,10 @@
     </row>
     <row r="42" spans="1:24" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="4"/>
@@ -3920,10 +3942,10 @@
     </row>
     <row r="43" spans="1:24" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>41</v>
+        <v>300</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="4"/>
@@ -3950,9 +3972,11 @@
     </row>
     <row r="44" spans="1:24" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="C44" s="9"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -3978,7 +4002,7 @@
     </row>
     <row r="45" spans="1:24" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -4006,17 +4030,11 @@
     </row>
     <row r="46" spans="1:24" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -4040,13 +4058,17 @@
     </row>
     <row r="47" spans="1:24" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -4070,14 +4092,12 @@
     </row>
     <row r="48" spans="1:24" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>303</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C48" s="9"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -4102,12 +4122,14 @@
     </row>
     <row r="49" spans="1:24" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="9"/>
+        <v>301</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>302</v>
+      </c>
       <c r="D49" s="4"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -4132,10 +4154,10 @@
     </row>
     <row r="50" spans="1:24" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>304</v>
+        <v>4</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="4"/>
@@ -4162,10 +4184,10 @@
     </row>
     <row r="51" spans="1:24" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>303</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="4"/>
@@ -4192,10 +4214,10 @@
     </row>
     <row r="52" spans="1:24" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>305</v>
+        <v>4</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="4"/>
@@ -4222,10 +4244,10 @@
     </row>
     <row r="53" spans="1:24" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>48</v>
+        <v>3</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>304</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="4"/>
@@ -4252,10 +4274,10 @@
     </row>
     <row r="54" spans="1:24" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>306</v>
+        <v>4</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="4"/>
@@ -4282,10 +4304,10 @@
     </row>
     <row r="55" spans="1:24" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>49</v>
+        <v>3</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>305</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4"/>
@@ -4312,10 +4334,10 @@
     </row>
     <row r="56" spans="1:24" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>307</v>
+        <v>4</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="4"/>
@@ -4342,10 +4364,10 @@
     </row>
     <row r="57" spans="1:24" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>306</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="4"/>
@@ -4372,9 +4394,11 @@
     </row>
     <row r="58" spans="1:24" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="C58" s="9"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5"/>
@@ -4400,7 +4424,7 @@
     </row>
     <row r="59" spans="1:24" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -4428,17 +4452,11 @@
     </row>
     <row r="60" spans="1:24" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -4462,13 +4480,17 @@
     </row>
     <row r="61" spans="1:24" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -4492,14 +4514,12 @@
     </row>
     <row r="62" spans="1:24" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>309</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C62" s="9"/>
       <c r="D62" s="4"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -4524,12 +4544,14 @@
     </row>
     <row r="63" spans="1:24" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" s="9"/>
+        <v>307</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>308</v>
+      </c>
       <c r="D63" s="4"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -4554,10 +4576,10 @@
     </row>
     <row r="64" spans="1:24" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>310</v>
+        <v>4</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="4"/>
@@ -4584,10 +4606,10 @@
     </row>
     <row r="65" spans="1:24" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>309</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="4"/>
@@ -4614,10 +4636,10 @@
     </row>
     <row r="66" spans="1:24" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>311</v>
+        <v>4</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="4"/>
@@ -4644,10 +4666,10 @@
     </row>
     <row r="67" spans="1:24" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>57</v>
+        <v>3</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>310</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="4"/>
@@ -4674,9 +4696,11 @@
     </row>
     <row r="68" spans="1:24" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="C68" s="9"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5"/>
@@ -4702,7 +4726,7 @@
     </row>
     <row r="69" spans="1:24" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -4730,17 +4754,11 @@
     </row>
     <row r="70" spans="1:24" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -4764,13 +4782,17 @@
     </row>
     <row r="71" spans="1:24" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -4794,10 +4816,10 @@
     </row>
     <row r="72" spans="1:24" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>312</v>
+        <v>4</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="4"/>
@@ -4824,10 +4846,10 @@
     </row>
     <row r="73" spans="1:24" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>311</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="4"/>
@@ -4854,10 +4876,10 @@
     </row>
     <row r="74" spans="1:24" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>313</v>
+        <v>4</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="4"/>
@@ -4884,10 +4906,10 @@
     </row>
     <row r="75" spans="1:24" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>63</v>
+        <v>3</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>312</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="4"/>
@@ -4914,10 +4936,10 @@
     </row>
     <row r="76" spans="1:24" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>314</v>
+        <v>4</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="4"/>
@@ -4944,10 +4966,10 @@
     </row>
     <row r="77" spans="1:24" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>64</v>
+        <v>3</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>313</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="4"/>
@@ -4974,9 +4996,11 @@
     </row>
     <row r="78" spans="1:24" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="C78" s="9"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5"/>
@@ -5002,7 +5026,7 @@
     </row>
     <row r="79" spans="1:24" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -5030,17 +5054,11 @@
     </row>
     <row r="80" spans="1:24" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="4"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -5064,13 +5082,17 @@
     </row>
     <row r="81" spans="1:24" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -5094,10 +5116,10 @@
     </row>
     <row r="82" spans="1:24" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>315</v>
+        <v>4</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="4"/>
@@ -5124,10 +5146,10 @@
     </row>
     <row r="83" spans="1:24" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>69</v>
+        <v>3</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>314</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="4"/>
@@ -5154,10 +5176,10 @@
     </row>
     <row r="84" spans="1:24" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>316</v>
+        <v>4</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="4"/>
@@ -5184,10 +5206,10 @@
     </row>
     <row r="85" spans="1:24" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>70</v>
+        <v>3</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>315</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="4"/>
@@ -5214,10 +5236,10 @@
     </row>
     <row r="86" spans="1:24" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>317</v>
+        <v>4</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="4"/>
@@ -5244,10 +5266,10 @@
     </row>
     <row r="87" spans="1:24" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>71</v>
+        <v>3</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>316</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="4"/>
@@ -5274,9 +5296,11 @@
     </row>
     <row r="88" spans="1:24" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="C88" s="9"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5"/>
@@ -5302,7 +5326,7 @@
     </row>
     <row r="89" spans="1:24" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -5330,17 +5354,11 @@
     </row>
     <row r="90" spans="1:24" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="4"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -5364,13 +5382,17 @@
     </row>
     <row r="91" spans="1:24" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -5394,10 +5416,10 @@
     </row>
     <row r="92" spans="1:24" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>318</v>
+        <v>4</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="4"/>
@@ -5424,10 +5446,10 @@
     </row>
     <row r="93" spans="1:24" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>76</v>
+        <v>3</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>317</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="4"/>
@@ -5454,10 +5476,10 @@
     </row>
     <row r="94" spans="1:24" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>319</v>
+        <v>4</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="4"/>
@@ -5484,10 +5506,10 @@
     </row>
     <row r="95" spans="1:24" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>77</v>
+        <v>3</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="4"/>
@@ -5514,14 +5536,12 @@
     </row>
     <row r="96" spans="1:24" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>321</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96" s="9"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -5544,14 +5564,16 @@
       <c r="W96" s="5"/>
       <c r="X96" s="5"/>
     </row>
-    <row r="97" spans="1:24" ht="75">
+    <row r="97" spans="1:24" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>320</v>
+      </c>
       <c r="D97" s="4"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -5574,12 +5596,12 @@
       <c r="W97" s="5"/>
       <c r="X97" s="5"/>
     </row>
-    <row r="98" spans="1:24" ht="15.75" customHeight="1">
+    <row r="98" spans="1:24" ht="75">
       <c r="A98" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="4"/>
@@ -5606,9 +5628,11 @@
     </row>
     <row r="99" spans="1:24" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B99" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>322</v>
+      </c>
       <c r="C99" s="9"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5"/>
@@ -5634,7 +5658,7 @@
     </row>
     <row r="100" spans="1:24" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -5662,17 +5686,11 @@
     </row>
     <row r="101" spans="1:24" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="4"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
@@ -5696,13 +5714,17 @@
     </row>
     <row r="102" spans="1:24" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
@@ -5726,10 +5748,10 @@
     </row>
     <row r="103" spans="1:24" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>322</v>
+        <v>82</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="4"/>
@@ -5754,12 +5776,12 @@
       <c r="W103" s="5"/>
       <c r="X103" s="5"/>
     </row>
-    <row r="104" spans="1:24" ht="45">
+    <row r="104" spans="1:24" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="4"/>
@@ -5784,13 +5806,14 @@
       <c r="W104" s="5"/>
       <c r="X104" s="5"/>
     </row>
-    <row r="105" spans="1:24" ht="15.75" customHeight="1">
+    <row r="105" spans="1:24" ht="45">
       <c r="A105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>325</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C105" s="9"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -5815,12 +5838,11 @@
     </row>
     <row r="106" spans="1:24" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C106" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>324</v>
+      </c>
       <c r="D106" s="4"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -5845,10 +5867,10 @@
     </row>
     <row r="107" spans="1:24" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>324</v>
+        <v>84</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="4"/>
@@ -5875,10 +5897,10 @@
     </row>
     <row r="108" spans="1:24" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>85</v>
+        <v>323</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="4"/>
@@ -5903,15 +5925,15 @@
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
     </row>
-    <row r="109" spans="1:24" s="19" customFormat="1" ht="15.75" customHeight="1">
+    <row r="109" spans="1:24" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="4"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
@@ -5933,13 +5955,15 @@
       <c r="W109" s="5"/>
       <c r="X109" s="5"/>
     </row>
-    <row r="110" spans="1:24" ht="15.75" customHeight="1">
+    <row r="110" spans="1:24" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="16"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
@@ -5963,7 +5987,7 @@
     </row>
     <row r="111" spans="1:24" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -5991,17 +6015,11 @@
     </row>
     <row r="112" spans="1:24" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="4"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
@@ -6025,13 +6043,17 @@
     </row>
     <row r="113" spans="1:24" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
@@ -6055,14 +6077,12 @@
     </row>
     <row r="114" spans="1:24" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>328</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C114" s="9"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -6087,12 +6107,14 @@
     </row>
     <row r="115" spans="1:24" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C115" s="9"/>
+        <v>326</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>327</v>
+      </c>
       <c r="D115" s="4"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -6117,10 +6139,10 @@
     </row>
     <row r="116" spans="1:24" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>329</v>
+        <v>90</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="4"/>
@@ -6147,10 +6169,10 @@
     </row>
     <row r="117" spans="1:24" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>91</v>
+        <v>328</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="4"/>
@@ -6177,9 +6199,11 @@
     </row>
     <row r="118" spans="1:24" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B118" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C118" s="9"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5"/>
@@ -6205,7 +6229,7 @@
     </row>
     <row r="119" spans="1:24" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -6233,17 +6257,11 @@
     </row>
     <row r="120" spans="1:24" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D120" s="15" t="s">
-        <v>94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="4"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -6267,13 +6285,17 @@
     </row>
     <row r="121" spans="1:24" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
@@ -6297,10 +6319,10 @@
     </row>
     <row r="122" spans="1:24" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="4"/>
@@ -6327,10 +6349,10 @@
     </row>
     <row r="123" spans="1:24" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>96</v>
+        <v>329</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="4"/>
@@ -6357,10 +6379,10 @@
     </row>
     <row r="124" spans="1:24" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>331</v>
+        <v>96</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="4"/>
@@ -6387,10 +6409,10 @@
     </row>
     <row r="125" spans="1:24" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>97</v>
+        <v>330</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="4"/>
@@ -6417,10 +6439,10 @@
     </row>
     <row r="126" spans="1:24" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>332</v>
+        <v>97</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="4"/>
@@ -6447,10 +6469,10 @@
     </row>
     <row r="127" spans="1:24" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>98</v>
+        <v>331</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="4"/>
@@ -6477,9 +6499,11 @@
     </row>
     <row r="128" spans="1:24" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B128" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C128" s="9"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5"/>
@@ -6505,7 +6529,7 @@
     </row>
     <row r="129" spans="1:24" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -6533,17 +6557,11 @@
     </row>
     <row r="130" spans="1:24" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C130" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D130" s="15" t="s">
-        <v>101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="4"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
@@ -6567,13 +6585,17 @@
     </row>
     <row r="131" spans="1:24" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
@@ -6597,10 +6619,10 @@
     </row>
     <row r="132" spans="1:24" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>333</v>
+        <v>102</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="4"/>
@@ -6627,10 +6649,10 @@
     </row>
     <row r="133" spans="1:24" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>103</v>
+        <v>332</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="4"/>
@@ -6657,10 +6679,10 @@
     </row>
     <row r="134" spans="1:24" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>334</v>
+        <v>103</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="4"/>
@@ -6687,10 +6709,10 @@
     </row>
     <row r="135" spans="1:24" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>104</v>
+        <v>333</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="4"/>
@@ -6717,10 +6739,10 @@
     </row>
     <row r="136" spans="1:24" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>335</v>
+        <v>104</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="4"/>
@@ -6747,10 +6769,10 @@
     </row>
     <row r="137" spans="1:24" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="4"/>
@@ -6777,9 +6799,11 @@
     </row>
     <row r="138" spans="1:24" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B138" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="C138" s="9"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5"/>
@@ -6805,7 +6829,7 @@
     </row>
     <row r="139" spans="1:24" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -6833,14 +6857,10 @@
     </row>
     <row r="140" spans="1:24" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -6863,14 +6883,16 @@
       <c r="W140" s="5"/>
       <c r="X140" s="5"/>
     </row>
-    <row r="141" spans="1:24" ht="120">
+    <row r="141" spans="1:24" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B141" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C141" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="B141" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="D141" s="4"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -6893,12 +6915,12 @@
       <c r="W141" s="5"/>
       <c r="X141" s="5"/>
     </row>
-    <row r="142" spans="1:24" ht="15.75" customHeight="1">
+    <row r="142" spans="1:24" ht="120">
       <c r="A142" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>336</v>
+        <v>107</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="4"/>
@@ -6925,10 +6947,10 @@
     </row>
     <row r="143" spans="1:24" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>109</v>
+        <v>335</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="4"/>
@@ -6958,7 +6980,7 @@
         <v>4</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="4"/>
@@ -6988,7 +7010,7 @@
         <v>4</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="4"/>
@@ -7015,14 +7037,12 @@
     </row>
     <row r="146" spans="1:24" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>338</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C146" s="9"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
@@ -7047,12 +7067,14 @@
     </row>
     <row r="147" spans="1:24" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C147" s="9"/>
+        <v>336</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>337</v>
+      </c>
       <c r="D147" s="4"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
@@ -7077,10 +7099,10 @@
     </row>
     <row r="148" spans="1:24" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>339</v>
+        <v>111</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="4"/>
@@ -7107,10 +7129,10 @@
     </row>
     <row r="149" spans="1:24" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>113</v>
+        <v>338</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="4"/>
@@ -7137,10 +7159,10 @@
     </row>
     <row r="150" spans="1:24" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>340</v>
+        <v>112</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="4"/>
@@ -7167,9 +7189,11 @@
     </row>
     <row r="151" spans="1:24" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B151" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>339</v>
+      </c>
       <c r="C151" s="9"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5"/>
@@ -7193,7 +7217,34 @@
       <c r="W151" s="5"/>
       <c r="X151" s="5"/>
     </row>
-    <row r="152" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="152" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5"/>
+      <c r="V152" s="5"/>
+      <c r="W152" s="5"/>
+      <c r="X152" s="5"/>
+    </row>
     <row r="153" spans="1:24" ht="15.75" customHeight="1"/>
     <row r="154" spans="1:24" ht="15.75" customHeight="1"/>
     <row r="155" spans="1:24" ht="15.75" customHeight="1"/>
@@ -8041,6 +8092,7 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
@@ -8050,11 +8102,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>readme!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A151</xm:sqref>
+          <xm:sqref>A3:A152</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8063,11 +8115,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8084,10 +8136,10 @@
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -8113,19 +8165,19 @@
     </row>
     <row r="2" spans="1:25" ht="409.5">
       <c r="A2" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>232</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>233</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -8182,7 +8234,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="4"/>
@@ -8213,7 +8265,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="4"/>
@@ -8302,7 +8354,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="4"/>
@@ -8336,7 +8388,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -8366,7 +8418,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="4"/>
@@ -8397,7 +8449,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="4"/>
@@ -8428,7 +8480,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="4"/>
@@ -8459,13 +8511,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -8494,7 +8546,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="4"/>
@@ -8525,7 +8577,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -8556,7 +8608,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="4"/>
@@ -8587,7 +8639,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -8618,7 +8670,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="4"/>
@@ -8652,13 +8704,13 @@
         <v>29.3</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -8686,7 +8738,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="4"/>
@@ -8778,7 +8830,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -8808,7 +8860,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="4"/>
@@ -8839,13 +8891,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>239</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>240</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -8874,7 +8926,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="4"/>
@@ -8905,7 +8957,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="4"/>
@@ -8936,7 +8988,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="4"/>
@@ -8967,7 +9019,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="4"/>
@@ -8998,7 +9050,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="15"/>
@@ -9029,7 +9081,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="4"/>
@@ -9060,7 +9112,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
@@ -9091,7 +9143,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="4"/>
@@ -9122,7 +9174,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="4"/>
@@ -9153,7 +9205,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="4"/>
@@ -9184,7 +9236,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="4"/>
@@ -9218,13 +9270,13 @@
         <v>23.8</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -9252,7 +9304,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="4"/>
@@ -9344,7 +9396,7 @@
         <v>26</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -9374,7 +9426,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="4"/>
@@ -9405,7 +9457,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="4"/>
@@ -9436,7 +9488,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="15"/>
@@ -9467,7 +9519,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="4"/>
@@ -9498,7 +9550,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="4"/>
@@ -9529,7 +9581,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="4"/>
@@ -9563,13 +9615,13 @@
         <v>14.4</v>
       </c>
       <c r="C48" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -9597,7 +9649,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="4"/>
@@ -9689,7 +9741,7 @@
         <v>35</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
@@ -9719,7 +9771,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="4"/>
@@ -9750,7 +9802,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="4"/>
@@ -9781,7 +9833,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4"/>
@@ -9812,7 +9864,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="4"/>
@@ -9843,7 +9895,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="4"/>
@@ -9874,7 +9926,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="15"/>
@@ -9905,7 +9957,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="4"/>
@@ -9936,7 +9988,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="4"/>
@@ -9967,7 +10019,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="4"/>
@@ -9998,7 +10050,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="4"/>
@@ -10029,7 +10081,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="4"/>
@@ -10063,13 +10115,13 @@
         <v>17.5</v>
       </c>
       <c r="C64" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -10097,7 +10149,7 @@
         <v>6</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="4"/>
@@ -10189,7 +10241,7 @@
         <v>42</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="5"/>
@@ -10219,7 +10271,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="4"/>
@@ -10250,7 +10302,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="4"/>
@@ -10281,7 +10333,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="4"/>
@@ -10312,7 +10364,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="4"/>
@@ -10343,7 +10395,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="4"/>
@@ -10374,7 +10426,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="4"/>
@@ -10405,7 +10457,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="4"/>
@@ -10436,7 +10488,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="4"/>
@@ -10467,7 +10519,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="15"/>
@@ -10498,7 +10550,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="15"/>
@@ -10532,13 +10584,13 @@
         <v>19.5</v>
       </c>
       <c r="C79" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -10566,7 +10618,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="4"/>
@@ -10658,7 +10710,7 @@
         <v>51</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="5"/>
@@ -10688,7 +10740,7 @@
         <v>4</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="4"/>
@@ -10719,7 +10771,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="4"/>
@@ -10750,7 +10802,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="4"/>
@@ -10781,10 +10833,10 @@
         <v>3</v>
       </c>
       <c r="B87" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>261</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="5"/>
@@ -10814,7 +10866,7 @@
         <v>4</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="4"/>
@@ -10845,7 +10897,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="5"/>
@@ -10875,7 +10927,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="5"/>
@@ -10905,7 +10957,7 @@
         <v>4</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="15"/>
@@ -10936,7 +10988,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="4"/>
@@ -10970,13 +11022,13 @@
         <v>22</v>
       </c>
       <c r="C93" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D93" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="E93" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="F93" s="24"/>
       <c r="G93" s="24"/>
@@ -11005,7 +11057,7 @@
         <v>6</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="4"/>
@@ -11097,7 +11149,7 @@
         <v>58</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="5"/>
@@ -11127,7 +11179,7 @@
         <v>4</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="4"/>
@@ -11158,7 +11210,7 @@
         <v>4</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="4"/>
@@ -11189,10 +11241,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C100" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>267</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="5"/>
@@ -11222,7 +11274,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="4"/>
@@ -11253,7 +11305,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="15"/>
@@ -11284,7 +11336,7 @@
         <v>4</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="4"/>
@@ -11315,7 +11367,7 @@
         <v>4</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="4"/>
@@ -11346,7 +11398,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="4"/>
@@ -11377,7 +11429,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="4"/>
@@ -11411,13 +11463,13 @@
         <v>17.7</v>
       </c>
       <c r="C107" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E107" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
@@ -11445,7 +11497,7 @@
         <v>6</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="15"/>
@@ -11534,10 +11586,10 @@
         <v>2</v>
       </c>
       <c r="B111" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="5"/>
@@ -11567,7 +11619,7 @@
         <v>4</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="4"/>
@@ -11598,7 +11650,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="4"/>
@@ -11629,7 +11681,7 @@
         <v>4</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="4"/>
@@ -11660,7 +11712,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="4"/>
@@ -11691,7 +11743,7 @@
         <v>4</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="4"/>
@@ -11722,7 +11774,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="4"/>
@@ -11753,7 +11805,7 @@
         <v>4</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="4"/>
@@ -11784,10 +11836,10 @@
         <v>3</v>
       </c>
       <c r="B119" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C119" s="13" t="s">
         <v>273</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>274</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="5"/>
@@ -11820,13 +11872,13 @@
         <v>21.3</v>
       </c>
       <c r="C120" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="E120" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -11854,7 +11906,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="4"/>
@@ -15438,7 +15490,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>readme!$B$2:$B$15</xm:f>
           </x14:formula1>
@@ -15451,11 +15503,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -15472,10 +15524,10 @@
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -15501,19 +15553,19 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" t="s">
         <v>228</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -15693,7 +15745,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -15754,7 +15806,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="4"/>
@@ -15785,13 +15837,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="16" t="s">
         <v>205</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>206</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -15820,7 +15872,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="13"/>
@@ -15851,7 +15903,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="4"/>
@@ -15882,7 +15934,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="4"/>
@@ -15913,7 +15965,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -15944,7 +15996,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="4"/>
@@ -15975,7 +16027,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -16006,7 +16058,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="4"/>
@@ -16037,13 +16089,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="16" t="s">
         <v>211</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>212</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -16072,7 +16124,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="4"/>
@@ -16103,7 +16155,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="4"/>
@@ -16134,7 +16186,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="4"/>
@@ -16226,7 +16278,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -16256,7 +16308,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="4"/>
@@ -16287,10 +16339,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>215</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -16320,7 +16372,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -16351,7 +16403,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="4"/>
@@ -16382,13 +16434,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="16" t="s">
         <v>218</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>219</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -16417,7 +16469,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="4"/>
@@ -16448,7 +16500,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
@@ -16479,7 +16531,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="15"/>
@@ -16510,7 +16562,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="4"/>
@@ -16541,7 +16593,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="4"/>
@@ -16630,7 +16682,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="4"/>
@@ -16661,7 +16713,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="4"/>
@@ -16692,7 +16744,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="4"/>
@@ -16723,7 +16775,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="4"/>
@@ -16754,7 +16806,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="4"/>
@@ -16785,7 +16837,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="4"/>
@@ -16816,7 +16868,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="4"/>
@@ -22504,7 +22556,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>readme!$B$2:$B$15</xm:f>
           </x14:formula1>

--- a/static/data/data.xlsx
+++ b/static/data/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="345">
   <si>
     <t>section_start</t>
   </si>
@@ -399,9 +399,6 @@
     <t>Pendant que je suis posé pour profiter su soleil je verrai passer plusieurs randonneurs dont certains bivouaqueront dans les parrages (l'éclairage de leur frontale trahissant leur presence). Encore un beau coucher de soleil ce soir.  Vers 19h je suis rejoint par deux papas et leur enfants qui viennent passer la nuit a la cabane. Le ciel etoilé est incroyable cette nuit.</t>
   </si>
   <si>
-    <t>Jour 3: Plateau du Taillefer - Alpe du Grand Serre</t>
-  </si>
-  <si>
     <t>Le lendemain le ciel est quelque peu couvert mais le soelil arrive quand meme a percer.</t>
   </si>
   <si>
@@ -1057,6 +1054,9 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/ykMPu8fYsO9j8hTKM7wwwuTBvUCxsCjekf9DUqQAf8cQ565VQVmhRtrTqXmhlmikGPtmpxiWxJXHCepxip3cH92s8ubpRN8D4F4XiidluDZqMZXSzXk3OVwZ47olH-YBY56j_xLWImHvK_YpSTGlGTDg0lvS7qg9E8K8R2P7oB6dwpv4TSU045Y2iBy_T_FPIdbz-CHN3imKTpVAI23DwwEUGW7_nKM9lLYizPvFa9JbjeY7ao8zr2cKdzy0ilJAVQdfVHjH1kn6bg5t5ORfAKxc62aHrNlQkGtFbFrs1zL7i0Xmyo4WA_QWdezkStyb1HTexMSkmphD8Psrrr54u0L0rBXZ7dvjsobjO7M6Mu7h2kvmmCiZEooxjSJrJqx9o1qWO3ymEx5FHDCukta6KAJ7GoNnL32tc5F47BfVgFsUaeJRDW_7stvh-KuEQZosPllSULAjkPpAX_SM3Xznn4Sgu1lgrbzvQ2m0-DGyLe0H-_lIFselJlCs0Bf1M7EayTwrtuAenD23zeRJplDC8gOqZEwgK0T2xeOLjugiI1PlZ5bjGUz7afdNqufujS8fWhwZjq3ypG6261nd1_-WS0HveGM9_vDYPbTbJTb-lmT261Ui8udJ-VK7erNBspL0j_BZdcoyObsWPTVL9eJPKMaejMmMF4KS=w1680-h880-no</t>
+  </si>
+  <si>
+    <t>Plateau du Taillefer - Alpe du Grand Serre</t>
   </si>
 </sst>
 </file>
@@ -1289,13 +1289,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2656,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2673,10 +2673,10 @@
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="38"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -2701,19 +2701,19 @@
     </row>
     <row r="2" spans="1:25" s="19" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>341</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>342</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2801,7 +2801,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="4"/>
@@ -2861,7 +2861,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="4"/>
@@ -2921,7 +2921,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="4"/>
@@ -3101,7 +3101,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -3161,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -3221,7 +3221,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="4"/>
@@ -3371,10 +3371,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>290</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>291</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -3433,7 +3433,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="4"/>
@@ -3493,7 +3493,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="4"/>
@@ -3553,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="4"/>
@@ -3613,7 +3613,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
@@ -3763,7 +3763,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="4"/>
@@ -3823,10 +3823,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>297</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>298</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -3885,7 +3885,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="4"/>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="4"/>
@@ -4125,10 +4125,10 @@
         <v>3</v>
       </c>
       <c r="B49" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>301</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>302</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="5"/>
@@ -4187,7 +4187,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="4"/>
@@ -4247,7 +4247,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="4"/>
@@ -4307,7 +4307,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4"/>
@@ -4367,7 +4367,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="4"/>
@@ -4547,10 +4547,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C63" s="13" t="s">
         <v>307</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>308</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="5"/>
@@ -4609,7 +4609,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="4"/>
@@ -4669,7 +4669,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="4"/>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="4"/>
@@ -4909,7 +4909,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="4"/>
@@ -4969,7 +4969,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="4"/>
@@ -5149,7 +5149,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="4"/>
@@ -5209,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="4"/>
@@ -5269,7 +5269,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="4"/>
@@ -5449,7 +5449,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="4"/>
@@ -5509,7 +5509,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="4"/>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C97" s="10" t="s">
         <v>319</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>320</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="5"/>
@@ -5631,7 +5631,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="4"/>
@@ -5781,7 +5781,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="4"/>
@@ -5841,7 +5841,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="5"/>
@@ -5900,7 +5900,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="4"/>
@@ -5960,7 +5960,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="16"/>
@@ -6110,10 +6110,10 @@
         <v>3</v>
       </c>
       <c r="B115" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C115" s="13" t="s">
         <v>326</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>327</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="5"/>
@@ -6172,7 +6172,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="4"/>
@@ -6352,7 +6352,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="4"/>
@@ -6412,7 +6412,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="4"/>
@@ -6472,7 +6472,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="4"/>
@@ -6652,7 +6652,7 @@
         <v>3</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="4"/>
@@ -6712,7 +6712,7 @@
         <v>3</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="4"/>
@@ -6772,7 +6772,7 @@
         <v>3</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="4"/>
@@ -6887,8 +6887,8 @@
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B141" s="39" t="s">
-        <v>343</v>
+      <c r="B141" s="37" t="s">
+        <v>342</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>106</v>
@@ -6950,7 +6950,7 @@
         <v>3</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="4"/>
@@ -7070,10 +7070,10 @@
         <v>3</v>
       </c>
       <c r="B147" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>336</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>337</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="5"/>
@@ -7132,7 +7132,7 @@
         <v>3</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="4"/>
@@ -7192,7 +7192,7 @@
         <v>3</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="4"/>
@@ -8136,10 +8136,10 @@
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="38"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -8165,19 +8165,19 @@
     </row>
     <row r="2" spans="1:25" ht="409.5">
       <c r="A2" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>231</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>232</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -8234,7 +8234,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="4"/>
@@ -8265,7 +8265,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="4"/>
@@ -8354,7 +8354,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="4"/>
@@ -8388,7 +8388,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -8418,7 +8418,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="4"/>
@@ -8449,7 +8449,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="4"/>
@@ -8480,7 +8480,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="4"/>
@@ -8511,13 +8511,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -8546,7 +8546,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="4"/>
@@ -8577,7 +8577,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -8608,7 +8608,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="4"/>
@@ -8639,7 +8639,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -8670,7 +8670,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="4"/>
@@ -8704,13 +8704,13 @@
         <v>29.3</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -8738,7 +8738,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="4"/>
@@ -8830,7 +8830,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -8860,7 +8860,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="4"/>
@@ -8891,13 +8891,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>238</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>239</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -8926,7 +8926,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="4"/>
@@ -8957,7 +8957,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="4"/>
@@ -8988,7 +8988,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="4"/>
@@ -9019,7 +9019,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="4"/>
@@ -9050,7 +9050,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="15"/>
@@ -9081,7 +9081,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="4"/>
@@ -9112,7 +9112,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
@@ -9143,7 +9143,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="4"/>
@@ -9174,7 +9174,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="4"/>
@@ -9205,7 +9205,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="4"/>
@@ -9236,7 +9236,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="4"/>
@@ -9270,13 +9270,13 @@
         <v>23.8</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -9304,7 +9304,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="4"/>
@@ -9396,7 +9396,7 @@
         <v>26</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -9426,7 +9426,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="4"/>
@@ -9457,7 +9457,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="4"/>
@@ -9488,7 +9488,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="15"/>
@@ -9519,7 +9519,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="4"/>
@@ -9550,7 +9550,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="4"/>
@@ -9581,7 +9581,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="4"/>
@@ -9615,13 +9615,13 @@
         <v>14.4</v>
       </c>
       <c r="C48" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -9649,7 +9649,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="4"/>
@@ -9741,7 +9741,7 @@
         <v>35</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
@@ -9771,7 +9771,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="4"/>
@@ -9802,7 +9802,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="4"/>
@@ -9833,7 +9833,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4"/>
@@ -9864,7 +9864,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="4"/>
@@ -9895,7 +9895,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="4"/>
@@ -9926,7 +9926,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="15"/>
@@ -9957,7 +9957,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="4"/>
@@ -9988,7 +9988,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="4"/>
@@ -10019,7 +10019,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="4"/>
@@ -10050,7 +10050,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="4"/>
@@ -10081,7 +10081,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="4"/>
@@ -10115,13 +10115,13 @@
         <v>17.5</v>
       </c>
       <c r="C64" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -10149,7 +10149,7 @@
         <v>6</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="4"/>
@@ -10241,7 +10241,7 @@
         <v>42</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="5"/>
@@ -10271,7 +10271,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="4"/>
@@ -10302,7 +10302,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="4"/>
@@ -10333,7 +10333,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="4"/>
@@ -10364,7 +10364,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="4"/>
@@ -10395,7 +10395,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="4"/>
@@ -10426,7 +10426,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="4"/>
@@ -10457,7 +10457,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="4"/>
@@ -10488,7 +10488,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="4"/>
@@ -10519,7 +10519,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="15"/>
@@ -10550,7 +10550,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="15"/>
@@ -10584,13 +10584,13 @@
         <v>19.5</v>
       </c>
       <c r="C79" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -10618,7 +10618,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="4"/>
@@ -10710,7 +10710,7 @@
         <v>51</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="5"/>
@@ -10740,7 +10740,7 @@
         <v>4</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="4"/>
@@ -10771,7 +10771,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="4"/>
@@ -10802,7 +10802,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="4"/>
@@ -10833,10 +10833,10 @@
         <v>3</v>
       </c>
       <c r="B87" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="5"/>
@@ -10866,7 +10866,7 @@
         <v>4</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="4"/>
@@ -10897,7 +10897,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="5"/>
@@ -10927,7 +10927,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="5"/>
@@ -10957,7 +10957,7 @@
         <v>4</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="15"/>
@@ -10988,7 +10988,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="4"/>
@@ -11022,13 +11022,13 @@
         <v>22</v>
       </c>
       <c r="C93" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="E93" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="F93" s="24"/>
       <c r="G93" s="24"/>
@@ -11057,7 +11057,7 @@
         <v>6</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="4"/>
@@ -11149,7 +11149,7 @@
         <v>58</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="5"/>
@@ -11179,7 +11179,7 @@
         <v>4</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="4"/>
@@ -11210,7 +11210,7 @@
         <v>4</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="4"/>
@@ -11241,10 +11241,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C100" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="5"/>
@@ -11274,7 +11274,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="4"/>
@@ -11305,7 +11305,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="15"/>
@@ -11336,7 +11336,7 @@
         <v>4</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="4"/>
@@ -11367,7 +11367,7 @@
         <v>4</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="4"/>
@@ -11398,7 +11398,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="4"/>
@@ -11429,7 +11429,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="4"/>
@@ -11463,13 +11463,13 @@
         <v>17.7</v>
       </c>
       <c r="C107" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E107" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
@@ -11497,7 +11497,7 @@
         <v>6</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="15"/>
@@ -11586,10 +11586,10 @@
         <v>2</v>
       </c>
       <c r="B111" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="5"/>
@@ -11619,7 +11619,7 @@
         <v>4</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="4"/>
@@ -11650,7 +11650,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="4"/>
@@ -11681,7 +11681,7 @@
         <v>4</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="4"/>
@@ -11712,7 +11712,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="4"/>
@@ -11743,7 +11743,7 @@
         <v>4</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="4"/>
@@ -11774,7 +11774,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="4"/>
@@ -11805,7 +11805,7 @@
         <v>4</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="4"/>
@@ -11836,10 +11836,10 @@
         <v>3</v>
       </c>
       <c r="B119" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C119" s="13" t="s">
         <v>272</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>273</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="5"/>
@@ -11872,13 +11872,13 @@
         <v>21.3</v>
       </c>
       <c r="C120" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="E120" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -11906,7 +11906,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="4"/>
@@ -15506,8 +15506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -15524,10 +15524,10 @@
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="38"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -15553,19 +15553,19 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" t="s">
         <v>227</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -15745,7 +15745,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -15837,13 +15837,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>205</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -15903,7 +15903,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="4"/>
@@ -15965,7 +15965,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -16027,7 +16027,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -16089,13 +16089,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="16" t="s">
         <v>210</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>211</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -16155,7 +16155,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="4"/>
@@ -16278,7 +16278,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -16339,10 +16339,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>214</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -16372,7 +16372,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -16434,13 +16434,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="16" t="s">
         <v>217</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>218</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -16500,7 +16500,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
@@ -16562,7 +16562,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="4"/>
@@ -16681,10 +16681,12 @@
       <c r="A38" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="9"/>
+      <c r="B38" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>344</v>
+      </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -16713,7 +16715,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="4"/>
@@ -16744,7 +16746,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="4"/>
@@ -16775,7 +16777,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="4"/>
@@ -16806,7 +16808,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="4"/>
@@ -16837,7 +16839,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="4"/>
@@ -16868,7 +16870,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="4"/>
@@ -16895,7 +16897,9 @@
       <c r="Y44" s="5"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A45" s="8"/>
+      <c r="A45" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="B45" s="20"/>
       <c r="C45" s="9"/>
       <c r="D45" s="4"/>

--- a/static/data/data.xlsx
+++ b/static/data/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safco103866\Desktop\Tools\site\thomasmrt.github.io\static\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safco103866\Desktop\Tools\site\flask_psite\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -408,9 +408,6 @@
     <t>Viens ensuite la descente qui plonge d'un coup vers le lac du Poursollet. Je croise pas mal de randonneurs qui montent vers le plateau. En bas de la descente je rate un chemin sur la gauche et descends un peu trop bas. En plus je n'ai pas bien regardé le profil de l'étape et je pensais avoir seulement de la descente alors les quelques petites montées suivantes m'ont fait mal aux jambes et au moral. Le reste de l'étape est en descente plutot calme jusqu'a l'Alpe du Grand Serre. La boucle est bouclée.</t>
   </si>
   <si>
-    <t xml:space="preserve">Après la Norvège on revient dans l'Hexagone pour 8 jours de radonnée dans le Queyras. L'objectif initial était de faire 10 jours en combinant le tour du Queyras avec le tour du Viso mais on a du revoir notre itinéraire à cause des conditions d'enneigement défavorables. Au final on a fait le Tour du Queyras en 7 jours et une radonnée sans sacs à la fin pour cloturer nos vacances. </t>
-  </si>
-  <si>
     <t>queyras.html</t>
   </si>
   <si>
@@ -1057,6 +1054,9 @@
   </si>
   <si>
     <t>Plateau du Taillefer - Alpe du Grand Serre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Après la Norvège, on revient dans l'Hexagone pour 8 jours de radonnée dans le Queyras. L'objectif initial était de faire 10 jours en combinant le tour du Queyras avec le tour du Viso mais on a du revoir notre itinéraire à cause des conditions d'enneigement défavorables. Au final on a fait le Tour du Queyras en 7 jours et une radonnée sans sacs à la fin pour cloturer nos vacances. </t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1290,6 +1290,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1612,7 +1615,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2673,10 +2678,10 @@
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="39"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -2701,19 +2706,19 @@
     </row>
     <row r="2" spans="1:25" s="19" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>340</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>341</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2801,7 +2806,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="4"/>
@@ -2861,7 +2866,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="4"/>
@@ -2921,7 +2926,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="4"/>
@@ -3101,7 +3106,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -3161,7 +3166,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -3221,7 +3226,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="4"/>
@@ -3371,10 +3376,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>289</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>290</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -3433,7 +3438,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="4"/>
@@ -3493,7 +3498,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="4"/>
@@ -3553,7 +3558,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="4"/>
@@ -3613,7 +3618,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
@@ -3763,7 +3768,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="4"/>
@@ -3823,10 +3828,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>296</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>297</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -3885,7 +3890,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="4"/>
@@ -3945,7 +3950,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="4"/>
@@ -4125,10 +4130,10 @@
         <v>3</v>
       </c>
       <c r="B49" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>300</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>301</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="5"/>
@@ -4187,7 +4192,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="4"/>
@@ -4247,7 +4252,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="4"/>
@@ -4307,7 +4312,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4"/>
@@ -4367,7 +4372,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="4"/>
@@ -4547,10 +4552,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C63" s="13" t="s">
         <v>306</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>307</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="5"/>
@@ -4609,7 +4614,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="4"/>
@@ -4669,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="4"/>
@@ -4849,7 +4854,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="4"/>
@@ -4909,7 +4914,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="4"/>
@@ -4969,7 +4974,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="4"/>
@@ -5149,7 +5154,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="4"/>
@@ -5209,7 +5214,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="4"/>
@@ -5269,7 +5274,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="4"/>
@@ -5449,7 +5454,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="4"/>
@@ -5509,7 +5514,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="4"/>
@@ -5569,10 +5574,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C97" s="10" t="s">
         <v>318</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>319</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="5"/>
@@ -5631,7 +5636,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="4"/>
@@ -5781,7 +5786,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="4"/>
@@ -5841,7 +5846,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="5"/>
@@ -5900,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="4"/>
@@ -5960,7 +5965,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="16"/>
@@ -6110,10 +6115,10 @@
         <v>3</v>
       </c>
       <c r="B115" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C115" s="13" t="s">
         <v>325</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>326</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="5"/>
@@ -6172,7 +6177,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="4"/>
@@ -6352,7 +6357,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="4"/>
@@ -6412,7 +6417,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="4"/>
@@ -6472,7 +6477,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="4"/>
@@ -6652,7 +6657,7 @@
         <v>3</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="4"/>
@@ -6712,7 +6717,7 @@
         <v>3</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="4"/>
@@ -6772,7 +6777,7 @@
         <v>3</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="4"/>
@@ -6888,7 +6893,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>106</v>
@@ -6950,7 +6955,7 @@
         <v>3</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="4"/>
@@ -7070,10 +7075,10 @@
         <v>3</v>
       </c>
       <c r="B147" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>335</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>336</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="5"/>
@@ -7132,7 +7137,7 @@
         <v>3</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="4"/>
@@ -7192,7 +7197,7 @@
         <v>3</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="4"/>
@@ -8119,7 +8124,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8128,7 +8133,8 @@
     <col min="2" max="2" width="120.42578125" customWidth="1"/>
     <col min="3" max="3" width="45.85546875" customWidth="1"/>
     <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8136,10 +8142,10 @@
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="39"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -8163,21 +8169,21 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" ht="409.5">
+    <row r="2" spans="1:25" ht="26.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>230</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>231</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -8233,8 +8239,8 @@
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>128</v>
+      <c r="B4" s="38" t="s">
+        <v>344</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="4"/>
@@ -8265,7 +8271,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="4"/>
@@ -8354,7 +8360,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="4"/>
@@ -8388,7 +8394,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -8418,7 +8424,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="4"/>
@@ -8449,7 +8455,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="4"/>
@@ -8480,7 +8486,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="4"/>
@@ -8511,13 +8517,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -8546,7 +8552,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="4"/>
@@ -8577,7 +8583,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -8608,7 +8614,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="4"/>
@@ -8639,7 +8645,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -8670,7 +8676,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="4"/>
@@ -8704,13 +8710,13 @@
         <v>29.3</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -8738,7 +8744,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="4"/>
@@ -8830,7 +8836,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -8860,7 +8866,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="4"/>
@@ -8891,13 +8897,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>237</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>238</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -8926,7 +8932,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="4"/>
@@ -8957,7 +8963,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="4"/>
@@ -8988,7 +8994,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="4"/>
@@ -9019,7 +9025,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="4"/>
@@ -9050,7 +9056,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="15"/>
@@ -9081,7 +9087,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="4"/>
@@ -9112,7 +9118,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
@@ -9143,7 +9149,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="4"/>
@@ -9174,7 +9180,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="4"/>
@@ -9205,7 +9211,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="4"/>
@@ -9236,7 +9242,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="4"/>
@@ -9270,13 +9276,13 @@
         <v>23.8</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -9304,7 +9310,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="4"/>
@@ -9396,7 +9402,7 @@
         <v>26</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -9426,7 +9432,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="4"/>
@@ -9457,7 +9463,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="4"/>
@@ -9488,7 +9494,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="15"/>
@@ -9519,7 +9525,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="4"/>
@@ -9550,7 +9556,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="4"/>
@@ -9581,7 +9587,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="4"/>
@@ -9615,13 +9621,13 @@
         <v>14.4</v>
       </c>
       <c r="C48" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -9649,7 +9655,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="4"/>
@@ -9741,7 +9747,7 @@
         <v>35</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
@@ -9771,7 +9777,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="4"/>
@@ -9802,7 +9808,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="4"/>
@@ -9833,7 +9839,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="4"/>
@@ -9864,7 +9870,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="4"/>
@@ -9895,7 +9901,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="4"/>
@@ -9926,7 +9932,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="15"/>
@@ -9957,7 +9963,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="4"/>
@@ -9988,7 +9994,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="4"/>
@@ -10019,7 +10025,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="4"/>
@@ -10050,7 +10056,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="4"/>
@@ -10081,7 +10087,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="4"/>
@@ -10115,13 +10121,13 @@
         <v>17.5</v>
       </c>
       <c r="C64" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -10149,7 +10155,7 @@
         <v>6</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="4"/>
@@ -10241,7 +10247,7 @@
         <v>42</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="5"/>
@@ -10271,7 +10277,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="4"/>
@@ -10302,7 +10308,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="4"/>
@@ -10333,7 +10339,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="4"/>
@@ -10364,7 +10370,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="4"/>
@@ -10395,7 +10401,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="4"/>
@@ -10426,7 +10432,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="4"/>
@@ -10457,7 +10463,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="4"/>
@@ -10488,7 +10494,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="4"/>
@@ -10519,7 +10525,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="15"/>
@@ -10550,7 +10556,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="15"/>
@@ -10584,13 +10590,13 @@
         <v>19.5</v>
       </c>
       <c r="C79" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -10618,7 +10624,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="4"/>
@@ -10710,7 +10716,7 @@
         <v>51</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="5"/>
@@ -10740,7 +10746,7 @@
         <v>4</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="4"/>
@@ -10771,7 +10777,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="4"/>
@@ -10802,7 +10808,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="4"/>
@@ -10833,10 +10839,10 @@
         <v>3</v>
       </c>
       <c r="B87" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="5"/>
@@ -10866,7 +10872,7 @@
         <v>4</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="4"/>
@@ -10897,7 +10903,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="5"/>
@@ -10927,7 +10933,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="5"/>
@@ -10957,7 +10963,7 @@
         <v>4</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="15"/>
@@ -10988,7 +10994,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="4"/>
@@ -11022,13 +11028,13 @@
         <v>22</v>
       </c>
       <c r="C93" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D93" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="E93" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="F93" s="24"/>
       <c r="G93" s="24"/>
@@ -11057,7 +11063,7 @@
         <v>6</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="4"/>
@@ -11149,7 +11155,7 @@
         <v>58</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="5"/>
@@ -11179,7 +11185,7 @@
         <v>4</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="4"/>
@@ -11210,7 +11216,7 @@
         <v>4</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="4"/>
@@ -11241,10 +11247,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C100" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="5"/>
@@ -11274,7 +11280,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="4"/>
@@ -11305,7 +11311,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="15"/>
@@ -11336,7 +11342,7 @@
         <v>4</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="4"/>
@@ -11367,7 +11373,7 @@
         <v>4</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="4"/>
@@ -11398,7 +11404,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="4"/>
@@ -11429,7 +11435,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="4"/>
@@ -11463,13 +11469,13 @@
         <v>17.7</v>
       </c>
       <c r="C107" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E107" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
@@ -11497,7 +11503,7 @@
         <v>6</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="15"/>
@@ -11586,10 +11592,10 @@
         <v>2</v>
       </c>
       <c r="B111" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="5"/>
@@ -11619,7 +11625,7 @@
         <v>4</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="4"/>
@@ -11650,7 +11656,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="4"/>
@@ -11681,7 +11687,7 @@
         <v>4</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="4"/>
@@ -11712,7 +11718,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="4"/>
@@ -11743,7 +11749,7 @@
         <v>4</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="4"/>
@@ -11774,7 +11780,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="4"/>
@@ -11805,7 +11811,7 @@
         <v>4</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="4"/>
@@ -11836,10 +11842,10 @@
         <v>3</v>
       </c>
       <c r="B119" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C119" s="13" t="s">
         <v>271</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>272</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="5"/>
@@ -11872,13 +11878,13 @@
         <v>21.3</v>
       </c>
       <c r="C120" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="E120" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -11906,7 +11912,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="4"/>
@@ -15524,10 +15530,10 @@
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="39"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -15553,19 +15559,19 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="s">
         <v>226</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -15745,7 +15751,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -15837,13 +15843,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="16" t="s">
         <v>203</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>204</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -15903,7 +15909,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="4"/>
@@ -15965,7 +15971,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -16027,7 +16033,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="4"/>
@@ -16089,13 +16095,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="16" t="s">
         <v>209</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>210</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -16155,7 +16161,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="4"/>
@@ -16278,7 +16284,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -16339,10 +16345,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>212</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>213</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -16372,7 +16378,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -16434,13 +16440,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="16" t="s">
         <v>216</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>217</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -16500,7 +16506,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
@@ -16562,7 +16568,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="4"/>
@@ -16685,7 +16691,7 @@
         <v>26</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -16746,7 +16752,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="4"/>
@@ -16808,7 +16814,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="4"/>
@@ -16870,7 +16876,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="4"/>

--- a/static/data/data.xlsx
+++ b/static/data/data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safco103866\Desktop\Tools\site\flask_psite\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD06D8F-BE03-44FC-862C-F0FBEACF8E6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Taillefer" sheetId="4" r:id="rId1"/>
-    <sheet name="Vosges" sheetId="7" r:id="rId2"/>
+    <sheet name="Vosges" sheetId="7" r:id="rId1"/>
+    <sheet name="Taillefer" sheetId="4" r:id="rId2"/>
     <sheet name="Queyras" sheetId="3" r:id="rId3"/>
     <sheet name="Lofoten" sheetId="2" r:id="rId4"/>
     <sheet name="Corse" sheetId="5" r:id="rId5"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="449">
   <si>
     <t>section_start</t>
   </si>
@@ -437,9 +438,6 @@
     <t>queyras-1.gpx</t>
   </si>
   <si>
-    <t>map_1.html</t>
-  </si>
-  <si>
     <t>La nuit à 2400m d'altitude a été très froide. On se réveille difficilement vers 7h15. Un petite heure pour prendre notre petit déjeuner et de ranger la tente (bien mouillée par la rosée) et nous voila repartis pour cette deuxième journée de marche. On commence par redscendre légèrement pour retrouver le tracé du GR. On fait le plein d'eau dans le torrent. Puis ça remonte de suite vers le col de Chamoussière. Dans la montée on voit encore beaucoup de marmottes.</t>
   </si>
   <si>
@@ -470,9 +468,6 @@
     <t>queyras-2.gpx</t>
   </si>
   <si>
-    <t>map_2.html</t>
-  </si>
-  <si>
     <t>On revient un peu sur nos pas pour retrouver le tracé du GR par la variante des crètes. La montée est assez raide dès le début. On passe non loin d'un troupeau avec son berger et son patou. La pente s'adoucit pendant un moment sous une forêt de pins. On se fait doubler par un papy qui fait le tour du Queyras en solitaire. On le recroisera régulièrement par la suite. Nous l'appelerons Jean-Pierre. La pente se durcit au moment d'atteindre la crète. On fait une première pause.</t>
   </si>
   <si>
@@ -491,9 +486,6 @@
     <t>queyras-3.gpx</t>
   </si>
   <si>
-    <t>map_3.html</t>
-  </si>
-  <si>
     <t>Ce matin on se lève vers 6h30. Pendant qu'on prends notre petit déjeuner , on aperçoit Jean-Pierre qui attaque  déja l'étape. On  achète du pain et nous voila partis. Petite erreur d'éguillage au départ dans le village qui nous fait perdre une dizaine de minutes.  De reout sur le tracé vers 8h. Le début de l'étape est en montée douce. Après une petite heure on passe à côté de chalets qui sont entraind'être rénovés. On se demande bien comment ils ont fait pour amener le matériel jusque là.</t>
   </si>
   <si>
@@ -521,9 +513,6 @@
     <t>queyras-4.gpx</t>
   </si>
   <si>
-    <t>map_4.html</t>
-  </si>
-  <si>
     <t>La nuit a été froide et humide. On y pensera à deux fois avant de se mettre à côté d'un torrent la prochaine fois. Pendant qu'on déjeune Jean-pierre part déjà marcher. On remballe et on lui emballe le pas.  On continue à descendre un peu. Puis on bifurque à gauche et ça commence à monter fort. Sur un arbre il y a un balisage pour les championnant de France de trail, on est au kilomètre 40. Antoine ne semble pas dans son assiette, la montée est compliqué. Je le soulage un peu en prenant la tente dans mon sac.  On se fait doubler par deux traileur qui s'occupe du balissage aperçu plus tôt. On s'arrête quelques temps au lac des Cordes. On a une belle vue sur le massif des Ecrins.</t>
   </si>
   <si>
@@ -545,9 +534,6 @@
     <t>queyras-5.gpx</t>
   </si>
   <si>
-    <t>map_5.html</t>
-  </si>
-  <si>
     <t xml:space="preserve">On profite encore du confort du refuge pour prendre notre petit-déjeuner. Départ tranquille vers 8h30. On commence par une montée tranquille sur un grand sentier. Puis ca commence a bien monter. On arrive rapidement au col du Tronchet ou on rejoint Jean-Pierre et le rugbyman mais ils repartent vite. En montant sur la gauche on a une belle vue sur toute la vallée. </t>
   </si>
   <si>
@@ -569,9 +555,6 @@
     <t>queyras-6.gpx</t>
   </si>
   <si>
-    <t>map_6.html</t>
-  </si>
-  <si>
     <t>On commence la descenteaccompagnés par un troupeau de vache. Assez vite on rattrape Eric puis Jean-Pierre. La pente devient raide et glissante. On descends pendant un bon moment (plus de 1000m d'un coup).</t>
   </si>
   <si>
@@ -596,9 +579,6 @@
     <t>queyras-7.gpx</t>
   </si>
   <si>
-    <t>map_7.html</t>
-  </si>
-  <si>
     <t>Aujourd'hui c'est le dernier jour de randonnée. Une petite balade à la journée sans sacs (ou presque) juqu'au lac Sainte Anne. On traverse le torrent qui passe juste à côté du camping pour se rendre au début de la randonnée. On commence par longer le torrent. Ca monte donc tranquillement. Puis on commence les choses serieuses. Ca monte fort d'un coup, heureusement qu'on est pas beaucoup chargés. On marche à un bon rythme. On dépasse quelques randonneurs. On repasse pas loin du torrent qui dévale la pente.</t>
   </si>
   <si>
@@ -620,9 +600,6 @@
     <t>queyras-8.gpx</t>
   </si>
   <si>
-    <t>map_8.html</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/mDPlHq_0a5f77AuHXD_CdzglC4Qex8k-HBgZ73wK5MSBjRFKShA99e7pCGOfW4vy2PI8hQxu7U7iXoPMefm-00JJDj_1xK8Xae_y0gM8RMH2BLyLKp83zFCJA39UUst8jOZqWevj7IJZanSHuPUFy5pPAZmrO7zLfm8FrI_VOwh4ddj-qvQr8wxLNIUALmU2dXHjRxEuinXRcvawbk4cxjtSy54IHnFDwLhzXNQcvyDak1yt_A_FPSh92vyz3mI3cdqrYsLoaCIj9AnUKnSdpqmidJCeUH4acSeYULMjOxmzr3U0dEwogKfkPs7G4Jhxa0gv3PO8dWsiDhsoJjJIebU99_HgH9uU90syhITEvTB319d9pHjcPrIiK-5pf_MOJLSEmNHNg0k2PBL-kdfaDUstSD2drowLtkbtZxZWoZ9XsOp22AqmOlciKXlgqm6Je9-yG079J2TxxXwGozeflzM6h5pnYrfyXbp42EUT-T_qoEbuabSRXbIemGqOi5TcDWlevuw8XDPPefcIyr3iOrbO3mwvCMZSKJTANQd7TKYLGHt6bYbi5-nbR5mCV7hjSsOpCPaexRuOSXTPPRdygdAcujh09x1riS9L7nJJ17yHMbZf-dbgD-Uq2f-4TPxiv7rF9co9h9loZGdPccUvH116uA=w708-h944-no</t>
   </si>
   <si>
@@ -1355,9 +1332,6 @@
     <t>Petit Ballon</t>
   </si>
   <si>
-    <t>Cette nuit a été agitée. Vers 2h du matin je suis réveillé par le cri d'un animal non identifié. Je sors de ma tente pour voir et même si il ne semble pas loin au son je ne vois absolument rien. La température extérieur est étonnament agréable et le ciel étoilé est magnifique malgré la pollution lumioneuse des villes en contrebas. Je reste quelque minutes à adminer la voute céleste. Il fait bon mais pas assez pour rester dehors en caleçon. Je rentre à l'abri dans mon sac de couchage. A peine couché qu'un autre son vient perturbé mon sommeil mais cette fois-ci ce n'est pas un animal mais de la musique. Cela semble venir de loin mais je ne saurais dire d'ou exactement. Moi qui pensais être tranquille au milieu de la nature. Je finis par retomber dans les bras de Morphée et m'en échappe à l'aube.</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/UabN8dblLhLIlGdZ80XMwi9_c_oEyvnjXAwDS_ZJqU8wqLEPoxP6WVHphhI1sW9AnR2uQMI6m1PecZyRFiSccqb9eo0BUe1Wf83HdUnuMf134xo4-ZYoyosuCC-lOpefb5ZkmZ_NrCI12h-ZOB8sn2G2AQHQkepEnVl3Y-NGz0qmafLZeBfbt5kbzocFBWSsqZTzKv4zJDS3rEyXTOvbMZgDu1S5ySrA_vgqCi0iAAcNnvFa4X4CMWrX3rYAslA_XE8L1OjwFEDGU3YGqhBLi6DXM6s4IImACUAB2ZhcINTf-gzNZubYwIJc0_t_m7e9fmibfRe1lDvAh9VEGckpdmuxHWsjRJcxzxXuaOWzboemnlLf6k4StNbQMsL9z-5gfutXs9_MNw5hZrDQl8I66L4_imZ7EUuwn1YoSG4dZcigH5sY-4Nv9AfwA1XpNkOkKolg2q9wbGp05TIfjkroHwhQp_FNnlmhayuvD2K_88Af9zYxLa8JuZTVXH_Cl9mBJ0a7g2NCVCjP7fgCiA-tFiho4s42O_nu7YicCCXffsRgbu_u-fr30jMwqjjNFomMK1u2iwh5jxML1UgOgBznswQk8A-sACjsw07tUZDDM4yh5TDmuyewMvQCe_sMHYfGmxWeIQqLjGbrGNY7CEKLPMSy60Cp0B40=w1248-h937-no</t>
   </si>
   <si>
@@ -1392,12 +1366,18 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/YCvlhS5IhaEGCg9_td94RC1aqCTUCjsfndY3j9QoY1WUJzjvUWfl0EDk92AQMdBPlRd0OcU4Ze3_qX6wSUrlnK9YP9qLc3LPV0KgThRQOAi1x1inGKo5Mbuwk_Qo91VSWszglU4PWDZCcVhFR9ugQpqN7qanzW1L8kBS8rOs1MNzizXsLgV5vfevQIyL0hCalJDJidOq5-KvlnTHo11TzeuujVBkGNYsVYRSGpuxW1RP4pudf-gU-N1AUSpsLoIW2UsuTBRmrFMa_DxmUsFDSbymPiS-rSZg23nHqMqahKWptkPKDSx9aeIRvaW43zxIsD1W-YskKSQNlQq6bwIVujTxe6qGAvMJc6yvatXvM-17LPIkCU4wW4wrMd2Ple4Bk6yNwzeG8jQe3DQhk81jJgcIXF9AaXobte11zzE_2LY6r38F5S9h_7lYPlgGll_qXUINd1eAWLYh9qGOoANoToevNJo5R0-R-y7cqOM537uSenhicvpz7zCHgC5NwL_RCYvA-aCC8uaLQb0_mHGFaXQ-G39ZwIR-MEGdgf_2lJXwlAwUiL7e15JVIshYbu7NqIUtrTC3juMCWFua9wFhe5hHcgUYC5vBYMtKRHsYimqc08ia0Mhj8Hw_hutEJBwG3dwMhPnmIeeRtou3knNvZfgzOZt2Zoo-=w1246-h937-no</t>
+  </si>
+  <si>
+    <t>Cette nuit a été agitée. Vers 2h du matin je suis réveillé par le cri d'un animal non identifié (un renard peut-être). Je sors de ma tente pour voir et même si il ne semble pas loin au son je ne vois absolument rien. La température extérieur est étonnament agréable et le ciel étoilé est magnifique malgré la pollution lumioneuse des villes en contrebas. Je reste quelque minutes à adminer la voute céleste. Il fait bon mais pas assez pour rester dehors en caleçon. Je rentre à l'abri dans mon sac de couchage. A peine couché qu'un autre son vient perturbé mon sommeil mais cette fois-ci ce n'est pas un animal mais de la musique. Cela semble venir de loin mais je ne saurais dire d'ou exactement. Moi qui pensais être tranquille au milieu de la nature. Je finis par retomber dans les bras de Morphée et m'en échappe à l'aube.</t>
+  </si>
+  <si>
+    <t>vosges.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1656,10 +1636,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1685,6 +1661,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1998,11 +1978,450 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="121.28515625" customWidth="1"/>
+    <col min="4" max="4" width="66.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="75">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="150">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="60">
+      <c r="A11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="120">
+      <c r="A12" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="60">
+      <c r="A13" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A14" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="105">
+      <c r="A15" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A16" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" customHeight="1">
+      <c r="A21" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="75">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="135">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="135">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="60">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="135">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="150">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="90">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="150">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="135">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="120">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="29.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="D34" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+    </row>
+    <row r="37" spans="1:4" ht="30">
+      <c r="A37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="105">
+      <c r="A38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C38" s="30"/>
+    </row>
+    <row r="39" spans="1:4" ht="29.25" customHeight="1">
+      <c r="A39" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="45">
+      <c r="A40" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="C40" s="44"/>
+    </row>
+    <row r="41" spans="1:4" ht="120">
+      <c r="A41" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30">
+      <c r="A42" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="135">
+      <c r="A43" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="120">
+      <c r="A44" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="75">
+      <c r="A45" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:A11 A47:A1048576 A13:A17" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A36:A39 A18:A19" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2019,10 +2438,10 @@
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="40"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -2048,19 +2467,19 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -2240,7 +2659,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
@@ -2332,13 +2751,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2398,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="3"/>
@@ -2460,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="3"/>
@@ -2522,7 +2941,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="3"/>
@@ -2584,13 +3003,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2650,7 +3069,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="3"/>
@@ -2773,7 +3192,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -2834,10 +3253,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -2867,7 +3286,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -2929,13 +3348,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2995,7 +3414,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="3"/>
@@ -3057,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="3"/>
@@ -3180,7 +3599,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
@@ -3241,7 +3660,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="3"/>
@@ -3303,7 +3722,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="3"/>
@@ -3365,7 +3784,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="3"/>
@@ -9051,7 +9470,7 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A3:A123">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A3:A123" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -9060,449 +9479,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="121.28515625" customWidth="1"/>
-    <col min="4" max="4" width="66.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="75">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>414</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="150">
-      <c r="A9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="60">
-      <c r="A11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>423</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="120">
-      <c r="A12" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="60">
-      <c r="A13" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A14" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="105">
-      <c r="A15" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A16" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="12"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="45">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="75">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="135">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="45">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="135">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="60">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="135">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="150">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="90">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="150">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="45">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="135">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="120">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="409.5">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="D34" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="12"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-    </row>
-    <row r="37" spans="1:4" ht="30">
-      <c r="A37" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="105">
-      <c r="A38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="C38" s="30"/>
-    </row>
-    <row r="39" spans="1:4" ht="409.5">
-      <c r="A39" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>444</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="45">
-      <c r="A40" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>446</v>
-      </c>
-      <c r="C40" s="46"/>
-    </row>
-    <row r="41" spans="1:4" ht="120">
-      <c r="A41" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30">
-      <c r="A42" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="135">
-      <c r="A43" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="120">
-      <c r="A44" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="75">
-      <c r="A45" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A1:A11 A47:A1048576 A13:A17"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A36:A39 A18:A19">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1002"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="A1:E122"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9520,10 +9502,10 @@
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="40"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -9549,19 +9531,19 @@
     </row>
     <row r="2" spans="1:25" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -9618,7 +9600,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="3"/>
@@ -9772,7 +9754,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
@@ -9833,7 +9815,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="3"/>
@@ -9898,10 +9880,10 @@
         <v>130</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -9961,7 +9943,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="3"/>
@@ -10023,7 +10005,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="3"/>
@@ -10117,13 +10099,11 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>137</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B20" s="9"/>
       <c r="C20" s="8"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
@@ -10150,7 +10130,7 @@
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
@@ -10179,10 +10159,14 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>269</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -10208,14 +10192,12 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>277</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="8"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -10241,13 +10223,17 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="3"/>
+        <v>226</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -10272,17 +10258,13 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>235</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -10307,10 +10289,10 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="3"/>
@@ -10338,10 +10320,10 @@
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="3"/>
@@ -10369,10 +10351,10 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="3"/>
@@ -10400,13 +10382,13 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -10431,13 +10413,13 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="11"/>
+        <v>231</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -10462,10 +10444,10 @@
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="3"/>
@@ -10493,10 +10475,10 @@
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="3"/>
@@ -10524,10 +10506,10 @@
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="3"/>
@@ -10555,10 +10537,10 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="3"/>
@@ -10586,10 +10568,10 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="3"/>
@@ -10617,14 +10599,20 @@
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="12">
+        <v>23.8</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
+      <c r="D36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -10648,20 +10636,12 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="12">
-        <v>23.8</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -10685,11 +10665,9 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B38" s="9"/>
       <c r="C38" s="8"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
@@ -10716,10 +10694,14 @@
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>268</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -10745,9 +10727,11 @@
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>147</v>
+      </c>
       <c r="C40" s="8"/>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
@@ -10774,14 +10758,12 @@
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>276</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="8"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -10810,10 +10792,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="11"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -10841,7 +10823,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="3"/>
@@ -10872,10 +10854,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="11"/>
+        <v>149</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -10900,10 +10882,10 @@
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>243</v>
+        <v>4</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>236</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="3"/>
@@ -10931,14 +10913,20 @@
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="12">
+        <v>14.4</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -10962,11 +10950,9 @@
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B47" s="11"/>
       <c r="C47" s="8"/>
       <c r="D47" s="3"/>
       <c r="E47" s="4"/>
@@ -10993,20 +10979,12 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="12">
-        <v>14.4</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -11030,12 +11008,14 @@
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>267</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -11061,9 +11041,11 @@
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="C50" s="8"/>
       <c r="D50" s="3"/>
       <c r="E50" s="4"/>
@@ -11090,9 +11072,11 @@
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>237</v>
+      </c>
       <c r="C51" s="8"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
@@ -11119,14 +11103,12 @@
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>275</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="8"/>
       <c r="D52" s="3"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -11152,10 +11134,10 @@
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="3"/>
@@ -11183,10 +11165,10 @@
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>245</v>
+        <v>155</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="3"/>
@@ -11214,13 +11196,13 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="3"/>
+        <v>238</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="11"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -11245,10 +11227,10 @@
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="3"/>
@@ -11276,12 +11258,12 @@
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C57" s="8"/>
+        <v>240</v>
+      </c>
+      <c r="C57" s="9"/>
       <c r="D57" s="3"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -11307,13 +11289,13 @@
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="11"/>
+        <v>157</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -11338,10 +11320,10 @@
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="3"/>
@@ -11369,12 +11351,12 @@
     </row>
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C60" s="9"/>
+        <v>158</v>
+      </c>
+      <c r="C60" s="8"/>
       <c r="D60" s="3"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -11400,14 +11382,20 @@
     </row>
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="12">
+        <v>17.5</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -11431,13 +11419,11 @@
     </row>
     <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="11"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -11462,11 +11448,9 @@
     </row>
     <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B63" s="9"/>
       <c r="C63" s="8"/>
       <c r="D63" s="3"/>
       <c r="E63" s="4"/>
@@ -11493,20 +11477,16 @@
     </row>
     <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="12">
-        <v>17.5</v>
+        <v>2</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>164</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -11530,10 +11510,10 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="3"/>
@@ -11561,11 +11541,13 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="3"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -11590,9 +11572,11 @@
     </row>
     <row r="67" spans="1:25" ht="15.75" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>163</v>
+      </c>
       <c r="C67" s="8"/>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
@@ -11619,14 +11603,12 @@
     </row>
     <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>273</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68" s="8"/>
       <c r="D68" s="3"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -11655,7 +11637,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="3"/>
@@ -11686,7 +11668,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="3"/>
@@ -11717,7 +11699,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="3"/>
@@ -11748,7 +11730,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="3"/>
@@ -11779,10 +11761,10 @@
         <v>4</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="3"/>
+        <v>166</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="11"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -11806,14 +11788,14 @@
       <c r="Y73" s="4"/>
     </row>
     <row r="74" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="3"/>
+        <v>246</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="11"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -11838,14 +11820,20 @@
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B75" s="12">
+        <v>19.5</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -11869,11 +11857,9 @@
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>253</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B76" s="11"/>
       <c r="C76" s="8"/>
       <c r="D76" s="3"/>
       <c r="E76" s="4"/>
@@ -11900,13 +11886,11 @@
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -11930,14 +11914,16 @@
       <c r="Y77" s="4"/>
     </row>
     <row r="78" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A78" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="11"/>
+      <c r="A78" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D78" s="3"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -11960,22 +11946,16 @@
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1">
+    <row r="79" spans="1:25" ht="45">
       <c r="A79" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="12">
-        <v>19.5</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>172</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -11999,10 +11979,10 @@
     </row>
     <row r="80" spans="1:25" ht="15.75" customHeight="1">
       <c r="A80" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="3"/>
@@ -12030,9 +12010,11 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>170</v>
+      </c>
       <c r="C81" s="8"/>
       <c r="D81" s="3"/>
       <c r="E81" s="4"/>
@@ -12059,10 +12041,14 @@
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>249</v>
+      </c>
       <c r="D82" s="3"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -12088,14 +12074,12 @@
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>274</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="8"/>
       <c r="D83" s="3"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -12119,14 +12103,13 @@
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
     </row>
-    <row r="84" spans="1:26" ht="45">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C84" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>250</v>
+      </c>
       <c r="D84" s="3"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -12151,13 +12134,12 @@
       <c r="Y84" s="4"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C85" s="8"/>
+      <c r="B85" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="D85" s="3"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -12186,10 +12168,10 @@
         <v>4</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="3"/>
+        <v>172</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="11"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -12217,11 +12199,9 @@
         <v>3</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>257</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C87" s="8"/>
       <c r="D87" s="3"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -12247,42 +12227,48 @@
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="4"/>
-      <c r="W88" s="4"/>
-      <c r="X88" s="4"/>
-      <c r="Y88" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B88" s="14">
+        <v>22</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="17"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="17"/>
+      <c r="V88" s="17"/>
+      <c r="W88" s="17"/>
+      <c r="X88" s="17"/>
+      <c r="Y88" s="17"/>
+      <c r="Z88" s="17"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>258</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B89" s="12"/>
+      <c r="C89" s="8"/>
       <c r="D89" s="3"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -12307,12 +12293,11 @@
       <c r="Y89" s="4"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A90" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>259</v>
-      </c>
+      <c r="A90" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="9"/>
+      <c r="C90" s="8"/>
       <c r="D90" s="3"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -12338,13 +12323,15 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D91" s="3"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -12369,10 +12356,10 @@
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="3"/>
@@ -12400,50 +12387,45 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" s="14">
-        <v>22</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
-      <c r="R93" s="17"/>
-      <c r="S93" s="17"/>
-      <c r="T93" s="17"/>
-      <c r="U93" s="17"/>
-      <c r="V93" s="17"/>
-      <c r="W93" s="17"/>
-      <c r="X93" s="17"/>
-      <c r="Y93" s="17"/>
-      <c r="Z93" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C94" s="8"/>
+        <v>253</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>254</v>
+      </c>
       <c r="D94" s="3"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -12469,9 +12451,11 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B95" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>178</v>
+      </c>
       <c r="C95" s="8"/>
       <c r="D95" s="3"/>
       <c r="E95" s="4"/>
@@ -12498,11 +12482,13 @@
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="9"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="11"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -12527,14 +12513,12 @@
     </row>
     <row r="97" spans="1:25" ht="15.75" customHeight="1">
       <c r="A97" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>272</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C97" s="8"/>
       <c r="D97" s="3"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -12563,9 +12547,9 @@
         <v>4</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C98" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="C98" s="9"/>
       <c r="D98" s="3"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -12591,10 +12575,10 @@
     </row>
     <row r="99" spans="1:25" ht="15.75" customHeight="1">
       <c r="A99" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="3"/>
@@ -12622,14 +12606,12 @@
     </row>
     <row r="100" spans="1:25" ht="15.75" customHeight="1">
       <c r="A100" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>262</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C100" s="8"/>
       <c r="D100" s="3"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -12655,14 +12637,20 @@
     </row>
     <row r="101" spans="1:25" ht="15.75" customHeight="1">
       <c r="A101" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B101" s="12">
+        <v>17.7</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -12686,13 +12674,11 @@
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1">
       <c r="A102" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="B102" s="9"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="3"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -12717,11 +12703,9 @@
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1">
       <c r="A103" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B103" s="9"/>
       <c r="C103" s="8"/>
       <c r="D103" s="3"/>
       <c r="E103" s="4"/>
@@ -12748,12 +12732,14 @@
     </row>
     <row r="104" spans="1:25" ht="15.75" customHeight="1">
       <c r="A104" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C104" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>262</v>
+      </c>
       <c r="D104" s="3"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -12777,12 +12763,12 @@
       <c r="X104" s="4"/>
       <c r="Y104" s="4"/>
     </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1">
+    <row r="105" spans="1:25" ht="75">
       <c r="A105" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>264</v>
+        <v>184</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="3"/>
@@ -12810,10 +12796,10 @@
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1">
       <c r="A106" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="3"/>
@@ -12841,20 +12827,14 @@
     </row>
     <row r="107" spans="1:25" ht="15.75" customHeight="1">
       <c r="A107" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B107" s="12">
-        <v>17.7</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>189</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -12878,13 +12858,13 @@
     </row>
     <row r="108" spans="1:25" ht="15.75" customHeight="1">
       <c r="A108" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="11"/>
+        <v>258</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="3"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -12909,9 +12889,11 @@
     </row>
     <row r="109" spans="1:25" ht="15.75" customHeight="1">
       <c r="A109" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B109" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>186</v>
+      </c>
       <c r="C109" s="8"/>
       <c r="D109" s="3"/>
       <c r="E109" s="4"/>
@@ -12938,9 +12920,11 @@
     </row>
     <row r="110" spans="1:25" ht="15.75" customHeight="1">
       <c r="A110" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>259</v>
+      </c>
       <c r="C110" s="8"/>
       <c r="D110" s="3"/>
       <c r="E110" s="4"/>
@@ -12967,14 +12951,12 @@
     </row>
     <row r="111" spans="1:25" ht="15.75" customHeight="1">
       <c r="A111" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>270</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C111" s="8"/>
       <c r="D111" s="3"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -12998,15 +12980,17 @@
       <c r="X111" s="4"/>
       <c r="Y111" s="4"/>
     </row>
-    <row r="112" spans="1:25" ht="75">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1">
       <c r="A112" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="3"/>
+        <v>260</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D112" s="11"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -13031,14 +13015,20 @@
     </row>
     <row r="113" spans="1:25" ht="15.75" customHeight="1">
       <c r="A113" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B113" s="12">
+        <v>21.3</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -13062,11 +13052,9 @@
     </row>
     <row r="114" spans="1:25" ht="15.75" customHeight="1">
       <c r="A114" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>192</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B114" s="9"/>
       <c r="C114" s="8"/>
       <c r="D114" s="3"/>
       <c r="E114" s="4"/>
@@ -13092,258 +13080,36 @@
       <c r="Y114" s="4"/>
     </row>
     <row r="115" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A115" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-      <c r="O115" s="4"/>
-      <c r="P115" s="4"/>
-      <c r="Q115" s="4"/>
-      <c r="R115" s="4"/>
-      <c r="S115" s="4"/>
-      <c r="T115" s="4"/>
-      <c r="U115" s="4"/>
-      <c r="V115" s="4"/>
-      <c r="W115" s="4"/>
-      <c r="X115" s="4"/>
-      <c r="Y115" s="4"/>
+      <c r="A115" s="18"/>
+      <c r="B115" s="12"/>
     </row>
     <row r="116" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A116" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
-      <c r="O116" s="4"/>
-      <c r="P116" s="4"/>
-      <c r="Q116" s="4"/>
-      <c r="R116" s="4"/>
-      <c r="S116" s="4"/>
-      <c r="T116" s="4"/>
-      <c r="U116" s="4"/>
-      <c r="V116" s="4"/>
-      <c r="W116" s="4"/>
-      <c r="X116" s="4"/>
-      <c r="Y116" s="4"/>
+      <c r="A116" s="18"/>
+      <c r="B116" s="12"/>
     </row>
     <row r="117" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A117" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C117" s="8"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
-      <c r="O117" s="4"/>
-      <c r="P117" s="4"/>
-      <c r="Q117" s="4"/>
-      <c r="R117" s="4"/>
-      <c r="S117" s="4"/>
-      <c r="T117" s="4"/>
-      <c r="U117" s="4"/>
-      <c r="V117" s="4"/>
-      <c r="W117" s="4"/>
-      <c r="X117" s="4"/>
-      <c r="Y117" s="4"/>
+      <c r="A117" s="18"/>
+      <c r="B117" s="12"/>
     </row>
     <row r="118" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A118" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4"/>
-      <c r="P118" s="4"/>
-      <c r="Q118" s="4"/>
-      <c r="R118" s="4"/>
-      <c r="S118" s="4"/>
-      <c r="T118" s="4"/>
-      <c r="U118" s="4"/>
-      <c r="V118" s="4"/>
-      <c r="W118" s="4"/>
-      <c r="X118" s="4"/>
-      <c r="Y118" s="4"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="12"/>
     </row>
     <row r="119" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A119" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D119" s="11"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
-      <c r="O119" s="4"/>
-      <c r="P119" s="4"/>
-      <c r="Q119" s="4"/>
-      <c r="R119" s="4"/>
-      <c r="S119" s="4"/>
-      <c r="T119" s="4"/>
-      <c r="U119" s="4"/>
-      <c r="V119" s="4"/>
-      <c r="W119" s="4"/>
-      <c r="X119" s="4"/>
-      <c r="Y119" s="4"/>
+      <c r="A119" s="18"/>
+      <c r="B119" s="12"/>
     </row>
     <row r="120" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A120" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" s="12">
-        <v>21.3</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="4"/>
-      <c r="P120" s="4"/>
-      <c r="Q120" s="4"/>
-      <c r="R120" s="4"/>
-      <c r="S120" s="4"/>
-      <c r="T120" s="4"/>
-      <c r="U120" s="4"/>
-      <c r="V120" s="4"/>
-      <c r="W120" s="4"/>
-      <c r="X120" s="4"/>
-      <c r="Y120" s="4"/>
+      <c r="A120" s="18"/>
+      <c r="B120" s="12"/>
     </row>
     <row r="121" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A121" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
-      <c r="P121" s="4"/>
-      <c r="Q121" s="4"/>
-      <c r="R121" s="4"/>
-      <c r="S121" s="4"/>
-      <c r="T121" s="4"/>
-      <c r="U121" s="4"/>
-      <c r="V121" s="4"/>
-      <c r="W121" s="4"/>
-      <c r="X121" s="4"/>
-      <c r="Y121" s="4"/>
+      <c r="A121" s="18"/>
+      <c r="B121" s="12"/>
     </row>
     <row r="122" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A122" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122" s="9"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
-      <c r="P122" s="4"/>
-      <c r="Q122" s="4"/>
-      <c r="R122" s="4"/>
-      <c r="S122" s="4"/>
-      <c r="T122" s="4"/>
-      <c r="U122" s="4"/>
-      <c r="V122" s="4"/>
-      <c r="W122" s="4"/>
-      <c r="X122" s="4"/>
-      <c r="Y122" s="4"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="12"/>
     </row>
     <row r="123" spans="1:25" ht="15.75" customHeight="1">
       <c r="A123" s="18"/>
@@ -16832,45 +16598,13 @@
     <row r="994" spans="1:2" ht="15.75" customHeight="1">
       <c r="A994" s="18"/>
       <c r="B994" s="12"/>
-    </row>
-    <row r="995" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A995" s="18"/>
-      <c r="B995" s="12"/>
-    </row>
-    <row r="996" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A996" s="18"/>
-      <c r="B996" s="12"/>
-    </row>
-    <row r="997" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A997" s="18"/>
-      <c r="B997" s="12"/>
-    </row>
-    <row r="998" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A998" s="18"/>
-      <c r="B998" s="12"/>
-    </row>
-    <row r="999" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A999" s="18"/>
-      <c r="B999" s="12"/>
-    </row>
-    <row r="1000" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1000" s="18"/>
-      <c r="B1000" s="12"/>
-    </row>
-    <row r="1001" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1001" s="18"/>
-      <c r="B1001" s="12"/>
-    </row>
-    <row r="1002" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1002" s="18"/>
-      <c r="B1002" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A3:A122">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A3:A114" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -16880,11 +16614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -16900,10 +16634,10 @@
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="40"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -16928,19 +16662,19 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -17028,7 +16762,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="3"/>
@@ -17088,7 +16822,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="3"/>
@@ -17148,7 +16882,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="3"/>
@@ -17328,7 +17062,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="3"/>
@@ -17388,7 +17122,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="3"/>
@@ -17448,7 +17182,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="3"/>
@@ -17598,10 +17332,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
@@ -17660,7 +17394,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="3"/>
@@ -17720,7 +17454,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="3"/>
@@ -17780,7 +17514,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="3"/>
@@ -17840,7 +17574,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="3"/>
@@ -17990,7 +17724,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="3"/>
@@ -18050,10 +17784,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
@@ -18112,7 +17846,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="3"/>
@@ -18172,7 +17906,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="3"/>
@@ -18352,10 +18086,10 @@
         <v>3</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
@@ -18414,7 +18148,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="3"/>
@@ -18474,7 +18208,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="3"/>
@@ -18534,7 +18268,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="3"/>
@@ -18594,7 +18328,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="3"/>
@@ -18774,10 +18508,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="4"/>
@@ -18836,7 +18570,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="3"/>
@@ -18896,7 +18630,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="3"/>
@@ -19076,7 +18810,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="3"/>
@@ -19136,7 +18870,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="3"/>
@@ -19196,7 +18930,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="3"/>
@@ -19376,7 +19110,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="3"/>
@@ -19436,7 +19170,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="3"/>
@@ -19496,7 +19230,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="3"/>
@@ -19676,7 +19410,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="3"/>
@@ -19736,7 +19470,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="3"/>
@@ -19796,10 +19530,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="4"/>
@@ -19858,7 +19592,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="3"/>
@@ -20008,7 +19742,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="3"/>
@@ -20068,7 +19802,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="4"/>
@@ -20127,7 +19861,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="3"/>
@@ -20187,7 +19921,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="3"/>
@@ -20337,10 +20071,10 @@
         <v>3</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="4"/>
@@ -20399,7 +20133,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="3"/>
@@ -20579,7 +20313,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="3"/>
@@ -20639,7 +20373,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="3"/>
@@ -20699,7 +20433,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="3"/>
@@ -20879,7 +20613,7 @@
         <v>3</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C133" s="8"/>
       <c r="D133" s="3"/>
@@ -20939,7 +20673,7 @@
         <v>3</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="3"/>
@@ -20999,7 +20733,7 @@
         <v>3</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C137" s="8"/>
       <c r="D137" s="3"/>
@@ -21115,7 +20849,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>104</v>
@@ -21177,7 +20911,7 @@
         <v>3</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="3"/>
@@ -21297,10 +21031,10 @@
         <v>3</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="4"/>
@@ -21359,7 +21093,7 @@
         <v>3</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C149" s="8"/>
       <c r="D149" s="3"/>
@@ -21419,7 +21153,7 @@
         <v>3</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C151" s="8"/>
       <c r="D151" s="3"/>
@@ -22324,8 +22058,8 @@
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A3:A152">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A3:A152" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -22335,7 +22069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22354,28 +22088,28 @@
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="40"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -22399,7 +22133,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -22413,8 +22147,8 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A5:A1048576"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A3:A4">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A5:A1048576" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A3:A4" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -22423,7 +22157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView topLeftCell="A95" workbookViewId="0">
@@ -22442,28 +22176,28 @@
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="40"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -22479,7 +22213,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="58.5" customHeight="1">
@@ -22487,7 +22221,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="150">
@@ -22495,7 +22229,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1">
@@ -22503,7 +22237,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="90">
@@ -22511,7 +22245,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="180">
@@ -22519,7 +22253,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45">
@@ -22527,7 +22261,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -22550,7 +22284,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -22558,7 +22292,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" customHeight="1">
@@ -22566,7 +22300,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45">
@@ -22574,7 +22308,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25" customHeight="1">
@@ -22582,10 +22316,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C17" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -22593,7 +22327,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -22607,7 +22341,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -22630,7 +22364,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="120">
@@ -22638,7 +22372,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -22652,7 +22386,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -22666,7 +22400,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -22695,7 +22429,7 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -22709,7 +22443,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -22722,7 +22456,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -22735,17 +22469,17 @@
         <v>4</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -22756,7 +22490,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="60">
@@ -22764,7 +22498,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -22777,7 +22511,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="90">
@@ -22785,7 +22519,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30">
@@ -22793,7 +22527,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -22814,7 +22548,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="90">
@@ -22822,7 +22556,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -22835,7 +22569,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -22856,7 +22590,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="105">
@@ -22864,7 +22598,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -22877,7 +22611,7 @@
         <v>4</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -22903,7 +22637,7 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="45">
@@ -22911,7 +22645,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -22924,7 +22658,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -22937,7 +22671,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -22963,7 +22697,7 @@
         <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="30">
@@ -22971,7 +22705,7 @@
         <v>4</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -22985,7 +22719,7 @@
         <v>4</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="60">
@@ -22993,7 +22727,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -23007,7 +22741,7 @@
         <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -23021,7 +22755,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -23037,7 +22771,7 @@
         <v>77</v>
       </c>
       <c r="C83" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="45">
@@ -23045,7 +22779,7 @@
         <v>4</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -23058,7 +22792,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="45">
@@ -23066,7 +22800,7 @@
         <v>4</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -23087,7 +22821,7 @@
         <v>84</v>
       </c>
       <c r="C90" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="45">
@@ -23095,7 +22829,7 @@
         <v>4</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -23108,7 +22842,7 @@
         <v>4</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -23121,7 +22855,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -23134,7 +22868,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -23160,7 +22894,7 @@
         <v>90</v>
       </c>
       <c r="C101" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="45">
@@ -23168,7 +22902,7 @@
         <v>4</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -23181,7 +22915,7 @@
         <v>4</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -23194,7 +22928,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="60">
@@ -23202,7 +22936,7 @@
         <v>4</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -23220,10 +22954,10 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C110" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="45">
@@ -23231,7 +22965,7 @@
         <v>4</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -23249,7 +22983,7 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A3:A19"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A3:A19" xr:uid="{00000000-0002-0000-0500-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/data/data.xlsx
+++ b/static/data/data.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safco103866\Desktop\Tools\site\flask_psite\static\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\flask_psite\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD06D8F-BE03-44FC-862C-F0FBEACF8E6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B97B06-3F0A-439F-A691-1CDBEDD81111}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vosges" sheetId="7" r:id="rId1"/>
-    <sheet name="Taillefer" sheetId="4" r:id="rId2"/>
-    <sheet name="Queyras" sheetId="3" r:id="rId3"/>
-    <sheet name="Lofoten" sheetId="2" r:id="rId4"/>
-    <sheet name="Corse" sheetId="5" r:id="rId5"/>
-    <sheet name="Bresil" sheetId="6" r:id="rId6"/>
+    <sheet name="Belledonne" sheetId="9" r:id="rId1"/>
+    <sheet name="Vosges" sheetId="7" r:id="rId2"/>
+    <sheet name="Taillefer" sheetId="4" r:id="rId3"/>
+    <sheet name="Queyras" sheetId="3" r:id="rId4"/>
+    <sheet name="Lofoten" sheetId="2" r:id="rId5"/>
+    <sheet name="Corse" sheetId="5" r:id="rId6"/>
+    <sheet name="Bresil" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="521">
   <si>
     <t>section_start</t>
   </si>
@@ -255,9 +264,6 @@
     <t>On y prends un petit gâteau en guise de dessert. il y a pas mal de gens qui ont bivouaquer aux abords de la plage et ils ont bien raison l'endroit est sublime. On continue notre chemin pour atteindre une autre plage juste à côté. Ensuite on remonte un petit colle pour aller de l'autre côté des montagnes. On longe un lac puis un autre.</t>
   </si>
   <si>
-    <t>On tombe sur un sentier qui nous mène jusqu'à notre point de chute. à la fin de l'étape on ne trouve pas de tout de suite à un endroit pour bivouaquer. On décide de continuer un peu point on trouve un endroit sec et à peu près plat mais la vue n'est pas top. on continue donc encore un peu plus , on traverse une zone très humide. finalement on trouve un endroit sympa avec une belle vue sur le fjord. On est un peu court sur les stocks d'alcool à brûler car on n'a pas réussi à en trouver un Ramberg. Il nous reste trois ou quatre repas et on a à peine de quoi en faire plus d'un. Alors ce soir on improvise un mini feu aidés par de l'allume-feu après des débuts difficiles le lyophilisé échauffé avec succès.</t>
-  </si>
-  <si>
     <t>Jour 10</t>
   </si>
   <si>
@@ -1239,9 +1245,6 @@
     <t>Last day</t>
   </si>
   <si>
-    <t>C'est déjà le dernier jour. Ces 15 jours seront passés bien vite. le matin je vais faire un tour du côté de la plage d'Ipanema. dernier repas et dernier assailli. Derniers instants sur la plage de copacabana et il est déjà le temps de commencer le périple pour l’aéroport.</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/6tsLQwJBNzPp45smeTmd9SOTaPRRXa12zLhHo-0uJV97hEUwB_d1w9Q_iZGyf25MvPFY0cmfEjVYBIzvUqDPmuKjLRPGXoT42WB_sJJZT-63XW39JntZUqwW0iUuep5HQbIBroM2DZKMoUT3n3zIAsQI2ZfxzhkIIgOJizz-uOMZlfuc2t8uQF7rJN04wupaIsIT16Dy_zdFWzjzEz_aoSohxVcMeLOZ3C-_eHoxA6isG9vjAVZK6D4TsGcba7M79Bm5tc1XqBTX8CFuQh4vleaqFgM_Sj1OMQDbHx5k5WNmOOPuIwShuUjs0ofoKkSS3CuQqfBcsAEfiFHbqY23PQOiLVezJZDCAj1PE0V3JOnYw0SEC0DBB_lGOJeYIfm6lnAovc0HQD_ztWTBt50q76fSvEbiWMHX_oRsA_gtyJpNZque8MBugoBuzIXpLdur9O8Matna1DFa9YxHQte4xQeppAlhzYsDfzUVqSSmnBrMxqQQXJwPMgpxfBe5htkb8YDn28Y5iuTsrftZVE7LLCkvRp-7-KQVHiGuKEhdI-91aawutAhS3CR4mekJZZrF4cgZxpkA7PHdUB126yyWFsCPlwNMcl_pHhHRkfgMHmKOQ4FI6XF9aewTGjE0RHH9fEFZeZqk3GHoE-cvMi6Ung5XKzRKAG6zx91NhamNGZfhQMCTyA79qN57iQ4A2h_6wnjpHkduxO6qhf0hPN7DsAlULw=w477-h358-no</t>
   </si>
   <si>
@@ -1266,9 +1269,6 @@
     <t>https://lh3.googleusercontent.com/el-X1y8-B_s3pgYJE-BqerfUpA2Cn9MdJL25_qJq6IoAVFZWzh5JWrz_XIuCgAlnnvtHgSjchoa4KWF5Xs5p6-CTaokOH8R3pjaECkRKYpVb28AKPtXsrcYpQLE6HECWrAb01-hC3icytAe8TUh5Eop2IsBAJPgqVELBQQzREHrmqRC-rFGFP2e_Y-5-lxPncWsoXfDfwlzRAINVW9-5iCYUT_u1Hed1srNCeyoZmAvQG4MPs9rqcQWiWcwMyWlVBB6p2DOAErvnWMqMBjd-UE23TPkyxkadph0apA0lkvVuCwAiyb6n_BGUwWtd2_IAUJAtbB7qSE3w6N424MfOGykuZqfHBLVfRinsIQJMXrGq72dzl5Trdhp33Vuxpg0EPwjnejw2ufj8eNeEhqSAmEOumT0A5xixbeaVY-HXx4VNljMXzJA4smwSWqEUNOLVqMNAFcLpBZZ1dX2MvU9J4MpM7sJFmg5bsDtjWYaVQ0I2aCgAq9oGsxG_feczX7ETeCtnDLIr6BZ4kIo_nyFG7NROcgai8v15QESx-VMVQ3V1CzrGSWH1U6zXhUkYgXwj275X1ohSVLrcuES23DKolaRAemywZXOpKmh_hhZups-6wilOjludV_Nx2R26ulayTVk2N2U2umw1GecGRGfNmiu0jYwDmdsJ=w1259-h944-no</t>
   </si>
   <si>
-    <t>Je pars donc jeudi matin en direction de Munster ou j'arrive un peu avant 13h. Alors que je vais pour finaliser mon sac je remarque qu'il y a de l'eau partout, ma poche a eau s'est vidée de tout son contenu pendant le trajet en voiture. La plupart de l'eau a été absorbée par ma serviette (pas grave), mon livre (adieu le lecture),  et mon rouleau de PQ (mais je ne m'en apercoit pas). Je met le sac sur le dos et commence a marcher dans Munster. Les difficultés ne se font pas attendre. Avant meme d'avoir rejoint le départ prévu de la randonnée la route s'éleve. Une fois dans la foret le chemin commence par suivre le balisage du club vosgien. Ensuite la trace gps que je suis s'écarte ne suit plus le balisage et je fais quelques petites erreurs de parcours. Le chemin continue de monter en pente douce, malgré le ciel couvert et l'abri des arbres il fait quand meme bien chaud. Apres presque deux heures de marche mes reserve d'eau ont déja diminué drastiquement et pas une trace de source. Heureusement quelque temps apres j'apercois une fontaine dans le jardin d'un chalet. Comme celui-ci a l'air vide je me permet de me servir a la fontaine. La vue se dégage sur la gauche et laisse apparaitre la vallée.</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/mypwFfUxxLAwaOfIPpBClfCu1UGG-UOfQzIG7lIlyheIMdUZvtKUe8vJv1VOZU1rQ2ntS4R6swKeu5Vxc2GnbG0CBecwtEoTPeDoToBJp26OpZ23I2MPGxo-1eEdhPzmhPSvCkk6BfRwDtup0M-1ndgvrrQAT0lLIA-ScpqY27nX_WhsyzNEHCXJQema1eb66UHnToAGIjP1h8_iQIMedxOhYFJ5zp-DcB2gWHMH8v6DBFEWjaNBVmxjnIypkXXgXTcsRWp66p-zVYKQTg_CjpIDD23Wf16tROG9yEfiYDYpPEXwVieKXFA7e3qVzSznMXGuN51emtrclrKKL9qMCA0UZjo_B6w9tsjnvzKatLCVBB_Ow28mVfC0kBo5Ck038R-KTPZAvDxl7IDWatqJelPrYLNKA3lgYSm_OnBqauvS5-2yLw3tzg6HRz3Rfy3SMp60U8v0kwctW4xoEq4IajkR7omWbmU2wjU3-KsBNrpTReS42HIbdKcZ2Ot61O28HnTtsgn_g3G8tgWuOUiLubXTFGLGlDFhbT8v5TXzQdRNgmpsznDZ_LBlyUPeTZxvglUugmNx1GDEJ0y27qYydxnuzGkewS1DwPtxA9cBXsMhlNS0xDpX-19a1ifS2cwnb1LQNubNjpgCQDLGsXwazkXWP3ZNEj-M=w1773-h944-no</t>
   </si>
   <si>
@@ -1372,6 +1372,231 @@
   </si>
   <si>
     <t>vosges.html</t>
+  </si>
+  <si>
+    <t>Pays d'Allevard et Sept Laux</t>
+  </si>
+  <si>
+    <t>Aout 2019</t>
+  </si>
+  <si>
+    <t>Allevard - Pierre du Carré</t>
+  </si>
+  <si>
+    <t>Pierre du carré - Martinette</t>
+  </si>
+  <si>
+    <t>Nuit venteuse froide. Levé vers 6h45. Départ rapide 7h30. Descente directe, longue et raide. Remontée plus en douceur. Dans la forêt. Refuge sur le versant en face. Col du praillet vers 10h. Partie presque plate jusqu à l'Aup Bernard. Groupe de jeune. Marcheuse sac léger. Encore de la descente. Montée jusqu au chalet du bout. Pause casse croûte. Beau chalet. Pq. Framboise et mûres. Grosse heure pour aller jusqu au lac du Leat. Bonne pause. Je sais pas jusqu'à où aller. Je repars. Grosse montée au soleil. J'arrive plus vite que prévu au chalet de la fouetterie. Du coup je décide de continuer. Ça descend encore et encore. Et ça rigole pas. Les mollets prennent cher. Petite remontée qui fait le travail. Jolie retenue d'eau. Arrivée au refuge. Douche salvatrice.</t>
+  </si>
+  <si>
+    <t>Départ assez matinale vers 7h15. Montée dans la forêt jusqu'au chalet du gleysin. Il en reste un bon vu la topographie des lieux. Reste de la montée à découvert mais le soleil ne tape pas encore trop. C'est raide très raide. Mais forcement à la fin on a une belle vue. Encore un peu de chemin pour arrivé au lacs. Retenu d'eau électrique. L'eau est d'un bleu turquoise sublime. Les lacs sont immenses. La suite du chemin longe les lacs jusqu'à la bergerie du cos. Tentative de baignade qui ne dure pas longtemps, elle est vraiment froide. Grosse pause dej pour décider de la suite de l'itinéraire. Je ne sais pas par où continuer. Soit suivre le gr738 avec object.. annonce a 3h45, soit continuer le tour des sept maux pour rejoindre river d'alllemont a 3h15. Mon choix se porte sur ce dernier. Débute une descente encore plus longue que celle d'hier. Et en plein soleil pour agrémenter le tout. Je descend tout de même à bonne allure et arrive en bas un peu avant 16h. Il faut longer la route un bon moment pour rejoindre le village. Je me pose prendre un coca et me renseigne pour le bivouac. Malheureusement il n'y a pas d'endroit prévu. On le dirige vers un endroit en contrebas mais ça n'a pas l'air sexy. Il est encore tant de repartir pour trouver mieux. Ce qui veut aussi dire de la montée. Potentiellement 750 d+. C'est parti. Je scrute les alentours du sentier à la recherche d'un endroit plat mais c'est peine perdue. J'hésite plusieurs fois mais je me dis que je peux trouver mieux. Le pas de la coche est annoncé à 1h. Je commence à accuser le coup. J'arrive presque en haut et tombe sur un plateau à plat. Je me dit que j'ai trouvé mon lieu de bivouac. Mais je suis pas loin de l'arrivee et suis curieux de voir. Et la c'est le jackpot. Emplacement pour tente nickel. Petit lac pour faire la toilette. Je ne pouvais pas espérer mieux.</t>
+  </si>
+  <si>
+    <t>Ciel magnifique. Levé vers 6h40, il fait étonnement bon. Je passe le pas de la coche et commence la descente vers l'habert d'aiguebelle. Remplissage des gourdes. Je prends que 3l. La descente continue doucement en balcon. En contrebas apparaît Grenoble ??. Plein de framboises sauvage. Miam. Arrivé à prapoutel vers 10h. Montée le long d'une piste de ski (bien raide) en plein soleil. Montée plus douce toujours sur un grand chemin. En balcon. J'arrive au chalet de la pincerie vers midi mais visiblement c'est fermé. Dommage. En plus mes réserves d'eau commence à devenir critique. Je décide de continuer jusqu'i refuge du cret du poulet. Passage par le gros rocher. Belle vue des deux côtés. Arrivé au refuge il y'a la fête du coup pas de repas il faillait réserver.. Assiette de taboule et fromage. Pas de source à côté. Je descend sans sac à la source la plus proche. Pas sur d'avoir trouvé la bonne. Je blinde de micropur. Je redescends, c'est long. Il fait chaud. Arrivé à monroivard pris en stop salvateur.</t>
+  </si>
+  <si>
+    <t>Martinette  - Pas de la  Coche</t>
+  </si>
+  <si>
+    <t>Pas de la Coche - Allevevard</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/_kcRw0eerky50vxFDXKBfKIWMtg1ahM4TD2YqZ-mb7Siew8OmEA-_coWT0xy1aWk_Ppy-7dYi1dk8KmsjinTha8Ah5iPiQktVKfagsltd6vJWfMOmM_03PS5gk84v6jeRswp1LwNyW6NWQTjpoPAQzl-4CDxBLKeWuHsTZh1DNQpB-RO_ltC5I76GCX9XPvLWsMsi4UG8px1lmZhr8EgOk9fWWj1Sf9LuPoiMNkN4hNUdMDXQjMLYkWAq-MnCgZoVZmQqaGOS5-X4avp1UYzXUmb7oeXXEdnpjXlC-WtBVOFfNeheMcaup3prEMAjrSZKZH4DdIyW9UJgusHPsSHxAyzhG8JeMawKwSOYeRKvst5AXqrF568osq6wZkCmnBA7v4H1jY6DJoiDj6DQymZA96VCI0ymY4bv77qhrkLDR8E1fgL--jhyzVB_yFoQNxhw2XGS8C2SWDnNMP68F5miGMZNBr9jePSGkwAt5FOFA0wSEx2CzNLPQQYsf6PKQa-5X2eW4czLnfX_QUjrVcW6cqLV-Oh0oZiS8ahF-tV1iCHqtXmPdHsZLdqxO3nRoH3x0D2sB9vMmArBo5N0ymnNCPrHr0Ts1-oiST8dxvzZnQ5FrhiZN3volXLWURuiMg2E36xqbaLBXEEXaL9TxN502xnv6v6Q9DS=w708-h944-no</t>
+  </si>
+  <si>
+    <t>belledonne.html</t>
+  </si>
+  <si>
+    <t>J'aurais peut-être pu prendre un peu plus mon temps et faire cette boucle en un jour de plus. L'itinéraire est sympa même si à mon avis la partie retour vers Allevard vaut un peu moins la peine. Le reste de la traversée vers Chamrousse est peut-être plus intéressants mais il faut prévoir le retour au point de départ.</t>
+  </si>
+  <si>
+    <t>Encore en peu de montée jusqu'au deuxième chalet de Tigneux. Ca monte sec et en plein cagnard. Comme souvent la vue en haut est sublime. Puis on descend comme on est monté, à pic, pour arriver assez rapidement (à peine 1h) au chalet de la Fouetterie. Il y a un gros groupe qui vient d'arriver d'en bas et qui semble s'installer pour la soirée.</t>
+  </si>
+  <si>
+    <t>On a fait que monter hier alors forcement aujourd'hui on commence par descendre. La descente est raide et sans répit. Au milieu de la descente un chevreuil croise le chemin 20 mètres devant moi. La remontée de l'autre coté de la vallée est plus douce. J'arrive au col du Praillet vers 10h.</t>
+  </si>
+  <si>
+    <t>Le parcours continue en longeant le lac de Cottepens puis celui de la Cos jusqu'à la bergerie du même nom. Je me pose pour manger. Mais avant j'ai bien envie d'aller me baigner. La baignade sera de courte durée car l'eau est glaciale. Ca fait quand même du bien se rafraichir un peu et de se débarbouiller vu comment j'ai suer dans la montée.</t>
+  </si>
+  <si>
+    <t>Je pars donc jeudi matin en direction de Munster ou j'arrive un peu avant 13h. Alors que je vais pour finaliser mon sac je remarque qu'il y a de l'eau partout, ma poche a eau s'est vidée de tout son contenu pendant le trajet en voiture. La plupart de l'eau a été absorbée par ma serviette (pas grave), mon livre (adieu la lecture),  et mon rouleau de PQ (mais je ne m'en apercoit pas). Je met le sac sur le dos et commence a marcher dans Munster. Les difficultés ne se font pas attendre. Avant meme d'avoir rejoint le départ prévu de la randonnée la route s'éleve. Une fois dans la foret le chemin commence par suivre le balisage du club vosgien. Ensuite la trace gps que je suis s'écarte ne suit plus le balisage et je fais quelques petites erreurs de parcours. Le chemin continue de monter en pente douce, malgré le ciel couvert et l'abri des arbres il fait quand meme bien chaud. Apres presque deux heures de marche mes reserve d'eau ont déja diminué drastiquement et pas une trace de source. Heureusement quelque temps apres j'apercois une fontaine dans le jardin d'un chalet. Comme celui-ci a l'air vide je me permet de me servir a la fontaine. La vue se dégage sur la gauche et laisse apparaitre la vallée.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/6aUJ8ZH75i45Dbv-hhp2AJ9qTNjnyb_6DZW7UiLlpxChk4qeKwSOvsoxlYdD6l_YefEs6Du0xz5DkgIsWeGU8nrKn_ZCyzFKjxd2mPZynpWPYQ62DerdBg4Q-dXvWoW9c7ch1A6OMXS0uRvXGNxw_dA6jnYYNIKhVRuHknYRmuq0HSXjLVp10yvnoAtUa-MBmd6WIkIxa5ANm2xp30gCprS2xTeee84LcTeBtvzMkYa9K1ae5ArCpSXlPJ3J4kOwHmGX4B8AZG-xatGbVQRsfYsAeOUv3u63rG6oTTceC2SFL3twR4w4p0t5JbQxL70UGtsKkW8ky5sfTgD2t2T8gcslBiLGd7sofrwGkFArczB6Qryel6IGiE8d3oEg7UBjplGz3jJIbmIxh9zoCEIiriFUC-CeqxYnfcagqD8R7mJ1Huy4eoMI5azp-LBc7jNmI9au0hL-JQtauV2xmFqsSgIJ1lWr_1TtqnvifwcpsI7hdu_mhEJPz1vxI_5Uycn49n1Ez7flfZ8OhhP_QKxafJxAbGQliG3YSUEi95LUbxgXcvrxmQ65rh5DZwNy7wIzKqcq5_ACoT1LCorgEd3n0Xi0wsgRb9NCWY9OSwlgtvv_QnN0sFpGetUG7VE9LODLRFuVDa3cxbnVoC5ONgtNBcbwm1eSs3S37VTV1FG1luI0R85OvhsJuMp8KdVgQOUH-7mRAvDMZ7pnOA1Cm-1eeYv__Q=w702-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/0NzetqvGpifNzzLaRiulmWgWE9JOKjI6uyjkT-BnS1EUHOIdpTV4NyqbkDiDZWsOT32I-vq7GbfCs__X6b_nbVFO6PKizFezRcgftWWaFk6Dt9z1i3T0_oCxE5_dvokSFMUjlcW5v26cy8eyhciM6Su9-Er-q9JEYO-SQ-NlV-iU8QALleQTePwDIhCQJfZSUV-H7oPQQtc9gwRJ7C9IcdJaGbDErDheOPEf_1y_c5yMq40vEMoMlXjCfO5q_t4SXfCdcxabDeky2Lz7eSu0qSxSJPcg07p4WpzAcDAa-TjxoBGzn3lYRGQRqGlyQNPLYiGEtVw-4o_5Xo6LI0Ch-JrHCt4iRBcvRhgqvokyLDNRVlS-flX0gp00oUd1bvCnCWMRbSFFcMLU6RtgOwOY-0RZo4VvOt3konXI7L75G0CygW7YtLk_ty2-eRzVRu31AdyBCEdeywCzT7eBTJ8kOFhlzvLJ9HpuFkEuN9uI5xSKpkw2MRNDnZOuB4bSt4Z-8bfRxxGr_T43awn_zR1Ft9sCxaJ1_kWyY8ISxMKug4X5kd6OJ1O8XLh8_fDmdmu1g_xNgyry60ETCuW4T17wM5D37M3QmT3hYxKla0myfeiwewT6S1osszkB9IhgoSCXtC2cRWK6XLY34YC7j7mpVQsfEq2vQXj1Toi06no118HMbrDcXtjCO6MiwfphBk5JavK0-AeYZzBmdeUUExQ-H3dKFQ=w1249-h937-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/Mxb1Rlq9SJj_p2bWSX26y_6OxM4NWSB3iiEeUWV-x4ce5a3EMhQS58g17eeFePSMUrvqjH4ndeFSd3r_Nw9dI21ztNihrByDmh_ACv93vDM0Y3-LwzC0TSRSGYHm4ED1Ql7XuTmMihxFqXqM0sOfjh40GY2g4ml3nAy2MvW07x1I0swI766fM7oBgqYoiPRPat6Tu-nOOP9wcnMa580dtOafrIiXlYm4zyQddePLfIOP70OwUL9X_t_mwdh_07R3A7-MKaScVxlpPSIBGdykLMdvq-IOOgEgzBRqt8UU5urrzse63PaEyoJkuQkkgFP1LAUB_3bNsswaeDPTFOkLPaSdTiT8x1i9vxeMWSR0AVou-wTpOfLNj4fV1COinctSPqnG_8GsE9j4p_CuP8e5SWZ1A9EAIK3PXwJxXykZpW6mOZAHcz26LxQg3iIXlDFi6iaBD_qYte8jqvMMMb4-HPV-J0L35VaNbrfcr8jUAhDi8yX53Kk6kLmEYuDbU94AWcNYiGDp6ktPvH0s28lO1pUeWFpT6JNbcJ1DTW53FYxwNEWYS0EqRv9tHFMf0HBVvVmvUXmxpU4Ptx4uXj64S9Idci1Kfci8YiSLGAqYZoly_gMfxGoLKkhHjtHgU_uPxIBGPIaA49FZSwBPkIjiBERtuwe62fISxvXmc5j6U_tsbl30EdtcQtvg-E5h2CYw78-6tbN6gtG942XZTJJ_NTjFag=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/h0qbBm70T-T9l8_1ttelzjTnHsOSTrhzWemyITKYge5ErhdHIPlT-D1iZeVauKEqcYCyLhOYe8js9f8NaAxTaMyscquFHlUD3JwFINABVBod1QtHLiTsXdAgATfRlrYOOiryUG2h5bsja6t_Ll8KktSqKAs8unur8M6fXO4a2Y6i4jcXKxw3RfA9cLvBQIpKtbBSH1sZqfNsmCqzHwqGb-qxIf2k1N43iCVTzDQlWzzimbEETazCGu-VRS-A8Fcm7v5dXYffWpb7ixzLDmJFbLq5I950W8NU3qsFm3tL3l9X8twBkjwUvgkxuM8keMXixIKXjDSFJThgcWfyn5dIqDooE97TmbExzHj0WK0vnXfSgNOftbIRPkLCWcPW0wo0LwfqLmGqf200MV95YjJY93qM-w-PFUToDvl3I-eoA4Rm8jj_gDlpa_mq8EWYcwVCnpK_TYPeSYEN91-81pHVlAUXsd747ZGQ4rXelj_BdxBnhus2kAu5Fr8MQKfDL1x3dcON5i3vPIweP8W9LtcFYtSY-oDRfpiNzV7lTuTqCBVuZHQL3CM2HEZ6rlA08a-oTf6JJkExLSg2AvcyCT7Whoszx2y_xSTbGvXgpGgp-DzfahBMHGTXbTpwSdfS7MoHKUd8xx8JOIva5Kof83522iJDKSICgA-YbfnNRydXGNH4eA6m_nsj0xj9qJ6Ka4UUNT58k17hXe-xnOL31f205Ztjhg=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/Wa52qF_lDxmIIddQgtKLs2mUcgg4o4qVugTWd0N6Pnh-4EiSbED5Y2O__xivzp-vrC1PLFl-lR--l4AqbOy-M5hwhgjqapw43NHJis37FLsTxlHGDwoVngAyPeKCWulLnQfNiIc5tiO-oMM58ezsLezN4PQER3sFL1D0wfLOVqxD8uDlB2asWaydYwRIFa3CnG_JYA2USow2gZKFKbY_sIoIgZVoCK52R3wnHkslaMxRIcYSUNSId_Ur6ktHBo5mrkYtbbqkPwXQO1ZyiYeMElM27GM3Na8MMVgGgxczAZg0r9Ucr9BPQYDu0ci9KjKVogvwUoaMIgGBxwChZZwNW-LoV7zxw6qbxuJRXvxWfn4Zo3QDUelcZ9lRcZZ9JIrZEZ7xzYGAnHAACKnpy0ZDASpTHJsUf4LXfAHIIX2-9uERfh72Ms0JDWtvtcIrXv1dZB3OsVWFAZ-dOgqpS-As7I8n5ewwg1kapKEN_h85j_DApHwsaLIZwaw1wta1Wg1jA3Ws1uZjSykku1Jax83xeRGaRSqWv_SqocNEhZbGdYbDJqaSAonL01ejiULPUoIIjkpkQiGCjeGQKKLABJJMKY1M1JnQQMuOQvynSPHWxPEGU8xmjCwHDuxiB8_mpkDrSh3lB5rpdab4cOXU3UsII_yHs9toLGGK3mFsgwa3Ix3CrrAnoYZFpff1dk4NVxnCLGKy1YNFTMxDTnLgZZ3-x2oO0Q=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/fR50UOzbO83nI2hWEkSMdqqvvkY-TIGOcfpx0q4PaFAXRd1y6OiMFJr-kl7Q_PZq2nGoAyCm6r0ep5Ulf5yFD9QLro8sQzJmxsZ7KoGc2G8FmLifzfCg19ZZJkFNz8MeEmjGzzwpTQpWXO7NOSvjg_6Z3I1dP_c9qZrN8fjJ5QYSencjiSawT7zI0O-yc1ynK4paZeeZWJKQJdnc6vsol9e0bq3q0SeGU_bKEPZNI5DuKSe4erKWc5rKgUxpNazhvgjzF1AIgA7j8Zzg8_tEByZ0gsuETXUoZMFmcLW5suUZBLQJrI_Izwg_gLQ6F2bPTc2_Uj2bAzLxq0DHc2gAOBQOYPL_xnI_xx6rudDJgoco0TkqDEauUChIdgjMmcXWamaXuIz0RWCAXBg1QmF2qPd0hLTuyRz8zUElLTkL3KIxSOjsfhEABDIFk_4DPVeuHkXRw_pIlSZfTGXai9ia73R0Z4ioozA5BGLczZr_b3-wXFV57bzrkIEqW-7KVO_cIeN-I_PDjDL3hi7b53Hy6VVhRZiz6vME-HP363E5W_EYnyzpmNFUfoaRPPs7uYUZbII7s3L603xL8wuoQbcYuxsH4f6cNNe8O8mkzYjlE9kDmc_BUsZRCvzW0I92LeAZ-j3ULWDdQer2dhe0lp_RqIuo8hNy8cXdiwmXySeh4X2SmfJ5TUR7PFJBth0K4uxcJ01hD9D2da1cVTVVh8DzGW1q_A=w1680-h516-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/7cljB_87bXhctwlhqPSjsLxDbpihO1qAtZRq91jX6evSbZ3EUz6ghL6pNXihHB49EHXeoxsSayZ-fye3JIlvCFUiD5orID_v8enuywD02njlK3ko75Wn-B4j27WF8FScgkjruc63h-V41hB_OslSp1q7levmk3odTOEU4NL6ttsh1EkkTmx4RGjKT62mFmeA9PfipUiWlCNFPQGFede58R3psg_8ss9I44wVe-8W--USsFtYonMfOlfU7yAB0H-HmFutcvzVtYWcf9Hz5wNn4u5khs8YDt9DDqlNqjqFw9H48SfTdVlgYsVhe9y1ZupS_qSg_XV8daD_QollqRfZGUk3bDKL-2hbRM_-SYMo8KnWoLZsyOa1TgtC8INIsAg_hjPd6QVlmoOP3LHGifd4F59Sl1o3KHGsg3nZD8mHZyH91eB8DHxeslS6z7GSn-qCnpe1qh1tO5mKtQsMf4I9za2Irod_5g0-O06PMeFo4XfSY9Bh9TdM-NDlEX20J6orBjEf_9XRiJ7vdHnVrvyJfgBAHKOD1AXS7jfyPvsy_maduBM1tF2nMwOMe59iSB-QH2odC-UaOGHoYu9tBXqd6xS5aUBw91IQ8lLmucCaV_Xq9EK-RWIoL2JA5lprIr33PX0skRnRnxzLujkfeCDCVuVcifUAjV-L4S2NI4V5bdVcmXNPkVAY_ZrNf92gthSAnR60dIXzT--QZqtmL86-YKFb5g=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/K2wx0n-IocTAg7hBV-Sewe4D5E46nXIryLFIli-ZKHxCBP3qu5Yf3n3eeSixBSDHU9rbDFI8Y5fTh3VoycoBoilOhAw9YlgeN2x2JTUpcBqNZOa1sqHUDTvTIEwsl8btslNGC8a74-SDbJOkxividx_brz3Li1asYnaSgkUcn2aDlUdrJsGxObMJQ-O3GH8gMeI8uBxpzuGOXJqRTnHQ1rTPHRpP5mjlkNg1ig7WSqp0BC1P_70rNnUCopb7zbqnXfvxspN-bFOSTuLJPAcO_F2TC79u2Tzc00d6Faz_MFEoQ0AFS2QJ78yeJrS8ntVdJD-nEqK0k-K_JdAXZ4aWfqXsE-CT1iPq3uZIdRqtBGsBVifuNmNaJiULQgXzThhY-FLb_IMHGVpU9eIhgDDZRj30GlHUaMno66YufAlcQhoFhrde3xJlB8niZ8SCaX7BkDDoH7Nsclt3YhpAm3dbIohgKd5Tv-vO6-pTG9Qc60_meVaU153c9DwcLkKvc0rxs00ei9fHJVvlNen000TLn9mZahCMlkoAVrLqfqYqIbcebImG5g77Q9g2nj1a_2uOSNq-FVDnJfmZyCyd2kv5S10n8wMEzh9PLXp8WTdohf39Y7Ux4N462dUn862MTfWAiFF_V4x4lxBZKtunqzi44HHuzfm1aVW2b4G_Cx1MOYwX5mQ0IorU0GcqQjtlOF39MdzqDupltaOwM-qN9UrY6DqGeQ=w1248-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/ZOyFpV-4y2aiVqZywLV3C0KQDLusP-TtyuxR8orMYPmAj6UANU-O-OgvTOs7wauTd_3qQChqEnpTLDqBv1GiFv3lPQLtH16YgQ-3SkOVL2fdRaprZa8Ok8DTiLTaNepFNMSoGC36UhADxDIztDwfSWWujNdqFa09bhBqqce1eb6Y2ylpqwLiDqBicXJcBc40CAFdsFcyjmcCj1OT15hz1wXKxvBo17LHWGZvlCFnRSlvlWx9mpUpP3yliCawIHn2z7JOrcTaqtwb0FsKNRucAP6StlI7vmNgJFWrF1d1ZEmuZv4J532snJ8OWN4FVVK6m5E_RPHyadmXmUTDJkpmOT0VZ-Ep-RP_nni7QBthzBvJtYWb5BRjbi0dEc-jlK9VE4wL41LfyEzolVZF5SEnDRobJSh_HV-77u_6jl3hvTA0xrV1GFeCy4l-2xTtDnmuJg2iRrkQxxuW_6KKg7dT81YzfPxgPMUdW7RC-EJ4-zy88gcGIz1z17i7GVWYKu9mIMiji1HxqE3HI3Syx53jlneX-CSkciuzrY3Rxr9Nr8F8ozogOn9G3WEEzCbFyAH4gT86dXFsB57-Cz2ypqvZ30DGgtg0usLEHFcTK0wFnGm3dE8iOB1T7BEnQB7CFOknPmW-7tI9GmscAzHr2q0S3ep97505_KZAwxyEimeyXVjUrk1Ki1mH2aiLj--G6vYrT37jg66x_EcxXyQtvkJUpZNDoA=w702-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/HZNIMs5yQoCCDos_c8PL-GLlHBiJ4UoMmTJBwjD2gQcQW30im_Qtsg7unxX85ZD8VlJYNU0Gm-kUfaOyffMx_LQqol_Y5up9oTDecdobBmK9bGKjy-1gL_CckqWWwe4LcJbnuhwIXR4=w2400</t>
+  </si>
+  <si>
+    <t>C'est déjà le dernier jour. Ces 15 jours seront passés bien vite. le matin je vais faire un tour du côté de la plage d'Ipanema. Dernier repas et dernier glace à l'asai. Derniers instants sur la plage de copacabana et il est déjà le temps de commencer le périple pour l’aéroport.</t>
+  </si>
+  <si>
+    <t>On tombe sur un sentier qui nous mène jusqu'à notre point de chute. A la fin de l'étape on ne trouve pas de tout de suite à un endroit pour bivouaquer. On décide de continuer un peu point on trouve un endroit sec et à peu près plat mais la vue n'est pas top. on continue donc encore un peu plus , on traverse une zone très humide. finalement on trouve un endroit sympa avec une belle vue sur le fjord. On est un peu court sur les stocks d'alcool à brûler car on n'a pas réussi à en trouver un Ramberg. Il nous reste trois ou quatre repas et on a à peine de quoi en faire plus d'un. Alors ce soir on improvise un mini feu aidés par de l'allume-feu. Après des débuts difficiles le lyophilisé est chauffé avec succès.</t>
+  </si>
+  <si>
+    <t>Petite baignade pour se rafraichir. J'ai le temps de profiter du soleil encore bien présent. Même après que le soleil s'est couché il fait assez bon dehors, je profite donc longuement du paysage. Le ciel est bien dégagé, j'attend qu'il fassent nuit noir pour observer les étoiles. C'est toujours stupéfiant le nombre d'étoiles qu'on peut voir sans pollution lumineuse.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/Wz8BwyQOBmhxEcepZnXjbzdmDB2w1pr89eOzOFYqv9iYePAgomDg5zDsGt6myzgZLyHK11bLS_9EfnyAA1sx2NDHfeVpi8SaSnZ8pcVsLsJTLWOc3zz9EBSw4jijouxM1_rMiJ_zcdc8AEWwSzpJ39K5J5bI9qjtHo1hginQb4pfj8prMn5LN03sClHmadPozqkq2Fvq2I5CcbKGcPuYeRa5kMVuTdCVIGX9ngp7OQ7mvx_rmLxl7EqlbkSTMGXhx0bP4x_LqUJniCddpcPLaS1j4mNQLdIzcaA3lE__kYN9rPMjE6xwCtWKcVUpPWDb0WAGZxntzMd37vxsf4vdCexVUm6uto8kSdaInY4m3OAOiw09c2p-gu9yqtCzsfHehkVJb2Q6u8m538_X7qxH9RhMjqoMe3cdofj9gFJKuUl9bVhxdNb0hxfrr19in4G1ef-xzSi0kRXVwQHAc-LCYrV9CPj5pn4Nm8KeWafiYXv2P9EhV-N3D-tXEzlnzvp6WDtaDyLLLb87zvVyGAgJnVVTtO2MzKbYcY3iIMgh5f10m4rXeKsqoDy_P5dc7oxcO66xUe11PkQr-0iPE6j1p7HjvqzTkMjEFIbLvgB3nH-y5kkFq7otfs1eWhLuV7aJM51h4-Ldb0WrA35UbZVqHI-pfg0uA4kp0zV06WV-rJFiNEkmLZUsEmJscbnpOaoePtWeEUmvUGjB62LCypoMcOu_EA=w1680-h849-no</t>
+  </si>
+  <si>
+    <t>jour4</t>
+  </si>
+  <si>
+    <t>jour3</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/VuJ_IBh3xoWvrVWakcDNy_kOmrQ3PWDPgl7RQP7RWnCxw7Wa7W8nYpMTn7resr9bBZKhxlSTD5j9RgRMA1sE--UXtb4Ct6iBCaEOnWNkflN1mwAwOu-D6OkOlEYy51LKclNJpyQfouj0CEobSjTl3teLyuQAYP6PDb5HIkGvo7aU0NB-E5rgrw-MvuyjjA7-DD2Iha2ErESuEVKyCQO3BbaADPunBOBu9re2iUkuPB4jZQMT1vhQ-LdFT8xhYRTvZ68ZlUEJCf4pykoQxwEfUjfMLmIy_4bO909FjtOK73sk5UeMGF2198uwzRcsUZX9uHYon8FT4GvjdGKzccGenhqIYzwdQqaIn5RlsMT1UUqJYx4Fmf4uyv_3jfL5af2OtDln__kOVQjzB0Lj6Y-OS-QED6J_eCgIXVFXzl8rPOwoer0wzgDMU0XdFmKQujcuaEY8LkLThRIZrb9TnX7G8uJ8XGwnXtHXUcaLPh_De4ghkX3s2y7uNIj1HQM-HQyjAB0Bf5mKLfmXN8u2izVTU4GqTqdjkOalFmVaGPBVTRVmXfHmVjrn-pYIluCNn9V67neZJPwoEtMWsqMVyoOKLV84jub-S13MaX9mQLwaR1WCk4w5MbGM4rJ7PVVDgND3f4HLTwbejgDDCpUlL3AZb3NISGvkhcvfI0YnpnN7WdPed8FNDtl_sUltUda4ItVADpgPNhZiv0xcFm6NfbWWnJREhQ=w1410-h936-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/21CzpjOtmFko60xiEROObGaTH9yDQPGAYGLMMjnnZq0JoEhitJHyVJA9sT74Awgd3Xip5r8guIqAQXEuMu3eLswzJSMIR-nN2ipcqInDOpSFrIDLV_t9XB8Ex72BDkjIkDD1TZCXJ8KIG8pt9MjJ8kSAqrs5nOjXNZgbnO4hKYWIFjMMH2HLyofDSepHK7uaMq7CRjOa2te64vfICiPf2kAJI_k-_NalP286_lGrBdj9Fy_uRLyqOpcID1uGa3Ug7u3KvTFcJEyFe-d14HRG8lrZXx9MLqwSDB-cpe8lhyfDPnhRp6imrTbu1dHMno-VZz--RID5SXvb3BlyLTZBhrDn6bBaNeN6e3lWwXTdLsrIGTa4O2yAnPqj8Y2D0-Onsj68DF8xvtWXPEf7pRgT028tCanFCabJGz8nmsmy70nsBWd1qOVMdNOsSBQEcH_a6go1_Yw_Vsw8pBElVFuEyDeL8cmFEDRmF-CSii6O-ak50igX-HSkfST_2d3DYgBKwJkJ_CdRwK7N_RVqASgb6Ewwkq30YfBauAhFLBjmsqwiCdnBOT2db7lRdxynHSwZ3K3KP0-BOUIk-vWYp96-3TW0_R-bwGUZCVCzhNjyirYFZuD0ROcRxkwU7NLNDhZEYjeZvfgjckT3xfzObl186cmY2vjiH9h3nGLn-AEH8z9zRyH8ru8xmf4XnQMLGnYfkJCzfuFJzxW7HL6UAJWognJIrQ=w1433-h937-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/wYGClK5FrId1TZ_kGqD6daMSSu31W8wJ4M3V66ebYiodui0vto-UaPg64kaFyywFppAD2DMo2xu1tAPq-rqg3K7lM7tAGcf75K4bhaG0qez-XLuSk7vqqwfrXabb8yGdfrGbi6bkYdj01Bl1NEMZjtrNNKNpUcVrwbUj78Ecq9a3VzzNkeUcviaMIWNhwMmPtiZgCEPb0Lr5eFPqbCPZFPeJqzHdR29g_EQ1DKM510sb46O1qbvHa9djTirATC6B9zDE6JgiwizSHSxl732Cbls348pOIKP-0-Ft0jDQ2EFQEazKITBT9Vs5cHCJfdM0vdx8eiS1l6P2-hKPHuIA1sdOFWyAlOeRjqVEo49uUEpMbKZHCw4MUfoxRsskmjDc_nk99SzFCvK7N-RNb-Vm8t5DXJAXN3sOE08T5xDIC1yT6-eyNGqAHhJluqOTGJvc336Ns3Ei2LXASggTVLkhGbXVXxkynfpp-EXM_5zU0TLQNKhdsPBV-DXFZWXbta1KsBZ2umzFCxzGdN3rIpAcpDyCXzEOaJyv1XZlVw3Zc3nS3gK8SdwH_IKWbqSWJeSHKbwDgmJzygALS55MdCTWIE_diwlQztimsYa_UL0IDuDzFx1G7J2ttbzR7rDvHJzouIr_NJxr9Q3gsdwqj3fCXRkvirqKwBOhxyA0av1C2x_D0NezT0fVd1XiR0AhLcuw--3eT_38p1WsrH0jkivOKr1udg=w1681-h607-no</t>
+  </si>
+  <si>
+    <t>Un peu plus bas il y a plein de framboise sauvages le long du chemin. Elles sont petites mais elles sont bonnes. Encore un peu de descente pour arriver à la station de ski de Prapoutel. Il est environ 10h.Le parcours remonte le long d'une piste de ski bien raide et en plein soleil. Mes réserves d'eau diminuent. La suite de la montée est plus douce en balcon le long de la montagne. En face se dressent le massif du Vercors.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/286OifA7FbRzFTAEQ4CxQIgTtBVD0DMZCvKyX9v0r0_VeNOb9BE1JiO1LR13JNx_8I6rifdteJFwsSpYNRY0YyY1DQ4KmnVm0dkvqWTvMvtPM1ecMDwes0GsT-tDzINHi15jDW-6cBvYEUy5Ntf25FzhP3PWpZUjP0YUU1PE0hJiaWcj9yL5DiciPI14XvkXjTVGfWnh3og-MyrmkFFswFxDaIjgBWYtwYSfRv1vEk9dUOOViCYqPI2ko2oYyxPlbNk4yhYU8hBZo41n7j092Wf6rNBwg69imwEyWf41wm0jAaZaI8ebvHOgg6SvyoK-mqf84HJsvx3xCUkv8a_SNRkBDJ3ifMzOEzpQ2sKxBIpnMc-FvxyFoesSSFbGkCNnWmRSCW8c3X6c5bsBZf0VDvWX73t4cKY2xjzg5MQwaqPPJ7UCmhLraLOj2jvEfipftpgpkqFKJDp1k1XhjttYKdog_NZgf7ZbdhfCGktqfUJR5xK-J5MHyNi2z8wfcCzAEsq2RBchIL60jkFcHLMyYMQK38FHfPwH0n4rkGL4UwZSEsxjhgn7P1yUfnw08DQkw10uJCXo3GhTKNiZt3WoRgge3Zrg9EE3yBJCimVGGzMMA4mj42sd4JmKyob61YySzHN4c6sj6R8ag4iu4KVtISPI_WzGIhU1rukeSL79S3g2i1588Y9EjsI4CYgJJRaCNlR_kO1rrAIrRZ0YfnvFziz_CQ=w1680-h667-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/K_cQCQFSeLqUQ-eqxC43y-xOYbmLelnmNlSu_xnd8_TGQfmAr6kQ8NfrmSJdC15yyq0Yn9yVac0o2GPJCeQunTWA11fpZ_hYClY735QKD08vs1Owetgnijk6ULtEENkKLnOtjl-7INjfcSzGkHAXGlaXu5vVWWiM4vg8H6Xy-kYgXaNrKL8gbhJNp6KXLJA0vgJknYIgo8iT4X5mO5STXi-47Oq7kNWnVo_mixFh6tmODRIR_-zPw1xX92kmWRpdRKkfaYnjwjyMFhAx-ihI3kjZnNE5KkFb6QzOnoss0jXoH3RkPWX0nNwenNzwxJR04rJWBBTHmPA9b3hB-Htk5TPeyA-cyYME6J42WabGh1nrNAvZiPT_H4Jju2nqhKsTYdZI7n7n4MwvY2eA7X3Ga45ZiFFHQVMVsE1WypnE6e1gF4ilEsrql_zIb6FRAQ2HcAu4NjVyPGqjcc-5y6BE_XoXomOxQm9a8Qeo-3mgrl6C0npyAxzD73Q53gOQzHOln8V6fOh2fpdAJ1sYT2qi7fVp9KQNp3yMCoqTlCu5569n6L3B4zekyteFu4eVguwZ4hLV6SCoil-8e90noAAdUhch1-DrghBCMrF2_cDm3k_eROs7wpCsWDsObl56aUEBX-gOHhtTCNX3eN2UzyukjQu-kNFce5yH-PZPnQWo8YbvX5h3Gwb33C3zmTGOV4_QHkBo9g5qgIl2Go-xvAWSQOMW_Q=w1920-h640-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/jdavK7QkoHfQHwtlfPnpIm92MqzNHASALmz-s4CEV9sCR1yZyoJKmg__ZxROorlZA69m5T0HY40NQhLF0Ut_ED92xLELDNeImXOJmiEF09odi0fTy3qG0NYIfMlloOXqcpAyBbaiY1jU7f2SIU3ogY_XkPCfim63RlgxnTF7rHKB2pOz4m6FaEKYIkO1QaQg_n7cZYK_b7YmWCxmhAk8p4DlNJYtuF1tpMp51mGLKVjY0JoPswmpJ5gl0UuAiTqmFLoT8HodrP6vAUvIW615rA7g6bN_CqZyq_7iheBOC7-CASlpmoH9enaE3LbXp9-g6tGFRCNLfJBidIjgATK23B4xIfzGqJlvz4mgcl4IhHDFIqMl8gEvkygkrtaMcdf_vGUGGJbPwHxZ3t24_R3wjG_x4hUWV9AReBufnm5IsYRJrEbXjBiB6UujwGd6P6Mzevt35v04hblDHkQwAaOb3zfQKKpcO_o3_xpjB7Elygx07HrtdcvZkiDnfp-1SrT7_pZzR0H41ek8j39EsheEBm-P8JVuFPbPU0J2wX2hC_K1ovOHI4JVBPlc4fbhDH0Y7Mfx1q0ek8AI_zxMF34_5pkNI_exQPnluYJeVPC1o-26yss6CIQI-uTiaNMZfCXWyaHGNLNowAhRnEEfS6gL7VKCEzUXc86Nwjg-jxMuZZw652uZeKnJwT7gyaaqQj3QONeP2lr-BovHPmw6THODtZuk1Q=w1707-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/14z4fTuB3tFskO56QGuqxwcPG8rkdFWYLMM-D-Dj33lKmHd0xo-0dTLTG_r_HTVoKKMFScWabSdLsdbHhw2H99CRVmrCTiiQF4cw7ozsDUfosfv0NAyIebJwodinuMPsgXuIXUVogm_BssFyKBtFR-CLROp_PQ30xOyNhJO8SLNJF9bQm8gw0eeKwUlJze3FyEcMQDieqtzDYddLn7h84L94Nv-dDbxrYIVcSkj5ULjISc5palNL16Y_gcBkhgfYynjKWYt9CmLO3DPcvo7jy0iKrfoT7zCHoiIXkHY4bgeDXNByXOR8GXYn33P4IFwqEG-cgDGEuutZFAu8TFMFVjpI4pcScvTwCFpb2MP4FgZKOIF7lHBNLcoKxoB1-x_R-aDx_GESAXOkiVVrJpfTKh6NKXeLvsFjFMHPS0g8eiqZRgPPoopnZqk8ruDw0mORyzhwIjM1WC0scXiv5HspdneHPzhx6Z9p28eJhUhRsnYGnuZGw2OnccL8Rginj3wjBC8G-npPe51Pr3q70UW4J6hcN1-mGl5_klXN3iQmjlcdDHcF0djPPv6_3ByKEYLaM8wvTUorWNM9tSMg9-tm9L-hdUWT9HYMrukMo0ZVNRocpLkDwsv2Rb57VpN3BzG8IR52Epp9dTqcWoUMf4ChWmHu0RA-BxEhc4bwPT0CR6pYE7VwNjOQDC0lWHWSCgIKzjyk1v0VN5QgXV8OX_Kq2GyuUg=w266-h354-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/t1k86IrhBlCrHwca_gjVKN6YpUOWTcrkITLcx1nXFIoLbyzKDQSL3nLR8sJbsl6pGXqsur1Ah5ZhNYI85Wb69pfmI6byk4fWThh7Ysd1GzMy8uVagS8ZReICPQ6N4eze-6jB608v_4vKPgvXS7qbv0_zPndCkdTpMT7SRVsjfvsgU4DP6NE9tDOHodlh5eZHKVHTodLSHFBHMUTldxvWdK5lAvrF0WQWAglNrr0ZZ4xvF0wcG5fD7QXcTaevJG5RxCOlxg7RNTKDhzAaMCIXxay5mrC_N-i3h9cJ54bFQNzrd15oK5ifa_InwFnLkhy6wYfID0a0f_EatR-AqMWM4PDBT2QzdtJdEIEioN_qcP0kbl2hR79AJcAFav3T-shuz4t1bZzHEat7qblN-4u7AedzTSEWFOxW-z_eOx5SgYMcczonuamiKctKZLkbFmF-MhQN7ZWeOnYjo9P6jq1JLcPc1qUP2weoIE4_8UXiUy5P34N2iH-X2WA8dL6aNNWu4SN2Q8VDn8ZWpfNevNpfr9xNtn0cwFAi7QQnD3S407YfG_XOrFdg5FrDhefl_cF1bN3XQ3img5l-UjRxvRuLMox236P9T1oo85OlECeTFEg1VBN8q94ODJ7blCxGiA5A1WWTjeRAg-92PVxNZyz2iH39Q7iqONjV1xjN0g4n3jFKj4n_Jz-9Yf-HfBYn1o2GHEuZXJ12Z_VEmf4wxMphXnmfjw=w708-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/45TSxue-SnOa4MkLgMREkUAC1kbCNqY7cnmhHx04G98IDmPaLuej82eJ2qpYr7Jf3d7c9IIAQgan6xQ5pIraIYms3U4flWcQFVuyJLipOq-pkcMCSes_hXuUWa5dt0WkASK8qcSIv_83lVc9RC_PJO5uAqaQcKxizOUopqPuscHCfV2OiTlhshqGmmOdZNpRjV4NSGd_lL6tIaHKw8ussiRMUuTkQS_xtdaZdPEP0la0gNpCXqDuf-5ggL6rk5rWAVMXEzUiT-hnw8tF0A39IVX78QTtTfGC4nb50tUflFL6NSuxizcBi-_WtPSEcdk3qEvGwE-to_Ivb4HJMoQck_9vwcEtT2H8SrDnAu-prOCG1Za3QLQT2uLauZbOw6mCO4vQd5lGKZKte4u76g5gzXNBRwkB9TgQspF3T-ExZEw_1ItDXlCZUiDkTPj8wxOtL3AIPo1MlAdTJfbrl44e1tUcSMnI-6GW34FSvzw3JOxfzqhf8WLCRTE1Gh4tAf_UkfhI8PKy5URmvCkP6ZGcFlFz-iDUkQ2qFdh0XtMYy989GfNZE5U7k6hWaqDuaMIQsEwuWUozMYk1iKHfP1H3QIYI4lhX4O27LcEhK08qpq_o20kLZBcHYEQA3hEk2vSer3ePFWRUnZkgtMbbNwiMFAdhPRx5Oj38nryUUyklPQzSjUuOTUE9eTY78HISchXoa2NUqA39rdlMyYH5UYz6QzGZHw=w1916-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/WIHIqO07xVMe1XpDp85xm1vPDiw0qOR8pvsUYFxF9Jc7hlq2-kWIZ0s39yAYTKxgNHsmooNeAo0cQ-M-C3dgWw74Xm_9Kxxm1YkoVhpZA3fP8gcicClpsKnnWCH8tAandJ0AqwNrTI0HKiUYkKGQtEC5evSpQbgvfXD1SrEXruKp5p4nk6B9brZ013F5iUvcvPrxe0tUFiyh28XizHt9r99YRt2WDwsP7LQKEtKwHUdHjFpOjbSce0KdDWCXeQpfk7CsdtN5JXe5P4RiDfXw4TTNqZ8lhUCm800MptwjsI2UGV_fAi_VdDyeoCn25zh9NoDWnI5TJk3JW0CJFeD2VgnqEJsFar3mgDp_zzQySQR8EcRRjiJaF8koQNvE2yXzfkUBm09MsBm_Y5zmsgvlmE7fJ5n2l8VVuQ8BuAe6LP-Z6y1zw9PSocUKApXCKwX7fBoofJf7qGBvsltUYocs6lDtELWN5w9k5S5e9-oKhxz6_b8sr1hdW48-_a2SpaOGfNV_QRKSQmGFhyOR8JbCS4fX4sBoVfCTYqT77LP4Q9F4m74DcRm4TBNnunFXjLyTK15Mrre35s85MU8k6gVMSvR-K9uMafr_Say28y9WKyldme5E7WrEfNi677WYz9ZtfiWyLmh14hOLo9FeDAZxQYO3YgDzUTXJxqnp7-aJpiu2yOLFZO0xoDsvCiNqoITT80QHkc95YGqtMNkc6xRhcSMl7g=w1259-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/xF4-gPXj5jm8W_IZ5a5axRkeWKcvrOxhVNcfq1rbfUgm4xSvahw9uvo-2NIy7zVN1_ShO9GxPDUNmUzQDYfFDds9vk5bmYYmG6Jt4tOWOxJirN25E39xSaU7xukoJeZDCenWBlXHyYICNdGubVYHJqRK6jCMmf45LlvIu4goKux19IJ1eBFKy4hLiqKbAYT5sRcXu8keMIz-JJ2FI1nFCXgey2VENjvG4LIRwbLiG_YY3wv_PDdgJgs6d_UMRvwpIKC2eYCiQGm3tnaC1ep3H2Tigg2vhFHdsrTkzO_xWxAinAn_KyjD9Qg7GfT-MeX8CMRuCsQz9io1VxgB47thbnk_eF_pbFe2p5KE8ya9W1qBIo56S7CnMjkraV3b1uRsf4KLh5CtgLj82Z-hnSMJHNKwhb1DLQ3ss07bU6ubCvfBFBsxxONuVtZDVNTQKwTGFty3gAgTUnVU9GF1IG4yB1XQ8oDQA91U-S_cMTZ7svw2_jDdsAa0Ejj9UCpo1R1DWEGdC-vPlV2XLVIQS8JJfW_ijbRLmLeJYtGJu6bZIcO-k-vmoAlwoeqHxCPwmGjwsFP6yIpIDbjgvtdIHvYXWqCsUUvKswBVt_SL-572Dgg1YGjfWTPzXwBgwrVdLkPOimW71Bd2GpVsvdLPR0q_D9m7oetaRJzdQK_cVO5LkCeETT6LEMW88E_i8D28o4ztf8V8AI9rqcsOaTfC7uCgEVw7oA=w1259-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/2hy9YO168JkZ5qRoAgeLOAXy3CNKNMCdPoo2BZS5t0SNsFYlCeJfpbChQN_1a5wgJLc98lDmSKmR9pv5ass6mJl6oAtXVkOkkmMw8OdcHvLQoS8MtNVglKVCKQ5syo5yc3rCl49yrb2IsWeqPb3OWIzdgaCzjLVymTKY2sgC4AlzxvEohN9BoYPqVUH3B4-dMdfNHA4id8fBWkqrJ5T6ulGunc-f6DyzX9WMSmtt0_fwpSteYc92dgr3cf0wpj1vMREJDM5Uf7dWXF7kvm7NCuoX5Rgcqbw4xXVw_zWng2WKk08wO_6TMeWwxEcXgOnT3kjMjT7TN8TchhK1NAVcizJVYawNm1jJdkwFhyvGcNHBQn5t1UmjbfnELufEfafmcGGkkxlmtfqI6oxunSBV-prUyfgJeLZKB-uEMeqmAm2_LGDUyi1QL8_g3diP8s_wXsbCt6V4bxDqRBimemzlWIbj7Wf5WIqPlyWJ4L6e458_oTC0V1gW2Y9Wr0v9YUfdUs8Veo7t_blKXt80S3YqcsXZbjOz5J0TLRNjOBMKirsIHmO1at9vzrVclxqpg4Jh-UrHMHiLEtPWtriqeGJyqQQ_kqn1jXiT9Azei2lXvT2O5MPRURxjT47n-V1T3y2hUhobrRJsDbVKR8v66h2XqJqbTGMrlbjKKEumrlQqwCVRcCYNj5bTAY5BAcOeLyuTecma5WfAalRr-n7-Q67fXoqmDw=w1259-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/T_GS4UNpKIlxdqIGoIl6TuWmCchEWoVN_OCHJ6e073E4_Oa8fUSFdqOli5gmNWT3Y8-APUc_YLODVbifner6oOq5iC5vfE5kq8ZTdwat1IMJT_YamxQu29TO72PHNRZVhVeHbxzRIUwSRBf1JZgikearLnPbjo-ekWHyjIPT6s5j-omL6-q9F9e6wA1QJjQUgOte36r2hzc8_bchdMFXLAnYWuTc_OcLjKvuDypb7gRDlZ3FktklpcYNoRU4ccp74VY2Q3XIZ4EdzMnl0Zt7bEqi24GOucvHtK2NK91BxMWgraWYvijc-6RhFZLphyybPN_V21nY4PQxJvWBrmtXyNOpYNKFw_82SteCCPIKCgNHE8VAZRfE9YznEJ_NFRvKAitI3n1gDOtKeKmpwdfnm6yRR9o1fMCHK4nAvCd5YiR5C17GZ-8WX5dndv2beo2Xg03C9qdk3zaOMwdDYPWrKbbpV6fFtW1gbjwXiJxmWhinbuSrK5V8QYeQZ_LQEnHz151t2H44UpgdJKAVDyp1l-wpXXbzfRt7-RXfoPTy4UXuiN1qLVEKrMCoyPmso7mn4FFfa3yvTVinT3p0aSRrfDphgsJ5qW47ri3Rg6bk0Y714uZO5t4lqonHVvCVOPjhGkFRJlWMbJA5IjC-iZ53cvh7SUxnoOIBcyzDGYILCPaM5_cpm_11s6kZal0-hVr6rIxKu-wtIZ2wlcIWdUtNyBw10w=w1259-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/o8Q8WFfMNFaiSpre944LvoHwjAyVNIPi38IF0xR2SvzHAg4AtHJgHtj8bGHxlzU7sSwIVHWAWF4ZPM8qfEg4xL9m7TZT8tSRTfg7U0xNFbU8cKJx5rCw0aNO5kOA8-EWTsJoyamed1FP9dvnCahd_6u3r8bwGrrC1Eny9La4nEr-uYA7nqDenLjtt6eFmCvt0xTqobuj3qLnlI0W6WVjINYsiipN8ika1HukbIAzwDFWnenjWSLx2jxHqbqeCbtu1zUKcWRtSvsEqP9UH4m9vQRx8xPwUQ3nZ6y8l47Kj1KNQQEn-lwPC_DM3AsnCDF_v5BmAUyop7wkRkTQFhSOPSRhZUBfgaKOOG1bBFjzdbvQXMei-T0tBSPBGL66BHSoH0PqKFkMosiXZ7Thu2Tf0-4xs7HLw9t8Z0HZ3Uk3I3jdbiDSFSZruEm3jiD-6ujhFavdrODVw3JsiiBzkKeYnbthAxSlFJveic-yGi3oRCQ3MJo2yuntiwmArEwzdGl8pwqhGW-kX7TnhDrmlFKIVMctTkGkrA3_vJZ1dXO5p7zecajc1N-K8UUU0Imbg7J4IDM9dRhnuhLEHEaDuH3vuwJeME08D7h2dpl8At4j66a565FyD0dYlscRQyKgv-K0np-lP3eP2hPnonPjPsIHXOh_ZUBBowYmt2WLz-ByLXHLmVpZ0M-RIS8zdLlQ9GQMJQMSsrInAq2_h5qM4pJuArvO5w=w1259-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/0mkf7FEpgvJHKNymKLO34Yq2XUdFRh-PFKgb_7hd6jzAQO22_1Rm1otkK2VgIklztQZK9Xydouy0IjHut_MI50ntCiIRYrJlVpMal5TTVmCainDkohXU_wetQqrVzQRqlqIAilhpVDFwooJA3oq1si9eOvEU55liH3n4wwjFRuTOQuh2LvCUq-twwN0-dGYDqBIWwFBWMfLskJiosIk2FghsdKqiPhqBaBXxcQioqEuCGj6jJn87ZHPy6Z-xJXlCbRkOdv4s8QoKH44CMB_adL2sOyAdXw9dQHe4vFexd9F_JmXZhFo3f2JO2px0w6r3m39h0I8bRtEpXrNVNfvr5OAC9lIeELF0_q-cMfrIzRq4H3hU5e8E76YJduxBm9N-uc13WLu4bRJEnMMU7J-7Sp5bEYq8hdpFTdN6WSlqcpeTVy0LTeWWfHKGa2HEK5pPSK4rZj1LwSsRwliqDn4tN6KWNoDOqZnwkRDG2Ue8KQEu9UmWzvE0YfQAxJGm3AJMS-hm4qj1u9qumKTu3-JmOhrxTy9eIJ6Kc4etuBQ9_D50yRv3VG7Tbun3qlDYNXKKuJLKv50OPQW8OLkpU-xTwr7tHAXEjvozp24Q9k1Z6IlRCDB7IIOrQMHsgNoZss9wF89CnQgZGfad525uQLY6mUW6bZzwRjX1fvFnRfz-HMRgUpD2U1rgbDKf0QnzPAaqgFm6A_99KSzkQPvA6fRcZ_1wng=w1259-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/i_7X0EHkoEoWnUvh01lcowWti2HwbtZYmFzFAoXk-ud3LO5TtONpkBWHLH_o5KZIRYZ-FvP6gzTCiYSvuEzJgvm25nGG09tGg9VFKtaRdeLkZdxWdkR6V1UJOwOJZ0KGp3NAq7ZGMelzNPPHZgx8aHyIukXvvB_pM3ab2WCERRkqFFUUJuTOn3lIK0pgQPseb3UrfhQNqTUsVHeUHhtm215PtUGZma0kBYAi_UQJKs-SIAzJ0ZHzQvrDWBdxabFVne98kbtUZFBoSwCO7X6prCoSfvsCB5YIbcZTIZGautsSseC_Yx6fD7Gc-3dGnuEMCRpPJJPsKYHL5JQLjs24JAX9ATSwqb4BBJyCjpa1Vyk8hdDOwOX-34LCpsyx4fPaMbBH53_fklBWLpyrCOsK0AgTxd0XG7ZN8Qex-WWvYYGtpNxBos6Nd2qwRs3zxvlTQTXXauKo1MsHWpdASIp_oY-SKyNwYL7XZ6ysMtZa2TDPHZGrvcRiwCTjqTQTXnHdlXmBN7ECP0Uv-mKL3TrVk-zIaMfdyoClQ3dl6Eq7zkfGS7Ia3258-Ah-Z_kosDnlLB4BELWMrvoFSOcAHgToPt29oUKGDBgNiAaaTuBkFwJVoazDuwlkHuKgHiNrbDjT_I4aaJEee4Mh-WHV6rp9kshiDidsfwANglP-VBAvfJmZ1ilQ6-cqmOUNrK9YkM_8qf_rC22_xM3owp3g9pn9g2bTHw=w1259-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/OxHyeKwKAisMZp2n_I4S20mZydIz25mhxpkrVxvuVA27BR7TbmvBxqC5oTpGvH0C7CcEiD83Jw-KG2rUbpCQh3OgVUDPuR0Ovtr-aL1eAbaX0qvsIF4-4N8uWCTiD1VYvfHF8DoWgNFjRaJneaAXUnBAroFXlMQr2UysUBf3LomWNcLuYLQ2MAr-i4dWG_u1AOHJPWS_I5NTEi_MEduoT2yYvrge-xz6PrzPFXz7DqzsnEpdWDPXpNmVVAxImtlaJ2zzX5ty1BN4XCceXvruH6m-dQ1TvAu6FMsLbecyZ0ejbKWxtOje7lTqzfcthrNvGUKVoQ-PZW4-Mk94vay5w3qpQNF-jiuDTWoDuUUwKzK5RdFOPUJVeS4BKfXVPUB8bu4vpvjdqyUBQ5YCYCzhZvH9m6TlIiHlrnjPLruOVyfTRA69apKd47VhZ5gWBvL91xYfAnMNBtwqYMW9txYPhO6YVShTW-C7JcKobYYfd4CpfU2huMJLHvoIGMGUD-Z3eXq0A87t3q9AR-dhg6WWS0vubHy-G7901hTzrKAmK6JuXY57v9nNINE4wTWr1pz6ByPIYUD8bTreKqs1md0mnpkbz_MHJccdjLCxW2yCbz7fyZ5F8XTfqOBaYTMrp3KLePwHB8Hr6DY3uHIneDhLifz9UO0lZqBKWm5qPN64U-rDZzZWMH8BqUJlL80u842yIBrlYaVFTP9aaN6ADe-b2C7ZGA=w1259-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/qMVn2fhuy6L0d_BNF_33T_gMrH3kZhCdiyluF_SFd40NHet8nqerAbKipqXQnq0XD89U74d90lXYsjIUDMH5GvheTbRHCNWv7ol_vGGEm_-XipgJa1mMezuSAXxtXNOR-DxDhvh5s6-PEl_LP-kUyAKqVDv5laDTfLBVZXRRKyVju9UaSHncuCnvbC9q-UlojH9XH1nq4p8c8hxA5jeCqGLmxRx2FMhxfbKLmp-K8BHgY0RghAN1DCMi7wZHTADshYRrHbzpD69XhO0mf8yg53AFNpvkgY4_BG8n5_bpRJzRS-zZTOiajv8ega1sdnJi_11PVwP0IEEkl2Q2SjlFz0ZgTZSdTvVwzRSV6mfyDB4sF2QD_JkmsQQPIEkeDT1wt23HShG_XXeMt-L6T0OqIZn7_R45pDvEIgpRFO5wjnw3sfLBbLe4Nnd2A1_5r2hjo_-KZ3YUL_Sxo1XAEnhgDPxMXPCzrTpXlGdGgQt_DEoP5_AMaqVl42sEQ2H432Ml2XHjzfSduSswAHD2CrUV7hBLp8tIZzGPiORs8p31qCLlbdDVhttavWu5jXES_I6geV-fq662X8uMvABJLfMnzvskIyQ5dD_D2s7diKZP0bJjcCYXNs3E4iQawBsU61jLnmdMZMm6fBswQUZdGOKVzoOCZf1tDBs78eILC1cGC6owzFanTOSnyW3CeZLjqaw8VcnVAi1YypSiTFlstK6SljND2g=w1259-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/aesUIYsavIrywZ7IznkyTAQH1FjQJvt56IOvpDhHtKv-GOTZsfwW5R4AHNlfrKbivWtoXaJDGAMo1nC-WWa76J8R5mSRrIH3fbTrnCiswBMAmKtDXGZgJ3_AStlIEy-nrM2fOJxyQXS3UBGZ4GJZZqPgeECvx6aGF-5ENOKBX8GWXCA50cm85sf0OLI5QyQOp6eZnnNHZaCKzdpP0pIG6Yk1D5SmUGXONCc4CWxEgUb4of2sWW_aYRYGt4E3crEpVjSgc_SvvOhp_PO5ZC02U2Fjfw_pxei3SWu-oxHsYhPNT5QsyphHS2nnXVgZf8mBN7h0SDTuJeFx0hWkjQg4bcFiMMM1nfNWc259Q6ZOZXA6pfB99NiH0Z6k76_AkgVQGQyXANeOvw8xsDeU4gvIK7p6OnXW_qj5tXNMEIqIczPVWuceTX3I3gCDhwvZxi9AbfGohK7U9u2WAzDMSKOM-ccU1CGGP4ubR0Y2ifygNU-g9miIM8W6DTAl3Ij8Fgx0gMWb39zHqRdlH7YzJoIG9GdGELJOCY9178AnC8-P_gl7yyi_UPCHtNrX_NZnifs29QoWwCH0s9l_bBpYtxbA_ZBvG4arcTAYtVLyXooqWx_0BvgQ5nH3Vbr8oKAOqLg64Wvg0Jhp9TBOyR-8nHSJAB0RfIj0dNJLFz-4qsjigRhC2CjzP71CFmIi6RID748RRZHkWiptB8GtoOcviFPZ8qji3A=w1259-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/FwZDupQV0hhL1FlH13zaGPiHfQe4oI3uYHXxNJflAsFo44qC8q6X5iDUZMlydb-vfvgriAl4Wu8pyTjsX6MLV1rUISPKiM3y3JDtqDoER_c5ZBNUA3vA2fvK1tHMRTJSkepLA5cI1St-zaYkRGPnYeCKpG7ijfRfNbVh74GXS-GePoh5YmqjDnEwNZ5Hs0lGsKFMEI33irRZ3xPVyKNf0-HgbOFCvr0UAQn-DlbEcfUre_CZBIKANtSeFqUS6W0fC-0ksKIrlbpmFpc3BPOu8LrE7JQp-rUz8BeT_7Pi00qDKqT4AUCSmXzYEr36OQOvVB9GR7kb6DQj-rj4XIxk2Ao0T_OP5RjeaxXS2OqNQ4cGg9yHm6kLUabWg281QT5oqv6npfovVrk9FMeYytnCm2lRQYwn_gQypXoEWzbzkDOLgZNwR7mHYFRVwDcn_0OrvjCfhVU4upe2wyEqbL8oEEDMgeQrrEJa-dWZXW1s4qYgXqQ8oprr2SgzZ-RMxzwqXs_uiks4jCb2g0p1UQwR-Zhh4fb6_OlVszqivFcxmgDbd_NRN4gz2iN1I0mJQiOHxQxEnbgnxUozpULGGBWKqRnoCSvTgY5iQrwn_X0LMhnfZihjkJSV69uUiRSQmvGyWCikXSaTHCDeKllhWl678KthvM6NUyc1kpWIe7d_ndd1RztZ-b8ieLohFs3T5flBG3SQD6x2AyQyXq9ZlfSv2gLqnw=w1259-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/skjCilRH0lM2HQz_eSUG4TVrNLyGeFkgMc3imVAy65XGqj0DyR4u-hr8YR66BB72PkCh3S0zFwF0ClY4ZtYLENN6xG1FoIGZeb65gMuC1XmYdBV6VbhKf7TZbulFUDWjfVGtL21Q21ee4DpRcs2H-YzFBqG8lTQ1JOqRWb2DR0_8EkTxQywQUtdxQKP98nqpMV4li-0cBHrKloGzZbgiIPoBSFnESHQnVLLsSS6WJFx5So59KYffzaKaumwvcW8A9LoORUHEcYAM4uVMqEyyO7zcpCAi78mR9_bqlzdMK7wVQ5HdjTeTIxkeSTZNzpBH9jF9NtSDJVplZdRt_tApkZZ_G1YBMP8KTNA1OW8Yl3Y28hn0WeA4Lm3HUOWM2hVqK_q406ZdHOB99bz9Yi34vcuuN3aGHPI1CW7ubAIiPKujaCcR10RrjJGr7gH9c4pv5Jx6Zhawahq3NYzINV8C7Uzbj51YIQUEz2eFpg2sRoij_Co3O5wr5a9EpclceqOHunWp6dSaj2wQmt4eIx5RK7HdHp2NZ_VH8mQKg6ghVjqW_4LJqDYVuCrTStl-7U_q9CwpJRfnWp1IkIez_mn6yO-f7kCB54_bZ6CSY6-IxX7rOTz9w9VYjrGpbWtmCek6TZHFRQxonoBCFei5sPjnVI2-ONaXZ71bH1tL7oKlMpsGJxAp6EfPssWZqCNqcnv1NhZpiBPYRP662ZFaHXkWk0bFQA=w1456-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/vBjEHkH0yfQ0wsxXkxI96O_ex4wIu7QDHyGplsbA6zy05M__XOTsB_5sEYlXKVkNMxy_2Tc6o0moZf02fd6Hxe-hGBAoXcQynH37Wbm7Fcvt5XrCQm5lqUtN_MO1S7sJ3v9BahaS2wG5HioHtBHXcm-zLEwPKf3dK2aMOYg8EN-IJBkRP9Ow9o-17WGpJhzqxLCmGopqaiqHbBIwRcaL1YaOCp_i6F7-KCDv5ve5Uwnp1hD9Dm26FHSWw6fmXr_3Fgsb5t4iD7J_PCkGtabOrLl8zCrrwRdZVg3s_qv3ZVG4JEGSS7MbjR3TExOqpZ4rYrPGHzg_f0aBBrvadKdcyEg95AsyzM9uqGliNSNPYGirUW-6Jw-fHndTXC4-Nb4eUShJNPYJfVl-i14fAFyG8cQ9wTfFxSybofKXaoZI7iJW18zJ3kpustwfNqJh4Sp33jcE3aXGGuglF0umPZGEs7xhZyscz0sBZFlG_4o2ze46CPxbLhD18YXkTxiu9KfKyLh9kg9MCcp2GLhznTaAxdnihqkn_5taieiugVVJuqS1HOP_napbo_Tjyqo0D6ya5Zgvqw5zcpAGDEzOmdiPxxswN010-aK9cL_QWG5-LQnmmvXc92MNDdBPZer8zFuezUHwb4HnewdorD_8h4sQcT1ht7BK5t5R6cfv5VKfbi5-RVAS2qSvvtu-ZYCLTR_Mb4GN7Xie6IGn2rBGuVR_zTW0GA=w1259-h944-no</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/zqKMaIywOLlgfOMyK5cf49tXyZmd_gvuTskK4lFKK9J28OvmrZXLDRjUlVWChoKWr-LM6XXoVRO2lJDNOUNI4Fow-VK_s32v_Zh17usDickrK3FoHNHzYG_V3-dt42Z0yPofe9ragO-r0R2p4zddHfmGlo0_WvSZ7UnM9ZDf0VGGJPmqZV57zbmGSqvXhOR12KX4AT03EV2yvaH3fzSxZiW1lSID-Gmm4UuF3RkLZQxF1umzau-gUZTXsus4oPJdH7JGheDutVgXmkRFFZsgNisBbBkEZCmXNUvK-qC0QE8EYGJ3suLCMwBFXRjys3abU1jB_VHhKTPa3Oha3sXmDS0nj47T-5Jp8tI_9E9sGX3E3qDRTB-IcyyhqPpgt8I5RrgIeE4acCY4CU7IsaHV43CPCDlhWsKwrqsv51JL4ck7TlGLm-HXTTtku4HDwMY0M4MiKxeMNnmUHI1jo-DxuVQZoznGNhw46SZj2qvN9iFm8bL8TVhX0N93dUT-AWfkTQt7j9pt-HvdCYE3OliTwP6ea5QorQYqF-0UuyI8-gee6ASyrSXDndGTEul7PWjiLVUdD0BY2RVYGosjM3Da60C2B8bI8-0l6CDJSZMcemjgDVr_HP5h8kUVnXDaLY1yumwiy0EFK8RzLJIx9YyFrfQAKMBOyJcSHuAKKQ_hf9ZMBSGQcGhetHeJ2-wKji6o4UJ8HC3KMu43FzTSuqgqZAM1ZQ=w1259-h944-no</t>
+  </si>
+  <si>
+    <t>Massif de Belledonne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je me réveille assez tôt et pars rapidement vers 7h15. Après quelques hésitations pour retrouver la trace du GR c'est reparti pour un peu de montée. Le début de la monté en forêt est assez calme mais ça se raidit assez vite. Il y a deux itinéraire possible pour monter jusqu'aux lacs. Soit à gauche en suivant le GR, soit à droite en suivant le GRP. La différence ne doit pas être énorme mais d'après la gardienne de la Martinette c'est plus beau par la droite. Je pars donc dans cette direction. Arrivé au chalet du Gleysin la forêt s'éclaircit et on peut se rendre compte vu la topographie des alentour qu'il reste un bon morceau à grimper. Ca monte fort, très fort jusqu'au Col de la Veille. Mais forcément à la fin on a une belle vue. </t>
+  </si>
+  <si>
+    <t>En juillet je devais participer au trail des Passerelles près de Grenoble et j'avais alors cherché une randonnée dans le coin. Je suis tombé sur la traversée de Belledonne (GR738) et ses alternatives, le tour du Pays de l'Allevard et le tour des Sept-Laux. Je voulais faire une boucle parce que c'est plus simple pour l'organisation. J'ai du mal à estimer quelle distance est réalisable en 5-6 jours. Je pars donc d'Allevard dans l'idée de faire le tour du pays d'Allevard avec possibilité d'ajouter le tour des Sept Laux si j'avance suffisamment.</t>
+  </si>
+  <si>
+    <t>Il faut que je me lève tôt si je ne veux pas arriver trop tard ce soir. Je me lève donc vers 5h30 pour un départ un peu avant 6h. 6h c'est aussi le nombre d'heure de route qui me sépare du départ ce cette randonnée, Allevard. J'arrive au village vers 12h. Aujourd'hui c'est jour de marché, j'en profite pour acheter du pain, du fromage et de la charcuterie pour le casse croute des prochains jours.</t>
+  </si>
+  <si>
+    <t>Je remplis mes stocks d'eau et en avant. Le chemin s'élève des la sortie du village et pas qu'un peu.  Comme je n'ai qu'une demi-journée pour arriver jusqu'au refuge de la pierre du carré je ne suis pas le sentier du GR qui contourne le massif du Grand Collet par le Nord mais j'emprunte le sentier forestier qui monte vers le Collet d'Allevard. Le début du sentier traverse régulièrement et longe parfois la route. Je passe par un chantier d'enfouissement de canalisation, interdit au public mais aujourd'hui c'est férié donc ca passe. Au bout d'une heure d'effort je me rends compte que j'ai oublié le chargeur de ma montre. Décidemment j'oublie toujours quelque chose. Mais ca va ce n'est pas indispensable. Il y a beaucoup de champignon sur le chemin. Faudrait que j'apprenne à les reconnaitre ca pourrait servir.</t>
+  </si>
+  <si>
+    <t>L'étape continue sur une pente plus douce. Souvent le passage est traversé par de gros éboulis de pierres. La portion calme ne dure pas et la pente se durcit et ce jusqu'au refuge de la pierre du carré. J'y arrive vers 16h. Je fais une petite pause et installe ma tente sur la zone de bivouac un peu au dessus du refuge. Puis comme il est encore tôt je vais faire une balade sans sac au Col du Claran voisin. Je croise pas mal de randonneurs qui descendent vers le refuge. Malheureusement quand j'arrive en haut la vue est bouchée par les nuages.</t>
+  </si>
+  <si>
+    <t>Avec le vent qui se lève et le soleil caché derrière les nuages il fait tout de suite plus frisquet. D'ailleurs j'ai bien fait de monter ma tente plus tôt car j'aurais surement bien galéré avec le vent. Je ne tarde pas trop et vais me réfugier à l'abri de ma tente pour préparer mon repas du soir. Je regarde la suite du parcours mais comme d'habitude je n'arrive pas à me décider sur l'objectif de la journée.</t>
+  </si>
+  <si>
+    <t>Le vent a soufflé toute la nuit et au petit matin la vue est bien dégagée. En face on aperçoit les reliefs du Vercors éclairés par la lumière du matin. Pendant que je déjeune le gardien passe avec ses ânes.</t>
+  </si>
+  <si>
+    <t>La suite est assez plate jusqu’à l'Aup Bernard, un refuge non gardé qui a l'air très accueillant. Une petite barre de céréale et c'est reparti pour de la descente.  En bas je bifurque a droite pour suivre  lac du Leat. Je fais une petite pause près d'un torrent pour me débarbouiller avant de reprendre la montée. Ca monte assez fort dans la foret. J'arrive au chalet du bout vers midi, encore un refuge non gardé bien sympathique.</t>
+  </si>
+  <si>
+    <t>Je fais une bonne pause déjeuner. Aux alentours du chalet il y a plein de framboises et de mures sauvages, un bien bon dessert. La montée continue pendant une bonne heure jusqu'au lac du Léat. Les deux traileuses de ce matin sont aussi là mais elles sont passer par le col de l'Oule. Je fais un petite pause pour étudier mes options et décider de la suite. Il est environ 13h30. Je peux m'arrêter là, continuer jusqu'aux chalet de la Fouetterie (à 2h sur le papier) ou carrément aller jusqu'à la Martinette (encore Xh en plus).</t>
+  </si>
+  <si>
+    <t>Je décide de continuer et aborde donc la longue descente ( 1000m de D-). Une fois arrivé en bas plus qu'à longer le Bréda, passer à coté d'une retenue d'eau et remonter légèrement. Les dernières petites côtes me cassent les pattes après cette grosse étape. Je suis content d'arriver au refuge. Je demande si je peux bivouaquer dans le coin et la gardienne me propose de poser ma tente dans le jardin du refuge. Après cette journée éprouvante je me paye le luxe d'une bonne douche, une petite bière et un bon repas au chaud.</t>
+  </si>
+  <si>
+    <t>Encore un petit effort pour atteindre les premiers lacs. Les plus grands lacs sont des retenues d'eau artificielles donc forcément il y a un peu de béton mais quand on s'éloigne un peu des barrages la vue sur ces immenses étendue d'eau cristalline vaut quand même le détour.</t>
+  </si>
+  <si>
+    <t>Je fais une bonne pause pour manger et surtout décider de la suite de mon parcours. Encore une fois j'hésite sur le chemin à prendre. Je peux continuer vers le lac de Sagne puis descendre vers le Rivier d'Allemont ou  monter vers le Col de la Vache pour aller au Refuge du Habert d'Aiguebelle en passant par le Pas de la Coche. Le temps de marche est à peu près équivalent. Mais passer par le Col dela Vache raccourcit la boucle globale. Dans l'optique d'avoir des journées à peu près équilibré pour la suite je me dirige vers le Rivier d'Allemont. Encore un succession de lacs bien sympa.</t>
+  </si>
+  <si>
+    <t>Une fois le lac de sagne passé la descente commence. La pente est comme de l'autre côté, très raide. En plus on est en début d'après-midi et le soleil tape fort. Heureusement on croise régulièrement les ruisseaux qui cascadent dans la pente. La descente est longue et éprouvante (800m de D-). Une fois arrivé en bas il faut longer la route un bon moment pour rejoindre le village. Je me pose prendre un coca et me renseigne pour le bivouac. Malheureusement il n'y a pas d'endroit prévu à cet effet, camping ou gite avec jardin. On me dirige vers un endroit en contrebas du village  mais ça n'a pas l'air sexy Il est encore tant de repartir pour trouver mieux. Ce qui veut aussi dire de la montée, potentiellement 750 d+ jusqu'au Pas de la Coche. . Il n'est pas encore trop tard et je suis bien physiquement mais c'est dur de repartir alors qu'on pensait se poser. Aller c'est reparti.</t>
+  </si>
+  <si>
+    <t>Ce qu'on vient de descendre il va falloir le remonter. Au début je scrute les alentours du sentier à la recherche d'un endroit plat mais c'est peine perdue. J'hésite plusieurs fois mais je me dis que je peux trouver mieux. Après 40min de montée je commence à en avoir plein les chaussettes, un panneau indique le Pas de la coche à 1h. J'arrive presque en haut et tombe sur un plateau à plat. Je me dit que j'ai trouvé mon lieu de bivouac. Mais je suis pas loin de l'arrivée et suis curieux de voir. Et la c'est le jackpot. Juste avant le col il y a un petit lac avec des emplacement bien plat pour planter sa tente. Je ne pouvais pas espérer mieux. Il y  a d'ailleurs plusieurs campement d'installer.</t>
+  </si>
+  <si>
+    <t>Je me lève un peu avant 7h. Il fait étonnement bon. Je peux sortir de la tente sans me couvrir, ce qui est plutôt rare à presque 2000m d'altitude. Un bon petit déjeuner et c'est reparti pour une nouvelle journée. Je monte un peu pour vraiment atteindre le Pas de la Coche. Puis ça redescend rapidement vers l'Habert d'Aiguebelle. J'en profite pour prendre de l'eau mais je ne prends que 3 litres sur 4 possibles. La descente continue doucement et la vue s'ouvre sur Grenoble.</t>
+  </si>
+  <si>
+    <t>J'arrive juste avant midi au chalet de la Pincerie où j'avais prévu de prendre mon repas et refaire mes stocks d'eau. Malheureusement il est fermé. En vérifiant celui-ci n'est ouvert que pendant la saison hivernale mais ce n'est pas préciser dans le topoguide. Dommage mais ce n'est pas grave j'ai de toute façon de quoi manger de mon sac. Je mange un petit bout et me remet en route.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le chemin remonte légèrement vers le Gros Rocher. Il y a une belle vue de chaque coté avec le Vercors d'un côté et Belledonne de l'autre. Il fait bien chaud  et mes réserves d'eau commencent à être critiques. En arrivant au refuge je constate qu'il y a vraiment beaucoup de monde. C'est accessible en voiture mais quand même. En fait c'est la fête du Crêt du Poulet. Mais du coup le refuge ne fonctionne pas de manière normale. Il y a un repas d'organiser et il fallait réserver. Finalement après un peu de discussion le gardien me sort un assiette de taboulé avec un peu de fromage. Ca fera l'affaire. autre petite surprise le refuge n'a pas de source d'eau. Ils vendent bien de l'eau en bouteille mais bon. La source la plus proche est un peu en contrebas mais pas sur mon parcours. J'y descends sans sac pour faire le plein. </t>
+  </si>
+  <si>
+    <t>En partant ce matin je pensais bivouaquer avant de redescendre sur Allevard. Mais finalement je suis arrivé plus tôt que prévu et le monde au refuge ne m'incite pas a rester. J'amorce donc la descente. Celle-ci est longue et sans grand intérêt. Par chance en arrivant a Montouvard une voiture m'aborde et me propose de m'emmener jusqu'a Allevard ce qui m'évite une bonne heure de descente par une chaleur insupportable.</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1652,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1528,11 +1753,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1660,6 +1941,49 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1978,11 +2302,772 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A32FA2-DD41-4986-9069-65F3EAA8BDE6}">
+  <dimension ref="A1:E100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B62" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="121.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="154.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="75">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="60.75" thickBot="1">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>470</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>462</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="105">
+      <c r="A11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>463</v>
+      </c>
+      <c r="C12" t="s">
+        <v>464</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="75.75" thickBot="1">
+      <c r="A13" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A14" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>466</v>
+      </c>
+      <c r="C14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="60.75" thickBot="1">
+      <c r="A15" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A16" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A17" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="50"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A18" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30">
+      <c r="A19" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1">
+      <c r="A20" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1">
+      <c r="A21" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>500</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>501</v>
+      </c>
+      <c r="D21" s="56"/>
+    </row>
+    <row r="22" spans="1:4" ht="45">
+      <c r="A22" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="D22" s="56"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A23" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>498</v>
+      </c>
+      <c r="D23" s="56"/>
+    </row>
+    <row r="24" spans="1:4" ht="75.75" thickBot="1">
+      <c r="A24" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>510</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>497</v>
+      </c>
+      <c r="D25" s="56"/>
+    </row>
+    <row r="26" spans="1:4" ht="60">
+      <c r="A26" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>511</v>
+      </c>
+      <c r="D26" s="56"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>496</v>
+      </c>
+      <c r="C27" t="s">
+        <v>495</v>
+      </c>
+      <c r="D27" s="56"/>
+    </row>
+    <row r="28" spans="1:4" ht="45">
+      <c r="A28" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>458</v>
+      </c>
+      <c r="D28" s="56"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>493</v>
+      </c>
+      <c r="D29" s="56"/>
+    </row>
+    <row r="30" spans="1:4" ht="75">
+      <c r="A30" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D30" s="56"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="56"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A32" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="56"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>477</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="165.75" thickBot="1">
+      <c r="A34" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="135">
+      <c r="A35" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="D35" s="56"/>
+    </row>
+    <row r="36" spans="1:4" ht="25.5" customHeight="1">
+      <c r="A36" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>492</v>
+      </c>
+      <c r="D36" s="56"/>
+    </row>
+    <row r="37" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A37" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>513</v>
+      </c>
+      <c r="D37" s="56"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A38" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>490</v>
+      </c>
+      <c r="C38" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A39" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A40" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>488</v>
+      </c>
+      <c r="C40" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="75.75" thickBot="1">
+      <c r="A41" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="40.5" customHeight="1" thickBot="1">
+      <c r="A42" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="105.75" thickBot="1">
+      <c r="A43" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A44" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>485</v>
+      </c>
+      <c r="C44" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="90.75" thickBot="1">
+      <c r="A45" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A46" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="61" t="s">
+        <v>467</v>
+      </c>
+      <c r="C46" s="28"/>
+    </row>
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A47" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="61" t="s">
+        <v>468</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A48" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A49" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="52"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A50" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="52"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A51" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A52" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>484</v>
+      </c>
+      <c r="C52" s="28"/>
+    </row>
+    <row r="53" spans="1:4" ht="60.75" thickBot="1">
+      <c r="A53" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="62" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="104.25" customHeight="1" thickBot="1">
+      <c r="A54" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="60" t="s">
+        <v>475</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="104.25" customHeight="1">
+      <c r="A55" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="60" t="s">
+        <v>478</v>
+      </c>
+      <c r="C55" t="s">
+        <v>479</v>
+      </c>
+      <c r="D55" s="60"/>
+    </row>
+    <row r="56" spans="1:4" ht="104.25" customHeight="1">
+      <c r="A56" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="60" t="s">
+        <v>481</v>
+      </c>
+      <c r="D56" s="60"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="60">
+      <c r="A58" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="60" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="150">
+      <c r="A59" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="60" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="105">
+      <c r="A60" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="60" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="60" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="60">
+      <c r="A62" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="60" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="45">
+      <c r="A63" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="60" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="12"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="B65" s="12"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="B66" s="12"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="B67" s="12"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="B68" s="12"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="B69" s="12"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="B70" s="12"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="B71" s="12"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="B72" s="12"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="B73" s="12"/>
+    </row>
+    <row r="74" spans="1:3" ht="29.25" customHeight="1">
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="B75" s="12"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="7"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="30"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="30"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="7"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="30"/>
+    </row>
+    <row r="79" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A79" s="39"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="41"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="42"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="44"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="33"/>
+      <c r="B81" s="12"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="33"/>
+      <c r="B82" s="12"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="33"/>
+      <c r="B83" s="12"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="33"/>
+      <c r="B84" s="12"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="33"/>
+      <c r="B85" s="12"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="33"/>
+      <c r="B86" s="12"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="B87" s="12"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88" s="12"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="B89" s="12"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="B90" s="30"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="B91" s="21"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="B92" s="26"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="B93" s="40"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="B94" s="43"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="B95" s="12"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="B96" s="12"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="12"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="12"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="12"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A76:A79" xr:uid="{8890489E-01C9-411B-8CCA-BE26B5241DB9}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A87:A1048576 A1:A13 A53:A63 A17:A50" xr:uid="{3858C34E-DE85-4ECF-B06A-9A0FE543944F}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1996,28 +3081,28 @@
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="49"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="28.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2034,7 +3119,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="3"/>
@@ -2045,7 +3130,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="3"/>
@@ -2077,7 +3162,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
@@ -2086,8 +3171,8 @@
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>413</v>
+      <c r="B9" s="26" t="s">
+        <v>461</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="3"/>
@@ -2098,7 +3183,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -2108,7 +3193,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -2118,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -2128,7 +3213,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1">
@@ -2136,7 +3221,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="105">
@@ -2144,7 +3229,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
@@ -2152,7 +3237,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2174,7 +3259,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="45">
@@ -2182,7 +3267,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1">
@@ -2190,7 +3275,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="75">
@@ -2198,7 +3283,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="135">
@@ -2206,7 +3291,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="45">
@@ -2214,7 +3299,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="135">
@@ -2222,7 +3307,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="60">
@@ -2230,7 +3315,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="135">
@@ -2238,7 +3323,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="150">
@@ -2246,7 +3331,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="90">
@@ -2254,7 +3339,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="150">
@@ -2262,7 +3347,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="45">
@@ -2270,7 +3355,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="135">
@@ -2278,7 +3363,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="120">
@@ -2286,7 +3371,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.25" customHeight="1">
@@ -2294,13 +3379,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D34" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2324,7 +3409,7 @@
         <v>24</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="105">
@@ -2332,7 +3417,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C38" s="30"/>
     </row>
@@ -2341,10 +3426,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="45">
@@ -2352,7 +3437,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C40" s="44"/>
     </row>
@@ -2361,7 +3446,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30">
@@ -2369,7 +3454,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="135">
@@ -2377,7 +3462,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="120">
@@ -2385,7 +3470,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="75">
@@ -2393,7 +3478,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2416,7 +3501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
@@ -2438,10 +3523,10 @@
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="49"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -2467,19 +3552,19 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" t="s">
         <v>215</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -2659,7 +3744,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
@@ -2720,7 +3805,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="3"/>
@@ -2751,13 +3836,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2786,7 +3871,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -2817,7 +3902,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="3"/>
@@ -2848,7 +3933,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="3"/>
@@ -2879,7 +3964,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="3"/>
@@ -2910,7 +3995,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="3"/>
@@ -2941,7 +4026,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="3"/>
@@ -2972,7 +4057,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="3"/>
@@ -3003,13 +4088,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -3038,7 +4123,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="3"/>
@@ -3069,7 +4154,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="3"/>
@@ -3100,7 +4185,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="3"/>
@@ -3192,7 +4277,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -3222,7 +4307,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="3"/>
@@ -3253,10 +4338,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -3286,7 +4371,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -3317,7 +4402,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="3"/>
@@ -3348,13 +4433,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="D30" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -3383,7 +4468,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="3"/>
@@ -3414,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="3"/>
@@ -3445,7 +4530,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="11"/>
@@ -3476,7 +4561,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="3"/>
@@ -3507,7 +4592,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="3"/>
@@ -3599,7 +4684,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
@@ -3629,7 +4714,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="3"/>
@@ -3660,7 +4745,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="3"/>
@@ -3691,7 +4776,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="3"/>
@@ -3722,7 +4807,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="3"/>
@@ -3753,7 +4838,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="3"/>
@@ -3784,7 +4869,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="3"/>
@@ -9479,11 +10564,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
@@ -9502,10 +10587,10 @@
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="49"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -9531,19 +10616,19 @@
     </row>
     <row r="2" spans="1:25" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>219</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>220</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -9600,7 +10685,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="3"/>
@@ -9631,7 +10716,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="3"/>
@@ -9720,7 +10805,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="3"/>
@@ -9754,7 +10839,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
@@ -9784,7 +10869,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="3"/>
@@ -9815,7 +10900,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="3"/>
@@ -9846,7 +10931,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="3"/>
@@ -9877,13 +10962,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -9912,7 +10997,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="3"/>
@@ -9943,7 +11028,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="3"/>
@@ -9974,7 +11059,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="3"/>
@@ -10005,7 +11090,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="3"/>
@@ -10036,7 +11121,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="3"/>
@@ -10070,13 +11155,13 @@
         <v>29.3</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -10165,7 +11250,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -10195,7 +11280,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="3"/>
@@ -10226,13 +11311,13 @@
         <v>3</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>226</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>227</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -10261,7 +11346,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="3"/>
@@ -10292,7 +11377,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="3"/>
@@ -10323,7 +11408,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="3"/>
@@ -10354,7 +11439,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="3"/>
@@ -10385,7 +11470,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="11"/>
@@ -10416,7 +11501,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="3"/>
@@ -10447,7 +11532,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="3"/>
@@ -10478,7 +11563,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="3"/>
@@ -10509,7 +11594,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="3"/>
@@ -10540,7 +11625,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="3"/>
@@ -10571,7 +11656,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="3"/>
@@ -10605,13 +11690,13 @@
         <v>23.8</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -10700,7 +11785,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
@@ -10730,7 +11815,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="3"/>
@@ -10761,7 +11846,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="3"/>
@@ -10792,7 +11877,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="11"/>
@@ -10823,7 +11908,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="3"/>
@@ -10854,7 +11939,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="3"/>
@@ -10885,7 +11970,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="3"/>
@@ -10919,13 +12004,13 @@
         <v>14.4</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -11014,7 +12099,7 @@
         <v>33</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
@@ -11044,7 +12129,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="3"/>
@@ -11075,7 +12160,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="3"/>
@@ -11106,7 +12191,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="3"/>
@@ -11137,7 +12222,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="3"/>
@@ -11168,7 +12253,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="3"/>
@@ -11199,7 +12284,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="11"/>
@@ -11230,7 +12315,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="3"/>
@@ -11261,7 +12346,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="3"/>
@@ -11292,7 +12377,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="3"/>
@@ -11323,7 +12408,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="3"/>
@@ -11354,7 +12439,7 @@
         <v>4</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="3"/>
@@ -11388,13 +12473,13 @@
         <v>17.5</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="E61" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -11483,7 +12568,7 @@
         <v>40</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
@@ -11513,7 +12598,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="3"/>
@@ -11544,7 +12629,7 @@
         <v>3</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="3"/>
@@ -11575,7 +12660,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="3"/>
@@ -11606,7 +12691,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="3"/>
@@ -11637,7 +12722,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="3"/>
@@ -11668,7 +12753,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="3"/>
@@ -11699,7 +12784,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="3"/>
@@ -11730,7 +12815,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="3"/>
@@ -11761,7 +12846,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="11"/>
@@ -11792,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="11"/>
@@ -11826,13 +12911,13 @@
         <v>19.5</v>
       </c>
       <c r="C75" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -11921,7 +13006,7 @@
         <v>49</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="4"/>
@@ -11951,7 +13036,7 @@
         <v>4</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="3"/>
@@ -11982,7 +13067,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="3"/>
@@ -12013,7 +13098,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="3"/>
@@ -12044,10 +13129,10 @@
         <v>3</v>
       </c>
       <c r="B82" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>249</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="4"/>
@@ -12077,7 +13162,7 @@
         <v>4</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="3"/>
@@ -12108,7 +13193,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="4"/>
@@ -12138,7 +13223,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="4"/>
@@ -12168,7 +13253,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="11"/>
@@ -12199,7 +13284,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="3"/>
@@ -12233,13 +13318,13 @@
         <v>22</v>
       </c>
       <c r="C88" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D88" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="E88" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
@@ -12329,7 +13414,7 @@
         <v>56</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="4"/>
@@ -12359,7 +13444,7 @@
         <v>4</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="3"/>
@@ -12390,7 +13475,7 @@
         <v>4</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="3"/>
@@ -12421,10 +13506,10 @@
         <v>3</v>
       </c>
       <c r="B94" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="4"/>
@@ -12454,7 +13539,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="3"/>
@@ -12485,7 +13570,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="11"/>
@@ -12516,7 +13601,7 @@
         <v>4</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="3"/>
@@ -12547,7 +13632,7 @@
         <v>4</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="3"/>
@@ -12578,7 +13663,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="3"/>
@@ -12609,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="3"/>
@@ -12643,13 +13728,13 @@
         <v>17.7</v>
       </c>
       <c r="C101" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -12735,10 +13820,10 @@
         <v>2</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="4"/>
@@ -12768,7 +13853,7 @@
         <v>4</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="3"/>
@@ -12799,7 +13884,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="3"/>
@@ -12830,7 +13915,7 @@
         <v>4</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="3"/>
@@ -12861,7 +13946,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="3"/>
@@ -12892,7 +13977,7 @@
         <v>4</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="3"/>
@@ -12923,7 +14008,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="3"/>
@@ -12954,7 +14039,7 @@
         <v>4</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="3"/>
@@ -12985,10 +14070,10 @@
         <v>3</v>
       </c>
       <c r="B112" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C112" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>261</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="4"/>
@@ -13021,13 +14106,13 @@
         <v>21.3</v>
       </c>
       <c r="C113" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="E113" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -16613,12 +17698,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -16634,10 +17719,10 @@
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="49"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -16662,19 +17747,19 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>328</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>329</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -16762,7 +17847,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="3"/>
@@ -16822,7 +17907,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="3"/>
@@ -16882,7 +17967,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="3"/>
@@ -17062,7 +18147,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="3"/>
@@ -17122,7 +18207,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="3"/>
@@ -17182,7 +18267,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="3"/>
@@ -17332,10 +18417,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>277</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>278</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
@@ -17394,7 +18479,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="3"/>
@@ -17454,7 +18539,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="3"/>
@@ -17514,7 +18599,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="3"/>
@@ -17574,7 +18659,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="3"/>
@@ -17724,7 +18809,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="3"/>
@@ -17784,10 +18869,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
@@ -17846,7 +18931,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="3"/>
@@ -17906,7 +18991,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="3"/>
@@ -18086,10 +19171,10 @@
         <v>3</v>
       </c>
       <c r="B49" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>289</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
@@ -18148,7 +19233,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="3"/>
@@ -18208,7 +19293,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="3"/>
@@ -18268,7 +19353,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="3"/>
@@ -18328,7 +19413,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="3"/>
@@ -18508,10 +19593,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>294</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>295</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="4"/>
@@ -18570,7 +19655,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="3"/>
@@ -18630,7 +19715,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="3"/>
@@ -18810,7 +19895,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="3"/>
@@ -18870,7 +19955,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="3"/>
@@ -18930,7 +20015,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="3"/>
@@ -19110,7 +20195,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="3"/>
@@ -19170,7 +20255,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="3"/>
@@ -19230,7 +20315,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="3"/>
@@ -19410,7 +20495,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="3"/>
@@ -19470,7 +20555,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="3"/>
@@ -19530,10 +20615,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>307</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="4"/>
@@ -19561,8 +20646,8 @@
       <c r="A98" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>76</v>
+      <c r="B98" s="26" t="s">
+        <v>473</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="3"/>
@@ -19592,7 +20677,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="3"/>
@@ -19678,13 +20763,13 @@
         <v>2</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="D102" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -19712,7 +20797,7 @@
         <v>4</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="3"/>
@@ -19742,7 +20827,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="3"/>
@@ -19772,7 +20857,7 @@
         <v>4</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="3"/>
@@ -19802,7 +20887,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="4"/>
@@ -19831,7 +20916,7 @@
         <v>4</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="3"/>
@@ -19861,7 +20946,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="3"/>
@@ -19891,7 +20976,7 @@
         <v>4</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="3"/>
@@ -19921,7 +21006,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="3"/>
@@ -20007,13 +21092,13 @@
         <v>2</v>
       </c>
       <c r="B113" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="D113" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -20041,7 +21126,7 @@
         <v>4</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="3"/>
@@ -20071,10 +21156,10 @@
         <v>3</v>
       </c>
       <c r="B115" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C115" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>314</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="4"/>
@@ -20103,7 +21188,7 @@
         <v>4</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C116" s="8"/>
       <c r="D116" s="3"/>
@@ -20133,7 +21218,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="3"/>
@@ -20163,7 +21248,7 @@
         <v>4</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="3"/>
@@ -20249,13 +21334,13 @@
         <v>2</v>
       </c>
       <c r="B121" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C121" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="D121" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -20283,7 +21368,7 @@
         <v>4</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="3"/>
@@ -20313,7 +21398,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="3"/>
@@ -20343,7 +21428,7 @@
         <v>4</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="3"/>
@@ -20373,7 +21458,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="3"/>
@@ -20403,7 +21488,7 @@
         <v>4</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C126" s="8"/>
       <c r="D126" s="3"/>
@@ -20433,7 +21518,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="3"/>
@@ -20463,7 +21548,7 @@
         <v>4</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="3"/>
@@ -20549,13 +21634,13 @@
         <v>2</v>
       </c>
       <c r="B131" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C131" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="D131" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -20583,7 +21668,7 @@
         <v>4</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="3"/>
@@ -20613,7 +21698,7 @@
         <v>3</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C133" s="8"/>
       <c r="D133" s="3"/>
@@ -20643,7 +21728,7 @@
         <v>4</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="3"/>
@@ -20673,7 +21758,7 @@
         <v>3</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="3"/>
@@ -20703,7 +21788,7 @@
         <v>4</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="3"/>
@@ -20733,7 +21818,7 @@
         <v>3</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C137" s="8"/>
       <c r="D137" s="3"/>
@@ -20763,7 +21848,7 @@
         <v>4</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="3"/>
@@ -20849,10 +21934,10 @@
         <v>2</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="4"/>
@@ -20881,7 +21966,7 @@
         <v>4</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C142" s="8"/>
       <c r="D142" s="3"/>
@@ -20911,7 +21996,7 @@
         <v>3</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="3"/>
@@ -20941,7 +22026,7 @@
         <v>4</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="3"/>
@@ -20971,7 +22056,7 @@
         <v>4</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C145" s="8"/>
       <c r="D145" s="3"/>
@@ -21001,7 +22086,7 @@
         <v>4</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="3"/>
@@ -21031,10 +22116,10 @@
         <v>3</v>
       </c>
       <c r="B147" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C147" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>324</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="4"/>
@@ -21063,7 +22148,7 @@
         <v>4</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C148" s="8"/>
       <c r="D148" s="3"/>
@@ -21093,7 +22178,7 @@
         <v>3</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C149" s="8"/>
       <c r="D149" s="3"/>
@@ -21123,7 +22208,7 @@
         <v>4</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C150" s="8"/>
       <c r="D150" s="3"/>
@@ -21153,7 +22238,7 @@
         <v>3</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C151" s="8"/>
       <c r="D151" s="3"/>
@@ -22058,7 +23143,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A3:A152" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
@@ -22068,7 +23153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -22088,28 +23173,28 @@
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="49"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -22133,7 +23218,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -22156,12 +23241,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22176,28 +23261,28 @@
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="49"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -22213,7 +23298,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="58.5" customHeight="1">
@@ -22221,7 +23306,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="150">
@@ -22229,7 +23314,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1">
@@ -22237,7 +23322,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="90">
@@ -22245,7 +23330,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="180">
@@ -22253,7 +23338,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45">
@@ -22261,7 +23346,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -22284,7 +23369,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -22292,7 +23377,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" customHeight="1">
@@ -22300,7 +23385,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45">
@@ -22308,7 +23393,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25" customHeight="1">
@@ -22316,10 +23401,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" t="s">
         <v>353</v>
-      </c>
-      <c r="C17" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -22327,7 +23412,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -22341,7 +23426,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -22364,7 +23449,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="120">
@@ -22372,7 +23457,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -22386,7 +23471,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -22400,7 +23485,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -22429,7 +23514,7 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -22443,7 +23528,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -22456,7 +23541,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -22469,17 +23554,17 @@
         <v>4</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -22490,7 +23575,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="60">
@@ -22498,7 +23583,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -22511,7 +23596,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="90">
@@ -22519,7 +23604,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30">
@@ -22527,7 +23612,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -22548,7 +23633,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="90">
@@ -22556,7 +23641,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -22569,7 +23654,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -22590,7 +23675,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="105">
@@ -22598,7 +23683,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -22611,7 +23696,7 @@
         <v>4</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -22637,7 +23722,7 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="45">
@@ -22645,7 +23730,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -22658,7 +23743,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -22671,7 +23756,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -22697,7 +23782,7 @@
         <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="30">
@@ -22705,7 +23790,7 @@
         <v>4</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -22719,7 +23804,7 @@
         <v>4</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="60">
@@ -22727,7 +23812,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -22741,7 +23826,7 @@
         <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -22755,7 +23840,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -22768,10 +23853,10 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="45">
@@ -22779,7 +23864,7 @@
         <v>4</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -22792,7 +23877,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="45">
@@ -22800,7 +23885,7 @@
         <v>4</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -22818,10 +23903,10 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="45">
@@ -22829,7 +23914,7 @@
         <v>4</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -22842,7 +23927,7 @@
         <v>4</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -22855,7 +23940,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -22868,7 +23953,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -22891,10 +23976,10 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="45">
@@ -22902,7 +23987,7 @@
         <v>4</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -22915,7 +24000,7 @@
         <v>4</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -22928,7 +24013,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="60">
@@ -22936,7 +24021,7 @@
         <v>4</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -22954,18 +24039,18 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
+        <v>401</v>
+      </c>
+      <c r="C110" t="s">
         <v>402</v>
-      </c>
-      <c r="C110" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="45">
       <c r="A111" t="s">
         <v>4</v>
       </c>
-      <c r="B111" s="12" t="s">
-        <v>404</v>
+      <c r="B111" s="24" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="112" spans="1:3">
